--- a/consolidado_historico4.xlsx
+++ b/consolidado_historico4.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H514"/>
+  <dimension ref="A1:H634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7">
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2608</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="8">
@@ -688,7 +688,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024/02/19</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13">
@@ -790,7 +790,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>11408</v>
+        <v>17630</v>
       </c>
     </row>
     <row r="19">
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>484</v>
+        <v>803</v>
       </c>
     </row>
     <row r="20">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024/02/19</t>
+          <t>2024/03/16</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>7692</v>
+        <v>9307</v>
       </c>
     </row>
     <row r="21">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024/02/22</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>193</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26">
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>18838</v>
+        <v>25150</v>
       </c>
     </row>
     <row r="28">
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>9</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29">
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>32331</v>
+        <v>43145</v>
       </c>
     </row>
     <row r="31">
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>16611</v>
+        <v>22786</v>
       </c>
     </row>
     <row r="32">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1459,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33">
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>4116</v>
+        <v>5573</v>
       </c>
     </row>
     <row r="35">
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>126</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>16618</v>
+        <v>27359</v>
       </c>
     </row>
     <row r="37">
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>3195</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="38">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>13140</v>
+        <v>18213</v>
       </c>
     </row>
     <row r="39">
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>30110</v>
+        <v>44230</v>
       </c>
     </row>
     <row r="40">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>3973</v>
+        <v>5659</v>
       </c>
     </row>
     <row r="41">
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>57</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42">
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>6718</v>
+        <v>6996</v>
       </c>
     </row>
     <row r="44">
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>16657</v>
+        <v>24586</v>
       </c>
     </row>
     <row r="45">
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>225</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46">
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>111</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2024/02/28</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>23968</v>
+        <v>28174</v>
       </c>
     </row>
     <row r="48">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>6452</v>
+        <v>8029</v>
       </c>
     </row>
     <row r="49">
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>743</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="50">
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>17180</v>
+        <v>22511</v>
       </c>
     </row>
     <row r="53">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>3050</v>
+        <v>4919</v>
       </c>
     </row>
     <row r="55">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>9242</v>
+        <v>12029</v>
       </c>
     </row>
     <row r="56">
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>4426</v>
+        <v>8063</v>
       </c>
     </row>
     <row r="57">
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>1003</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="58">
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>52826</v>
+        <v>74248</v>
       </c>
     </row>
     <row r="59">
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>64</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60">
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>13698</v>
+        <v>14924</v>
       </c>
     </row>
     <row r="61">
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>11120</v>
+        <v>15137</v>
       </c>
     </row>
     <row r="62">
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>13899</v>
+        <v>15421</v>
       </c>
     </row>
     <row r="63">
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>40</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="64">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>9734</v>
+        <v>13036</v>
       </c>
     </row>
     <row r="66">
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>19852</v>
+        <v>27562</v>
       </c>
     </row>
     <row r="67">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2024/02/19</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>7628</v>
+        <v>8131</v>
       </c>
     </row>
     <row r="68">
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>20556</v>
+        <v>24053</v>
       </c>
     </row>
     <row r="69">
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71">
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>12250</v>
+        <v>16024</v>
       </c>
     </row>
     <row r="72">
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>18615</v>
+        <v>24803</v>
       </c>
     </row>
     <row r="74">
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>3405</v>
+        <v>4714</v>
       </c>
     </row>
     <row r="75">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>73963</v>
+        <v>92286</v>
       </c>
     </row>
     <row r="76">
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>19990</v>
+        <v>30902</v>
       </c>
     </row>
     <row r="77">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>131</v>
+        <v>176</v>
       </c>
     </row>
     <row r="78">
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>3722</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="79">
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>8623</v>
+        <v>11915</v>
       </c>
     </row>
     <row r="80">
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>123918</v>
+        <v>135386</v>
       </c>
     </row>
     <row r="81">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>4201</v>
+        <v>5546</v>
       </c>
     </row>
     <row r="82">
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>191</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83">
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>6986</v>
+        <v>9918</v>
       </c>
     </row>
     <row r="84">
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>20202</v>
+        <v>26058</v>
       </c>
     </row>
     <row r="85">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>13243</v>
+        <v>18140</v>
       </c>
     </row>
     <row r="86">
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>959</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="87">
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>1304</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="88">
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>8514</v>
+        <v>12743</v>
       </c>
     </row>
     <row r="89">
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>60250</v>
+        <v>81342</v>
       </c>
     </row>
     <row r="90">
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>733</v>
+        <v>932</v>
       </c>
     </row>
     <row r="91">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3465,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>1131</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="92">
@@ -3499,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93">
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>14045</v>
+        <v>17516</v>
       </c>
     </row>
     <row r="94">
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>4348</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="95">
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>10996</v>
+        <v>14293</v>
       </c>
     </row>
     <row r="96">
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>4020</v>
+        <v>5926</v>
       </c>
     </row>
     <row r="97">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2024/02/19</t>
+          <t>2024/03/16</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>5316</v>
+        <v>7693</v>
       </c>
     </row>
     <row r="98">
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>6354</v>
+        <v>8594</v>
       </c>
     </row>
     <row r="99">
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>54092</v>
+        <v>69611</v>
       </c>
     </row>
     <row r="100">
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>35289</v>
+        <v>44374</v>
       </c>
     </row>
     <row r="101">
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>62256</v>
+        <v>80936</v>
       </c>
     </row>
     <row r="102">
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>16864</v>
+        <v>21979</v>
       </c>
     </row>
     <row r="103">
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>20585</v>
+        <v>25816</v>
       </c>
     </row>
     <row r="105">
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>950</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="106">
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>36885</v>
+        <v>47046</v>
       </c>
     </row>
     <row r="107">
@@ -4009,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>1024</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="108">
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>3325</v>
+        <v>4125</v>
       </c>
     </row>
     <row r="109">
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>112</v>
+        <v>224</v>
       </c>
     </row>
     <row r="110">
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>25939</v>
+        <v>36085</v>
       </c>
     </row>
     <row r="111">
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>71940</v>
+        <v>94899</v>
       </c>
     </row>
     <row r="112">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>4883</v>
+        <v>6692</v>
       </c>
     </row>
     <row r="113">
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>77576</v>
+        <v>99402</v>
       </c>
     </row>
     <row r="114">
@@ -4224,7 +4224,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4247,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>1411</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="115">
@@ -4281,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>193409</v>
+        <v>233982</v>
       </c>
     </row>
     <row r="116">
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>55172</v>
+        <v>82203</v>
       </c>
     </row>
     <row r="117">
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>9968</v>
+        <v>12512</v>
       </c>
     </row>
     <row r="118">
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>7175</v>
+        <v>7194</v>
       </c>
     </row>
     <row r="119">
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>3845</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="120">
@@ -4451,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>12789</v>
+        <v>16732</v>
       </c>
     </row>
     <row r="121">
@@ -4462,7 +4462,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>5674</v>
+        <v>10111</v>
       </c>
     </row>
     <row r="122">
@@ -4519,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="123">
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>10672</v>
+        <v>15598</v>
       </c>
     </row>
     <row r="124">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2024/03/03</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>153473</v>
+        <v>216191</v>
       </c>
     </row>
     <row r="125">
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>9522</v>
+        <v>12184</v>
       </c>
     </row>
     <row r="126">
@@ -4655,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>17608</v>
+        <v>23499</v>
       </c>
     </row>
     <row r="127">
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>1232</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="128">
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>16714</v>
+        <v>21470</v>
       </c>
     </row>
     <row r="129">
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>128</v>
+        <v>165</v>
       </c>
     </row>
     <row r="130">
@@ -4791,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>150492</v>
+        <v>227046</v>
       </c>
     </row>
     <row r="131">
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>26298</v>
+        <v>37535</v>
       </c>
     </row>
     <row r="132">
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>19336</v>
+        <v>26063</v>
       </c>
     </row>
     <row r="133">
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>24979</v>
+        <v>31929</v>
       </c>
     </row>
     <row r="134">
@@ -4927,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>3298</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="135">
@@ -4961,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>287</v>
+        <v>371</v>
       </c>
     </row>
     <row r="136">
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>9063</v>
+        <v>13519</v>
       </c>
     </row>
     <row r="137">
@@ -5006,7 +5006,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5029,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>10964</v>
+        <v>14620</v>
       </c>
     </row>
     <row r="138">
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>223</v>
+        <v>289</v>
       </c>
     </row>
     <row r="139">
@@ -5097,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>8207</v>
+        <v>15155</v>
       </c>
     </row>
     <row r="140">
@@ -5131,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>2952</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="141">
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>951</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="142">
@@ -5199,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>25181</v>
+        <v>30273</v>
       </c>
     </row>
     <row r="143">
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="145">
@@ -5301,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>210</v>
+        <v>273</v>
       </c>
     </row>
     <row r="146">
@@ -5335,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>13098</v>
+        <v>17193</v>
       </c>
     </row>
     <row r="147">
@@ -5346,7 +5346,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5369,7 +5369,7 @@
         <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="148">
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>6624</v>
+        <v>9499</v>
       </c>
     </row>
     <row r="149">
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>13343</v>
+        <v>17693</v>
       </c>
     </row>
     <row r="150">
@@ -5471,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>253</v>
+        <v>338</v>
       </c>
     </row>
     <row r="151">
@@ -5505,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>695</v>
+        <v>890</v>
       </c>
     </row>
     <row r="152">
@@ -5516,7 +5516,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5539,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>31906</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="153">
@@ -5573,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>9248</v>
+        <v>12538</v>
       </c>
     </row>
     <row r="154">
@@ -5607,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="H154" t="n">
-        <v>9535</v>
+        <v>12756</v>
       </c>
     </row>
     <row r="155">
@@ -5641,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>2396</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="156">
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>45504</v>
+        <v>61505</v>
       </c>
     </row>
     <row r="157">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>31858</v>
+        <v>46971</v>
       </c>
     </row>
     <row r="158">
@@ -5743,7 +5743,7 @@
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>19592</v>
+        <v>31413</v>
       </c>
     </row>
     <row r="159">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>3265</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="160">
@@ -5811,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>17812</v>
+        <v>22160</v>
       </c>
     </row>
     <row r="161">
@@ -5822,7 +5822,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5845,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>14634</v>
+        <v>18949</v>
       </c>
     </row>
     <row r="162">
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>35787</v>
+        <v>44444</v>
       </c>
     </row>
     <row r="163">
@@ -5890,7 +5890,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5913,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>1938</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="164">
@@ -5947,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>31196</v>
+        <v>42951</v>
       </c>
     </row>
     <row r="165">
@@ -5981,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="n">
-        <v>6869</v>
+        <v>7067</v>
       </c>
     </row>
     <row r="166">
@@ -6015,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>41020</v>
+        <v>42045</v>
       </c>
     </row>
     <row r="167">
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>74</v>
+        <v>880</v>
       </c>
     </row>
     <row r="168">
@@ -6060,7 +6060,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="169">
@@ -6117,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="H169" t="n">
-        <v>8993</v>
+        <v>15481</v>
       </c>
     </row>
     <row r="170">
@@ -6151,7 +6151,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>66282</v>
+        <v>85378</v>
       </c>
     </row>
     <row r="171">
@@ -6185,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>107</v>
+        <v>190</v>
       </c>
     </row>
     <row r="172">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6219,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>667</v>
+        <v>858</v>
       </c>
     </row>
     <row r="173">
@@ -6253,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>13498</v>
+        <v>16498</v>
       </c>
     </row>
     <row r="174">
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>13382</v>
+        <v>16893</v>
       </c>
     </row>
     <row r="175">
@@ -6321,7 +6321,7 @@
         <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>16092</v>
+        <v>24508</v>
       </c>
     </row>
     <row r="176">
@@ -6355,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>1445</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="177">
@@ -6389,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="H177" t="n">
-        <v>10214</v>
+        <v>13369</v>
       </c>
     </row>
     <row r="178">
@@ -6423,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>33267</v>
+        <v>44219</v>
       </c>
     </row>
     <row r="179">
@@ -6457,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>15015</v>
+        <v>18195</v>
       </c>
     </row>
     <row r="180">
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>27339</v>
+        <v>27611</v>
       </c>
     </row>
     <row r="181">
@@ -6502,7 +6502,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6525,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="H181" t="n">
-        <v>71254</v>
+        <v>99596</v>
       </c>
     </row>
     <row r="182">
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>2573</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="183">
@@ -6593,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="H183" t="n">
-        <v>122</v>
+        <v>164</v>
       </c>
     </row>
     <row r="184">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6627,7 +6627,7 @@
         <v>0</v>
       </c>
       <c r="H184" t="n">
-        <v>30008</v>
+        <v>39604</v>
       </c>
     </row>
     <row r="185">
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>9949</v>
+        <v>12693</v>
       </c>
     </row>
     <row r="186">
@@ -6695,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>26392</v>
+        <v>36237</v>
       </c>
     </row>
     <row r="187">
@@ -6729,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="n">
-        <v>478</v>
+        <v>610</v>
       </c>
     </row>
     <row r="188">
@@ -6740,7 +6740,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6763,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>6050</v>
+        <v>9274</v>
       </c>
     </row>
     <row r="189">
@@ -6797,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="n">
-        <v>22390</v>
+        <v>31350</v>
       </c>
     </row>
     <row r="190">
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="H190" t="n">
-        <v>1962</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="191">
@@ -6899,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>51628</v>
+        <v>67321</v>
       </c>
     </row>
     <row r="193">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -6933,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="n">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="194">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6967,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>5325</v>
+        <v>6781</v>
       </c>
     </row>
     <row r="195">
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>14563</v>
+        <v>18783</v>
       </c>
     </row>
     <row r="196">
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>15792</v>
+        <v>22800</v>
       </c>
     </row>
     <row r="197">
@@ -7069,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>17735</v>
+        <v>21253</v>
       </c>
     </row>
     <row r="198">
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="n">
-        <v>41</v>
+        <v>62</v>
       </c>
     </row>
     <row r="199">
@@ -7114,7 +7114,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2024/02/23</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -7137,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="n">
-        <v>1640</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="200">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="n">
-        <v>20090</v>
+        <v>25254</v>
       </c>
     </row>
     <row r="201">
@@ -7182,7 +7182,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2023/10/31</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -7205,7 +7205,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="n">
-        <v>112</v>
+        <v>167</v>
       </c>
     </row>
     <row r="202">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2024/02/06</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -7239,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="n">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="203">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2023/03/28</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -7273,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="H203" t="n">
-        <v>957</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="204">
@@ -7307,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>2602</v>
+        <v>3763</v>
       </c>
     </row>
     <row r="205">
@@ -7341,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="n">
-        <v>3020</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="206">
@@ -7375,7 +7375,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>90896</v>
+        <v>139559</v>
       </c>
     </row>
     <row r="207">
@@ -7409,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="n">
-        <v>580</v>
+        <v>739</v>
       </c>
     </row>
     <row r="208">
@@ -7443,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="n">
-        <v>4997</v>
+        <v>6269</v>
       </c>
     </row>
     <row r="209">
@@ -7477,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="H209" t="n">
-        <v>2732</v>
+        <v>5729</v>
       </c>
     </row>
     <row r="210">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>56337</v>
+        <v>79019</v>
       </c>
     </row>
     <row r="211">
@@ -7545,7 +7545,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>30617</v>
+        <v>41859</v>
       </c>
     </row>
     <row r="212">
@@ -7579,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="n">
-        <v>26009</v>
+        <v>36966</v>
       </c>
     </row>
     <row r="213">
@@ -7613,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="H213" t="n">
-        <v>11702</v>
+        <v>14961</v>
       </c>
     </row>
     <row r="214">
@@ -7647,7 +7647,7 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>8218</v>
+        <v>10550</v>
       </c>
     </row>
     <row r="215">
@@ -7681,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="n">
-        <v>18368</v>
+        <v>24476</v>
       </c>
     </row>
     <row r="216">
@@ -7715,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="n">
-        <v>24656</v>
+        <v>32659</v>
       </c>
     </row>
     <row r="217">
@@ -7749,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="n">
-        <v>30093</v>
+        <v>39812</v>
       </c>
     </row>
     <row r="218">
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="n">
-        <v>11826</v>
+        <v>16790</v>
       </c>
     </row>
     <row r="219">
@@ -7817,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="n">
-        <v>13082</v>
+        <v>15878</v>
       </c>
     </row>
     <row r="220">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>33260</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="221">
@@ -7885,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>14246</v>
+        <v>14738</v>
       </c>
     </row>
     <row r="222">
@@ -7919,7 +7919,7 @@
         <v>0</v>
       </c>
       <c r="H222" t="n">
-        <v>16768</v>
+        <v>21425</v>
       </c>
     </row>
     <row r="223">
@@ -7953,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>62637</v>
+        <v>78287</v>
       </c>
     </row>
     <row r="224">
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="n">
-        <v>36424</v>
+        <v>47767</v>
       </c>
     </row>
     <row r="225">
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="n">
-        <v>5551</v>
+        <v>7338</v>
       </c>
     </row>
     <row r="226">
@@ -8032,7 +8032,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -8055,7 +8055,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="n">
-        <v>13432</v>
+        <v>21024</v>
       </c>
     </row>
     <row r="227">
@@ -8089,7 +8089,7 @@
         <v>0</v>
       </c>
       <c r="H227" t="n">
-        <v>1119</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="228">
@@ -8123,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>1883</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="229">
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="H229" t="n">
-        <v>47</v>
+        <v>68</v>
       </c>
     </row>
     <row r="230">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>149</v>
+        <v>220</v>
       </c>
     </row>
     <row r="231">
@@ -8225,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="H231" t="n">
-        <v>98</v>
+        <v>122</v>
       </c>
     </row>
     <row r="232">
@@ -8259,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="H232" t="n">
-        <v>315</v>
+        <v>390</v>
       </c>
     </row>
     <row r="233">
@@ -8293,7 +8293,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>463</v>
+        <v>630</v>
       </c>
     </row>
     <row r="234">
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="H234" t="n">
-        <v>39638</v>
+        <v>55085</v>
       </c>
     </row>
     <row r="235">
@@ -8361,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="H235" t="n">
-        <v>121</v>
+        <v>159</v>
       </c>
     </row>
     <row r="236">
@@ -8395,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="H236" t="n">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="237">
@@ -8406,7 +8406,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -8429,7 +8429,7 @@
         <v>0</v>
       </c>
       <c r="H237" t="n">
-        <v>9510</v>
+        <v>11351</v>
       </c>
     </row>
     <row r="238">
@@ -8463,7 +8463,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>31494</v>
+        <v>48270</v>
       </c>
     </row>
     <row r="239">
@@ -8497,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="H239" t="n">
-        <v>24896</v>
+        <v>32804</v>
       </c>
     </row>
     <row r="240">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="n">
-        <v>21693</v>
+        <v>30329</v>
       </c>
     </row>
     <row r="241">
@@ -8542,7 +8542,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2024/02/26</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -8565,7 +8565,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>8349</v>
+        <v>10538</v>
       </c>
     </row>
     <row r="242">
@@ -8599,7 +8599,7 @@
         <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>18075</v>
+        <v>22947</v>
       </c>
     </row>
     <row r="243">
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>20335</v>
+        <v>28637</v>
       </c>
     </row>
     <row r="244">
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="n">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="245">
@@ -8678,7 +8678,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="n">
-        <v>9811</v>
+        <v>13052</v>
       </c>
     </row>
     <row r="246">
@@ -8735,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="H246" t="n">
-        <v>5019</v>
+        <v>10372</v>
       </c>
     </row>
     <row r="247">
@@ -8746,7 +8746,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="n">
-        <v>595</v>
+        <v>677</v>
       </c>
     </row>
     <row r="248">
@@ -8780,7 +8780,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -8803,7 +8803,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="n">
-        <v>234</v>
+        <v>321</v>
       </c>
     </row>
     <row r="249">
@@ -8837,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="n">
-        <v>110</v>
+        <v>165</v>
       </c>
     </row>
     <row r="250">
@@ -8848,7 +8848,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="H250" t="n">
-        <v>17012</v>
+        <v>23051</v>
       </c>
     </row>
     <row r="251">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2024/01/23</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -8905,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="H251" t="n">
-        <v>14246</v>
+        <v>18497</v>
       </c>
     </row>
     <row r="252">
@@ -8973,7 +8973,7 @@
         <v>0</v>
       </c>
       <c r="H253" t="n">
-        <v>263</v>
+        <v>408</v>
       </c>
     </row>
     <row r="254">
@@ -9007,7 +9007,7 @@
         <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>2975</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="255">
@@ -9041,7 +9041,7 @@
         <v>0</v>
       </c>
       <c r="H255" t="n">
-        <v>183</v>
+        <v>246</v>
       </c>
     </row>
     <row r="256">
@@ -9075,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>7980</v>
+        <v>13154</v>
       </c>
     </row>
     <row r="257">
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="n">
-        <v>10676</v>
+        <v>10760</v>
       </c>
     </row>
     <row r="258">
@@ -9143,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>19931</v>
+        <v>25052</v>
       </c>
     </row>
     <row r="259">
@@ -9154,7 +9154,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -9177,7 +9177,7 @@
         <v>0</v>
       </c>
       <c r="H259" t="n">
-        <v>11079</v>
+        <v>14652</v>
       </c>
     </row>
     <row r="260">
@@ -9211,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="H260" t="n">
-        <v>41558</v>
+        <v>74536</v>
       </c>
     </row>
     <row r="261">
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="H261" t="n">
-        <v>11976</v>
+        <v>16051</v>
       </c>
     </row>
     <row r="262">
@@ -9279,7 +9279,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="n">
-        <v>1895</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="263">
@@ -9313,7 +9313,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="n">
-        <v>14662</v>
+        <v>20973</v>
       </c>
     </row>
     <row r="264">
@@ -9347,7 +9347,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="n">
-        <v>9538</v>
+        <v>15727</v>
       </c>
     </row>
     <row r="265">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -9381,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="H265" t="n">
-        <v>60752</v>
+        <v>77954</v>
       </c>
     </row>
     <row r="266">
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="H266" t="n">
-        <v>18375</v>
+        <v>24497</v>
       </c>
     </row>
     <row r="267">
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="H267" t="n">
-        <v>37</v>
+        <v>57</v>
       </c>
     </row>
     <row r="268">
@@ -9460,7 +9460,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>2024/02/17</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -9483,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="H268" t="n">
-        <v>11650</v>
+        <v>12482</v>
       </c>
     </row>
     <row r="269">
@@ -9494,7 +9494,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -9517,7 +9517,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="n">
-        <v>6177</v>
+        <v>9620</v>
       </c>
     </row>
     <row r="270">
@@ -9551,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="H270" t="n">
-        <v>20244</v>
+        <v>25819</v>
       </c>
     </row>
     <row r="271">
@@ -9585,7 +9585,7 @@
         <v>0</v>
       </c>
       <c r="H271" t="n">
-        <v>5799</v>
+        <v>7760</v>
       </c>
     </row>
     <row r="272">
@@ -9596,7 +9596,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -9619,7 +9619,7 @@
         <v>0</v>
       </c>
       <c r="H272" t="n">
-        <v>392</v>
+        <v>977</v>
       </c>
     </row>
     <row r="273">
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="H273" t="n">
-        <v>7507</v>
+        <v>10316</v>
       </c>
     </row>
     <row r="274">
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="H274" t="n">
-        <v>10659</v>
+        <v>13487</v>
       </c>
     </row>
     <row r="275">
@@ -9721,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="H275" t="n">
-        <v>42278</v>
+        <v>54933</v>
       </c>
     </row>
     <row r="276">
@@ -9755,7 +9755,7 @@
         <v>0</v>
       </c>
       <c r="H276" t="n">
-        <v>54626</v>
+        <v>71212</v>
       </c>
     </row>
     <row r="277">
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="n">
-        <v>6581</v>
+        <v>9531</v>
       </c>
     </row>
     <row r="278">
@@ -9823,7 +9823,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="n">
-        <v>6344</v>
+        <v>8135</v>
       </c>
     </row>
     <row r="279">
@@ -9857,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="n">
-        <v>16075</v>
+        <v>20672</v>
       </c>
     </row>
     <row r="280">
@@ -9891,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="n">
-        <v>25717</v>
+        <v>35109</v>
       </c>
     </row>
     <row r="281">
@@ -9959,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="n">
-        <v>1118</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="283">
@@ -10027,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="H284" t="n">
-        <v>28750</v>
+        <v>37985</v>
       </c>
     </row>
     <row r="285">
@@ -10061,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="H285" t="n">
-        <v>182</v>
+        <v>638</v>
       </c>
     </row>
     <row r="286">
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="n">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="288">
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="n">
-        <v>14983</v>
+        <v>26031</v>
       </c>
     </row>
     <row r="289">
@@ -10197,7 +10197,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="n">
-        <v>43955</v>
+        <v>67626</v>
       </c>
     </row>
     <row r="290">
@@ -10231,7 +10231,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="n">
-        <v>6910</v>
+        <v>10989</v>
       </c>
     </row>
     <row r="291">
@@ -10265,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="n">
-        <v>16551</v>
+        <v>30523</v>
       </c>
     </row>
     <row r="292">
@@ -10299,7 +10299,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="n">
-        <v>4460</v>
+        <v>6581</v>
       </c>
     </row>
     <row r="293">
@@ -10333,7 +10333,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="n">
-        <v>32754</v>
+        <v>48735</v>
       </c>
     </row>
     <row r="294">
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="n">
-        <v>13768</v>
+        <v>21027</v>
       </c>
     </row>
     <row r="295">
@@ -10401,7 +10401,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="n">
-        <v>11512</v>
+        <v>13162</v>
       </c>
     </row>
     <row r="296">
@@ -10435,7 +10435,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="n">
-        <v>16118</v>
+        <v>20389</v>
       </c>
     </row>
     <row r="297">
@@ -10446,7 +10446,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -10469,7 +10469,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="n">
-        <v>47105</v>
+        <v>74373</v>
       </c>
     </row>
     <row r="298">
@@ -10503,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="n">
-        <v>4825</v>
+        <v>6648</v>
       </c>
     </row>
     <row r="299">
@@ -10514,7 +10514,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -10537,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="H299" t="n">
-        <v>10360</v>
+        <v>13397</v>
       </c>
     </row>
     <row r="300">
@@ -10571,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="H300" t="n">
-        <v>2192</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="301">
@@ -10605,7 +10605,7 @@
         <v>0</v>
       </c>
       <c r="H301" t="n">
-        <v>13795</v>
+        <v>18740</v>
       </c>
     </row>
     <row r="302">
@@ -10639,7 +10639,7 @@
         <v>0</v>
       </c>
       <c r="H302" t="n">
-        <v>12770</v>
+        <v>16576</v>
       </c>
     </row>
     <row r="303">
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="H303" t="n">
-        <v>31035</v>
+        <v>40447</v>
       </c>
     </row>
     <row r="304">
@@ -10718,7 +10718,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>2024/02/26</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -10741,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="H305" t="n">
-        <v>30921</v>
+        <v>39830</v>
       </c>
     </row>
     <row r="306">
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="H306" t="n">
-        <v>19142</v>
+        <v>26345</v>
       </c>
     </row>
     <row r="307">
@@ -10809,7 +10809,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="n">
-        <v>365</v>
+        <v>418</v>
       </c>
     </row>
     <row r="308">
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="n">
-        <v>4010</v>
+        <v>6148</v>
       </c>
     </row>
     <row r="309">
@@ -10877,7 +10877,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="n">
-        <v>38916</v>
+        <v>52051</v>
       </c>
     </row>
     <row r="310">
@@ -10911,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="n">
-        <v>7412</v>
+        <v>10195</v>
       </c>
     </row>
     <row r="311">
@@ -10945,7 +10945,7 @@
         <v>0</v>
       </c>
       <c r="H311" t="n">
-        <v>137533</v>
+        <v>180701</v>
       </c>
     </row>
     <row r="312">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="n">
-        <v>19881</v>
+        <v>22912</v>
       </c>
     </row>
     <row r="313">
@@ -11013,7 +11013,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="n">
-        <v>2535</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="314">
@@ -11047,7 +11047,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="n">
-        <v>30167</v>
+        <v>42405</v>
       </c>
     </row>
     <row r="315">
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="n">
-        <v>13523</v>
+        <v>20021</v>
       </c>
     </row>
     <row r="316">
@@ -11115,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="n">
-        <v>44342</v>
+        <v>54158</v>
       </c>
     </row>
     <row r="317">
@@ -11160,7 +11160,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -11183,7 +11183,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="n">
-        <v>55166</v>
+        <v>66646</v>
       </c>
     </row>
     <row r="319">
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="n">
-        <v>24735</v>
+        <v>30701</v>
       </c>
     </row>
     <row r="320">
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="n">
-        <v>50425</v>
+        <v>64974</v>
       </c>
     </row>
     <row r="321">
@@ -11262,7 +11262,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>2024/01/24</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -11285,7 +11285,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="n">
-        <v>123</v>
+        <v>167</v>
       </c>
     </row>
     <row r="322">
@@ -11319,7 +11319,7 @@
         <v>0</v>
       </c>
       <c r="H322" t="n">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="323">
@@ -11353,7 +11353,7 @@
         <v>0</v>
       </c>
       <c r="H323" t="n">
-        <v>1170</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="324">
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="H324" t="n">
-        <v>4231</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="325">
@@ -11398,7 +11398,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>2024/02/05</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -11421,7 +11421,7 @@
         <v>0</v>
       </c>
       <c r="H325" t="n">
-        <v>26290</v>
+        <v>34022</v>
       </c>
     </row>
     <row r="326">
@@ -11455,7 +11455,7 @@
         <v>0</v>
       </c>
       <c r="H326" t="n">
-        <v>9723</v>
+        <v>13327</v>
       </c>
     </row>
     <row r="327">
@@ -11489,7 +11489,7 @@
         <v>0</v>
       </c>
       <c r="H327" t="n">
-        <v>30112</v>
+        <v>39945</v>
       </c>
     </row>
     <row r="328">
@@ -11523,7 +11523,7 @@
         <v>0</v>
       </c>
       <c r="H328" t="n">
-        <v>13371</v>
+        <v>18722</v>
       </c>
     </row>
     <row r="329">
@@ -11557,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="n">
-        <v>17172</v>
+        <v>21719</v>
       </c>
     </row>
     <row r="330">
@@ -11568,7 +11568,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -11591,7 +11591,7 @@
         <v>0</v>
       </c>
       <c r="H330" t="n">
-        <v>33132</v>
+        <v>45870</v>
       </c>
     </row>
     <row r="331">
@@ -11602,7 +11602,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -11625,7 +11625,7 @@
         <v>0</v>
       </c>
       <c r="H331" t="n">
-        <v>1772</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="332">
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="H332" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="333">
@@ -11693,7 +11693,7 @@
         <v>0</v>
       </c>
       <c r="H333" t="n">
-        <v>41</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="334">
@@ -11761,7 +11761,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="n">
-        <v>49140</v>
+        <v>60707</v>
       </c>
     </row>
     <row r="336">
@@ -11772,7 +11772,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>2024/02/19</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -11795,7 +11795,7 @@
         <v>0</v>
       </c>
       <c r="H336" t="n">
-        <v>10599</v>
+        <v>13411</v>
       </c>
     </row>
     <row r="337">
@@ -11829,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="n">
-        <v>15424</v>
+        <v>16883</v>
       </c>
     </row>
     <row r="338">
@@ -11840,7 +11840,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -11863,7 +11863,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="n">
-        <v>33662</v>
+        <v>44759</v>
       </c>
     </row>
     <row r="339">
@@ -11931,7 +11931,7 @@
         <v>0</v>
       </c>
       <c r="H340" t="n">
-        <v>117</v>
+        <v>345</v>
       </c>
     </row>
     <row r="341">
@@ -11942,7 +11942,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -11965,7 +11965,7 @@
         <v>0</v>
       </c>
       <c r="H341" t="n">
-        <v>42748</v>
+        <v>57303</v>
       </c>
     </row>
     <row r="342">
@@ -11999,7 +11999,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="n">
-        <v>12263</v>
+        <v>19033</v>
       </c>
     </row>
     <row r="343">
@@ -12033,7 +12033,7 @@
         <v>0</v>
       </c>
       <c r="H343" t="n">
-        <v>108</v>
+        <v>291</v>
       </c>
     </row>
     <row r="344">
@@ -12067,7 +12067,7 @@
         <v>0</v>
       </c>
       <c r="H344" t="n">
-        <v>17667</v>
+        <v>23568</v>
       </c>
     </row>
     <row r="345">
@@ -12078,7 +12078,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -12101,7 +12101,7 @@
         <v>0</v>
       </c>
       <c r="H345" t="n">
-        <v>1589</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="346">
@@ -12135,7 +12135,7 @@
         <v>0</v>
       </c>
       <c r="H346" t="n">
-        <v>48980</v>
+        <v>49072</v>
       </c>
     </row>
     <row r="347">
@@ -12146,7 +12146,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -12169,7 +12169,7 @@
         <v>0</v>
       </c>
       <c r="H347" t="n">
-        <v>9759</v>
+        <v>10163</v>
       </c>
     </row>
     <row r="348">
@@ -12203,7 +12203,7 @@
         <v>0</v>
       </c>
       <c r="H348" t="n">
-        <v>4175</v>
+        <v>5522</v>
       </c>
     </row>
     <row r="349">
@@ -12237,7 +12237,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="n">
-        <v>8764</v>
+        <v>11196</v>
       </c>
     </row>
     <row r="350">
@@ -12271,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="H350" t="n">
-        <v>105987</v>
+        <v>132125</v>
       </c>
     </row>
     <row r="351">
@@ -12282,7 +12282,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -12305,7 +12305,7 @@
         <v>0</v>
       </c>
       <c r="H351" t="n">
-        <v>25235</v>
+        <v>36253</v>
       </c>
     </row>
     <row r="352">
@@ -12339,7 +12339,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="n">
-        <v>8287</v>
+        <v>11357</v>
       </c>
     </row>
     <row r="353">
@@ -12350,7 +12350,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -12373,7 +12373,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="n">
-        <v>24536</v>
+        <v>32603</v>
       </c>
     </row>
     <row r="354">
@@ -12384,7 +12384,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -12407,7 +12407,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="n">
-        <v>155</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="355">
@@ -12441,7 +12441,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="n">
-        <v>5824</v>
+        <v>8440</v>
       </c>
     </row>
     <row r="356">
@@ -12452,7 +12452,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -12475,7 +12475,7 @@
         <v>0</v>
       </c>
       <c r="H356" t="n">
-        <v>14689</v>
+        <v>18749</v>
       </c>
     </row>
     <row r="357">
@@ -12509,7 +12509,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="n">
-        <v>21266</v>
+        <v>33351</v>
       </c>
     </row>
     <row r="358">
@@ -12543,7 +12543,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="n">
-        <v>25693</v>
+        <v>32982</v>
       </c>
     </row>
     <row r="359">
@@ -12577,7 +12577,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="n">
-        <v>66376</v>
+        <v>87273</v>
       </c>
     </row>
     <row r="360">
@@ -12588,7 +12588,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -12611,7 +12611,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="n">
-        <v>9955</v>
+        <v>12554</v>
       </c>
     </row>
     <row r="361">
@@ -12645,7 +12645,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="n">
-        <v>39943</v>
+        <v>50237</v>
       </c>
     </row>
     <row r="362">
@@ -12679,7 +12679,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="n">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="363">
@@ -12690,7 +12690,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="n">
-        <v>21433</v>
+        <v>28708</v>
       </c>
     </row>
     <row r="364">
@@ -12747,7 +12747,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="n">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="365">
@@ -12781,7 +12781,7 @@
         <v>0</v>
       </c>
       <c r="H365" t="n">
-        <v>13077</v>
+        <v>17123</v>
       </c>
     </row>
     <row r="366">
@@ -12815,7 +12815,7 @@
         <v>0</v>
       </c>
       <c r="H366" t="n">
-        <v>1596</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="367">
@@ -12849,7 +12849,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="n">
-        <v>2067</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="368">
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="n">
-        <v>145</v>
+        <v>244</v>
       </c>
     </row>
     <row r="369">
@@ -12917,7 +12917,7 @@
         <v>0</v>
       </c>
       <c r="H369" t="n">
-        <v>8288</v>
+        <v>12841</v>
       </c>
     </row>
     <row r="370">
@@ -12951,7 +12951,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="n">
-        <v>1432</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="371">
@@ -12985,7 +12985,7 @@
         <v>0</v>
       </c>
       <c r="H371" t="n">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="372">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>2024/02/19</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -13019,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="H372" t="n">
-        <v>4155</v>
+        <v>6183</v>
       </c>
     </row>
     <row r="373">
@@ -13053,7 +13053,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="n">
-        <v>6561</v>
+        <v>8853</v>
       </c>
     </row>
     <row r="374">
@@ -13087,7 +13087,7 @@
         <v>0</v>
       </c>
       <c r="H374" t="n">
-        <v>4273</v>
+        <v>6065</v>
       </c>
     </row>
     <row r="375">
@@ -13098,7 +13098,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -13121,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="n">
-        <v>36779</v>
+        <v>54950</v>
       </c>
     </row>
     <row r="376">
@@ -13155,7 +13155,7 @@
         <v>0</v>
       </c>
       <c r="H376" t="n">
-        <v>2869</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="377">
@@ -13166,7 +13166,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>2024/02/19</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -13189,7 +13189,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="n">
-        <v>1556</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="378">
@@ -13200,7 +13200,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -13223,7 +13223,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="n">
-        <v>1396</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="379">
@@ -13257,7 +13257,7 @@
         <v>0</v>
       </c>
       <c r="H379" t="n">
-        <v>25868</v>
+        <v>52850</v>
       </c>
     </row>
     <row r="380">
@@ -13291,7 +13291,7 @@
         <v>0</v>
       </c>
       <c r="H380" t="n">
-        <v>12781</v>
+        <v>16530</v>
       </c>
     </row>
     <row r="381">
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="H381" t="n">
-        <v>233</v>
+        <v>289</v>
       </c>
     </row>
     <row r="382">
@@ -13359,7 +13359,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="n">
-        <v>1231</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="383">
@@ -13393,7 +13393,7 @@
         <v>0</v>
       </c>
       <c r="H383" t="n">
-        <v>13104</v>
+        <v>13374</v>
       </c>
     </row>
     <row r="384">
@@ -13427,7 +13427,7 @@
         <v>0</v>
       </c>
       <c r="H384" t="n">
-        <v>141189</v>
+        <v>177382</v>
       </c>
     </row>
     <row r="385">
@@ -13461,7 +13461,7 @@
         <v>0</v>
       </c>
       <c r="H385" t="n">
-        <v>19610</v>
+        <v>26129</v>
       </c>
     </row>
     <row r="386">
@@ -13472,7 +13472,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -13495,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="H386" t="n">
-        <v>25394</v>
+        <v>33491</v>
       </c>
     </row>
     <row r="387">
@@ -13529,7 +13529,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="n">
-        <v>9454</v>
+        <v>14729</v>
       </c>
     </row>
     <row r="388">
@@ -13540,7 +13540,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -13563,7 +13563,7 @@
         <v>0</v>
       </c>
       <c r="H388" t="n">
-        <v>4668</v>
+        <v>6834</v>
       </c>
     </row>
     <row r="389">
@@ -13597,7 +13597,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="n">
-        <v>91419</v>
+        <v>135802</v>
       </c>
     </row>
     <row r="390">
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="n">
-        <v>637</v>
+        <v>983</v>
       </c>
     </row>
     <row r="391">
@@ -13665,7 +13665,7 @@
         <v>0</v>
       </c>
       <c r="H391" t="n">
-        <v>119</v>
+        <v>158</v>
       </c>
     </row>
     <row r="392">
@@ -13699,7 +13699,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="n">
-        <v>7626</v>
+        <v>9482</v>
       </c>
     </row>
     <row r="393">
@@ -13710,7 +13710,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -13733,7 +13733,7 @@
         <v>0</v>
       </c>
       <c r="H393" t="n">
-        <v>16900</v>
+        <v>22796</v>
       </c>
     </row>
     <row r="394">
@@ -13767,7 +13767,7 @@
         <v>0</v>
       </c>
       <c r="H394" t="n">
-        <v>14803</v>
+        <v>15161</v>
       </c>
     </row>
     <row r="395">
@@ -13801,7 +13801,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="n">
-        <v>6701</v>
+        <v>9092</v>
       </c>
     </row>
     <row r="396">
@@ -13835,7 +13835,7 @@
         <v>0</v>
       </c>
       <c r="H396" t="n">
-        <v>676</v>
+        <v>704</v>
       </c>
     </row>
     <row r="397">
@@ -13846,7 +13846,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -13869,7 +13869,7 @@
         <v>0</v>
       </c>
       <c r="H397" t="n">
-        <v>14704</v>
+        <v>19305</v>
       </c>
     </row>
     <row r="398">
@@ -13903,7 +13903,7 @@
         <v>0</v>
       </c>
       <c r="H398" t="n">
-        <v>52955</v>
+        <v>67401</v>
       </c>
     </row>
     <row r="399">
@@ -13914,7 +13914,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -13937,7 +13937,7 @@
         <v>0</v>
       </c>
       <c r="H399" t="n">
-        <v>15054</v>
+        <v>21957</v>
       </c>
     </row>
     <row r="400">
@@ -13971,7 +13971,7 @@
         <v>0</v>
       </c>
       <c r="H400" t="n">
-        <v>5510</v>
+        <v>7154</v>
       </c>
     </row>
     <row r="401">
@@ -14005,7 +14005,7 @@
         <v>0</v>
       </c>
       <c r="H401" t="n">
-        <v>13938</v>
+        <v>14703</v>
       </c>
     </row>
     <row r="402">
@@ -14039,7 +14039,7 @@
         <v>0</v>
       </c>
       <c r="H402" t="n">
-        <v>3490</v>
+        <v>3851</v>
       </c>
     </row>
     <row r="403">
@@ -14073,7 +14073,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="n">
-        <v>38030</v>
+        <v>50069</v>
       </c>
     </row>
     <row r="404">
@@ -14107,7 +14107,7 @@
         <v>0</v>
       </c>
       <c r="H404" t="n">
-        <v>725</v>
+        <v>782</v>
       </c>
     </row>
     <row r="405">
@@ -14141,7 +14141,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="n">
-        <v>8045</v>
+        <v>10334</v>
       </c>
     </row>
     <row r="406">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>2024/01/05</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -14175,7 +14175,7 @@
         <v>0</v>
       </c>
       <c r="H406" t="n">
-        <v>18439</v>
+        <v>24237</v>
       </c>
     </row>
     <row r="407">
@@ -14209,7 +14209,7 @@
         <v>0</v>
       </c>
       <c r="H407" t="n">
-        <v>11620</v>
+        <v>16115</v>
       </c>
     </row>
     <row r="408">
@@ -14243,7 +14243,7 @@
         <v>0</v>
       </c>
       <c r="H408" t="n">
-        <v>24649</v>
+        <v>57303</v>
       </c>
     </row>
     <row r="409">
@@ -14277,7 +14277,7 @@
         <v>0</v>
       </c>
       <c r="H409" t="n">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="410">
@@ -14311,7 +14311,7 @@
         <v>0</v>
       </c>
       <c r="H410" t="n">
-        <v>8311</v>
+        <v>16602</v>
       </c>
     </row>
     <row r="411">
@@ -14345,7 +14345,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="n">
-        <v>8790</v>
+        <v>11831</v>
       </c>
     </row>
     <row r="412">
@@ -14379,7 +14379,7 @@
         <v>0</v>
       </c>
       <c r="H412" t="n">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="413">
@@ -14413,7 +14413,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="n">
-        <v>188</v>
+        <v>310</v>
       </c>
     </row>
     <row r="414">
@@ -14424,7 +14424,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="H414" t="n">
-        <v>24206</v>
+        <v>30470</v>
       </c>
     </row>
     <row r="415">
@@ -14481,7 +14481,7 @@
         <v>0</v>
       </c>
       <c r="H415" t="n">
-        <v>2001</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="416">
@@ -14515,7 +14515,7 @@
         <v>0</v>
       </c>
       <c r="H416" t="n">
-        <v>15699</v>
+        <v>15939</v>
       </c>
     </row>
     <row r="417">
@@ -14549,7 +14549,7 @@
         <v>0</v>
       </c>
       <c r="H417" t="n">
-        <v>1821</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="418">
@@ -14560,7 +14560,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>2024/02/19</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -14583,7 +14583,7 @@
         <v>0</v>
       </c>
       <c r="H418" t="n">
-        <v>9341</v>
+        <v>16920</v>
       </c>
     </row>
     <row r="419">
@@ -14617,7 +14617,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="n">
-        <v>2775</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="420">
@@ -14651,7 +14651,7 @@
         <v>0</v>
       </c>
       <c r="H420" t="n">
-        <v>13897</v>
+        <v>18386</v>
       </c>
     </row>
     <row r="421">
@@ -14662,7 +14662,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>2024/02/28</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -14685,7 +14685,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="n">
-        <v>10397</v>
+        <v>14901</v>
       </c>
     </row>
     <row r="422">
@@ -14719,7 +14719,7 @@
         <v>0</v>
       </c>
       <c r="H422" t="n">
-        <v>328</v>
+        <v>449</v>
       </c>
     </row>
     <row r="423">
@@ -14730,7 +14730,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -14753,7 +14753,7 @@
         <v>0</v>
       </c>
       <c r="H423" t="n">
-        <v>11753</v>
+        <v>14890</v>
       </c>
     </row>
     <row r="424">
@@ -14787,7 +14787,7 @@
         <v>0</v>
       </c>
       <c r="H424" t="n">
-        <v>12872</v>
+        <v>19515</v>
       </c>
     </row>
     <row r="425">
@@ -14821,7 +14821,7 @@
         <v>0</v>
       </c>
       <c r="H425" t="n">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="426">
@@ -14832,7 +14832,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -14855,7 +14855,7 @@
         <v>0</v>
       </c>
       <c r="H426" t="n">
-        <v>59100</v>
+        <v>76722</v>
       </c>
     </row>
     <row r="427">
@@ -14889,7 +14889,7 @@
         <v>0</v>
       </c>
       <c r="H427" t="n">
-        <v>36373</v>
+        <v>47306</v>
       </c>
     </row>
     <row r="428">
@@ -14900,7 +14900,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -14923,7 +14923,7 @@
         <v>0</v>
       </c>
       <c r="H428" t="n">
-        <v>19199</v>
+        <v>24668</v>
       </c>
     </row>
     <row r="429">
@@ -14957,7 +14957,7 @@
         <v>0</v>
       </c>
       <c r="H429" t="n">
-        <v>14154</v>
+        <v>19222</v>
       </c>
     </row>
     <row r="430">
@@ -14991,7 +14991,7 @@
         <v>0</v>
       </c>
       <c r="H430" t="n">
-        <v>39300</v>
+        <v>48857</v>
       </c>
     </row>
     <row r="431">
@@ -15025,7 +15025,7 @@
         <v>0</v>
       </c>
       <c r="H431" t="n">
-        <v>27815</v>
+        <v>37510</v>
       </c>
     </row>
     <row r="432">
@@ -15059,7 +15059,7 @@
         <v>0</v>
       </c>
       <c r="H432" t="n">
-        <v>637</v>
+        <v>763</v>
       </c>
     </row>
     <row r="433">
@@ -15070,7 +15070,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -15093,7 +15093,7 @@
         <v>0</v>
       </c>
       <c r="H433" t="n">
-        <v>9038</v>
+        <v>10707</v>
       </c>
     </row>
     <row r="434">
@@ -15127,7 +15127,7 @@
         <v>0</v>
       </c>
       <c r="H434" t="n">
-        <v>47932</v>
+        <v>81854</v>
       </c>
     </row>
     <row r="435">
@@ -15161,7 +15161,7 @@
         <v>0</v>
       </c>
       <c r="H435" t="n">
-        <v>25271</v>
+        <v>34207</v>
       </c>
     </row>
     <row r="436">
@@ -15172,7 +15172,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -15195,7 +15195,7 @@
         <v>0</v>
       </c>
       <c r="H436" t="n">
-        <v>3421</v>
+        <v>4087</v>
       </c>
     </row>
     <row r="437">
@@ -15229,7 +15229,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="n">
-        <v>7746</v>
+        <v>11208</v>
       </c>
     </row>
     <row r="438">
@@ -15240,7 +15240,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -15263,7 +15263,7 @@
         <v>0</v>
       </c>
       <c r="H438" t="n">
-        <v>4400</v>
+        <v>5884</v>
       </c>
     </row>
     <row r="439">
@@ -15297,7 +15297,7 @@
         <v>0</v>
       </c>
       <c r="H439" t="n">
-        <v>61</v>
+        <v>86</v>
       </c>
     </row>
     <row r="440">
@@ -15308,7 +15308,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -15331,7 +15331,7 @@
         <v>0</v>
       </c>
       <c r="H440" t="n">
-        <v>607</v>
+        <v>684</v>
       </c>
     </row>
     <row r="441">
@@ -15365,7 +15365,7 @@
         <v>0</v>
       </c>
       <c r="H441" t="n">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="442">
@@ -15399,7 +15399,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="n">
-        <v>2232</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="443">
@@ -15410,7 +15410,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -15433,7 +15433,7 @@
         <v>0</v>
       </c>
       <c r="H443" t="n">
-        <v>2395</v>
+        <v>7949</v>
       </c>
     </row>
     <row r="444">
@@ -15444,7 +15444,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/17</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -15467,7 +15467,7 @@
         <v>0</v>
       </c>
       <c r="H444" t="n">
-        <v>1331</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="445">
@@ -15501,7 +15501,7 @@
         <v>0</v>
       </c>
       <c r="H445" t="n">
-        <v>8447</v>
+        <v>11495</v>
       </c>
     </row>
     <row r="446">
@@ -15569,7 +15569,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="n">
-        <v>14403</v>
+        <v>18019</v>
       </c>
     </row>
     <row r="448">
@@ -15603,7 +15603,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="n">
-        <v>953</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="449">
@@ -15614,7 +15614,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>2023/12/28</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -15637,7 +15637,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="n">
-        <v>113828</v>
+        <v>143550</v>
       </c>
     </row>
     <row r="450">
@@ -15671,7 +15671,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="n">
-        <v>133</v>
+        <v>213</v>
       </c>
     </row>
     <row r="451">
@@ -15705,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>134</v>
       </c>
     </row>
     <row r="452">
@@ -15739,7 +15739,7 @@
         <v>0</v>
       </c>
       <c r="H452" t="n">
-        <v>230</v>
+        <v>312</v>
       </c>
     </row>
     <row r="453">
@@ -15750,7 +15750,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -15773,7 +15773,7 @@
         <v>0</v>
       </c>
       <c r="H453" t="n">
-        <v>22891</v>
+        <v>29828</v>
       </c>
     </row>
     <row r="454">
@@ -15807,7 +15807,7 @@
         <v>0</v>
       </c>
       <c r="H454" t="n">
-        <v>39531</v>
+        <v>50670</v>
       </c>
     </row>
     <row r="455">
@@ -15841,7 +15841,7 @@
         <v>0</v>
       </c>
       <c r="H455" t="n">
-        <v>29316</v>
+        <v>38486</v>
       </c>
     </row>
     <row r="456">
@@ -15875,7 +15875,7 @@
         <v>0</v>
       </c>
       <c r="H456" t="n">
-        <v>11236</v>
+        <v>15098</v>
       </c>
     </row>
     <row r="457">
@@ -15886,7 +15886,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -15909,7 +15909,7 @@
         <v>0</v>
       </c>
       <c r="H457" t="n">
-        <v>121322</v>
+        <v>162557</v>
       </c>
     </row>
     <row r="458">
@@ -15943,7 +15943,7 @@
         <v>0</v>
       </c>
       <c r="H458" t="n">
-        <v>3642</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="459">
@@ -15977,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="H459" t="n">
-        <v>15586</v>
+        <v>21915</v>
       </c>
     </row>
     <row r="460">
@@ -16011,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="n">
-        <v>8828</v>
+        <v>14586</v>
       </c>
     </row>
     <row r="461">
@@ -16045,7 +16045,7 @@
         <v>0</v>
       </c>
       <c r="H461" t="n">
-        <v>1789</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="462">
@@ -16056,7 +16056,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -16079,7 +16079,7 @@
         <v>0</v>
       </c>
       <c r="H462" t="n">
-        <v>7725</v>
+        <v>9886</v>
       </c>
     </row>
     <row r="463">
@@ -16113,7 +16113,7 @@
         <v>0</v>
       </c>
       <c r="H463" t="n">
-        <v>29974</v>
+        <v>47851</v>
       </c>
     </row>
     <row r="464">
@@ -16124,7 +16124,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>2024/02/23</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -16147,7 +16147,7 @@
         <v>0</v>
       </c>
       <c r="H464" t="n">
-        <v>38187</v>
+        <v>51509</v>
       </c>
     </row>
     <row r="465">
@@ -16181,7 +16181,7 @@
         <v>0</v>
       </c>
       <c r="H465" t="n">
-        <v>39606</v>
+        <v>64697</v>
       </c>
     </row>
     <row r="466">
@@ -16215,7 +16215,7 @@
         <v>0</v>
       </c>
       <c r="H466" t="n">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="467">
@@ -16249,7 +16249,7 @@
         <v>0</v>
       </c>
       <c r="H467" t="n">
-        <v>526</v>
+        <v>906</v>
       </c>
     </row>
     <row r="468">
@@ -16283,7 +16283,7 @@
         <v>0</v>
       </c>
       <c r="H468" t="n">
-        <v>35447</v>
+        <v>89954</v>
       </c>
     </row>
     <row r="469">
@@ -16317,7 +16317,7 @@
         <v>0</v>
       </c>
       <c r="H469" t="n">
-        <v>15292</v>
+        <v>36409</v>
       </c>
     </row>
     <row r="470">
@@ -16351,7 +16351,7 @@
         <v>0</v>
       </c>
       <c r="H470" t="n">
-        <v>787</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="471">
@@ -16362,7 +16362,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -16385,7 +16385,7 @@
         <v>0</v>
       </c>
       <c r="H471" t="n">
-        <v>453</v>
+        <v>935</v>
       </c>
     </row>
     <row r="472">
@@ -16419,7 +16419,7 @@
         <v>0</v>
       </c>
       <c r="H472" t="n">
-        <v>2889</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="473">
@@ -16453,7 +16453,7 @@
         <v>0</v>
       </c>
       <c r="H473" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="474">
@@ -16487,7 +16487,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="n">
-        <v>955</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="475">
@@ -16521,7 +16521,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="n">
-        <v>958</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="476">
@@ -16532,7 +16532,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -16555,7 +16555,7 @@
         <v>0</v>
       </c>
       <c r="H476" t="n">
-        <v>1956</v>
+        <v>4697</v>
       </c>
     </row>
     <row r="477">
@@ -16589,7 +16589,7 @@
         <v>0</v>
       </c>
       <c r="H477" t="n">
-        <v>77257</v>
+        <v>101581</v>
       </c>
     </row>
     <row r="478">
@@ -16657,7 +16657,7 @@
         <v>0</v>
       </c>
       <c r="H479" t="n">
-        <v>2213</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="480">
@@ -16691,7 +16691,7 @@
         <v>0</v>
       </c>
       <c r="H480" t="n">
-        <v>248194</v>
+        <v>806679</v>
       </c>
     </row>
     <row r="481">
@@ -16702,7 +16702,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -16725,7 +16725,7 @@
         <v>0</v>
       </c>
       <c r="H481" t="n">
-        <v>881</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="482">
@@ -16736,7 +16736,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>2024/02/06</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -16759,7 +16759,7 @@
         <v>0</v>
       </c>
       <c r="H482" t="n">
-        <v>190</v>
+        <v>380</v>
       </c>
     </row>
     <row r="483">
@@ -16793,7 +16793,7 @@
         <v>0</v>
       </c>
       <c r="H483" t="n">
-        <v>127</v>
+        <v>573</v>
       </c>
     </row>
     <row r="484">
@@ -16827,7 +16827,7 @@
         <v>0</v>
       </c>
       <c r="H484" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="485">
@@ -16861,7 +16861,7 @@
         <v>0</v>
       </c>
       <c r="H485" t="n">
-        <v>250</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="486">
@@ -16872,7 +16872,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>2024/02/23</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -16895,7 +16895,7 @@
         <v>0</v>
       </c>
       <c r="H486" t="n">
-        <v>49</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="487">
@@ -16929,7 +16929,7 @@
         <v>0</v>
       </c>
       <c r="H487" t="n">
-        <v>40</v>
+        <v>201</v>
       </c>
     </row>
     <row r="488">
@@ -16963,7 +16963,7 @@
         <v>0</v>
       </c>
       <c r="H488" t="n">
-        <v>212</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="489">
@@ -16974,7 +16974,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -16997,7 +16997,7 @@
         <v>0</v>
       </c>
       <c r="H489" t="n">
-        <v>71</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="490">
@@ -17031,7 +17031,7 @@
         <v>0</v>
       </c>
       <c r="H490" t="n">
-        <v>117</v>
+        <v>153</v>
       </c>
     </row>
     <row r="491">
@@ -17065,7 +17065,7 @@
         <v>0</v>
       </c>
       <c r="H491" t="n">
-        <v>239</v>
+        <v>261</v>
       </c>
     </row>
     <row r="492">
@@ -17099,7 +17099,7 @@
         <v>0</v>
       </c>
       <c r="H492" t="n">
-        <v>30</v>
+        <v>327</v>
       </c>
     </row>
     <row r="493">
@@ -17110,7 +17110,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>2024/02/06</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -17133,7 +17133,7 @@
         <v>0</v>
       </c>
       <c r="H493" t="n">
-        <v>30</v>
+        <v>236</v>
       </c>
     </row>
     <row r="494">
@@ -17167,7 +17167,7 @@
         <v>0</v>
       </c>
       <c r="H494" t="n">
-        <v>141</v>
+        <v>916</v>
       </c>
     </row>
     <row r="495">
@@ -17201,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="H495" t="n">
-        <v>411</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="496">
@@ -17212,7 +17212,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -17235,7 +17235,7 @@
         <v>0</v>
       </c>
       <c r="H496" t="n">
-        <v>152</v>
+        <v>926</v>
       </c>
     </row>
     <row r="497">
@@ -17269,7 +17269,7 @@
         <v>0</v>
       </c>
       <c r="H497" t="n">
-        <v>40</v>
+        <v>313</v>
       </c>
     </row>
     <row r="498">
@@ -17303,7 +17303,7 @@
         <v>0</v>
       </c>
       <c r="H498" t="n">
-        <v>26</v>
+        <v>262</v>
       </c>
     </row>
     <row r="499">
@@ -17337,7 +17337,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="n">
-        <v>273</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="500">
@@ -17371,7 +17371,7 @@
         <v>0</v>
       </c>
       <c r="H500" t="n">
-        <v>51</v>
+        <v>477</v>
       </c>
     </row>
     <row r="501">
@@ -17405,7 +17405,7 @@
         <v>0</v>
       </c>
       <c r="H501" t="n">
-        <v>42</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="502">
@@ -17439,7 +17439,7 @@
         <v>0</v>
       </c>
       <c r="H502" t="n">
-        <v>1133</v>
+        <v>14277</v>
       </c>
     </row>
     <row r="503">
@@ -17473,7 +17473,7 @@
         <v>0</v>
       </c>
       <c r="H503" t="n">
-        <v>937</v>
+        <v>5479</v>
       </c>
     </row>
     <row r="504">
@@ -17507,7 +17507,7 @@
         <v>0</v>
       </c>
       <c r="H504" t="n">
-        <v>362</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="505">
@@ -17541,7 +17541,7 @@
         <v>0</v>
       </c>
       <c r="H505" t="n">
-        <v>126</v>
+        <v>674</v>
       </c>
     </row>
     <row r="506">
@@ -17552,7 +17552,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -17575,7 +17575,7 @@
         <v>0</v>
       </c>
       <c r="H506" t="n">
-        <v>25</v>
+        <v>141</v>
       </c>
     </row>
     <row r="507">
@@ -17609,7 +17609,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="n">
-        <v>14</v>
+        <v>559</v>
       </c>
     </row>
     <row r="508">
@@ -17643,7 +17643,7 @@
         <v>0</v>
       </c>
       <c r="H508" t="n">
-        <v>88</v>
+        <v>317</v>
       </c>
     </row>
     <row r="509">
@@ -17677,7 +17677,7 @@
         <v>0</v>
       </c>
       <c r="H509" t="n">
-        <v>36</v>
+        <v>199</v>
       </c>
     </row>
     <row r="510">
@@ -17688,7 +17688,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>2024/03/03</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -17711,7 +17711,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="n">
-        <v>220</v>
+        <v>768</v>
       </c>
     </row>
     <row r="511">
@@ -17745,7 +17745,7 @@
         <v>0</v>
       </c>
       <c r="H511" t="n">
-        <v>12</v>
+        <v>185</v>
       </c>
     </row>
     <row r="512">
@@ -17779,7 +17779,7 @@
         <v>0</v>
       </c>
       <c r="H512" t="n">
-        <v>7</v>
+        <v>89</v>
       </c>
     </row>
     <row r="513">
@@ -17813,7 +17813,7 @@
         <v>0</v>
       </c>
       <c r="H513" t="n">
-        <v>5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="514">
@@ -17847,7 +17847,4087 @@
         <v>0</v>
       </c>
       <c r="H514" t="n">
-        <v>295</v>
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>2024/03/20</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>Municipalidad de Padre Las Casas</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>MU194</t>
+        </is>
+      </c>
+      <c r="E515" t="n">
+        <v>0</v>
+      </c>
+      <c r="F515" t="n">
+        <v>0</v>
+      </c>
+      <c r="G515" t="n">
+        <v>0</v>
+      </c>
+      <c r="H515" t="n">
+        <v>3673</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>2024/03/14</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Peñalolén (CORMUP)</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>CM005</t>
+        </is>
+      </c>
+      <c r="E516" t="n">
+        <v>0</v>
+      </c>
+      <c r="F516" t="n">
+        <v>0</v>
+      </c>
+      <c r="G516" t="n">
+        <v>0</v>
+      </c>
+      <c r="H516" t="n">
+        <v>12288</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>2024/03/13</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>Corporación Cultural Municipalidad de Coyhaique</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>CM106</t>
+        </is>
+      </c>
+      <c r="E517" t="n">
+        <v>0</v>
+      </c>
+      <c r="F517" t="n">
+        <v>0</v>
+      </c>
+      <c r="G517" t="n">
+        <v>0</v>
+      </c>
+      <c r="H517" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>2023/11/14</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades de la Provincia de San Antonio (AMPSA)</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>MA061</t>
+        </is>
+      </c>
+      <c r="E518" t="n">
+        <v>0</v>
+      </c>
+      <c r="F518" t="n">
+        <v>0</v>
+      </c>
+      <c r="G518" t="n">
+        <v>0</v>
+      </c>
+      <c r="H518" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>2024/02/01</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>Corporación Cultural de Peñalolén</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>CM083</t>
+        </is>
+      </c>
+      <c r="E519" t="n">
+        <v>0</v>
+      </c>
+      <c r="F519" t="n">
+        <v>0</v>
+      </c>
+      <c r="G519" t="n">
+        <v>0</v>
+      </c>
+      <c r="H519" t="n">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>2024/03/21</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Deportes de Puente Alto</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>CM189</t>
+        </is>
+      </c>
+      <c r="E520" t="n">
+        <v>0</v>
+      </c>
+      <c r="F520" t="n">
+        <v>0</v>
+      </c>
+      <c r="G520" t="n">
+        <v>0</v>
+      </c>
+      <c r="H520" t="n">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>2024/03/06</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Cultura de Paine</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>CM165</t>
+        </is>
+      </c>
+      <c r="E521" t="n">
+        <v>0</v>
+      </c>
+      <c r="F521" t="n">
+        <v>0</v>
+      </c>
+      <c r="G521" t="n">
+        <v>0</v>
+      </c>
+      <c r="H521" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>2024/03/18</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Deporte y Recreación de Recoleta</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>CM180</t>
+        </is>
+      </c>
+      <c r="E522" t="n">
+        <v>0</v>
+      </c>
+      <c r="F522" t="n">
+        <v>0</v>
+      </c>
+      <c r="G522" t="n">
+        <v>0</v>
+      </c>
+      <c r="H522" t="n">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>2024/03/07</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades de la cuenca del Lago Llanquihue</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>MA052</t>
+        </is>
+      </c>
+      <c r="E523" t="n">
+        <v>0</v>
+      </c>
+      <c r="F523" t="n">
+        <v>0</v>
+      </c>
+      <c r="G523" t="n">
+        <v>0</v>
+      </c>
+      <c r="H523" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>2024/02/19</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Deportes y Recreación de Antofagasta</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>CM197</t>
+        </is>
+      </c>
+      <c r="E524" t="n">
+        <v>0</v>
+      </c>
+      <c r="F524" t="n">
+        <v>0</v>
+      </c>
+      <c r="G524" t="n">
+        <v>0</v>
+      </c>
+      <c r="H524" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>2024/03/04</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>Corporación Cultural Isla de Maipo</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>CM094</t>
+        </is>
+      </c>
+      <c r="E525" t="n">
+        <v>0</v>
+      </c>
+      <c r="F525" t="n">
+        <v>0</v>
+      </c>
+      <c r="G525" t="n">
+        <v>0</v>
+      </c>
+      <c r="H525" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>2023/07/14</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Servicios y Desarrollo de Maipú (CODEDUC)</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>CM007</t>
+        </is>
+      </c>
+      <c r="E526" t="n">
+        <v>0</v>
+      </c>
+      <c r="F526" t="n">
+        <v>0</v>
+      </c>
+      <c r="G526" t="n">
+        <v>0</v>
+      </c>
+      <c r="H526" t="n">
+        <v>14266</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>2024/03/01</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>Corporación Cultural de la Comuna de La Granja</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>CM070</t>
+        </is>
+      </c>
+      <c r="E527" t="n">
+        <v>0</v>
+      </c>
+      <c r="F527" t="n">
+        <v>0</v>
+      </c>
+      <c r="G527" t="n">
+        <v>0</v>
+      </c>
+      <c r="H527" t="n">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>2024/03/11</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>Corporación Cultural de Nacimiento</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>CM080</t>
+        </is>
+      </c>
+      <c r="E528" t="n">
+        <v>0</v>
+      </c>
+      <c r="F528" t="n">
+        <v>0</v>
+      </c>
+      <c r="G528" t="n">
+        <v>0</v>
+      </c>
+      <c r="H528" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>2024/03/13</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>Corporación Municipal Costa Chinchorro de Arica</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>CM152</t>
+        </is>
+      </c>
+      <c r="E529" t="n">
+        <v>0</v>
+      </c>
+      <c r="F529" t="n">
+        <v>0</v>
+      </c>
+      <c r="G529" t="n">
+        <v>0</v>
+      </c>
+      <c r="H529" t="n">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>2024/03/12</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>Corporación Cultural de Vitacura</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>CM092</t>
+        </is>
+      </c>
+      <c r="E530" t="n">
+        <v>0</v>
+      </c>
+      <c r="F530" t="n">
+        <v>0</v>
+      </c>
+      <c r="G530" t="n">
+        <v>0</v>
+      </c>
+      <c r="H530" t="n">
+        <v>3666</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>2024/03/08</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>Fundación Centro Cultural de Lo Prado</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>FU010</t>
+        </is>
+      </c>
+      <c r="E531" t="n">
+        <v>0</v>
+      </c>
+      <c r="F531" t="n">
+        <v>0</v>
+      </c>
+      <c r="G531" t="n">
+        <v>0</v>
+      </c>
+      <c r="H531" t="n">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>2024/03/13</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Desarrollo Económico de Peñalolén (YUNUS)</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>CM234</t>
+        </is>
+      </c>
+      <c r="E532" t="n">
+        <v>0</v>
+      </c>
+      <c r="F532" t="n">
+        <v>0</v>
+      </c>
+      <c r="G532" t="n">
+        <v>0</v>
+      </c>
+      <c r="H532" t="n">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>2024/03/04</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>Corporación de Deportes y Recreación de San Javier Loncomilla</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>CM230</t>
+        </is>
+      </c>
+      <c r="E533" t="n">
+        <v>0</v>
+      </c>
+      <c r="F533" t="n">
+        <v>0</v>
+      </c>
+      <c r="G533" t="n">
+        <v>0</v>
+      </c>
+      <c r="H533" t="n">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>2024/03/11</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>Corporación de Deportes y Recreación de Peñalolén</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>CM133</t>
+        </is>
+      </c>
+      <c r="E534" t="n">
+        <v>0</v>
+      </c>
+      <c r="F534" t="n">
+        <v>0</v>
+      </c>
+      <c r="G534" t="n">
+        <v>0</v>
+      </c>
+      <c r="H534" t="n">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>2024/03/14</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>Corporación de Deporte de Los Andes</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>CM120</t>
+        </is>
+      </c>
+      <c r="E535" t="n">
+        <v>0</v>
+      </c>
+      <c r="F535" t="n">
+        <v>0</v>
+      </c>
+      <c r="G535" t="n">
+        <v>0</v>
+      </c>
+      <c r="H535" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>2024/03/13</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>Corporación de Cultura y Turismo de Calama</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>CM116</t>
+        </is>
+      </c>
+      <c r="E536" t="n">
+        <v>0</v>
+      </c>
+      <c r="F536" t="n">
+        <v>0</v>
+      </c>
+      <c r="G536" t="n">
+        <v>0</v>
+      </c>
+      <c r="H536" t="n">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>2023/01/16</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Desarrollo Social de Los Muermos</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>CM214</t>
+        </is>
+      </c>
+      <c r="E537" t="n">
+        <v>0</v>
+      </c>
+      <c r="F537" t="n">
+        <v>0</v>
+      </c>
+      <c r="G537" t="n">
+        <v>0</v>
+      </c>
+      <c r="H537" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>2024/03/12</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Deporte de Romeral</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>CM177</t>
+        </is>
+      </c>
+      <c r="E538" t="n">
+        <v>0</v>
+      </c>
+      <c r="F538" t="n">
+        <v>0</v>
+      </c>
+      <c r="G538" t="n">
+        <v>0</v>
+      </c>
+      <c r="H538" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>2024/03/04</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Fomento Al Desarrollo Económico y Productivo de Estación Central</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>CM219</t>
+        </is>
+      </c>
+      <c r="E539" t="n">
+        <v>0</v>
+      </c>
+      <c r="F539" t="n">
+        <v>0</v>
+      </c>
+      <c r="G539" t="n">
+        <v>0</v>
+      </c>
+      <c r="H539" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>2024/03/06</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>Corporación Cultural Social y Deportiva Municipal de Quilicura</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>CM110</t>
+        </is>
+      </c>
+      <c r="E540" t="n">
+        <v>0</v>
+      </c>
+      <c r="F540" t="n">
+        <v>0</v>
+      </c>
+      <c r="G540" t="n">
+        <v>0</v>
+      </c>
+      <c r="H540" t="n">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>2024/03/11</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Deportes de Colina</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>CM122</t>
+        </is>
+      </c>
+      <c r="E541" t="n">
+        <v>0</v>
+      </c>
+      <c r="F541" t="n">
+        <v>0</v>
+      </c>
+      <c r="G541" t="n">
+        <v>0</v>
+      </c>
+      <c r="H541" t="n">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>2024/02/29</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>Municipalidad de Petorca</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>MU215</t>
+        </is>
+      </c>
+      <c r="E542" t="n">
+        <v>0</v>
+      </c>
+      <c r="F542" t="n">
+        <v>0</v>
+      </c>
+      <c r="G542" t="n">
+        <v>0</v>
+      </c>
+      <c r="H542" t="n">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>2024/03/04</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>Corporación de Turismo Municipalidad de Paihuano</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>CM143</t>
+        </is>
+      </c>
+      <c r="E543" t="n">
+        <v>0</v>
+      </c>
+      <c r="F543" t="n">
+        <v>0</v>
+      </c>
+      <c r="G543" t="n">
+        <v>0</v>
+      </c>
+      <c r="H543" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>2024/03/18</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>Corporación de Deportes de San Clemente</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>CM283</t>
+        </is>
+      </c>
+      <c r="E544" t="n">
+        <v>0</v>
+      </c>
+      <c r="F544" t="n">
+        <v>0</v>
+      </c>
+      <c r="G544" t="n">
+        <v>0</v>
+      </c>
+      <c r="H544" t="n">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>2024/02/07</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de La Cultura y Las Artes de San Antonio</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>CM224</t>
+        </is>
+      </c>
+      <c r="E545" t="n">
+        <v>0</v>
+      </c>
+      <c r="F545" t="n">
+        <v>0</v>
+      </c>
+      <c r="G545" t="n">
+        <v>0</v>
+      </c>
+      <c r="H545" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>2023/12/28</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>Corporación de Educación Salud y Menores de Puerto Natales</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>CM045</t>
+        </is>
+      </c>
+      <c r="E546" t="n">
+        <v>0</v>
+      </c>
+      <c r="F546" t="n">
+        <v>0</v>
+      </c>
+      <c r="G546" t="n">
+        <v>0</v>
+      </c>
+      <c r="H546" t="n">
+        <v>5586</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>2024/02/14</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de innovación y desarrollo económico y social de SAN JOAQUÍN</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>CM210</t>
+        </is>
+      </c>
+      <c r="E547" t="n">
+        <v>0</v>
+      </c>
+      <c r="F547" t="n">
+        <v>0</v>
+      </c>
+      <c r="G547" t="n">
+        <v>0</v>
+      </c>
+      <c r="H547" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>2024/03/18</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Fomento Al Desarrollo Comunal y Productivo de La Florida (Cofodep)</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>CM217</t>
+        </is>
+      </c>
+      <c r="E548" t="n">
+        <v>0</v>
+      </c>
+      <c r="F548" t="n">
+        <v>0</v>
+      </c>
+      <c r="G548" t="n">
+        <v>0</v>
+      </c>
+      <c r="H548" t="n">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>2022/12/27</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Deportes Recreación y Cultura de Coquimbo</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>CM057</t>
+        </is>
+      </c>
+      <c r="E549" t="n">
+        <v>0</v>
+      </c>
+      <c r="F549" t="n">
+        <v>0</v>
+      </c>
+      <c r="G549" t="n">
+        <v>0</v>
+      </c>
+      <c r="H549" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>2024/03/14</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Deportes de Natales</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>CM186</t>
+        </is>
+      </c>
+      <c r="E550" t="n">
+        <v>0</v>
+      </c>
+      <c r="F550" t="n">
+        <v>0</v>
+      </c>
+      <c r="G550" t="n">
+        <v>0</v>
+      </c>
+      <c r="H550" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>2024/03/22</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Cultura San Clemente</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>CM191</t>
+        </is>
+      </c>
+      <c r="E551" t="n">
+        <v>0</v>
+      </c>
+      <c r="F551" t="n">
+        <v>0</v>
+      </c>
+      <c r="G551" t="n">
+        <v>0</v>
+      </c>
+      <c r="H551" t="n">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>2024/03/01</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>Corporación Municipal Cultural Museo de Bellas Artes Valparaíso</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>CM154</t>
+        </is>
+      </c>
+      <c r="E552" t="n">
+        <v>0</v>
+      </c>
+      <c r="F552" t="n">
+        <v>0</v>
+      </c>
+      <c r="G552" t="n">
+        <v>0</v>
+      </c>
+      <c r="H552" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>2023/07/17</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>Corporación Cultural de La Ilustre Municipalidad de Valdivia</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>CM072</t>
+        </is>
+      </c>
+      <c r="E553" t="n">
+        <v>0</v>
+      </c>
+      <c r="F553" t="n">
+        <v>0</v>
+      </c>
+      <c r="G553" t="n">
+        <v>0</v>
+      </c>
+      <c r="H553" t="n">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>2024/03/04</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de cultura de Isla de Pascua</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>CM235</t>
+        </is>
+      </c>
+      <c r="E554" t="n">
+        <v>0</v>
+      </c>
+      <c r="F554" t="n">
+        <v>0</v>
+      </c>
+      <c r="G554" t="n">
+        <v>0</v>
+      </c>
+      <c r="H554" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>2024/03/14</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>Corporación Municipal del Deporte de Vitacura</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>CM175</t>
+        </is>
+      </c>
+      <c r="E555" t="n">
+        <v>0</v>
+      </c>
+      <c r="F555" t="n">
+        <v>0</v>
+      </c>
+      <c r="G555" t="n">
+        <v>0</v>
+      </c>
+      <c r="H555" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>2024/03/12</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>Corporación de Inclusión Social de Cerro Navia</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>CM160</t>
+        </is>
+      </c>
+      <c r="E556" t="n">
+        <v>0</v>
+      </c>
+      <c r="F556" t="n">
+        <v>0</v>
+      </c>
+      <c r="G556" t="n">
+        <v>0</v>
+      </c>
+      <c r="H556" t="n">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>2024/03/15</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>Asociación Municipalidades Provincia de Llanquihue Para Manejo Sustentable de Residuos y Gestión Ambiental</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>MA025</t>
+        </is>
+      </c>
+      <c r="E557" t="n">
+        <v>0</v>
+      </c>
+      <c r="F557" t="n">
+        <v>0</v>
+      </c>
+      <c r="G557" t="n">
+        <v>0</v>
+      </c>
+      <c r="H557" t="n">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>2024/03/06</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>Corporación Cultural Municipal de La Comuna de Chillán</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>CM096</t>
+        </is>
+      </c>
+      <c r="E558" t="n">
+        <v>0</v>
+      </c>
+      <c r="F558" t="n">
+        <v>0</v>
+      </c>
+      <c r="G558" t="n">
+        <v>0</v>
+      </c>
+      <c r="H558" t="n">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>2024/03/21</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Cultura Turismo y Patrimonio de La Comuna de Natales</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>CM173</t>
+        </is>
+      </c>
+      <c r="E559" t="n">
+        <v>0</v>
+      </c>
+      <c r="F559" t="n">
+        <v>0</v>
+      </c>
+      <c r="G559" t="n">
+        <v>0</v>
+      </c>
+      <c r="H559" t="n">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>2024/02/13</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>Municipalidad de Los Muermos</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>MU155</t>
+        </is>
+      </c>
+      <c r="E560" t="n">
+        <v>0</v>
+      </c>
+      <c r="F560" t="n">
+        <v>0</v>
+      </c>
+      <c r="G560" t="n">
+        <v>0</v>
+      </c>
+      <c r="H560" t="n">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>2024/03/13</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>Corporación del Deporte de Lampa</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>CM145</t>
+        </is>
+      </c>
+      <c r="E561" t="n">
+        <v>0</v>
+      </c>
+      <c r="F561" t="n">
+        <v>0</v>
+      </c>
+      <c r="G561" t="n">
+        <v>0</v>
+      </c>
+      <c r="H561" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>2024/03/08</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades Comunas Costeras de PuchuncavíQuintero</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>MA060</t>
+        </is>
+      </c>
+      <c r="E562" t="n">
+        <v>0</v>
+      </c>
+      <c r="F562" t="n">
+        <v>0</v>
+      </c>
+      <c r="G562" t="n">
+        <v>0</v>
+      </c>
+      <c r="H562" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>2024/03/08</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>Municipalidad de Quilaco</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>MU249</t>
+        </is>
+      </c>
+      <c r="E563" t="n">
+        <v>0</v>
+      </c>
+      <c r="F563" t="n">
+        <v>0</v>
+      </c>
+      <c r="G563" t="n">
+        <v>0</v>
+      </c>
+      <c r="H563" t="n">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>2024/02/07</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Cultura de Talca</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>CM112</t>
+        </is>
+      </c>
+      <c r="E564" t="n">
+        <v>0</v>
+      </c>
+      <c r="F564" t="n">
+        <v>0</v>
+      </c>
+      <c r="G564" t="n">
+        <v>0</v>
+      </c>
+      <c r="H564" t="n">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>2024/03/04</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>Agencia Chilena de Eficiencia Energética</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>FU014</t>
+        </is>
+      </c>
+      <c r="E565" t="n">
+        <v>0</v>
+      </c>
+      <c r="F565" t="n">
+        <v>0</v>
+      </c>
+      <c r="G565" t="n">
+        <v>0</v>
+      </c>
+      <c r="H565" t="n">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>2024/02/07</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Deportes de Talca</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>CM128</t>
+        </is>
+      </c>
+      <c r="E566" t="n">
+        <v>0</v>
+      </c>
+      <c r="F566" t="n">
+        <v>0</v>
+      </c>
+      <c r="G566" t="n">
+        <v>0</v>
+      </c>
+      <c r="H566" t="n">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>2023/03/31</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>Corporación Cultural de La Ilustre Municipalidad de Romeral</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>CM071</t>
+        </is>
+      </c>
+      <c r="E567" t="n">
+        <v>0</v>
+      </c>
+      <c r="F567" t="n">
+        <v>0</v>
+      </c>
+      <c r="G567" t="n">
+        <v>0</v>
+      </c>
+      <c r="H567" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>2024/03/05</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Deportes y Recreación de Talcahuano</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>CM204</t>
+        </is>
+      </c>
+      <c r="E568" t="n">
+        <v>0</v>
+      </c>
+      <c r="F568" t="n">
+        <v>0</v>
+      </c>
+      <c r="G568" t="n">
+        <v>0</v>
+      </c>
+      <c r="H568" t="n">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>2024/03/13</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>Corporación Regional de Desarrollo Productivo de la Región de Tarapacá</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>FU009</t>
+        </is>
+      </c>
+      <c r="E569" t="n">
+        <v>0</v>
+      </c>
+      <c r="F569" t="n">
+        <v>0</v>
+      </c>
+      <c r="G569" t="n">
+        <v>0</v>
+      </c>
+      <c r="H569" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>2024/03/12</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de San Fernando (CORMUSAF)</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>CM010</t>
+        </is>
+      </c>
+      <c r="E570" t="n">
+        <v>0</v>
+      </c>
+      <c r="F570" t="n">
+        <v>0</v>
+      </c>
+      <c r="G570" t="n">
+        <v>0</v>
+      </c>
+      <c r="H570" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>2024/03/13</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>Municipalidad de Freire</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>MU091</t>
+        </is>
+      </c>
+      <c r="E571" t="n">
+        <v>0</v>
+      </c>
+      <c r="F571" t="n">
+        <v>0</v>
+      </c>
+      <c r="G571" t="n">
+        <v>0</v>
+      </c>
+      <c r="H571" t="n">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>2024/03/07</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>Municipalidad de Quinchao</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>MU255</t>
+        </is>
+      </c>
+      <c r="E572" t="n">
+        <v>0</v>
+      </c>
+      <c r="F572" t="n">
+        <v>0</v>
+      </c>
+      <c r="G572" t="n">
+        <v>0</v>
+      </c>
+      <c r="H572" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>2024/03/05</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>Corporación Cultural de Lo Barnechea</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>CM076</t>
+        </is>
+      </c>
+      <c r="E573" t="n">
+        <v>0</v>
+      </c>
+      <c r="F573" t="n">
+        <v>0</v>
+      </c>
+      <c r="G573" t="n">
+        <v>0</v>
+      </c>
+      <c r="H573" t="n">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>2024/03/11</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>Corporación Cultural Municipal de Ovalle</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>CM100</t>
+        </is>
+      </c>
+      <c r="E574" t="n">
+        <v>0</v>
+      </c>
+      <c r="F574" t="n">
+        <v>0</v>
+      </c>
+      <c r="G574" t="n">
+        <v>0</v>
+      </c>
+      <c r="H574" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>2024/03/14</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Deportes de Lo Prado</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>CM185</t>
+        </is>
+      </c>
+      <c r="E575" t="n">
+        <v>0</v>
+      </c>
+      <c r="F575" t="n">
+        <v>0</v>
+      </c>
+      <c r="G575" t="n">
+        <v>0</v>
+      </c>
+      <c r="H575" t="n">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>2024/02/26</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>CORPORACIÓN REGIONAL DE TURISMO DE LA REGIÓN METROPOLITANA</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>FU013</t>
+        </is>
+      </c>
+      <c r="E576" t="n">
+        <v>0</v>
+      </c>
+      <c r="F576" t="n">
+        <v>0</v>
+      </c>
+      <c r="G576" t="n">
+        <v>0</v>
+      </c>
+      <c r="H576" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>2024/03/05</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>Corporación del Deporte de La Municipalidad de Aysén</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>CM144</t>
+        </is>
+      </c>
+      <c r="E577" t="n">
+        <v>0</v>
+      </c>
+      <c r="F577" t="n">
+        <v>0</v>
+      </c>
+      <c r="G577" t="n">
+        <v>0</v>
+      </c>
+      <c r="H577" t="n">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>2023/06/15</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Cultura La Pintana</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>CM168</t>
+        </is>
+      </c>
+      <c r="E578" t="n">
+        <v>0</v>
+      </c>
+      <c r="F578" t="n">
+        <v>0</v>
+      </c>
+      <c r="G578" t="n">
+        <v>0</v>
+      </c>
+      <c r="H578" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>2024/03/12</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>Servicio Nacional de la Discapacidad (SENADIS)</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>AI003</t>
+        </is>
+      </c>
+      <c r="E579" t="n">
+        <v>0</v>
+      </c>
+      <c r="F579" t="n">
+        <v>0</v>
+      </c>
+      <c r="G579" t="n">
+        <v>0</v>
+      </c>
+      <c r="H579" t="n">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>2024/03/12</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>Asociación de Municipios para el Desarrollo Turístico de las Comunas de Cabrero Los Ángeles y Yumbel</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>MA055</t>
+        </is>
+      </c>
+      <c r="E580" t="n">
+        <v>0</v>
+      </c>
+      <c r="F580" t="n">
+        <v>0</v>
+      </c>
+      <c r="G580" t="n">
+        <v>0</v>
+      </c>
+      <c r="H580" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>2023/04/19</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>Corporación Santiago Innova</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>CM276</t>
+        </is>
+      </c>
+      <c r="E581" t="n">
+        <v>0</v>
+      </c>
+      <c r="F581" t="n">
+        <v>0</v>
+      </c>
+      <c r="G581" t="n">
+        <v>0</v>
+      </c>
+      <c r="H581" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>2024/03/01</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>Corporación Cultural de Estación Central</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>CM069</t>
+        </is>
+      </c>
+      <c r="E582" t="n">
+        <v>0</v>
+      </c>
+      <c r="F582" t="n">
+        <v>0</v>
+      </c>
+      <c r="G582" t="n">
+        <v>0</v>
+      </c>
+      <c r="H582" t="n">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>2024/03/14</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>Corporación XIX Juegos Panamericanos Santiago 2023</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>CM251</t>
+        </is>
+      </c>
+      <c r="E583" t="n">
+        <v>0</v>
+      </c>
+      <c r="F583" t="n">
+        <v>0</v>
+      </c>
+      <c r="G583" t="n">
+        <v>0</v>
+      </c>
+      <c r="H583" t="n">
+        <v>5495</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>2024/03/07</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>Municipalidad de Puente Alto</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>MU232</t>
+        </is>
+      </c>
+      <c r="E584" t="n">
+        <v>0</v>
+      </c>
+      <c r="F584" t="n">
+        <v>0</v>
+      </c>
+      <c r="G584" t="n">
+        <v>0</v>
+      </c>
+      <c r="H584" t="n">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>2023/11/27</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Deportes de Padre Las Casas</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>CM187</t>
+        </is>
+      </c>
+      <c r="E585" t="n">
+        <v>0</v>
+      </c>
+      <c r="F585" t="n">
+        <v>0</v>
+      </c>
+      <c r="G585" t="n">
+        <v>0</v>
+      </c>
+      <c r="H585" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>2024/03/07</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Cultura y Artes de Molina</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>CM169</t>
+        </is>
+      </c>
+      <c r="E586" t="n">
+        <v>0</v>
+      </c>
+      <c r="F586" t="n">
+        <v>0</v>
+      </c>
+      <c r="G586" t="n">
+        <v>0</v>
+      </c>
+      <c r="H586" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>2024/03/16</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>Municipalidad de La Serena</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>MU126</t>
+        </is>
+      </c>
+      <c r="E587" t="n">
+        <v>0</v>
+      </c>
+      <c r="F587" t="n">
+        <v>0</v>
+      </c>
+      <c r="G587" t="n">
+        <v>0</v>
+      </c>
+      <c r="H587" t="n">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>2024/03/01</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>Fundación Cultural de Sierra Gorda</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>FU012</t>
+        </is>
+      </c>
+      <c r="E588" t="n">
+        <v>0</v>
+      </c>
+      <c r="F588" t="n">
+        <v>0</v>
+      </c>
+      <c r="G588" t="n">
+        <v>0</v>
+      </c>
+      <c r="H588" t="n">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>2024/03/06</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades Turísticas de Chile (AMTC)</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>MA064</t>
+        </is>
+      </c>
+      <c r="E589" t="n">
+        <v>0</v>
+      </c>
+      <c r="F589" t="n">
+        <v>0</v>
+      </c>
+      <c r="G589" t="n">
+        <v>0</v>
+      </c>
+      <c r="H589" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>2024/03/14</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Deportes de San Joaquín</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>CM253</t>
+        </is>
+      </c>
+      <c r="E590" t="n">
+        <v>0</v>
+      </c>
+      <c r="F590" t="n">
+        <v>0</v>
+      </c>
+      <c r="G590" t="n">
+        <v>0</v>
+      </c>
+      <c r="H590" t="n">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>2024/03/08</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>Fundación Teatro Municipal de Las Condes</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>FU015</t>
+        </is>
+      </c>
+      <c r="E591" t="n">
+        <v>0</v>
+      </c>
+      <c r="F591" t="n">
+        <v>0</v>
+      </c>
+      <c r="G591" t="n">
+        <v>0</v>
+      </c>
+      <c r="H591" t="n">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>2024/03/11</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>Corporación del Deporte de Pichidegua</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>CM146</t>
+        </is>
+      </c>
+      <c r="E592" t="n">
+        <v>0</v>
+      </c>
+      <c r="F592" t="n">
+        <v>0</v>
+      </c>
+      <c r="G592" t="n">
+        <v>0</v>
+      </c>
+      <c r="H592" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>2024/03/11</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Administración Sitio Patrimonio Mundial Área Histórica de la Cuidad Puerto de Valparaíso</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>CM139</t>
+        </is>
+      </c>
+      <c r="E593" t="n">
+        <v>0</v>
+      </c>
+      <c r="F593" t="n">
+        <v>0</v>
+      </c>
+      <c r="G593" t="n">
+        <v>0</v>
+      </c>
+      <c r="H593" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>2024/03/04</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>Corporación Municipal Deportiva Cultural y de Fomento Productivo Alto Hospicio</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>CM179</t>
+        </is>
+      </c>
+      <c r="E594" t="n">
+        <v>0</v>
+      </c>
+      <c r="F594" t="n">
+        <v>0</v>
+      </c>
+      <c r="G594" t="n">
+        <v>0</v>
+      </c>
+      <c r="H594" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>2024/03/13</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>Corporación de Cultura de Pichidegua</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>CM111</t>
+        </is>
+      </c>
+      <c r="E595" t="n">
+        <v>0</v>
+      </c>
+      <c r="F595" t="n">
+        <v>0</v>
+      </c>
+      <c r="G595" t="n">
+        <v>0</v>
+      </c>
+      <c r="H595" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>2024/03/11</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Desarrollo Productivo y Turismo de Molina</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>CM211</t>
+        </is>
+      </c>
+      <c r="E596" t="n">
+        <v>0</v>
+      </c>
+      <c r="F596" t="n">
+        <v>0</v>
+      </c>
+      <c r="G596" t="n">
+        <v>0</v>
+      </c>
+      <c r="H596" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>2023/07/18</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Deportes La Pintana</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>CM194</t>
+        </is>
+      </c>
+      <c r="E597" t="n">
+        <v>0</v>
+      </c>
+      <c r="F597" t="n">
+        <v>0</v>
+      </c>
+      <c r="G597" t="n">
+        <v>0</v>
+      </c>
+      <c r="H597" t="n">
+        <v>3684</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>2023/07/21</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Deportes y Recreación de Molina</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>CM202</t>
+        </is>
+      </c>
+      <c r="E598" t="n">
+        <v>0</v>
+      </c>
+      <c r="F598" t="n">
+        <v>0</v>
+      </c>
+      <c r="G598" t="n">
+        <v>0</v>
+      </c>
+      <c r="H598" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>2024/03/07</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>Corporación de Deportes de la Ilustre Municipalidad de Curicó</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>CM250</t>
+        </is>
+      </c>
+      <c r="E599" t="n">
+        <v>0</v>
+      </c>
+      <c r="F599" t="n">
+        <v>0</v>
+      </c>
+      <c r="G599" t="n">
+        <v>0</v>
+      </c>
+      <c r="H599" t="n">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>2024/03/13</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>Corporación de Deportes y Recreación La Reina</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>CM134</t>
+        </is>
+      </c>
+      <c r="E600" t="n">
+        <v>0</v>
+      </c>
+      <c r="F600" t="n">
+        <v>0</v>
+      </c>
+      <c r="G600" t="n">
+        <v>0</v>
+      </c>
+      <c r="H600" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>2024/02/17</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>Municipalidad de Independencia</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>MU111</t>
+        </is>
+      </c>
+      <c r="E601" t="n">
+        <v>0</v>
+      </c>
+      <c r="F601" t="n">
+        <v>0</v>
+      </c>
+      <c r="G601" t="n">
+        <v>0</v>
+      </c>
+      <c r="H601" t="n">
+        <v>5926</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>2024/03/11</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>Corporación Social y Cultural de Concepción (SEMCO)</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>CM278</t>
+        </is>
+      </c>
+      <c r="E602" t="n">
+        <v>0</v>
+      </c>
+      <c r="F602" t="n">
+        <v>0</v>
+      </c>
+      <c r="G602" t="n">
+        <v>0</v>
+      </c>
+      <c r="H602" t="n">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>2024/03/06</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>Corporación Cultural de Mostazal</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>CM079</t>
+        </is>
+      </c>
+      <c r="E603" t="n">
+        <v>0</v>
+      </c>
+      <c r="F603" t="n">
+        <v>0</v>
+      </c>
+      <c r="G603" t="n">
+        <v>0</v>
+      </c>
+      <c r="H603" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>2023/11/06</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Deportes y Recreación de Coyhaique</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>CM198</t>
+        </is>
+      </c>
+      <c r="E604" t="n">
+        <v>0</v>
+      </c>
+      <c r="F604" t="n">
+        <v>0</v>
+      </c>
+      <c r="G604" t="n">
+        <v>0</v>
+      </c>
+      <c r="H604" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>2024/03/04</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>Asociación de Municipios de Desarrollo Intercomunal de Chiloé (AMUDICH)</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>MA032</t>
+        </is>
+      </c>
+      <c r="E605" t="n">
+        <v>0</v>
+      </c>
+      <c r="F605" t="n">
+        <v>0</v>
+      </c>
+      <c r="G605" t="n">
+        <v>0</v>
+      </c>
+      <c r="H605" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>2024/03/16</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>Corporación Nacional Forestal (CONAF)</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>AR003</t>
+        </is>
+      </c>
+      <c r="E606" t="n">
+        <v>0</v>
+      </c>
+      <c r="F606" t="n">
+        <v>0</v>
+      </c>
+      <c r="G606" t="n">
+        <v>0</v>
+      </c>
+      <c r="H606" t="n">
+        <v>128827</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>2024/03/11</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Cultura y Turismo de La Comuna de Quintero</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>CM171</t>
+        </is>
+      </c>
+      <c r="E607" t="n">
+        <v>0</v>
+      </c>
+      <c r="F607" t="n">
+        <v>0</v>
+      </c>
+      <c r="G607" t="n">
+        <v>0</v>
+      </c>
+      <c r="H607" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>2024/03/05</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>Fundación del deporte de Punta Arenas</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>FU016</t>
+        </is>
+      </c>
+      <c r="E608" t="n">
+        <v>0</v>
+      </c>
+      <c r="F608" t="n">
+        <v>0</v>
+      </c>
+      <c r="G608" t="n">
+        <v>0</v>
+      </c>
+      <c r="H608" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>2023/10/17</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>Corporación Cultural y de Extensión de La Ilustre Municipalidad de Constitución</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>CM108</t>
+        </is>
+      </c>
+      <c r="E609" t="n">
+        <v>0</v>
+      </c>
+      <c r="F609" t="n">
+        <v>0</v>
+      </c>
+      <c r="G609" t="n">
+        <v>0</v>
+      </c>
+      <c r="H609" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>2023/12/26</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Deportes y Recreación de La Ilustre Municipalidad de Isla de Pascua</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>CM200</t>
+        </is>
+      </c>
+      <c r="E610" t="n">
+        <v>0</v>
+      </c>
+      <c r="F610" t="n">
+        <v>0</v>
+      </c>
+      <c r="G610" t="n">
+        <v>0</v>
+      </c>
+      <c r="H610" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>2024/01/26</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>Corporación de Fomento de Desarrollo comunal y Productivo de la Granja</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>CM284</t>
+        </is>
+      </c>
+      <c r="E611" t="n">
+        <v>0</v>
+      </c>
+      <c r="F611" t="n">
+        <v>0</v>
+      </c>
+      <c r="G611" t="n">
+        <v>0</v>
+      </c>
+      <c r="H611" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>2024/03/01</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>Corporación de investigación y avance de la Paleontología e historia natural de Atacama</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>FU020</t>
+        </is>
+      </c>
+      <c r="E612" t="n">
+        <v>0</v>
+      </c>
+      <c r="F612" t="n">
+        <v>0</v>
+      </c>
+      <c r="G612" t="n">
+        <v>0</v>
+      </c>
+      <c r="H612" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>2024/03/11</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>Municipalidad de Lo Barnechea</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>MU144</t>
+        </is>
+      </c>
+      <c r="E613" t="n">
+        <v>0</v>
+      </c>
+      <c r="F613" t="n">
+        <v>0</v>
+      </c>
+      <c r="G613" t="n">
+        <v>0</v>
+      </c>
+      <c r="H613" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>2024/02/13</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>Asociación Cultural Municipal de Cerrillos</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>MA068</t>
+        </is>
+      </c>
+      <c r="E614" t="n">
+        <v>0</v>
+      </c>
+      <c r="F614" t="n">
+        <v>0</v>
+      </c>
+      <c r="G614" t="n">
+        <v>0</v>
+      </c>
+      <c r="H614" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>2024/02/05</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>Corporación Cultural de La Reina</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>CM073</t>
+        </is>
+      </c>
+      <c r="E615" t="n">
+        <v>0</v>
+      </c>
+      <c r="F615" t="n">
+        <v>0</v>
+      </c>
+      <c r="G615" t="n">
+        <v>0</v>
+      </c>
+      <c r="H615" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>2024/02/12</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Deportes y Recreación de Panguipulli</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>CM233</t>
+        </is>
+      </c>
+      <c r="E616" t="n">
+        <v>0</v>
+      </c>
+      <c r="F616" t="n">
+        <v>0</v>
+      </c>
+      <c r="G616" t="n">
+        <v>0</v>
+      </c>
+      <c r="H616" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>2024/03/22</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>Municipalidad de Curanilahue</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>MU075</t>
+        </is>
+      </c>
+      <c r="E617" t="n">
+        <v>0</v>
+      </c>
+      <c r="F617" t="n">
+        <v>0</v>
+      </c>
+      <c r="G617" t="n">
+        <v>0</v>
+      </c>
+      <c r="H617" t="n">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>2024/03/13</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>Municipalidad de Vitacura</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>MU341</t>
+        </is>
+      </c>
+      <c r="E618" t="n">
+        <v>0</v>
+      </c>
+      <c r="F618" t="n">
+        <v>0</v>
+      </c>
+      <c r="G618" t="n">
+        <v>0</v>
+      </c>
+      <c r="H618" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>2024/03/14</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>Municipalidad de Panquehue</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>MU201</t>
+        </is>
+      </c>
+      <c r="E619" t="n">
+        <v>0</v>
+      </c>
+      <c r="F619" t="n">
+        <v>0</v>
+      </c>
+      <c r="G619" t="n">
+        <v>0</v>
+      </c>
+      <c r="H619" t="n">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>2024/03/15</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>Municipalidad de Constitución</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>MU064</t>
+        </is>
+      </c>
+      <c r="E620" t="n">
+        <v>0</v>
+      </c>
+      <c r="F620" t="n">
+        <v>0</v>
+      </c>
+      <c r="G620" t="n">
+        <v>0</v>
+      </c>
+      <c r="H620" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>2024/03/08</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>Fundación para la Promoción y Desarrollo de la Mujer  (PRODEMU)</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>FU003</t>
+        </is>
+      </c>
+      <c r="E621" t="n">
+        <v>0</v>
+      </c>
+      <c r="F621" t="n">
+        <v>0</v>
+      </c>
+      <c r="G621" t="n">
+        <v>0</v>
+      </c>
+      <c r="H621" t="n">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>2024/03/01</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Deportes y Desarrollo Social de Quintero</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>CM196</t>
+        </is>
+      </c>
+      <c r="E622" t="n">
+        <v>0</v>
+      </c>
+      <c r="F622" t="n">
+        <v>0</v>
+      </c>
+      <c r="G622" t="n">
+        <v>0</v>
+      </c>
+      <c r="H622" t="n">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>2024/03/14</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>Fundación de Orquestas Juveniles e Infantiles de Chile (FOJI)</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>FU004</t>
+        </is>
+      </c>
+      <c r="E623" t="n">
+        <v>0</v>
+      </c>
+      <c r="F623" t="n">
+        <v>0</v>
+      </c>
+      <c r="G623" t="n">
+        <v>0</v>
+      </c>
+      <c r="H623" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>2024/03/10</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>Municipalidad de Algarrobo</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>MU001</t>
+        </is>
+      </c>
+      <c r="E624" t="n">
+        <v>0</v>
+      </c>
+      <c r="F624" t="n">
+        <v>0</v>
+      </c>
+      <c r="G624" t="n">
+        <v>0</v>
+      </c>
+      <c r="H624" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>2024/02/08</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de desarrollo Comunal y Productivo de Licantén</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>CM156</t>
+        </is>
+      </c>
+      <c r="E625" t="n">
+        <v>0</v>
+      </c>
+      <c r="F625" t="n">
+        <v>0</v>
+      </c>
+      <c r="G625" t="n">
+        <v>0</v>
+      </c>
+      <c r="H625" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>2024/02/09</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>Fundación para el Desarrollo de las Artes y la Cultura de la comuna de Punta Arenas</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>FU022</t>
+        </is>
+      </c>
+      <c r="E626" t="n">
+        <v>0</v>
+      </c>
+      <c r="F626" t="n">
+        <v>0</v>
+      </c>
+      <c r="G626" t="n">
+        <v>0</v>
+      </c>
+      <c r="H626" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>2024/03/12</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>CLUB DE LA REINA SOCIAL DEPORTIVO Y RECREACIONAL</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>CM281</t>
+        </is>
+      </c>
+      <c r="E627" t="n">
+        <v>0</v>
+      </c>
+      <c r="F627" t="n">
+        <v>0</v>
+      </c>
+      <c r="G627" t="n">
+        <v>0</v>
+      </c>
+      <c r="H627" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>2024/03/14</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>Servicio Local de Educación Pública de Iquique</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>AJ032</t>
+        </is>
+      </c>
+      <c r="E628" t="n">
+        <v>0</v>
+      </c>
+      <c r="F628" t="n">
+        <v>0</v>
+      </c>
+      <c r="G628" t="n">
+        <v>0</v>
+      </c>
+      <c r="H628" t="n">
+        <v>5256</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>2024/02/29</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Cultura de TilTil</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>CM258</t>
+        </is>
+      </c>
+      <c r="E629" t="n">
+        <v>0</v>
+      </c>
+      <c r="F629" t="n">
+        <v>0</v>
+      </c>
+      <c r="G629" t="n">
+        <v>0</v>
+      </c>
+      <c r="H629" t="n">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>2024/03/19</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Fomento y Desarrollo Comunal de Sierra Gorda</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>CM054</t>
+        </is>
+      </c>
+      <c r="E630" t="n">
+        <v>0</v>
+      </c>
+      <c r="F630" t="n">
+        <v>0</v>
+      </c>
+      <c r="G630" t="n">
+        <v>0</v>
+      </c>
+      <c r="H630" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>2024/03/15</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>Corporación Regional de Investigación y Desarrollo Centro de Investigación en Ecosistemas de la Patagonia</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>FU021</t>
+        </is>
+      </c>
+      <c r="E631" t="n">
+        <v>0</v>
+      </c>
+      <c r="F631" t="n">
+        <v>0</v>
+      </c>
+      <c r="G631" t="n">
+        <v>0</v>
+      </c>
+      <c r="H631" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>2024/03/08</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>Corporación Cultural de Antofagasta</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>CM067</t>
+        </is>
+      </c>
+      <c r="E632" t="n">
+        <v>0</v>
+      </c>
+      <c r="F632" t="n">
+        <v>0</v>
+      </c>
+      <c r="G632" t="n">
+        <v>0</v>
+      </c>
+      <c r="H632" t="n">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>2024/03/14</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>Asociación de Gobernadores y Gobernadoras Regionales de Chile  AGORECHI</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>FU025</t>
+        </is>
+      </c>
+      <c r="E633" t="n">
+        <v>0</v>
+      </c>
+      <c r="F633" t="n">
+        <v>0</v>
+      </c>
+      <c r="G633" t="n">
+        <v>0</v>
+      </c>
+      <c r="H633" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>2024/03/21</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>Corporación de desarrollo territorial de la región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>FU023</t>
+        </is>
+      </c>
+      <c r="E634" t="n">
+        <v>0</v>
+      </c>
+      <c r="F634" t="n">
+        <v>0</v>
+      </c>
+      <c r="G634" t="n">
+        <v>0</v>
+      </c>
+      <c r="H634" t="n">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado_historico4.xlsx
+++ b/consolidado_historico4.xlsx
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024/02/17</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/03/28</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>6996</v>
+        <v>6998</v>
       </c>
     </row>
     <row r="44">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>12029</v>
+        <v>12174</v>
       </c>
     </row>
     <row r="56">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2024/01/25</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>15137</v>
+        <v>15731</v>
       </c>
     </row>
     <row r="62">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>13036</v>
+        <v>13343</v>
       </c>
     </row>
     <row r="66">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>7194</v>
+        <v>7196</v>
       </c>
     </row>
     <row r="119">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/29</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>37535</v>
+        <v>38105</v>
       </c>
     </row>
     <row r="132">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>9499</v>
+        <v>9640</v>
       </c>
     </row>
     <row r="149">
@@ -5822,7 +5822,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/03/23</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5845,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>18949</v>
+        <v>18971</v>
       </c>
     </row>
     <row r="162">
@@ -6230,7 +6230,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2023/11/23</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -6253,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>16498</v>
+        <v>16569</v>
       </c>
     </row>
     <row r="174">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -8168,7 +8168,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2024/01/31</t>
+          <t>2024/03/28</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>220</v>
+        <v>232</v>
       </c>
     </row>
     <row r="231">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/03/24</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -8905,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="H251" t="n">
-        <v>18497</v>
+        <v>18520</v>
       </c>
     </row>
     <row r="252">
@@ -8984,7 +8984,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -9007,7 +9007,7 @@
         <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>3045</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="255">
@@ -9698,7 +9698,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2024/03/28</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -9721,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="H275" t="n">
-        <v>54933</v>
+        <v>55411</v>
       </c>
     </row>
     <row r="276">
@@ -10276,7 +10276,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/28</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -10480,7 +10480,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -10503,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="n">
-        <v>6648</v>
+        <v>6654</v>
       </c>
     </row>
     <row r="299">
@@ -11092,7 +11092,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/23</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -11115,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="n">
-        <v>54158</v>
+        <v>54673</v>
       </c>
     </row>
     <row r="317">
@@ -12350,7 +12350,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -12373,7 +12373,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="n">
-        <v>32603</v>
+        <v>32607</v>
       </c>
     </row>
     <row r="354">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -13019,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="H372" t="n">
-        <v>6183</v>
+        <v>6282</v>
       </c>
     </row>
     <row r="373">
@@ -13404,7 +13404,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -14798,7 +14798,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -14821,7 +14821,7 @@
         <v>0</v>
       </c>
       <c r="H425" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="426">
@@ -14934,7 +14934,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -14957,7 +14957,7 @@
         <v>0</v>
       </c>
       <c r="H429" t="n">
-        <v>19222</v>
+        <v>19367</v>
       </c>
     </row>
     <row r="430">
@@ -15886,7 +15886,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -16906,7 +16906,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>2024/02/27</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -16929,7 +16929,7 @@
         <v>0</v>
       </c>
       <c r="H487" t="n">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="488">
@@ -16940,7 +16940,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -18776,7 +18776,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -18799,7 +18799,7 @@
         <v>0</v>
       </c>
       <c r="H542" t="n">
-        <v>1982</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="543">
@@ -18878,7 +18878,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/03/28</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -18901,7 +18901,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="546">
@@ -19082,7 +19082,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -19105,7 +19105,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="n">
-        <v>369</v>
+        <v>417</v>
       </c>
     </row>
     <row r="552">
@@ -19218,7 +19218,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -19354,7 +19354,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -19377,7 +19377,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="n">
-        <v>461</v>
+        <v>878</v>
       </c>
     </row>
     <row r="560">
@@ -19388,7 +19388,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -19898,7 +19898,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -19921,7 +19921,7 @@
         <v>0</v>
       </c>
       <c r="H575" t="n">
-        <v>529</v>
+        <v>557</v>
       </c>
     </row>
     <row r="576">
@@ -19932,7 +19932,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>2024/02/26</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -19955,7 +19955,7 @@
         <v>0</v>
       </c>
       <c r="H576" t="n">
-        <v>403</v>
+        <v>437</v>
       </c>
     </row>
     <row r="577">
@@ -19966,7 +19966,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -19989,7 +19989,7 @@
         <v>0</v>
       </c>
       <c r="H577" t="n">
-        <v>726</v>
+        <v>755</v>
       </c>
     </row>
     <row r="578">
@@ -20782,7 +20782,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>2024/02/17</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -20805,7 +20805,7 @@
         <v>0</v>
       </c>
       <c r="H601" t="n">
-        <v>5926</v>
+        <v>5986</v>
       </c>
     </row>
     <row r="602">
@@ -21326,7 +21326,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
@@ -21349,7 +21349,7 @@
         <v>0</v>
       </c>
       <c r="H617" t="n">
-        <v>1124</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="618">
@@ -21564,7 +21564,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>2024/03/10</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -21587,7 +21587,7 @@
         <v>0</v>
       </c>
       <c r="H624" t="n">
-        <v>87</v>
+        <v>222</v>
       </c>
     </row>
     <row r="625">
@@ -21700,7 +21700,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -21723,7 +21723,7 @@
         <v>0</v>
       </c>
       <c r="H628" t="n">
-        <v>5256</v>
+        <v>5541</v>
       </c>
     </row>
     <row r="629">
@@ -21836,7 +21836,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">

--- a/consolidado_historico4.xlsx
+++ b/consolidado_historico4.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H634"/>
+  <dimension ref="A1:H636"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -416,7 +416,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>25150</v>
+        <v>26585</v>
       </c>
     </row>
     <row r="28">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>43145</v>
+        <v>43630</v>
       </c>
     </row>
     <row r="31">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>18213</v>
+        <v>18451</v>
       </c>
     </row>
     <row r="39">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>5659</v>
+        <v>5739</v>
       </c>
     </row>
     <row r="41">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>30902</v>
+        <v>31356</v>
       </c>
     </row>
     <row r="77">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>9918</v>
+        <v>10049</v>
       </c>
     </row>
     <row r="84">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>2261</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="87">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4009,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>1591</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="108">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2024/02/01</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>224</v>
+        <v>238</v>
       </c>
     </row>
     <row r="110">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2024/03/03</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4598,7 +4598,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>13519</v>
+        <v>13731</v>
       </c>
     </row>
     <row r="137">
@@ -5006,7 +5006,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5029,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>14620</v>
+        <v>14624</v>
       </c>
     </row>
     <row r="138">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5471,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="151">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5811,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>22160</v>
+        <v>22352</v>
       </c>
     </row>
     <row r="161">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -6933,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="194">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6967,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>6781</v>
+        <v>6783</v>
       </c>
     </row>
     <row r="195">
@@ -7386,7 +7386,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -7409,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="n">
-        <v>739</v>
+        <v>752</v>
       </c>
     </row>
     <row r="208">
@@ -7658,7 +7658,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7681,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="n">
-        <v>24476</v>
+        <v>24599</v>
       </c>
     </row>
     <row r="216">
@@ -7862,7 +7862,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -8032,7 +8032,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -8055,7 +8055,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="n">
-        <v>21024</v>
+        <v>21328</v>
       </c>
     </row>
     <row r="227">
@@ -8542,7 +8542,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -8565,7 +8565,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>10538</v>
+        <v>10552</v>
       </c>
     </row>
     <row r="242">
@@ -8610,7 +8610,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>28637</v>
+        <v>28725</v>
       </c>
     </row>
     <row r="244">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2024/03/27</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -8905,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="H251" t="n">
-        <v>18520</v>
+        <v>18543</v>
       </c>
     </row>
     <row r="252">
@@ -9494,7 +9494,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -9517,7 +9517,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="n">
-        <v>9620</v>
+        <v>9630</v>
       </c>
     </row>
     <row r="270">
@@ -9664,7 +9664,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="H274" t="n">
-        <v>13487</v>
+        <v>13494</v>
       </c>
     </row>
     <row r="275">
@@ -10106,7 +10106,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="288">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -10571,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="H300" t="n">
-        <v>2556</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="301">
@@ -10616,7 +10616,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -10639,7 +10639,7 @@
         <v>0</v>
       </c>
       <c r="H302" t="n">
-        <v>16576</v>
+        <v>16577</v>
       </c>
     </row>
     <row r="303">
@@ -10956,7 +10956,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="n">
-        <v>22912</v>
+        <v>23184</v>
       </c>
     </row>
     <row r="313">
@@ -11024,7 +11024,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -11047,7 +11047,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="n">
-        <v>42405</v>
+        <v>42406</v>
       </c>
     </row>
     <row r="315">
@@ -11058,7 +11058,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -11432,7 +11432,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>2024/03/09</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -11455,7 +11455,7 @@
         <v>0</v>
       </c>
       <c r="H326" t="n">
-        <v>13327</v>
+        <v>13329</v>
       </c>
     </row>
     <row r="327">
@@ -12180,7 +12180,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -12248,7 +12248,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -12271,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="H350" t="n">
-        <v>132125</v>
+        <v>132546</v>
       </c>
     </row>
     <row r="351">
@@ -12452,7 +12452,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>2024/02/28</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -12543,7 +12543,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="n">
-        <v>32982</v>
+        <v>32987</v>
       </c>
     </row>
     <row r="359">
@@ -12758,7 +12758,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -12781,7 +12781,7 @@
         <v>0</v>
       </c>
       <c r="H365" t="n">
-        <v>17123</v>
+        <v>17573</v>
       </c>
     </row>
     <row r="366">
@@ -12826,7 +12826,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -12849,7 +12849,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="n">
-        <v>2309</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="368">
@@ -13472,7 +13472,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -13495,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="H386" t="n">
-        <v>33491</v>
+        <v>33760</v>
       </c>
     </row>
     <row r="387">
@@ -13676,7 +13676,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>2024/01/22</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -14243,7 +14243,7 @@
         <v>0</v>
       </c>
       <c r="H408" t="n">
-        <v>57303</v>
+        <v>57319</v>
       </c>
     </row>
     <row r="409">
@@ -14254,7 +14254,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -14277,7 +14277,7 @@
         <v>0</v>
       </c>
       <c r="H409" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="410">
@@ -14356,7 +14356,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -14379,7 +14379,7 @@
         <v>0</v>
       </c>
       <c r="H412" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="413">
@@ -14492,7 +14492,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -14515,7 +14515,7 @@
         <v>0</v>
       </c>
       <c r="H416" t="n">
-        <v>15939</v>
+        <v>15966</v>
       </c>
     </row>
     <row r="417">
@@ -14526,7 +14526,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -14549,7 +14549,7 @@
         <v>0</v>
       </c>
       <c r="H417" t="n">
-        <v>2882</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="418">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -14730,7 +14730,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/03/30</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -14753,7 +14753,7 @@
         <v>0</v>
       </c>
       <c r="H423" t="n">
-        <v>14890</v>
+        <v>14892</v>
       </c>
     </row>
     <row r="424">
@@ -15104,7 +15104,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -15138,7 +15138,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -15161,7 +15161,7 @@
         <v>0</v>
       </c>
       <c r="H435" t="n">
-        <v>34207</v>
+        <v>34208</v>
       </c>
     </row>
     <row r="436">
@@ -15274,7 +15274,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>2024/02/26</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -15297,7 +15297,7 @@
         <v>0</v>
       </c>
       <c r="H439" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="440">
@@ -15750,7 +15750,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -15773,7 +15773,7 @@
         <v>0</v>
       </c>
       <c r="H453" t="n">
-        <v>29828</v>
+        <v>29835</v>
       </c>
     </row>
     <row r="454">
@@ -16294,7 +16294,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -16317,7 +16317,7 @@
         <v>0</v>
       </c>
       <c r="H469" t="n">
-        <v>36409</v>
+        <v>37401</v>
       </c>
     </row>
     <row r="470">
@@ -16702,7 +16702,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -16906,7 +16906,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -16929,7 +16929,7 @@
         <v>0</v>
       </c>
       <c r="H487" t="n">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="488">
@@ -16940,7 +16940,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -16963,7 +16963,7 @@
         <v>0</v>
       </c>
       <c r="H488" t="n">
-        <v>1362</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="489">
@@ -17212,7 +17212,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -17235,7 +17235,7 @@
         <v>0</v>
       </c>
       <c r="H496" t="n">
-        <v>926</v>
+        <v>972</v>
       </c>
     </row>
     <row r="497">
@@ -17246,7 +17246,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>2023/11/30</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -17269,7 +17269,7 @@
         <v>0</v>
       </c>
       <c r="H497" t="n">
-        <v>313</v>
+        <v>387</v>
       </c>
     </row>
     <row r="498">
@@ -17382,7 +17382,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -17405,7 +17405,7 @@
         <v>0</v>
       </c>
       <c r="H501" t="n">
-        <v>1116</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="502">
@@ -17586,7 +17586,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -17609,7 +17609,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="n">
-        <v>559</v>
+        <v>571</v>
       </c>
     </row>
     <row r="508">
@@ -17858,7 +17858,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -18096,7 +18096,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -18119,7 +18119,7 @@
         <v>0</v>
       </c>
       <c r="H522" t="n">
-        <v>594</v>
+        <v>644</v>
       </c>
     </row>
     <row r="523">
@@ -18198,7 +18198,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -18221,7 +18221,7 @@
         <v>0</v>
       </c>
       <c r="H525" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="526">
@@ -18470,7 +18470,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -18493,7 +18493,7 @@
         <v>0</v>
       </c>
       <c r="H533" t="n">
-        <v>307</v>
+        <v>328</v>
       </c>
     </row>
     <row r="534">
@@ -18674,7 +18674,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -18697,7 +18697,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="n">
-        <v>444</v>
+        <v>460</v>
       </c>
     </row>
     <row r="540">
@@ -18708,7 +18708,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -18731,7 +18731,7 @@
         <v>0</v>
       </c>
       <c r="H540" t="n">
-        <v>271</v>
+        <v>283</v>
       </c>
     </row>
     <row r="541">
@@ -18742,7 +18742,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -18765,7 +18765,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="n">
-        <v>888</v>
+        <v>944</v>
       </c>
     </row>
     <row r="542">
@@ -18878,7 +18878,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>2024/03/28</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -18901,7 +18901,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="546">
@@ -19082,7 +19082,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -19105,7 +19105,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="n">
-        <v>417</v>
+        <v>433</v>
       </c>
     </row>
     <row r="552">
@@ -19116,7 +19116,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -19139,7 +19139,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="n">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="553">
@@ -19286,7 +19286,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -19309,7 +19309,7 @@
         <v>0</v>
       </c>
       <c r="H557" t="n">
-        <v>286</v>
+        <v>333</v>
       </c>
     </row>
     <row r="558">
@@ -19354,7 +19354,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>2024/03/27</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -19377,7 +19377,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="n">
-        <v>878</v>
+        <v>995</v>
       </c>
     </row>
     <row r="560">
@@ -19490,7 +19490,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -19513,7 +19513,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="n">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="564">
@@ -19558,7 +19558,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -19581,7 +19581,7 @@
         <v>0</v>
       </c>
       <c r="H565" t="n">
-        <v>2464</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="566">
@@ -19660,7 +19660,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -19683,7 +19683,7 @@
         <v>0</v>
       </c>
       <c r="H568" t="n">
-        <v>1031</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="569">
@@ -19830,7 +19830,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -19853,7 +19853,7 @@
         <v>0</v>
       </c>
       <c r="H573" t="n">
-        <v>765</v>
+        <v>820</v>
       </c>
     </row>
     <row r="574">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -19887,7 +19887,7 @@
         <v>0</v>
       </c>
       <c r="H574" t="n">
-        <v>248</v>
+        <v>267</v>
       </c>
     </row>
     <row r="575">
@@ -20136,7 +20136,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -20159,7 +20159,7 @@
         <v>0</v>
       </c>
       <c r="H582" t="n">
-        <v>258</v>
+        <v>269</v>
       </c>
     </row>
     <row r="583">
@@ -20204,7 +20204,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -20227,7 +20227,7 @@
         <v>0</v>
       </c>
       <c r="H584" t="n">
-        <v>298</v>
+        <v>435</v>
       </c>
     </row>
     <row r="585">
@@ -20272,7 +20272,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -20295,7 +20295,7 @@
         <v>0</v>
       </c>
       <c r="H586" t="n">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="587">
@@ -20442,7 +20442,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -20465,7 +20465,7 @@
         <v>0</v>
       </c>
       <c r="H591" t="n">
-        <v>1020</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="592">
@@ -20612,7 +20612,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -20635,7 +20635,7 @@
         <v>0</v>
       </c>
       <c r="H596" t="n">
-        <v>248</v>
+        <v>301</v>
       </c>
     </row>
     <row r="597">
@@ -20782,7 +20782,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -20918,7 +20918,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -20986,7 +20986,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -21009,7 +21009,7 @@
         <v>0</v>
       </c>
       <c r="H607" t="n">
-        <v>190</v>
+        <v>209</v>
       </c>
     </row>
     <row r="608">
@@ -21156,7 +21156,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -21179,7 +21179,7 @@
         <v>0</v>
       </c>
       <c r="H612" t="n">
-        <v>102</v>
+        <v>117</v>
       </c>
     </row>
     <row r="613">
@@ -21190,7 +21190,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -21213,7 +21213,7 @@
         <v>0</v>
       </c>
       <c r="H613" t="n">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="614">
@@ -21530,7 +21530,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -21802,7 +21802,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -21928,6 +21928,74 @@
       </c>
       <c r="H634" t="n">
         <v>86</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>2024/04/04</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>Corporación de Deportes de Independencia</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>CM125</t>
+        </is>
+      </c>
+      <c r="E635" t="n">
+        <v>0</v>
+      </c>
+      <c r="F635" t="n">
+        <v>0</v>
+      </c>
+      <c r="G635" t="n">
+        <v>0</v>
+      </c>
+      <c r="H635" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>2024/04/05</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>Corporación de Deportes de Parral</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>CM127</t>
+        </is>
+      </c>
+      <c r="E636" t="n">
+        <v>0</v>
+      </c>
+      <c r="F636" t="n">
+        <v>0</v>
+      </c>
+      <c r="G636" t="n">
+        <v>0</v>
+      </c>
+      <c r="H636" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado_historico4.xlsx
+++ b/consolidado_historico4.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H636"/>
+  <dimension ref="A1:H637"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,7 +552,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7">
@@ -586,7 +586,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2629</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="8">
@@ -756,7 +756,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13">
@@ -824,7 +824,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2020/02/13</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1920</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="15">
@@ -858,7 +858,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
@@ -926,7 +926,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1459,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>5573</v>
+        <v>5614</v>
       </c>
     </row>
     <row r="35">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>27359</v>
+        <v>27389</v>
       </c>
     </row>
     <row r="37">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>4531</v>
+        <v>4669</v>
       </c>
     </row>
     <row r="38">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>18451</v>
+        <v>18917</v>
       </c>
     </row>
     <row r="39">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>24586</v>
+        <v>24913</v>
       </c>
     </row>
     <row r="45">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>28174</v>
+        <v>28507</v>
       </c>
     </row>
     <row r="48">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>8029</v>
+        <v>8104</v>
       </c>
     </row>
     <row r="49">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>4919</v>
+        <v>5011</v>
       </c>
     </row>
     <row r="55">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>8063</v>
+        <v>8234</v>
       </c>
     </row>
     <row r="57">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>15421</v>
+        <v>15499</v>
       </c>
     </row>
     <row r="63">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>1615</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="64">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2024/03/27</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>13343</v>
+        <v>13572</v>
       </c>
     </row>
     <row r="66">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>16024</v>
+        <v>16198</v>
       </c>
     </row>
     <row r="72">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>24803</v>
+        <v>25067</v>
       </c>
     </row>
     <row r="74">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>31356</v>
+        <v>31361</v>
       </c>
     </row>
     <row r="77">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="78">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>4416</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="79">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>135386</v>
+        <v>135892</v>
       </c>
     </row>
     <row r="81">
@@ -3136,7 +3136,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="83">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>10049</v>
+        <v>10050</v>
       </c>
     </row>
     <row r="84">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>26058</v>
+        <v>26332</v>
       </c>
     </row>
     <row r="85">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2024/02/05</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>1653</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="88">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>12743</v>
+        <v>12982</v>
       </c>
     </row>
     <row r="89">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>81342</v>
+        <v>81408</v>
       </c>
     </row>
     <row r="90">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3465,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>1440</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="92">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>17516</v>
+        <v>17681</v>
       </c>
     </row>
     <row r="94">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>4413</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="95">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>5926</v>
+        <v>5931</v>
       </c>
     </row>
     <row r="97">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>8594</v>
+        <v>8696</v>
       </c>
     </row>
     <row r="99">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>69611</v>
+        <v>70332</v>
       </c>
     </row>
     <row r="100">
@@ -3748,7 +3748,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>44374</v>
+        <v>44793</v>
       </c>
     </row>
     <row r="101">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>80936</v>
+        <v>81787</v>
       </c>
     </row>
     <row r="102">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>21979</v>
+        <v>22249</v>
       </c>
     </row>
     <row r="103">
@@ -3918,7 +3918,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>1429</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="106">
@@ -3952,7 +3952,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>47046</v>
+        <v>47508</v>
       </c>
     </row>
     <row r="107">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>4125</v>
+        <v>4167</v>
       </c>
     </row>
     <row r="109">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>36085</v>
+        <v>36214</v>
       </c>
     </row>
     <row r="111">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>94899</v>
+        <v>95942</v>
       </c>
     </row>
     <row r="112">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>6692</v>
+        <v>6777</v>
       </c>
     </row>
     <row r="113">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4281,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>233982</v>
+        <v>235930</v>
       </c>
     </row>
     <row r="116">
@@ -4292,7 +4292,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>82203</v>
+        <v>83424</v>
       </c>
     </row>
     <row r="117">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>12512</v>
+        <v>12624</v>
       </c>
     </row>
     <row r="118">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2024/03/29</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>4652</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="120">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>15598</v>
+        <v>15604</v>
       </c>
     </row>
     <row r="124">
@@ -4598,7 +4598,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>12184</v>
+        <v>12458</v>
       </c>
     </row>
     <row r="126">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4655,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>23499</v>
+        <v>23777</v>
       </c>
     </row>
     <row r="127">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>1609</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="128">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>21470</v>
+        <v>22242</v>
       </c>
     </row>
     <row r="129">
@@ -4734,7 +4734,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="130">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>26063</v>
+        <v>26396</v>
       </c>
     </row>
     <row r="133">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>31929</v>
+        <v>31948</v>
       </c>
     </row>
     <row r="134">
@@ -4904,7 +4904,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4927,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>3332</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="135">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4961,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="136">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>13731</v>
+        <v>13753</v>
       </c>
     </row>
     <row r="137">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="139">
@@ -5074,7 +5074,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5097,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>15155</v>
+        <v>15518</v>
       </c>
     </row>
     <row r="140">
@@ -5108,7 +5108,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5131,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>3545</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="141">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5199,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>30273</v>
+        <v>30634</v>
       </c>
     </row>
     <row r="143">
@@ -5244,7 +5244,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="145">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5301,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="146">
@@ -5312,7 +5312,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2024/03/09</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5335,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>17193</v>
+        <v>17466</v>
       </c>
     </row>
     <row r="147">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5482,7 +5482,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5505,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>890</v>
+        <v>900</v>
       </c>
     </row>
     <row r="152">
@@ -5516,7 +5516,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5539,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>44820</v>
+        <v>45376</v>
       </c>
     </row>
     <row r="153">
@@ -5550,7 +5550,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5573,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>12538</v>
+        <v>13021</v>
       </c>
     </row>
     <row r="154">
@@ -5584,7 +5584,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5607,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="H154" t="n">
-        <v>12756</v>
+        <v>12905</v>
       </c>
     </row>
     <row r="155">
@@ -5618,7 +5618,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5641,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>4508</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="156">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>46971</v>
+        <v>46987</v>
       </c>
     </row>
     <row r="158">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5743,7 +5743,7 @@
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>31413</v>
+        <v>31975</v>
       </c>
     </row>
     <row r="159">
@@ -5822,7 +5822,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2024/03/23</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5845,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>18971</v>
+        <v>19183</v>
       </c>
     </row>
     <row r="162">
@@ -5856,7 +5856,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>44444</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="163">
@@ -5890,7 +5890,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5913,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>3171</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="164">
@@ -5924,7 +5924,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5947,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>42951</v>
+        <v>43567</v>
       </c>
     </row>
     <row r="165">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6015,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>42045</v>
+        <v>42096</v>
       </c>
     </row>
     <row r="167">
@@ -6026,7 +6026,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>880</v>
+        <v>933</v>
       </c>
     </row>
     <row r="168">
@@ -6094,7 +6094,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6117,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="H169" t="n">
-        <v>15481</v>
+        <v>15809</v>
       </c>
     </row>
     <row r="170">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6151,7 +6151,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>85378</v>
+        <v>86306</v>
       </c>
     </row>
     <row r="171">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6185,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="172">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6219,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>858</v>
+        <v>873</v>
       </c>
     </row>
     <row r="173">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>16893</v>
+        <v>17057</v>
       </c>
     </row>
     <row r="175">
@@ -6298,7 +6298,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6321,7 +6321,7 @@
         <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>24508</v>
+        <v>24917</v>
       </c>
     </row>
     <row r="176">
@@ -6332,7 +6332,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6355,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>2099</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="177">
@@ -6366,7 +6366,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6389,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="H177" t="n">
-        <v>13369</v>
+        <v>13521</v>
       </c>
     </row>
     <row r="178">
@@ -6400,7 +6400,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6423,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>44219</v>
+        <v>44712</v>
       </c>
     </row>
     <row r="179">
@@ -6434,7 +6434,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -6457,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>18195</v>
+        <v>18362</v>
       </c>
     </row>
     <row r="180">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -6502,7 +6502,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6525,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="H181" t="n">
-        <v>99596</v>
+        <v>100757</v>
       </c>
     </row>
     <row r="182">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6593,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="H183" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="184">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6627,7 +6627,7 @@
         <v>0</v>
       </c>
       <c r="H184" t="n">
-        <v>39604</v>
+        <v>40065</v>
       </c>
     </row>
     <row r="185">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>12693</v>
+        <v>12821</v>
       </c>
     </row>
     <row r="186">
@@ -6672,7 +6672,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6695,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>36237</v>
+        <v>36341</v>
       </c>
     </row>
     <row r="187">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6729,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="n">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="188">
@@ -6740,7 +6740,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6763,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>9274</v>
+        <v>9469</v>
       </c>
     </row>
     <row r="189">
@@ -6774,7 +6774,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -6797,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="n">
-        <v>31350</v>
+        <v>31780</v>
       </c>
     </row>
     <row r="190">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2024/03/09</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="H190" t="n">
-        <v>3240</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="191">
@@ -6842,7 +6842,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6876,7 +6876,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6899,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>67321</v>
+        <v>68045</v>
       </c>
     </row>
     <row r="193">
@@ -6978,7 +6978,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>18783</v>
+        <v>19001</v>
       </c>
     </row>
     <row r="196">
@@ -7012,7 +7012,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>22800</v>
+        <v>23293</v>
       </c>
     </row>
     <row r="197">
@@ -7046,7 +7046,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -7069,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>21253</v>
+        <v>21274</v>
       </c>
     </row>
     <row r="198">
@@ -7080,7 +7080,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="199">
@@ -7114,7 +7114,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -7137,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="n">
-        <v>3072</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="200">
@@ -7148,7 +7148,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="n">
-        <v>25254</v>
+        <v>25500</v>
       </c>
     </row>
     <row r="201">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -7239,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="203">
@@ -7318,7 +7318,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -7341,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="n">
-        <v>3062</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="206">
@@ -7352,7 +7352,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -7375,7 +7375,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>139559</v>
+        <v>142222</v>
       </c>
     </row>
     <row r="207">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -7477,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="H209" t="n">
-        <v>5729</v>
+        <v>5848</v>
       </c>
     </row>
     <row r="210">
@@ -7488,7 +7488,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>79019</v>
+        <v>80143</v>
       </c>
     </row>
     <row r="211">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -7545,7 +7545,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>41859</v>
+        <v>42423</v>
       </c>
     </row>
     <row r="212">
@@ -7590,7 +7590,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -7613,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="H213" t="n">
-        <v>14961</v>
+        <v>15131</v>
       </c>
     </row>
     <row r="214">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -7647,7 +7647,7 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>10550</v>
+        <v>10673</v>
       </c>
     </row>
     <row r="215">
@@ -7692,7 +7692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -7715,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="n">
-        <v>32659</v>
+        <v>33044</v>
       </c>
     </row>
     <row r="217">
@@ -7726,7 +7726,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -7749,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="n">
-        <v>39812</v>
+        <v>39945</v>
       </c>
     </row>
     <row r="218">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="n">
-        <v>16790</v>
+        <v>17003</v>
       </c>
     </row>
     <row r="219">
@@ -7794,7 +7794,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -7817,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="n">
-        <v>15878</v>
+        <v>16009</v>
       </c>
     </row>
     <row r="220">
@@ -7828,7 +7828,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>45307</v>
+        <v>45806</v>
       </c>
     </row>
     <row r="221">
@@ -7862,7 +7862,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -7885,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>14738</v>
+        <v>14762</v>
       </c>
     </row>
     <row r="222">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -7953,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>78287</v>
+        <v>79049</v>
       </c>
     </row>
     <row r="224">
@@ -7964,7 +7964,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="n">
-        <v>47767</v>
+        <v>47909</v>
       </c>
     </row>
     <row r="225">
@@ -8032,7 +8032,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -8055,7 +8055,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="n">
-        <v>21328</v>
+        <v>21648</v>
       </c>
     </row>
     <row r="227">
@@ -8066,7 +8066,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -8134,7 +8134,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="H229" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="230">
@@ -8270,7 +8270,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -8293,7 +8293,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="234">
@@ -8304,7 +8304,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="H234" t="n">
-        <v>55085</v>
+        <v>55850</v>
       </c>
     </row>
     <row r="235">
@@ -8372,7 +8372,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2024/03/09</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -8395,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="H236" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="237">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -8463,7 +8463,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>48270</v>
+        <v>49118</v>
       </c>
     </row>
     <row r="239">
@@ -8474,7 +8474,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -8497,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="H239" t="n">
-        <v>32804</v>
+        <v>32805</v>
       </c>
     </row>
     <row r="240">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -8599,7 +8599,7 @@
         <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>22947</v>
+        <v>23186</v>
       </c>
     </row>
     <row r="243">
@@ -8644,7 +8644,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="245">
@@ -8678,7 +8678,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="n">
-        <v>13052</v>
+        <v>13196</v>
       </c>
     </row>
     <row r="246">
@@ -8746,7 +8746,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="n">
-        <v>677</v>
+        <v>691</v>
       </c>
     </row>
     <row r="248">
@@ -8780,7 +8780,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -8803,7 +8803,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="n">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="249">
@@ -8848,7 +8848,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="H250" t="n">
-        <v>23051</v>
+        <v>23313</v>
       </c>
     </row>
     <row r="251">
@@ -8950,7 +8950,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -8973,7 +8973,7 @@
         <v>0</v>
       </c>
       <c r="H253" t="n">
-        <v>408</v>
+        <v>432</v>
       </c>
     </row>
     <row r="254">
@@ -9018,7 +9018,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -9041,7 +9041,7 @@
         <v>0</v>
       </c>
       <c r="H255" t="n">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="256">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -9075,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>13154</v>
+        <v>13446</v>
       </c>
     </row>
     <row r="257">
@@ -9086,7 +9086,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="n">
-        <v>10760</v>
+        <v>10764</v>
       </c>
     </row>
     <row r="258">
@@ -9120,7 +9120,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -9143,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>25052</v>
+        <v>25282</v>
       </c>
     </row>
     <row r="259">
@@ -9222,7 +9222,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -9279,7 +9279,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="n">
-        <v>2948</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="263">
@@ -9290,7 +9290,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -9313,7 +9313,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="n">
-        <v>20973</v>
+        <v>21291</v>
       </c>
     </row>
     <row r="264">
@@ -9324,7 +9324,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -9347,7 +9347,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="n">
-        <v>15727</v>
+        <v>16029</v>
       </c>
     </row>
     <row r="265">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -9381,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="H265" t="n">
-        <v>77954</v>
+        <v>78801</v>
       </c>
     </row>
     <row r="266">
@@ -9392,7 +9392,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="H266" t="n">
-        <v>24497</v>
+        <v>24793</v>
       </c>
     </row>
     <row r="267">
@@ -9494,7 +9494,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -9517,7 +9517,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="n">
-        <v>9630</v>
+        <v>9795</v>
       </c>
     </row>
     <row r="270">
@@ -9528,7 +9528,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -9551,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="H270" t="n">
-        <v>25819</v>
+        <v>26093</v>
       </c>
     </row>
     <row r="271">
@@ -9562,7 +9562,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -9585,7 +9585,7 @@
         <v>0</v>
       </c>
       <c r="H271" t="n">
-        <v>7760</v>
+        <v>7761</v>
       </c>
     </row>
     <row r="272">
@@ -9630,7 +9630,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="H273" t="n">
-        <v>10316</v>
+        <v>10421</v>
       </c>
     </row>
     <row r="274">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -9755,7 +9755,7 @@
         <v>0</v>
       </c>
       <c r="H276" t="n">
-        <v>71212</v>
+        <v>72002</v>
       </c>
     </row>
     <row r="277">
@@ -9766,7 +9766,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="n">
-        <v>9531</v>
+        <v>9543</v>
       </c>
     </row>
     <row r="278">
@@ -9800,7 +9800,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -9823,7 +9823,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="n">
-        <v>8135</v>
+        <v>8214</v>
       </c>
     </row>
     <row r="279">
@@ -9834,7 +9834,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -9857,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="n">
-        <v>20672</v>
+        <v>20871</v>
       </c>
     </row>
     <row r="280">
@@ -9868,7 +9868,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -9891,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="n">
-        <v>35109</v>
+        <v>35141</v>
       </c>
     </row>
     <row r="281">
@@ -9902,7 +9902,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -9970,7 +9970,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -10038,7 +10038,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -10061,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="H285" t="n">
-        <v>638</v>
+        <v>692</v>
       </c>
     </row>
     <row r="286">
@@ -10140,7 +10140,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="n">
-        <v>26031</v>
+        <v>26517</v>
       </c>
     </row>
     <row r="289">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -10231,7 +10231,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="n">
-        <v>10989</v>
+        <v>11174</v>
       </c>
     </row>
     <row r="291">
@@ -10242,7 +10242,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -10265,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="n">
-        <v>30523</v>
+        <v>30521</v>
       </c>
     </row>
     <row r="292">
@@ -10276,7 +10276,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>2024/03/28</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -10299,7 +10299,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="n">
-        <v>6581</v>
+        <v>6678</v>
       </c>
     </row>
     <row r="293">
@@ -10310,7 +10310,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -10333,7 +10333,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="n">
-        <v>48735</v>
+        <v>49533</v>
       </c>
     </row>
     <row r="294">
@@ -10344,7 +10344,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="n">
-        <v>21027</v>
+        <v>21357</v>
       </c>
     </row>
     <row r="295">
@@ -10378,7 +10378,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -10401,7 +10401,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="n">
-        <v>13162</v>
+        <v>13264</v>
       </c>
     </row>
     <row r="296">
@@ -10412,7 +10412,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -10435,7 +10435,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="n">
-        <v>20389</v>
+        <v>20598</v>
       </c>
     </row>
     <row r="297">
@@ -10446,7 +10446,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -10469,7 +10469,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="n">
-        <v>74373</v>
+        <v>75558</v>
       </c>
     </row>
     <row r="298">
@@ -10480,7 +10480,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -10503,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="n">
-        <v>6654</v>
+        <v>6741</v>
       </c>
     </row>
     <row r="299">
@@ -10514,7 +10514,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -10582,7 +10582,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -10605,7 +10605,7 @@
         <v>0</v>
       </c>
       <c r="H301" t="n">
-        <v>18740</v>
+        <v>18976</v>
       </c>
     </row>
     <row r="302">
@@ -10616,7 +10616,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -10639,7 +10639,7 @@
         <v>0</v>
       </c>
       <c r="H302" t="n">
-        <v>16577</v>
+        <v>16749</v>
       </c>
     </row>
     <row r="303">
@@ -10650,7 +10650,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="H303" t="n">
-        <v>40447</v>
+        <v>40860</v>
       </c>
     </row>
     <row r="304">
@@ -10684,7 +10684,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -10752,7 +10752,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="H306" t="n">
-        <v>26345</v>
+        <v>26669</v>
       </c>
     </row>
     <row r="307">
@@ -10786,7 +10786,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -10809,7 +10809,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="308">
@@ -10820,7 +10820,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>2024/03/09</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="n">
-        <v>6148</v>
+        <v>6245</v>
       </c>
     </row>
     <row r="309">
@@ -10854,7 +10854,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -10877,7 +10877,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="n">
-        <v>52051</v>
+        <v>52629</v>
       </c>
     </row>
     <row r="310">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -10911,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="n">
-        <v>10195</v>
+        <v>10333</v>
       </c>
     </row>
     <row r="311">
@@ -10990,7 +10990,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -11013,7 +11013,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="n">
-        <v>3430</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="314">
@@ -11024,7 +11024,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -11047,7 +11047,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="n">
-        <v>42406</v>
+        <v>42984</v>
       </c>
     </row>
     <row r="315">
@@ -11194,7 +11194,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="n">
-        <v>30701</v>
+        <v>30703</v>
       </c>
     </row>
     <row r="320">
@@ -11228,7 +11228,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="n">
-        <v>64974</v>
+        <v>65651</v>
       </c>
     </row>
     <row r="321">
@@ -11262,7 +11262,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -11330,7 +11330,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -11353,7 +11353,7 @@
         <v>0</v>
       </c>
       <c r="H323" t="n">
-        <v>1711</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="324">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="H324" t="n">
-        <v>4502</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="325">
@@ -11398,7 +11398,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -11421,7 +11421,7 @@
         <v>0</v>
       </c>
       <c r="H325" t="n">
-        <v>34022</v>
+        <v>34035</v>
       </c>
     </row>
     <row r="326">
@@ -11432,7 +11432,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -11455,7 +11455,7 @@
         <v>0</v>
       </c>
       <c r="H326" t="n">
-        <v>13329</v>
+        <v>13506</v>
       </c>
     </row>
     <row r="327">
@@ -11466,7 +11466,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -11489,7 +11489,7 @@
         <v>0</v>
       </c>
       <c r="H327" t="n">
-        <v>39945</v>
+        <v>40425</v>
       </c>
     </row>
     <row r="328">
@@ -11500,7 +11500,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -11523,7 +11523,7 @@
         <v>0</v>
       </c>
       <c r="H328" t="n">
-        <v>18722</v>
+        <v>18744</v>
       </c>
     </row>
     <row r="329">
@@ -11534,7 +11534,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -11557,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="n">
-        <v>21719</v>
+        <v>22471</v>
       </c>
     </row>
     <row r="330">
@@ -11602,7 +11602,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -11625,7 +11625,7 @@
         <v>0</v>
       </c>
       <c r="H331" t="n">
-        <v>1993</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="332">
@@ -11636,7 +11636,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -11670,7 +11670,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -11693,7 +11693,7 @@
         <v>0</v>
       </c>
       <c r="H333" t="n">
-        <v>1423</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="334">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -11727,7 +11727,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="335">
@@ -11738,7 +11738,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -11761,7 +11761,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="n">
-        <v>60707</v>
+        <v>61260</v>
       </c>
     </row>
     <row r="336">
@@ -11840,7 +11840,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -11863,7 +11863,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="n">
-        <v>44759</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="339">
@@ -11874,7 +11874,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -11908,7 +11908,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -11931,7 +11931,7 @@
         <v>0</v>
       </c>
       <c r="H340" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="341">
@@ -11942,7 +11942,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -11965,7 +11965,7 @@
         <v>0</v>
       </c>
       <c r="H341" t="n">
-        <v>57303</v>
+        <v>57955</v>
       </c>
     </row>
     <row r="342">
@@ -12010,7 +12010,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -12033,7 +12033,7 @@
         <v>0</v>
       </c>
       <c r="H343" t="n">
-        <v>291</v>
+        <v>305</v>
       </c>
     </row>
     <row r="344">
@@ -12044,7 +12044,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -12067,7 +12067,7 @@
         <v>0</v>
       </c>
       <c r="H344" t="n">
-        <v>23568</v>
+        <v>23872</v>
       </c>
     </row>
     <row r="345">
@@ -12078,7 +12078,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -12101,7 +12101,7 @@
         <v>0</v>
       </c>
       <c r="H345" t="n">
-        <v>2456</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="346">
@@ -12112,7 +12112,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -12135,7 +12135,7 @@
         <v>0</v>
       </c>
       <c r="H346" t="n">
-        <v>49072</v>
+        <v>49077</v>
       </c>
     </row>
     <row r="347">
@@ -12180,7 +12180,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -12203,7 +12203,7 @@
         <v>0</v>
       </c>
       <c r="H348" t="n">
-        <v>5522</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="349">
@@ -12214,7 +12214,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -12237,7 +12237,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="n">
-        <v>11196</v>
+        <v>11203</v>
       </c>
     </row>
     <row r="350">
@@ -12248,7 +12248,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -12271,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="H350" t="n">
-        <v>132546</v>
+        <v>133224</v>
       </c>
     </row>
     <row r="351">
@@ -12316,7 +12316,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -12339,7 +12339,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="n">
-        <v>11357</v>
+        <v>11474</v>
       </c>
     </row>
     <row r="353">
@@ -12384,7 +12384,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -12407,7 +12407,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="n">
-        <v>3301</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="355">
@@ -12418,7 +12418,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>2024/03/10</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -12441,7 +12441,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="n">
-        <v>8440</v>
+        <v>8573</v>
       </c>
     </row>
     <row r="356">
@@ -12486,7 +12486,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -12509,7 +12509,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="n">
-        <v>33351</v>
+        <v>33868</v>
       </c>
     </row>
     <row r="358">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -12543,7 +12543,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="n">
-        <v>32987</v>
+        <v>34302</v>
       </c>
     </row>
     <row r="359">
@@ -12554,7 +12554,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -12577,7 +12577,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="n">
-        <v>87273</v>
+        <v>88269</v>
       </c>
     </row>
     <row r="360">
@@ -12588,7 +12588,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -12611,7 +12611,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="n">
-        <v>12554</v>
+        <v>12666</v>
       </c>
     </row>
     <row r="361">
@@ -12690,7 +12690,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="n">
-        <v>28708</v>
+        <v>28722</v>
       </c>
     </row>
     <row r="364">
@@ -12724,7 +12724,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -12747,7 +12747,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="365">
@@ -12792,7 +12792,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -12815,7 +12815,7 @@
         <v>0</v>
       </c>
       <c r="H366" t="n">
-        <v>2404</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="367">
@@ -12860,7 +12860,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="n">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="369">
@@ -12894,7 +12894,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -12917,7 +12917,7 @@
         <v>0</v>
       </c>
       <c r="H369" t="n">
-        <v>12841</v>
+        <v>12862</v>
       </c>
     </row>
     <row r="370">
@@ -12928,7 +12928,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -12962,7 +12962,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -12985,7 +12985,7 @@
         <v>0</v>
       </c>
       <c r="H371" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="372">
@@ -13030,7 +13030,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -13053,7 +13053,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="n">
-        <v>8853</v>
+        <v>8854</v>
       </c>
     </row>
     <row r="374">
@@ -13064,7 +13064,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -13087,7 +13087,7 @@
         <v>0</v>
       </c>
       <c r="H374" t="n">
-        <v>6065</v>
+        <v>6151</v>
       </c>
     </row>
     <row r="375">
@@ -13200,7 +13200,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -13223,7 +13223,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="n">
-        <v>2060</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="379">
@@ -13234,7 +13234,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -13268,7 +13268,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -13291,7 +13291,7 @@
         <v>0</v>
       </c>
       <c r="H380" t="n">
-        <v>16530</v>
+        <v>16786</v>
       </c>
     </row>
     <row r="381">
@@ -13302,7 +13302,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="H381" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="382">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -13359,7 +13359,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="n">
-        <v>3124</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="383">
@@ -13370,7 +13370,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -13393,7 +13393,7 @@
         <v>0</v>
       </c>
       <c r="H383" t="n">
-        <v>13374</v>
+        <v>13384</v>
       </c>
     </row>
     <row r="384">
@@ -13404,7 +13404,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -13427,7 +13427,7 @@
         <v>0</v>
       </c>
       <c r="H384" t="n">
-        <v>177382</v>
+        <v>179187</v>
       </c>
     </row>
     <row r="385">
@@ -13438,7 +13438,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -13461,7 +13461,7 @@
         <v>0</v>
       </c>
       <c r="H385" t="n">
-        <v>26129</v>
+        <v>26225</v>
       </c>
     </row>
     <row r="386">
@@ -13472,7 +13472,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -13506,7 +13506,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -13529,7 +13529,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="n">
-        <v>14729</v>
+        <v>14984</v>
       </c>
     </row>
     <row r="388">
@@ -13574,7 +13574,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -13597,7 +13597,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="n">
-        <v>135802</v>
+        <v>137766</v>
       </c>
     </row>
     <row r="390">
@@ -13608,7 +13608,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="n">
-        <v>983</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="391">
@@ -13642,7 +13642,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -13665,7 +13665,7 @@
         <v>0</v>
       </c>
       <c r="H391" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="392">
@@ -13710,7 +13710,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -13733,7 +13733,7 @@
         <v>0</v>
       </c>
       <c r="H393" t="n">
-        <v>22796</v>
+        <v>23077</v>
       </c>
     </row>
     <row r="394">
@@ -13744,7 +13744,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -13767,7 +13767,7 @@
         <v>0</v>
       </c>
       <c r="H394" t="n">
-        <v>15161</v>
+        <v>15179</v>
       </c>
     </row>
     <row r="395">
@@ -13778,7 +13778,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -13801,7 +13801,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="n">
-        <v>9092</v>
+        <v>9201</v>
       </c>
     </row>
     <row r="396">
@@ -13812,7 +13812,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -13835,7 +13835,7 @@
         <v>0</v>
       </c>
       <c r="H396" t="n">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="397">
@@ -13880,7 +13880,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -13903,7 +13903,7 @@
         <v>0</v>
       </c>
       <c r="H398" t="n">
-        <v>67401</v>
+        <v>67412</v>
       </c>
     </row>
     <row r="399">
@@ -13948,7 +13948,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -13971,7 +13971,7 @@
         <v>0</v>
       </c>
       <c r="H400" t="n">
-        <v>7154</v>
+        <v>7221</v>
       </c>
     </row>
     <row r="401">
@@ -13982,7 +13982,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -14005,7 +14005,7 @@
         <v>0</v>
       </c>
       <c r="H401" t="n">
-        <v>14703</v>
+        <v>14751</v>
       </c>
     </row>
     <row r="402">
@@ -14016,7 +14016,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -14039,7 +14039,7 @@
         <v>0</v>
       </c>
       <c r="H402" t="n">
-        <v>3851</v>
+        <v>3863</v>
       </c>
     </row>
     <row r="403">
@@ -14050,7 +14050,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -14073,7 +14073,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="n">
-        <v>50069</v>
+        <v>50649</v>
       </c>
     </row>
     <row r="404">
@@ -14084,7 +14084,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -14107,7 +14107,7 @@
         <v>0</v>
       </c>
       <c r="H404" t="n">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="405">
@@ -14186,7 +14186,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -14209,7 +14209,7 @@
         <v>0</v>
       </c>
       <c r="H407" t="n">
-        <v>16115</v>
+        <v>16340</v>
       </c>
     </row>
     <row r="408">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -14243,7 +14243,7 @@
         <v>0</v>
       </c>
       <c r="H408" t="n">
-        <v>57319</v>
+        <v>58812</v>
       </c>
     </row>
     <row r="409">
@@ -14322,7 +14322,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -14345,7 +14345,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="n">
-        <v>11831</v>
+        <v>11844</v>
       </c>
     </row>
     <row r="412">
@@ -14458,7 +14458,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -14481,7 +14481,7 @@
         <v>0</v>
       </c>
       <c r="H415" t="n">
-        <v>2284</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="416">
@@ -14492,7 +14492,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -14526,7 +14526,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -14549,7 +14549,7 @@
         <v>0</v>
       </c>
       <c r="H417" t="n">
-        <v>3059</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="418">
@@ -14594,7 +14594,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -14617,7 +14617,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="n">
-        <v>3946</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="420">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -14651,7 +14651,7 @@
         <v>0</v>
       </c>
       <c r="H420" t="n">
-        <v>18386</v>
+        <v>18604</v>
       </c>
     </row>
     <row r="421">
@@ -14696,7 +14696,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -14719,7 +14719,7 @@
         <v>0</v>
       </c>
       <c r="H422" t="n">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="423">
@@ -14764,7 +14764,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -14787,7 +14787,7 @@
         <v>0</v>
       </c>
       <c r="H424" t="n">
-        <v>19515</v>
+        <v>19879</v>
       </c>
     </row>
     <row r="425">
@@ -14832,7 +14832,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -14855,7 +14855,7 @@
         <v>0</v>
       </c>
       <c r="H426" t="n">
-        <v>76722</v>
+        <v>77561</v>
       </c>
     </row>
     <row r="427">
@@ -14866,7 +14866,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -14889,7 +14889,7 @@
         <v>0</v>
       </c>
       <c r="H427" t="n">
-        <v>47306</v>
+        <v>47829</v>
       </c>
     </row>
     <row r="428">
@@ -14900,7 +14900,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -14923,7 +14923,7 @@
         <v>0</v>
       </c>
       <c r="H428" t="n">
-        <v>24668</v>
+        <v>24919</v>
       </c>
     </row>
     <row r="429">
@@ -15002,7 +15002,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -15025,7 +15025,7 @@
         <v>0</v>
       </c>
       <c r="H431" t="n">
-        <v>37510</v>
+        <v>37956</v>
       </c>
     </row>
     <row r="432">
@@ -15036,7 +15036,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -15104,7 +15104,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -15127,7 +15127,7 @@
         <v>0</v>
       </c>
       <c r="H434" t="n">
-        <v>81854</v>
+        <v>83479</v>
       </c>
     </row>
     <row r="435">
@@ -15138,7 +15138,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -15161,7 +15161,7 @@
         <v>0</v>
       </c>
       <c r="H435" t="n">
-        <v>34208</v>
+        <v>34589</v>
       </c>
     </row>
     <row r="436">
@@ -15172,7 +15172,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -15195,7 +15195,7 @@
         <v>0</v>
       </c>
       <c r="H436" t="n">
-        <v>4087</v>
+        <v>4088</v>
       </c>
     </row>
     <row r="437">
@@ -15206,7 +15206,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -15229,7 +15229,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="n">
-        <v>11208</v>
+        <v>11218</v>
       </c>
     </row>
     <row r="438">
@@ -15240,7 +15240,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -15308,7 +15308,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -15331,7 +15331,7 @@
         <v>0</v>
       </c>
       <c r="H440" t="n">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="441">
@@ -15376,7 +15376,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -15399,7 +15399,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="n">
-        <v>2811</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="443">
@@ -15444,7 +15444,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>2024/03/17</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -15467,7 +15467,7 @@
         <v>0</v>
       </c>
       <c r="H444" t="n">
-        <v>3850</v>
+        <v>3977</v>
       </c>
     </row>
     <row r="445">
@@ -15478,7 +15478,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -15501,7 +15501,7 @@
         <v>0</v>
       </c>
       <c r="H445" t="n">
-        <v>11495</v>
+        <v>11655</v>
       </c>
     </row>
     <row r="446">
@@ -15512,7 +15512,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -15546,7 +15546,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -15569,7 +15569,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="n">
-        <v>18019</v>
+        <v>18199</v>
       </c>
     </row>
     <row r="448">
@@ -15580,7 +15580,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -15603,7 +15603,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="n">
-        <v>1073</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="449">
@@ -15648,7 +15648,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -15671,7 +15671,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="n">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="451">
@@ -15682,7 +15682,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -15705,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="n">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="452">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -15807,7 +15807,7 @@
         <v>0</v>
       </c>
       <c r="H454" t="n">
-        <v>50670</v>
+        <v>51166</v>
       </c>
     </row>
     <row r="455">
@@ -15818,7 +15818,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -15841,7 +15841,7 @@
         <v>0</v>
       </c>
       <c r="H455" t="n">
-        <v>38486</v>
+        <v>38913</v>
       </c>
     </row>
     <row r="456">
@@ -15852,7 +15852,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -15875,7 +15875,7 @@
         <v>0</v>
       </c>
       <c r="H456" t="n">
-        <v>15098</v>
+        <v>15104</v>
       </c>
     </row>
     <row r="457">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -15943,7 +15943,7 @@
         <v>0</v>
       </c>
       <c r="H458" t="n">
-        <v>4321</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="459">
@@ -15954,7 +15954,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -15977,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="H459" t="n">
-        <v>21915</v>
+        <v>22173</v>
       </c>
     </row>
     <row r="460">
@@ -15988,7 +15988,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -16011,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="n">
-        <v>14586</v>
+        <v>14697</v>
       </c>
     </row>
     <row r="461">
@@ -16022,7 +16022,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -16045,7 +16045,7 @@
         <v>0</v>
       </c>
       <c r="H461" t="n">
-        <v>2391</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="462">
@@ -16056,7 +16056,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -16079,7 +16079,7 @@
         <v>0</v>
       </c>
       <c r="H462" t="n">
-        <v>9886</v>
+        <v>9891</v>
       </c>
     </row>
     <row r="463">
@@ -16158,7 +16158,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -16181,7 +16181,7 @@
         <v>0</v>
       </c>
       <c r="H465" t="n">
-        <v>64697</v>
+        <v>65929</v>
       </c>
     </row>
     <row r="466">
@@ -16192,7 +16192,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -16215,7 +16215,7 @@
         <v>0</v>
       </c>
       <c r="H466" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="467">
@@ -16226,7 +16226,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -16249,7 +16249,7 @@
         <v>0</v>
       </c>
       <c r="H467" t="n">
-        <v>906</v>
+        <v>923</v>
       </c>
     </row>
     <row r="468">
@@ -16260,7 +16260,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -16283,7 +16283,7 @@
         <v>0</v>
       </c>
       <c r="H468" t="n">
-        <v>89954</v>
+        <v>92461</v>
       </c>
     </row>
     <row r="469">
@@ -16396,7 +16396,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -16430,7 +16430,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -16453,7 +16453,7 @@
         <v>0</v>
       </c>
       <c r="H473" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="474">
@@ -16464,7 +16464,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -16487,7 +16487,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="n">
-        <v>1785</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="475">
@@ -16498,7 +16498,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -16521,7 +16521,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="n">
-        <v>2369</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="476">
@@ -16566,7 +16566,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -16589,7 +16589,7 @@
         <v>0</v>
       </c>
       <c r="H477" t="n">
-        <v>101581</v>
+        <v>102721</v>
       </c>
     </row>
     <row r="478">
@@ -16634,7 +16634,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -16657,7 +16657,7 @@
         <v>0</v>
       </c>
       <c r="H479" t="n">
-        <v>3645</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="480">
@@ -16668,7 +16668,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -16691,7 +16691,7 @@
         <v>0</v>
       </c>
       <c r="H480" t="n">
-        <v>806679</v>
+        <v>831955</v>
       </c>
     </row>
     <row r="481">
@@ -16804,7 +16804,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -16827,7 +16827,7 @@
         <v>0</v>
       </c>
       <c r="H484" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="485">
@@ -16974,7 +16974,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -16997,7 +16997,7 @@
         <v>0</v>
       </c>
       <c r="H489" t="n">
-        <v>2639</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="490">
@@ -17008,7 +17008,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>2023/03/27</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -17031,7 +17031,7 @@
         <v>0</v>
       </c>
       <c r="H490" t="n">
-        <v>153</v>
+        <v>311</v>
       </c>
     </row>
     <row r="491">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -17099,7 +17099,7 @@
         <v>0</v>
       </c>
       <c r="H492" t="n">
-        <v>327</v>
+        <v>340</v>
       </c>
     </row>
     <row r="493">
@@ -17178,7 +17178,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -17201,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="H495" t="n">
-        <v>1920</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="496">
@@ -17280,7 +17280,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -17303,7 +17303,7 @@
         <v>0</v>
       </c>
       <c r="H498" t="n">
-        <v>262</v>
+        <v>290</v>
       </c>
     </row>
     <row r="499">
@@ -17314,7 +17314,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>2024/01/03</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -17337,7 +17337,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="n">
-        <v>1698</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="500">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -17439,7 +17439,7 @@
         <v>0</v>
       </c>
       <c r="H502" t="n">
-        <v>14277</v>
+        <v>14874</v>
       </c>
     </row>
     <row r="503">
@@ -17450,7 +17450,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -17473,7 +17473,7 @@
         <v>0</v>
       </c>
       <c r="H503" t="n">
-        <v>5479</v>
+        <v>5712</v>
       </c>
     </row>
     <row r="504">
@@ -17518,7 +17518,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -17541,7 +17541,7 @@
         <v>0</v>
       </c>
       <c r="H505" t="n">
-        <v>674</v>
+        <v>700</v>
       </c>
     </row>
     <row r="506">
@@ -17858,7 +17858,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -17881,7 +17881,7 @@
         <v>0</v>
       </c>
       <c r="H515" t="n">
-        <v>3673</v>
+        <v>4071</v>
       </c>
     </row>
     <row r="516">
@@ -18028,7 +18028,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -18051,7 +18051,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="n">
-        <v>1958</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="521">
@@ -18062,7 +18062,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -18085,7 +18085,7 @@
         <v>0</v>
       </c>
       <c r="H521" t="n">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="522">
@@ -18130,7 +18130,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -18153,7 +18153,7 @@
         <v>0</v>
       </c>
       <c r="H523" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="524">
@@ -18266,7 +18266,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -18289,7 +18289,7 @@
         <v>0</v>
       </c>
       <c r="H527" t="n">
-        <v>876</v>
+        <v>908</v>
       </c>
     </row>
     <row r="528">
@@ -18300,7 +18300,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -18323,7 +18323,7 @@
         <v>0</v>
       </c>
       <c r="H528" t="n">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="529">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -18391,7 +18391,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="n">
-        <v>3666</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="531">
@@ -18402,7 +18402,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -18425,7 +18425,7 @@
         <v>0</v>
       </c>
       <c r="H531" t="n">
-        <v>315</v>
+        <v>339</v>
       </c>
     </row>
     <row r="532">
@@ -18436,7 +18436,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -18459,7 +18459,7 @@
         <v>0</v>
       </c>
       <c r="H532" t="n">
-        <v>1061</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="533">
@@ -18504,7 +18504,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -18527,7 +18527,7 @@
         <v>0</v>
       </c>
       <c r="H534" t="n">
-        <v>2687</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="535">
@@ -18912,7 +18912,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>2023/12/28</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -18935,7 +18935,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="n">
-        <v>5586</v>
+        <v>5655</v>
       </c>
     </row>
     <row r="547">
@@ -18946,7 +18946,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -18969,7 +18969,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="548">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -19071,7 +19071,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="551">
@@ -19218,7 +19218,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -19320,7 +19320,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -19343,7 +19343,7 @@
         <v>0</v>
       </c>
       <c r="H558" t="n">
-        <v>586</v>
+        <v>621</v>
       </c>
     </row>
     <row r="559">
@@ -19388,7 +19388,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -19411,7 +19411,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="n">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="561">
@@ -19456,7 +19456,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -19479,7 +19479,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="563">
@@ -19490,7 +19490,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -19513,7 +19513,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="n">
-        <v>805</v>
+        <v>874</v>
       </c>
     </row>
     <row r="564">
@@ -19728,7 +19728,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -19751,7 +19751,7 @@
         <v>0</v>
       </c>
       <c r="H570" t="n">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="571">
@@ -19762,7 +19762,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -19785,7 +19785,7 @@
         <v>0</v>
       </c>
       <c r="H571" t="n">
-        <v>2849</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="572">
@@ -20034,7 +20034,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -20057,7 +20057,7 @@
         <v>0</v>
       </c>
       <c r="H579" t="n">
-        <v>2431</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="580">
@@ -20068,7 +20068,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -20091,7 +20091,7 @@
         <v>0</v>
       </c>
       <c r="H580" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="581">
@@ -20170,7 +20170,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -20193,7 +20193,7 @@
         <v>0</v>
       </c>
       <c r="H583" t="n">
-        <v>5495</v>
+        <v>5643</v>
       </c>
     </row>
     <row r="584">
@@ -20408,7 +20408,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -20431,7 +20431,7 @@
         <v>0</v>
       </c>
       <c r="H590" t="n">
-        <v>1077</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="591">
@@ -20476,7 +20476,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -20499,7 +20499,7 @@
         <v>0</v>
       </c>
       <c r="H592" t="n">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="593">
@@ -20510,7 +20510,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -20533,7 +20533,7 @@
         <v>0</v>
       </c>
       <c r="H593" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="594">
@@ -20544,7 +20544,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -20567,7 +20567,7 @@
         <v>0</v>
       </c>
       <c r="H594" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="595">
@@ -20578,7 +20578,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -20601,7 +20601,7 @@
         <v>0</v>
       </c>
       <c r="H595" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="596">
@@ -20646,7 +20646,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>2023/07/18</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
@@ -20669,7 +20669,7 @@
         <v>0</v>
       </c>
       <c r="H597" t="n">
-        <v>3684</v>
+        <v>4252</v>
       </c>
     </row>
     <row r="598">
@@ -20714,7 +20714,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -20737,7 +20737,7 @@
         <v>0</v>
       </c>
       <c r="H599" t="n">
-        <v>715</v>
+        <v>797</v>
       </c>
     </row>
     <row r="600">
@@ -20782,7 +20782,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -20805,7 +20805,7 @@
         <v>0</v>
       </c>
       <c r="H601" t="n">
-        <v>5986</v>
+        <v>6418</v>
       </c>
     </row>
     <row r="602">
@@ -20816,7 +20816,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -20839,7 +20839,7 @@
         <v>0</v>
       </c>
       <c r="H602" t="n">
-        <v>1089</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="603">
@@ -20850,7 +20850,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -20873,7 +20873,7 @@
         <v>0</v>
       </c>
       <c r="H603" t="n">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="604">
@@ -20952,7 +20952,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>2024/03/16</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -20975,7 +20975,7 @@
         <v>0</v>
       </c>
       <c r="H606" t="n">
-        <v>128827</v>
+        <v>138099</v>
       </c>
     </row>
     <row r="607">
@@ -21020,7 +21020,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
@@ -21043,7 +21043,7 @@
         <v>0</v>
       </c>
       <c r="H608" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="609">
@@ -21190,7 +21190,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -21213,7 +21213,7 @@
         <v>0</v>
       </c>
       <c r="H613" t="n">
-        <v>802</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="614">
@@ -21292,7 +21292,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -21315,7 +21315,7 @@
         <v>0</v>
       </c>
       <c r="H616" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="617">
@@ -21326,7 +21326,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
@@ -21349,7 +21349,7 @@
         <v>0</v>
       </c>
       <c r="H617" t="n">
-        <v>1649</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="618">
@@ -21360,7 +21360,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
@@ -21383,7 +21383,7 @@
         <v>0</v>
       </c>
       <c r="H618" t="n">
-        <v>500</v>
+        <v>661</v>
       </c>
     </row>
     <row r="619">
@@ -21394,7 +21394,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -21417,7 +21417,7 @@
         <v>0</v>
       </c>
       <c r="H619" t="n">
-        <v>408</v>
+        <v>570</v>
       </c>
     </row>
     <row r="620">
@@ -21428,7 +21428,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -21451,7 +21451,7 @@
         <v>0</v>
       </c>
       <c r="H620" t="n">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="621">
@@ -21462,7 +21462,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -21485,7 +21485,7 @@
         <v>0</v>
       </c>
       <c r="H621" t="n">
-        <v>1219</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="622">
@@ -21530,7 +21530,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -21553,7 +21553,7 @@
         <v>0</v>
       </c>
       <c r="H623" t="n">
-        <v>112</v>
+        <v>170</v>
       </c>
     </row>
     <row r="624">
@@ -21564,7 +21564,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>2024/03/27</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -21587,7 +21587,7 @@
         <v>0</v>
       </c>
       <c r="H624" t="n">
-        <v>222</v>
+        <v>361</v>
       </c>
     </row>
     <row r="625">
@@ -21700,7 +21700,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -21723,7 +21723,7 @@
         <v>0</v>
       </c>
       <c r="H628" t="n">
-        <v>5541</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="629">
@@ -21836,7 +21836,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>2024/03/27</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
@@ -21859,7 +21859,7 @@
         <v>0</v>
       </c>
       <c r="H632" t="n">
-        <v>1427</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="633">
@@ -21870,7 +21870,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -21893,7 +21893,7 @@
         <v>0</v>
       </c>
       <c r="H633" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="634">
@@ -21938,17 +21938,17 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>Corporación de Deportes de Independencia</t>
+          <t>Corporación de Deportes de Parral</t>
         </is>
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>CM125</t>
+          <t>CM127</t>
         </is>
       </c>
       <c r="E635" t="n">
@@ -21961,7 +21961,7 @@
         <v>0</v>
       </c>
       <c r="H635" t="n">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="636">
@@ -21972,17 +21972,17 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>Corporación de Deportes de Parral</t>
+          <t>Corporación de Deportes de Independencia</t>
         </is>
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>CM127</t>
+          <t>CM125</t>
         </is>
       </c>
       <c r="E636" t="n">
@@ -21995,7 +21995,41 @@
         <v>0</v>
       </c>
       <c r="H636" t="n">
-        <v>12</v>
+        <v>870</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>2024/04/12</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>Servicio Local de educación Pública Punilla Cordillera</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>AJ033</t>
+        </is>
+      </c>
+      <c r="E637" t="n">
+        <v>0</v>
+      </c>
+      <c r="F637" t="n">
+        <v>0</v>
+      </c>
+      <c r="G637" t="n">
+        <v>0</v>
+      </c>
+      <c r="H637" t="n">
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado_historico4.xlsx
+++ b/consolidado_historico4.xlsx
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2024/03/27</t>
+          <t>2024/04/14</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>12174</v>
+        <v>12319</v>
       </c>
     </row>
     <row r="56">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>1788</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="58">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/13</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>1829</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="64">
@@ -2660,7 +2660,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/04/13</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>24053</v>
+        <v>25031</v>
       </c>
     </row>
     <row r="69">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>4714</v>
+        <v>4767</v>
       </c>
     </row>
     <row r="75">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>11915</v>
+        <v>12109</v>
       </c>
     </row>
     <row r="80">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/14</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2024/03/16</t>
+          <t>2024/04/14</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>7693</v>
+        <v>7807</v>
       </c>
     </row>
     <row r="98">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/13</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>95942</v>
+        <v>95971</v>
       </c>
     </row>
     <row r="112">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/14</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4519,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="123">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/04/13</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5414,7 +5414,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>17693</v>
+        <v>17884</v>
       </c>
     </row>
     <row r="150">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>61505</v>
+        <v>62327</v>
       </c>
     </row>
     <row r="157">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -6672,7 +6672,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6695,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>36341</v>
+        <v>36712</v>
       </c>
     </row>
     <row r="187">
@@ -7658,7 +7658,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7681,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="n">
-        <v>24599</v>
+        <v>24772</v>
       </c>
     </row>
     <row r="216">
@@ -7998,7 +7998,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/13</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="n">
-        <v>7338</v>
+        <v>7416</v>
       </c>
     </row>
     <row r="226">
@@ -9188,7 +9188,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/14</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -9211,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="H260" t="n">
-        <v>74536</v>
+        <v>75888</v>
       </c>
     </row>
     <row r="261">
@@ -9460,7 +9460,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/14</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -9483,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="H268" t="n">
-        <v>12482</v>
+        <v>12533</v>
       </c>
     </row>
     <row r="269">
@@ -10174,7 +10174,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -10197,7 +10197,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="n">
-        <v>67626</v>
+        <v>68586</v>
       </c>
     </row>
     <row r="290">
@@ -10514,7 +10514,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -10537,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="H299" t="n">
-        <v>13397</v>
+        <v>13415</v>
       </c>
     </row>
     <row r="300">
@@ -10922,7 +10922,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -10945,7 +10945,7 @@
         <v>0</v>
       </c>
       <c r="H311" t="n">
-        <v>180701</v>
+        <v>183006</v>
       </c>
     </row>
     <row r="312">
@@ -11534,7 +11534,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/13</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -11636,7 +11636,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="H332" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="333">
@@ -12146,7 +12146,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -12169,7 +12169,7 @@
         <v>0</v>
       </c>
       <c r="H347" t="n">
-        <v>10163</v>
+        <v>10184</v>
       </c>
     </row>
     <row r="348">
@@ -12690,7 +12690,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="n">
-        <v>28722</v>
+        <v>29030</v>
       </c>
     </row>
     <row r="364">
@@ -12758,7 +12758,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -12781,7 +12781,7 @@
         <v>0</v>
       </c>
       <c r="H365" t="n">
-        <v>17573</v>
+        <v>17800</v>
       </c>
     </row>
     <row r="366">
@@ -15614,7 +15614,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -16532,7 +16532,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -17688,7 +17688,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -17711,7 +17711,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="n">
-        <v>768</v>
+        <v>801</v>
       </c>
     </row>
     <row r="511">
@@ -18538,7 +18538,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -18561,7 +18561,7 @@
         <v>0</v>
       </c>
       <c r="H535" t="n">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="536">

--- a/consolidado_historico4.xlsx
+++ b/consolidado_historico4.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H637"/>
+  <dimension ref="A1:H638"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,7 +586,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2630</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="8">
@@ -790,7 +790,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024/03/16</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>9307</v>
+        <v>9414</v>
       </c>
     </row>
     <row r="21">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>22786</v>
+        <v>23082</v>
       </c>
     </row>
     <row r="32">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>18917</v>
+        <v>18685</v>
       </c>
     </row>
     <row r="39">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>44230</v>
+        <v>44882</v>
       </c>
     </row>
     <row r="40">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2024/03/28</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>6998</v>
+        <v>7004</v>
       </c>
     </row>
     <row r="44">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>22511</v>
+        <v>22741</v>
       </c>
     </row>
     <row r="53">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>74248</v>
+        <v>75282</v>
       </c>
     </row>
     <row r="59">
@@ -2592,7 +2592,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>27562</v>
+        <v>28438</v>
       </c>
     </row>
     <row r="67">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>25067</v>
+        <v>25101</v>
       </c>
     </row>
     <row r="74">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>92286</v>
+        <v>93174</v>
       </c>
     </row>
     <row r="76">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>18140</v>
+        <v>18368</v>
       </c>
     </row>
     <row r="86">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>14293</v>
+        <v>14306</v>
       </c>
     </row>
     <row r="96">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>22249</v>
+        <v>22506</v>
       </c>
     </row>
     <row r="103">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4224,7 +4224,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4247,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>2155</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="115">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>7196</v>
+        <v>7197</v>
       </c>
     </row>
     <row r="119">
@@ -4462,7 +4462,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>10111</v>
+        <v>10314</v>
       </c>
     </row>
     <row r="122">
@@ -4598,7 +4598,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>12458</v>
+        <v>12465</v>
       </c>
     </row>
     <row r="126">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4791,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>227046</v>
+        <v>230071</v>
       </c>
     </row>
     <row r="131">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>38105</v>
+        <v>38197</v>
       </c>
     </row>
     <row r="132">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>31948</v>
+        <v>32259</v>
       </c>
     </row>
     <row r="134">
@@ -5006,7 +5006,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5029,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>14624</v>
+        <v>14804</v>
       </c>
     </row>
     <row r="138">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5346,7 +5346,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5369,7 +5369,7 @@
         <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="148">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>46987</v>
+        <v>47644</v>
       </c>
     </row>
     <row r="158">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>27611</v>
+        <v>27647</v>
       </c>
     </row>
     <row r="181">
@@ -6502,7 +6502,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6525,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="H181" t="n">
-        <v>100757</v>
+        <v>100958</v>
       </c>
     </row>
     <row r="182">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -6933,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="194">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -7443,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="n">
-        <v>6269</v>
+        <v>6270</v>
       </c>
     </row>
     <row r="209">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -7579,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="n">
-        <v>36966</v>
+        <v>37581</v>
       </c>
     </row>
     <row r="213">
@@ -7896,7 +7896,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2024/03/09</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -7964,7 +7964,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="n">
-        <v>47909</v>
+        <v>48446</v>
       </c>
     </row>
     <row r="225">
@@ -7998,7 +7998,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>2024/04/13</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="n">
-        <v>7416</v>
+        <v>7421</v>
       </c>
     </row>
     <row r="226">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2024/03/24</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -8259,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="H232" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="233">
@@ -8338,7 +8338,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2024/01/08</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -8361,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="H235" t="n">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="236">
@@ -8406,7 +8406,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -8429,7 +8429,7 @@
         <v>0</v>
       </c>
       <c r="H237" t="n">
-        <v>11351</v>
+        <v>11431</v>
       </c>
     </row>
     <row r="238">
@@ -8508,7 +8508,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="n">
-        <v>30329</v>
+        <v>30768</v>
       </c>
     </row>
     <row r="241">
@@ -8712,7 +8712,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -8735,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="H246" t="n">
-        <v>10372</v>
+        <v>10570</v>
       </c>
     </row>
     <row r="247">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -9426,7 +9426,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="H267" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="268">
@@ -9562,7 +9562,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -9585,7 +9585,7 @@
         <v>0</v>
       </c>
       <c r="H271" t="n">
-        <v>7761</v>
+        <v>7765</v>
       </c>
     </row>
     <row r="272">
@@ -9868,7 +9868,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -9891,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="n">
-        <v>35141</v>
+        <v>35573</v>
       </c>
     </row>
     <row r="281">
@@ -9936,7 +9936,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -9959,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="n">
-        <v>1471</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="283">
@@ -10004,7 +10004,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -10027,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="H284" t="n">
-        <v>37985</v>
+        <v>39453</v>
       </c>
     </row>
     <row r="285">
@@ -10242,7 +10242,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -10265,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="n">
-        <v>30521</v>
+        <v>31316</v>
       </c>
     </row>
     <row r="292">
@@ -10718,7 +10718,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -10741,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="H305" t="n">
-        <v>39830</v>
+        <v>39909</v>
       </c>
     </row>
     <row r="306">
@@ -10956,7 +10956,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="n">
-        <v>23184</v>
+        <v>23719</v>
       </c>
     </row>
     <row r="313">
@@ -11092,7 +11092,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>2024/03/23</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -11115,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="n">
-        <v>54673</v>
+        <v>55172</v>
       </c>
     </row>
     <row r="317">
@@ -11160,7 +11160,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -11183,7 +11183,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="n">
-        <v>66646</v>
+        <v>67442</v>
       </c>
     </row>
     <row r="319">
@@ -11296,7 +11296,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>2024/02/26</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -11319,7 +11319,7 @@
         <v>0</v>
       </c>
       <c r="H322" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="323">
@@ -11534,7 +11534,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>2024/04/13</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -11557,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="n">
-        <v>22471</v>
+        <v>22535</v>
       </c>
     </row>
     <row r="330">
@@ -11568,7 +11568,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -11591,7 +11591,7 @@
         <v>0</v>
       </c>
       <c r="H330" t="n">
-        <v>45870</v>
+        <v>46542</v>
       </c>
     </row>
     <row r="331">
@@ -11772,7 +11772,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -11795,7 +11795,7 @@
         <v>0</v>
       </c>
       <c r="H336" t="n">
-        <v>13411</v>
+        <v>13526</v>
       </c>
     </row>
     <row r="337">
@@ -12248,7 +12248,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -12271,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="H350" t="n">
-        <v>133224</v>
+        <v>133403</v>
       </c>
     </row>
     <row r="351">
@@ -12282,7 +12282,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -12305,7 +12305,7 @@
         <v>0</v>
       </c>
       <c r="H351" t="n">
-        <v>36253</v>
+        <v>36796</v>
       </c>
     </row>
     <row r="352">
@@ -12452,7 +12452,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -12475,7 +12475,7 @@
         <v>0</v>
       </c>
       <c r="H356" t="n">
-        <v>18749</v>
+        <v>18807</v>
       </c>
     </row>
     <row r="357">
@@ -12486,7 +12486,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -12509,7 +12509,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="n">
-        <v>33868</v>
+        <v>33875</v>
       </c>
     </row>
     <row r="358">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -12543,7 +12543,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="n">
-        <v>34302</v>
+        <v>34535</v>
       </c>
     </row>
     <row r="359">
@@ -12622,7 +12622,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -12645,7 +12645,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="n">
-        <v>50237</v>
+        <v>50244</v>
       </c>
     </row>
     <row r="362">
@@ -12656,7 +12656,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -12679,7 +12679,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="363">
@@ -13098,7 +13098,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -13121,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="n">
-        <v>54950</v>
+        <v>55303</v>
       </c>
     </row>
     <row r="376">
@@ -13166,7 +13166,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -13189,7 +13189,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="n">
-        <v>2098</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="378">
@@ -13234,7 +13234,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -13257,7 +13257,7 @@
         <v>0</v>
       </c>
       <c r="H379" t="n">
-        <v>52850</v>
+        <v>54007</v>
       </c>
     </row>
     <row r="380">
@@ -13404,7 +13404,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -13427,7 +13427,7 @@
         <v>0</v>
       </c>
       <c r="H384" t="n">
-        <v>179187</v>
+        <v>180820</v>
       </c>
     </row>
     <row r="385">
@@ -13472,7 +13472,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -13495,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="H386" t="n">
-        <v>33760</v>
+        <v>33901</v>
       </c>
     </row>
     <row r="387">
@@ -13540,7 +13540,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -13563,7 +13563,7 @@
         <v>0</v>
       </c>
       <c r="H388" t="n">
-        <v>6834</v>
+        <v>6844</v>
       </c>
     </row>
     <row r="389">
@@ -13880,7 +13880,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -13903,7 +13903,7 @@
         <v>0</v>
       </c>
       <c r="H398" t="n">
-        <v>67412</v>
+        <v>68200</v>
       </c>
     </row>
     <row r="399">
@@ -13914,7 +13914,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -13937,7 +13937,7 @@
         <v>0</v>
       </c>
       <c r="H399" t="n">
-        <v>21957</v>
+        <v>22278</v>
       </c>
     </row>
     <row r="400">
@@ -14118,7 +14118,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -14141,7 +14141,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="n">
-        <v>10334</v>
+        <v>10448</v>
       </c>
     </row>
     <row r="406">
@@ -14288,7 +14288,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -14311,7 +14311,7 @@
         <v>0</v>
       </c>
       <c r="H410" t="n">
-        <v>16602</v>
+        <v>17358</v>
       </c>
     </row>
     <row r="411">
@@ -14390,7 +14390,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -14413,7 +14413,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="n">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="414">
@@ -14424,7 +14424,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="H414" t="n">
-        <v>30470</v>
+        <v>30787</v>
       </c>
     </row>
     <row r="415">
@@ -14560,7 +14560,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -14583,7 +14583,7 @@
         <v>0</v>
       </c>
       <c r="H418" t="n">
-        <v>16920</v>
+        <v>17241</v>
       </c>
     </row>
     <row r="419">
@@ -14662,7 +14662,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -14685,7 +14685,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="n">
-        <v>14901</v>
+        <v>14952</v>
       </c>
     </row>
     <row r="422">
@@ -15240,7 +15240,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -15263,7 +15263,7 @@
         <v>0</v>
       </c>
       <c r="H438" t="n">
-        <v>5884</v>
+        <v>5959</v>
       </c>
     </row>
     <row r="439">
@@ -15410,7 +15410,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -15433,7 +15433,7 @@
         <v>0</v>
       </c>
       <c r="H443" t="n">
-        <v>7949</v>
+        <v>8241</v>
       </c>
     </row>
     <row r="444">
@@ -15637,7 +15637,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="n">
-        <v>143550</v>
+        <v>143604</v>
       </c>
     </row>
     <row r="450">
@@ -15716,7 +15716,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -15739,7 +15739,7 @@
         <v>0</v>
       </c>
       <c r="H452" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="453">
@@ -15750,7 +15750,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -15773,7 +15773,7 @@
         <v>0</v>
       </c>
       <c r="H453" t="n">
-        <v>29835</v>
+        <v>30131</v>
       </c>
     </row>
     <row r="454">
@@ -15886,7 +15886,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -15909,7 +15909,7 @@
         <v>0</v>
       </c>
       <c r="H457" t="n">
-        <v>162557</v>
+        <v>164551</v>
       </c>
     </row>
     <row r="458">
@@ -15988,7 +15988,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -16011,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="n">
-        <v>14697</v>
+        <v>14865</v>
       </c>
     </row>
     <row r="461">
@@ -16124,7 +16124,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -16147,7 +16147,7 @@
         <v>0</v>
       </c>
       <c r="H464" t="n">
-        <v>51509</v>
+        <v>52213</v>
       </c>
     </row>
     <row r="465">
@@ -16328,7 +16328,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>2024/02/05</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -16351,7 +16351,7 @@
         <v>0</v>
       </c>
       <c r="H470" t="n">
-        <v>1780</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="471">
@@ -16702,7 +16702,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -16725,7 +16725,7 @@
         <v>0</v>
       </c>
       <c r="H481" t="n">
-        <v>3284</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="482">
@@ -16736,7 +16736,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -16759,7 +16759,7 @@
         <v>0</v>
       </c>
       <c r="H482" t="n">
-        <v>380</v>
+        <v>393</v>
       </c>
     </row>
     <row r="483">
@@ -17110,7 +17110,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -17133,7 +17133,7 @@
         <v>0</v>
       </c>
       <c r="H493" t="n">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="494">
@@ -17348,7 +17348,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -17371,7 +17371,7 @@
         <v>0</v>
       </c>
       <c r="H500" t="n">
-        <v>477</v>
+        <v>498</v>
       </c>
     </row>
     <row r="501">
@@ -17552,7 +17552,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -17575,7 +17575,7 @@
         <v>0</v>
       </c>
       <c r="H506" t="n">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="507">
@@ -17654,7 +17654,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -17677,7 +17677,7 @@
         <v>0</v>
       </c>
       <c r="H509" t="n">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="510">
@@ -17722,7 +17722,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -17745,7 +17745,7 @@
         <v>0</v>
       </c>
       <c r="H511" t="n">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="512">
@@ -17824,7 +17824,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -17847,7 +17847,7 @@
         <v>0</v>
       </c>
       <c r="H514" t="n">
-        <v>1615</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="515">
@@ -17858,7 +17858,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -17892,7 +17892,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -17915,7 +17915,7 @@
         <v>0</v>
       </c>
       <c r="H516" t="n">
-        <v>12288</v>
+        <v>12846</v>
       </c>
     </row>
     <row r="517">
@@ -18980,7 +18980,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -19003,7 +19003,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="n">
-        <v>1608</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="549">
@@ -19218,7 +19218,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -19252,7 +19252,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -19275,7 +19275,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="n">
-        <v>679</v>
+        <v>719</v>
       </c>
     </row>
     <row r="557">
@@ -19830,7 +19830,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -19853,7 +19853,7 @@
         <v>0</v>
       </c>
       <c r="H573" t="n">
-        <v>820</v>
+        <v>985</v>
       </c>
     </row>
     <row r="574">
@@ -20306,7 +20306,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>2024/03/16</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -20329,7 +20329,7 @@
         <v>0</v>
       </c>
       <c r="H587" t="n">
-        <v>1136</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="588">
@@ -20612,7 +20612,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -20635,7 +20635,7 @@
         <v>0</v>
       </c>
       <c r="H596" t="n">
-        <v>301</v>
+        <v>267</v>
       </c>
     </row>
     <row r="597">
@@ -21258,7 +21258,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>2024/02/05</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
@@ -21281,7 +21281,7 @@
         <v>0</v>
       </c>
       <c r="H615" t="n">
-        <v>177</v>
+        <v>248</v>
       </c>
     </row>
     <row r="616">
@@ -21428,7 +21428,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -21451,7 +21451,7 @@
         <v>0</v>
       </c>
       <c r="H620" t="n">
-        <v>136</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="621">
@@ -21564,7 +21564,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -21587,7 +21587,7 @@
         <v>0</v>
       </c>
       <c r="H624" t="n">
-        <v>361</v>
+        <v>496</v>
       </c>
     </row>
     <row r="625">
@@ -21632,7 +21632,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -21655,7 +21655,7 @@
         <v>0</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="627">
@@ -21904,17 +21904,17 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>Corporación de desarrollo territorial de la región de Arica y Parinacota</t>
+          <t>Servicio Local de Educación Pública de Magallanes</t>
         </is>
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>FU023</t>
+          <t>AJ030</t>
         </is>
       </c>
       <c r="E634" t="n">
@@ -21927,7 +21927,7 @@
         <v>0</v>
       </c>
       <c r="H634" t="n">
-        <v>86</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="635">
@@ -21938,17 +21938,17 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>Corporación de Deportes de Parral</t>
+          <t>Corporación de desarrollo territorial de la región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>CM127</t>
+          <t>FU023</t>
         </is>
       </c>
       <c r="E635" t="n">
@@ -21961,7 +21961,7 @@
         <v>0</v>
       </c>
       <c r="H635" t="n">
-        <v>12</v>
+        <v>86</v>
       </c>
     </row>
     <row r="636">
@@ -21972,17 +21972,17 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>Corporación de Deportes de Independencia</t>
+          <t>Corporación de Deportes de Parral</t>
         </is>
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>CM125</t>
+          <t>CM127</t>
         </is>
       </c>
       <c r="E636" t="n">
@@ -21995,7 +21995,7 @@
         <v>0</v>
       </c>
       <c r="H636" t="n">
-        <v>870</v>
+        <v>12</v>
       </c>
     </row>
     <row r="637">
@@ -22006,30 +22006,64 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
         <is>
+          <t>Corporación de Deportes de Independencia</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>CM125</t>
+        </is>
+      </c>
+      <c r="E637" t="n">
+        <v>0</v>
+      </c>
+      <c r="F637" t="n">
+        <v>0</v>
+      </c>
+      <c r="G637" t="n">
+        <v>0</v>
+      </c>
+      <c r="H637" t="n">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>2024/04/19</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
           <t>Servicio Local de educación Pública Punilla Cordillera</t>
         </is>
       </c>
-      <c r="D637" t="inlineStr">
+      <c r="D638" t="inlineStr">
         <is>
           <t>AJ033</t>
         </is>
       </c>
-      <c r="E637" t="n">
-        <v>0</v>
-      </c>
-      <c r="F637" t="n">
-        <v>0</v>
-      </c>
-      <c r="G637" t="n">
-        <v>0</v>
-      </c>
-      <c r="H637" t="n">
-        <v>204</v>
+      <c r="E638" t="n">
+        <v>0</v>
+      </c>
+      <c r="F638" t="n">
+        <v>0</v>
+      </c>
+      <c r="G638" t="n">
+        <v>0</v>
+      </c>
+      <c r="H638" t="n">
+        <v>606</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado_historico4.xlsx
+++ b/consolidado_historico4.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H638"/>
+  <dimension ref="A1:H640"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,7 +688,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/04/20</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>43630</v>
+        <v>44124</v>
       </c>
     </row>
     <row r="31">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>1700</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="50">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2024/04/14</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>12319</v>
+        <v>12316</v>
       </c>
     </row>
     <row r="56">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>15731</v>
+        <v>15978</v>
       </c>
     </row>
     <row r="62">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>18368</v>
+        <v>18605</v>
       </c>
     </row>
     <row r="86">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>22506</v>
+        <v>22772</v>
       </c>
     </row>
     <row r="103">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>36214</v>
+        <v>36602</v>
       </c>
     </row>
     <row r="111">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4451,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>16732</v>
+        <v>17109</v>
       </c>
     </row>
     <row r="121">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2024/04/13</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>216191</v>
+        <v>218817</v>
       </c>
     </row>
     <row r="125">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>9640</v>
+        <v>9798</v>
       </c>
     </row>
     <row r="149">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5856,7 +5856,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>44713</v>
+        <v>44811</v>
       </c>
     </row>
     <row r="163">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2024/02/19</t>
+          <t>2024/04/21</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -7307,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>3763</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="205">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -8814,7 +8814,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -8837,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="250">
@@ -8984,7 +8984,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -9007,7 +9007,7 @@
         <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>3048</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="255">
@@ -10004,7 +10004,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -10027,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="H284" t="n">
-        <v>39453</v>
+        <v>39797</v>
       </c>
     </row>
     <row r="285">
@@ -10956,7 +10956,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="n">
-        <v>23719</v>
+        <v>23740</v>
       </c>
     </row>
     <row r="313">
@@ -11058,7 +11058,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="n">
-        <v>20021</v>
+        <v>20022</v>
       </c>
     </row>
     <row r="316">
@@ -11194,7 +11194,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -11262,7 +11262,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -11285,7 +11285,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="n">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="322">
@@ -11534,7 +11534,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -11557,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="n">
-        <v>22535</v>
+        <v>22405</v>
       </c>
     </row>
     <row r="330">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -12543,7 +12543,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="n">
-        <v>34535</v>
+        <v>34851</v>
       </c>
     </row>
     <row r="359">
@@ -12588,7 +12588,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -12611,7 +12611,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="n">
-        <v>12666</v>
+        <v>12671</v>
       </c>
     </row>
     <row r="361">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>2024/03/27</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -13019,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="H372" t="n">
-        <v>6282</v>
+        <v>6386</v>
       </c>
     </row>
     <row r="373">
@@ -13030,7 +13030,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -13053,7 +13053,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="n">
-        <v>8854</v>
+        <v>8953</v>
       </c>
     </row>
     <row r="374">
@@ -13098,7 +13098,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -13121,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="n">
-        <v>55303</v>
+        <v>55930</v>
       </c>
     </row>
     <row r="376">
@@ -13404,7 +13404,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -14730,7 +14730,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>2024/03/30</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -14753,7 +14753,7 @@
         <v>0</v>
       </c>
       <c r="H423" t="n">
-        <v>14892</v>
+        <v>15021</v>
       </c>
     </row>
     <row r="424">
@@ -14798,7 +14798,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -14821,7 +14821,7 @@
         <v>0</v>
       </c>
       <c r="H425" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="426">
@@ -14900,7 +14900,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -14991,7 +14991,7 @@
         <v>0</v>
       </c>
       <c r="H430" t="n">
-        <v>48857</v>
+        <v>48859</v>
       </c>
     </row>
     <row r="431">
@@ -15614,7 +15614,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -15637,7 +15637,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="n">
-        <v>143604</v>
+        <v>143632</v>
       </c>
     </row>
     <row r="450">
@@ -16328,7 +16328,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -16532,7 +16532,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -16555,7 +16555,7 @@
         <v>0</v>
       </c>
       <c r="H476" t="n">
-        <v>4697</v>
+        <v>4829</v>
       </c>
     </row>
     <row r="477">
@@ -16872,7 +16872,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -16895,7 +16895,7 @@
         <v>0</v>
       </c>
       <c r="H486" t="n">
-        <v>2089</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="487">
@@ -18334,7 +18334,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -18640,7 +18640,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -18663,7 +18663,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="539">
@@ -18980,7 +18980,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -19082,7 +19082,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -19490,7 +19490,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -19796,7 +19796,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -19819,7 +19819,7 @@
         <v>0</v>
       </c>
       <c r="H572" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="573">
@@ -19898,7 +19898,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -19921,7 +19921,7 @@
         <v>0</v>
       </c>
       <c r="H575" t="n">
-        <v>557</v>
+        <v>586</v>
       </c>
     </row>
     <row r="576">
@@ -19932,7 +19932,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -19955,7 +19955,7 @@
         <v>0</v>
       </c>
       <c r="H576" t="n">
-        <v>437</v>
+        <v>471</v>
       </c>
     </row>
     <row r="577">
@@ -21088,7 +21088,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>2023/12/26</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -21111,7 +21111,7 @@
         <v>0</v>
       </c>
       <c r="H610" t="n">
-        <v>66</v>
+        <v>163</v>
       </c>
     </row>
     <row r="611">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -21598,7 +21598,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -21621,7 +21621,7 @@
         <v>0</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="626">
@@ -21666,7 +21666,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -21689,7 +21689,7 @@
         <v>0</v>
       </c>
       <c r="H627" t="n">
-        <v>62</v>
+        <v>92</v>
       </c>
     </row>
     <row r="628">
@@ -21734,17 +21734,17 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Cultura de TilTil</t>
+          <t>Fundación Centro Cultural Palacio de La Moneda</t>
         </is>
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>CM258</t>
+          <t>FU018</t>
         </is>
       </c>
       <c r="E629" t="n">
@@ -21757,7 +21757,7 @@
         <v>0</v>
       </c>
       <c r="H629" t="n">
-        <v>608</v>
+        <v>199</v>
       </c>
     </row>
     <row r="630">
@@ -21768,17 +21768,17 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Fomento y Desarrollo Comunal de Sierra Gorda</t>
+          <t>Corporación Municipal de Cultura de TilTil</t>
         </is>
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>CM054</t>
+          <t>CM258</t>
         </is>
       </c>
       <c r="E630" t="n">
@@ -21791,7 +21791,7 @@
         <v>0</v>
       </c>
       <c r="H630" t="n">
-        <v>91</v>
+        <v>624</v>
       </c>
     </row>
     <row r="631">
@@ -21802,17 +21802,17 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>Corporación Regional de Investigación y Desarrollo Centro de Investigación en Ecosistemas de la Patagonia</t>
+          <t>Corporación Municipal de Fomento y Desarrollo Comunal de Sierra Gorda</t>
         </is>
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>FU021</t>
+          <t>CM054</t>
         </is>
       </c>
       <c r="E631" t="n">
@@ -21825,7 +21825,7 @@
         <v>0</v>
       </c>
       <c r="H631" t="n">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="632">
@@ -21836,17 +21836,17 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>Corporación Cultural de Antofagasta</t>
+          <t>Corporación Regional de Investigación y Desarrollo Centro de Investigación en Ecosistemas de la Patagonia</t>
         </is>
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>CM067</t>
+          <t>FU021</t>
         </is>
       </c>
       <c r="E632" t="n">
@@ -21859,7 +21859,7 @@
         <v>0</v>
       </c>
       <c r="H632" t="n">
-        <v>1775</v>
+        <v>102</v>
       </c>
     </row>
     <row r="633">
@@ -21870,17 +21870,17 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>Asociación de Gobernadores y Gobernadoras Regionales de Chile  AGORECHI</t>
+          <t>Corporación Cultural de Antofagasta</t>
         </is>
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>FU025</t>
+          <t>CM067</t>
         </is>
       </c>
       <c r="E633" t="n">
@@ -21893,7 +21893,7 @@
         <v>0</v>
       </c>
       <c r="H633" t="n">
-        <v>24</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="634">
@@ -21904,17 +21904,17 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>Servicio Local de Educación Pública de Magallanes</t>
+          <t>Asociación de Gobernadores y Gobernadoras Regionales de Chile  AGORECHI</t>
         </is>
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>AJ030</t>
+          <t>FU025</t>
         </is>
       </c>
       <c r="E634" t="n">
@@ -21927,7 +21927,7 @@
         <v>0</v>
       </c>
       <c r="H634" t="n">
-        <v>4295</v>
+        <v>24</v>
       </c>
     </row>
     <row r="635">
@@ -21938,17 +21938,17 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>Corporación de desarrollo territorial de la región de Arica y Parinacota</t>
+          <t>Servicio Local de Educación Pública de Magallanes</t>
         </is>
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>FU023</t>
+          <t>AJ030</t>
         </is>
       </c>
       <c r="E635" t="n">
@@ -21961,7 +21961,7 @@
         <v>0</v>
       </c>
       <c r="H635" t="n">
-        <v>86</v>
+        <v>5760</v>
       </c>
     </row>
     <row r="636">
@@ -21972,17 +21972,17 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>Corporación de Deportes de Parral</t>
+          <t>Corporación de desarrollo territorial de la región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>CM127</t>
+          <t>FU023</t>
         </is>
       </c>
       <c r="E636" t="n">
@@ -21995,7 +21995,7 @@
         <v>0</v>
       </c>
       <c r="H636" t="n">
-        <v>12</v>
+        <v>86</v>
       </c>
     </row>
     <row r="637">
@@ -22006,17 +22006,17 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>Corporación de Deportes de Independencia</t>
+          <t>Corporación de Deportes de Parral</t>
         </is>
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>CM125</t>
+          <t>CM127</t>
         </is>
       </c>
       <c r="E637" t="n">
@@ -22029,7 +22029,7 @@
         <v>0</v>
       </c>
       <c r="H637" t="n">
-        <v>870</v>
+        <v>12</v>
       </c>
     </row>
     <row r="638">
@@ -22040,30 +22040,98 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
+          <t>2024/04/11</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>Corporación de Deportes de Independencia</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>CM125</t>
+        </is>
+      </c>
+      <c r="E638" t="n">
+        <v>0</v>
+      </c>
+      <c r="F638" t="n">
+        <v>0</v>
+      </c>
+      <c r="G638" t="n">
+        <v>0</v>
+      </c>
+      <c r="H638" t="n">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
           <t>2024/04/19</t>
         </is>
       </c>
-      <c r="C638" t="inlineStr">
+      <c r="C639" t="inlineStr">
         <is>
           <t>Servicio Local de educación Pública Punilla Cordillera</t>
         </is>
       </c>
-      <c r="D638" t="inlineStr">
+      <c r="D639" t="inlineStr">
         <is>
           <t>AJ033</t>
         </is>
       </c>
-      <c r="E638" t="n">
-        <v>0</v>
-      </c>
-      <c r="F638" t="n">
-        <v>0</v>
-      </c>
-      <c r="G638" t="n">
-        <v>0</v>
-      </c>
-      <c r="H638" t="n">
+      <c r="E639" t="n">
+        <v>0</v>
+      </c>
+      <c r="F639" t="n">
+        <v>0</v>
+      </c>
+      <c r="G639" t="n">
+        <v>0</v>
+      </c>
+      <c r="H639" t="n">
         <v>606</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>2024/04/25</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Deporte de Padre Hurtado</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>CM176</t>
+        </is>
+      </c>
+      <c r="E640" t="n">
+        <v>0</v>
+      </c>
+      <c r="F640" t="n">
+        <v>0</v>
+      </c>
+      <c r="G640" t="n">
+        <v>0</v>
+      </c>
+      <c r="H640" t="n">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado_historico4.xlsx
+++ b/consolidado_historico4.xlsx
@@ -994,7 +994,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>803</v>
+        <v>817</v>
       </c>
     </row>
     <row r="20">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4009,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>1619</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="108">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/05/01</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="110">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/05/01</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4598,7 +4598,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/04/29</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>62327</v>
+        <v>63260</v>
       </c>
     </row>
     <row r="157">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6967,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>6783</v>
+        <v>6785</v>
       </c>
     </row>
     <row r="195">
@@ -7658,7 +7658,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7681,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="n">
-        <v>24772</v>
+        <v>24819</v>
       </c>
     </row>
     <row r="216">
@@ -7862,7 +7862,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -8168,7 +8168,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2024/03/28</t>
+          <t>2024/04/30</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="231">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -9698,7 +9698,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>2024/03/28</t>
+          <t>2024/04/30</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -9721,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="H275" t="n">
-        <v>55411</v>
+        <v>55943</v>
       </c>
     </row>
     <row r="276">
@@ -10004,7 +10004,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>2024/04/24</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -10027,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="H284" t="n">
-        <v>39797</v>
+        <v>40114</v>
       </c>
     </row>
     <row r="285">
@@ -11194,7 +11194,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="n">
-        <v>30703</v>
+        <v>30740</v>
       </c>
     </row>
     <row r="320">
@@ -11942,7 +11942,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -12180,7 +12180,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -12203,7 +12203,7 @@
         <v>0</v>
       </c>
       <c r="H348" t="n">
-        <v>5585</v>
+        <v>5586</v>
       </c>
     </row>
     <row r="349">
@@ -12248,7 +12248,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -12271,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="H350" t="n">
-        <v>133403</v>
+        <v>133826</v>
       </c>
     </row>
     <row r="351">
@@ -12350,7 +12350,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/04/30</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -12373,7 +12373,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="n">
-        <v>32607</v>
+        <v>33332</v>
       </c>
     </row>
     <row r="354">
@@ -12588,7 +12588,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/04/29</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -12611,7 +12611,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="n">
-        <v>12671</v>
+        <v>12795</v>
       </c>
     </row>
     <row r="361">
@@ -14118,7 +14118,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -15104,7 +15104,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -15274,7 +15274,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/04/29</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -15297,7 +15297,7 @@
         <v>0</v>
       </c>
       <c r="H439" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="440">
@@ -16090,7 +16090,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/04/28</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -16113,7 +16113,7 @@
         <v>0</v>
       </c>
       <c r="H463" t="n">
-        <v>47851</v>
+        <v>48842</v>
       </c>
     </row>
     <row r="464">
@@ -16464,7 +16464,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/29</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -16487,7 +16487,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="n">
-        <v>1841</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="475">
@@ -17688,7 +17688,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/01</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -17858,7 +17858,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -17926,7 +17926,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/30</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -17949,7 +17949,7 @@
         <v>0</v>
       </c>
       <c r="H517" t="n">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="518">
@@ -17960,7 +17960,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2024/04/30</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -18266,7 +18266,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -18289,7 +18289,7 @@
         <v>0</v>
       </c>
       <c r="H527" t="n">
-        <v>908</v>
+        <v>940</v>
       </c>
     </row>
     <row r="528">
@@ -18776,7 +18776,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/04/28</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -18799,7 +18799,7 @@
         <v>0</v>
       </c>
       <c r="H542" t="n">
-        <v>1994</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="543">
@@ -19184,7 +19184,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -19207,7 +19207,7 @@
         <v>0</v>
       </c>
       <c r="H554" t="n">
-        <v>93</v>
+        <v>107</v>
       </c>
     </row>
     <row r="555">
@@ -19422,7 +19422,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -19445,7 +19445,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="n">
-        <v>481</v>
+        <v>522</v>
       </c>
     </row>
     <row r="562">
@@ -19966,7 +19966,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -19989,7 +19989,7 @@
         <v>0</v>
       </c>
       <c r="H577" t="n">
-        <v>755</v>
+        <v>786</v>
       </c>
     </row>
     <row r="578">
@@ -20374,7 +20374,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -20397,7 +20397,7 @@
         <v>0</v>
       </c>
       <c r="H589" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="590">
@@ -21598,7 +21598,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>2024/04/25</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -21621,7 +21621,7 @@
         <v>0</v>
       </c>
       <c r="H625" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="626">
@@ -21768,7 +21768,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -21791,7 +21791,7 @@
         <v>0</v>
       </c>
       <c r="H630" t="n">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="631">
@@ -21836,7 +21836,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
@@ -21859,7 +21859,7 @@
         <v>0</v>
       </c>
       <c r="H632" t="n">
-        <v>102</v>
+        <v>204</v>
       </c>
     </row>
     <row r="633">
@@ -22006,7 +22006,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -22029,7 +22029,7 @@
         <v>0</v>
       </c>
       <c r="H637" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="638">

--- a/consolidado_historico4.xlsx
+++ b/consolidado_historico4.xlsx
@@ -416,7 +416,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/05/04</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>817</v>
+        <v>831</v>
       </c>
     </row>
     <row r="20">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>5739</v>
+        <v>5819</v>
       </c>
     </row>
     <row r="41">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>15499</v>
+        <v>15577</v>
       </c>
     </row>
     <row r="63">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>13572</v>
+        <v>13730</v>
       </c>
     </row>
     <row r="66">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2021/07/31</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>12109</v>
+        <v>12275</v>
       </c>
     </row>
     <row r="80">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>2328</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="87">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>1656</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="88">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>81408</v>
+        <v>81467</v>
       </c>
     </row>
     <row r="90">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3465,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>1484</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="92">
@@ -3748,7 +3748,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>44793</v>
+        <v>45227</v>
       </c>
     </row>
     <row r="101">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>81787</v>
+        <v>82690</v>
       </c>
     </row>
     <row r="102">
@@ -3952,7 +3952,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>47508</v>
+        <v>47999</v>
       </c>
     </row>
     <row r="107">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2024/04/23</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>36602</v>
+        <v>37134</v>
       </c>
     </row>
     <row r="111">
@@ -4292,7 +4292,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>83424</v>
+        <v>84672</v>
       </c>
     </row>
     <row r="117">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>7197</v>
+        <v>7198</v>
       </c>
     </row>
     <row r="119">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>32259</v>
+        <v>32595</v>
       </c>
     </row>
     <row r="134">
@@ -4904,7 +4904,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4927,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>3334</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="135">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4961,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="136">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>13753</v>
+        <v>13972</v>
       </c>
     </row>
     <row r="137">
@@ -5142,7 +5142,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>1258</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="142">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5312,7 +5312,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5335,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>17466</v>
+        <v>17741</v>
       </c>
     </row>
     <row r="147">
@@ -5346,7 +5346,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5369,7 +5369,7 @@
         <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="148">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5471,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="151">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2024/04/23</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5811,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>22352</v>
+        <v>22550</v>
       </c>
     </row>
     <row r="161">
@@ -6026,7 +6026,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>933</v>
+        <v>986</v>
       </c>
     </row>
     <row r="168">
@@ -6060,7 +6060,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="169">
@@ -6094,7 +6094,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6185,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="172">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6219,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>873</v>
+        <v>888</v>
       </c>
     </row>
     <row r="173">
@@ -6332,7 +6332,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6355,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>2129</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="177">
@@ -6400,7 +6400,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6423,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>44712</v>
+        <v>44770</v>
       </c>
     </row>
     <row r="179">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>27647</v>
+        <v>27681</v>
       </c>
     </row>
     <row r="181">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6593,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="H183" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="184">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="H190" t="n">
-        <v>3306</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="191">
@@ -7012,7 +7012,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>23293</v>
+        <v>23589</v>
       </c>
     </row>
     <row r="197">
@@ -7148,7 +7148,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="n">
-        <v>25500</v>
+        <v>25736</v>
       </c>
     </row>
     <row r="201">
@@ -7318,7 +7318,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -7341,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="n">
-        <v>3064</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="206">
@@ -7352,7 +7352,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -7375,7 +7375,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>142222</v>
+        <v>144986</v>
       </c>
     </row>
     <row r="207">
@@ -7386,7 +7386,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -7409,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="n">
-        <v>752</v>
+        <v>765</v>
       </c>
     </row>
     <row r="208">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -7443,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="n">
-        <v>6270</v>
+        <v>6449</v>
       </c>
     </row>
     <row r="209">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -7477,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="H209" t="n">
-        <v>5848</v>
+        <v>5969</v>
       </c>
     </row>
     <row r="210">
@@ -7488,7 +7488,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>80143</v>
+        <v>81258</v>
       </c>
     </row>
     <row r="211">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -7647,7 +7647,7 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>10673</v>
+        <v>10776</v>
       </c>
     </row>
     <row r="215">
@@ -7658,7 +7658,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7681,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="n">
-        <v>24819</v>
+        <v>24894</v>
       </c>
     </row>
     <row r="216">
@@ -7692,7 +7692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -7715,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="n">
-        <v>33044</v>
+        <v>33438</v>
       </c>
     </row>
     <row r="217">
@@ -7726,7 +7726,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -7749,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="n">
-        <v>39945</v>
+        <v>40089</v>
       </c>
     </row>
     <row r="218">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="n">
-        <v>17003</v>
+        <v>17004</v>
       </c>
     </row>
     <row r="219">
@@ -7998,7 +7998,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="n">
-        <v>7421</v>
+        <v>7504</v>
       </c>
     </row>
     <row r="226">
@@ -8134,7 +8134,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="H229" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="230">
@@ -8202,7 +8202,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -8225,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="H231" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="232">
@@ -8304,7 +8304,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="H234" t="n">
-        <v>55850</v>
+        <v>56613</v>
       </c>
     </row>
     <row r="235">
@@ -8406,7 +8406,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -8429,7 +8429,7 @@
         <v>0</v>
       </c>
       <c r="H237" t="n">
-        <v>11431</v>
+        <v>11504</v>
       </c>
     </row>
     <row r="238">
@@ -8542,7 +8542,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -8565,7 +8565,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>10552</v>
+        <v>10565</v>
       </c>
     </row>
     <row r="242">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -8599,7 +8599,7 @@
         <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>23186</v>
+        <v>23207</v>
       </c>
     </row>
     <row r="243">
@@ -8610,7 +8610,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>28725</v>
+        <v>28823</v>
       </c>
     </row>
     <row r="244">
@@ -8746,7 +8746,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="n">
-        <v>691</v>
+        <v>702</v>
       </c>
     </row>
     <row r="248">
@@ -8780,7 +8780,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -8803,7 +8803,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="n">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="249">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -8950,7 +8950,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -8973,7 +8973,7 @@
         <v>0</v>
       </c>
       <c r="H253" t="n">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="254">
@@ -9018,7 +9018,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -9041,7 +9041,7 @@
         <v>0</v>
       </c>
       <c r="H255" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="256">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -9075,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>13446</v>
+        <v>13711</v>
       </c>
     </row>
     <row r="257">
@@ -9154,7 +9154,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -9177,7 +9177,7 @@
         <v>0</v>
       </c>
       <c r="H259" t="n">
-        <v>14652</v>
+        <v>15079</v>
       </c>
     </row>
     <row r="260">
@@ -9324,7 +9324,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -9347,7 +9347,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="n">
-        <v>16029</v>
+        <v>16324</v>
       </c>
     </row>
     <row r="265">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -9381,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="H265" t="n">
-        <v>78801</v>
+        <v>79005</v>
       </c>
     </row>
     <row r="266">
@@ -9392,7 +9392,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="H266" t="n">
-        <v>24793</v>
+        <v>25093</v>
       </c>
     </row>
     <row r="267">
@@ -9664,7 +9664,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="H274" t="n">
-        <v>13494</v>
+        <v>13498</v>
       </c>
     </row>
     <row r="275">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -9755,7 +9755,7 @@
         <v>0</v>
       </c>
       <c r="H276" t="n">
-        <v>72002</v>
+        <v>72797</v>
       </c>
     </row>
     <row r="277">
@@ -9902,7 +9902,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -9936,7 +9936,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -9959,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="n">
-        <v>1484</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="283">
@@ -10004,7 +10004,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -10027,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="H284" t="n">
-        <v>40114</v>
+        <v>40220</v>
       </c>
     </row>
     <row r="285">
@@ -10174,7 +10174,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -10197,7 +10197,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="n">
-        <v>68586</v>
+        <v>69716</v>
       </c>
     </row>
     <row r="290">
@@ -10446,7 +10446,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -10469,7 +10469,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="n">
-        <v>75558</v>
+        <v>76754</v>
       </c>
     </row>
     <row r="298">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -10571,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="H300" t="n">
-        <v>2559</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="301">
@@ -10582,7 +10582,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -10605,7 +10605,7 @@
         <v>0</v>
       </c>
       <c r="H301" t="n">
-        <v>18976</v>
+        <v>19207</v>
       </c>
     </row>
     <row r="302">
@@ -10616,7 +10616,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -10639,7 +10639,7 @@
         <v>0</v>
       </c>
       <c r="H302" t="n">
-        <v>16749</v>
+        <v>16750</v>
       </c>
     </row>
     <row r="303">
@@ -10684,7 +10684,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -10718,7 +10718,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -10741,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="H305" t="n">
-        <v>39909</v>
+        <v>40496</v>
       </c>
     </row>
     <row r="306">
@@ -10854,7 +10854,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -10877,7 +10877,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="n">
-        <v>52629</v>
+        <v>53211</v>
       </c>
     </row>
     <row r="310">
@@ -11024,7 +11024,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -11047,7 +11047,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="n">
-        <v>42984</v>
+        <v>43579</v>
       </c>
     </row>
     <row r="315">
@@ -11058,7 +11058,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>2024/04/25</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -11296,7 +11296,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -11319,7 +11319,7 @@
         <v>0</v>
       </c>
       <c r="H322" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="323">
@@ -11432,7 +11432,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -11455,7 +11455,7 @@
         <v>0</v>
       </c>
       <c r="H326" t="n">
-        <v>13506</v>
+        <v>13680</v>
       </c>
     </row>
     <row r="327">
@@ -11466,7 +11466,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -11489,7 +11489,7 @@
         <v>0</v>
       </c>
       <c r="H327" t="n">
-        <v>40425</v>
+        <v>40892</v>
       </c>
     </row>
     <row r="328">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -11874,12 +11874,12 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Subsecretaría de Relaciones Exteriores (MINREL)</t>
+          <t>Oficina de Atención</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -12112,7 +12112,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -12135,7 +12135,7 @@
         <v>0</v>
       </c>
       <c r="H346" t="n">
-        <v>49077</v>
+        <v>49082</v>
       </c>
     </row>
     <row r="347">
@@ -12180,7 +12180,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -12418,7 +12418,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -12441,7 +12441,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="n">
-        <v>8573</v>
+        <v>8706</v>
       </c>
     </row>
     <row r="356">
@@ -12486,7 +12486,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -12690,7 +12690,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="n">
-        <v>29030</v>
+        <v>29034</v>
       </c>
     </row>
     <row r="364">
@@ -12724,7 +12724,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -12747,7 +12747,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="365">
@@ -12826,7 +12826,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -12849,7 +12849,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="n">
-        <v>2326</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="368">
@@ -13234,7 +13234,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -13257,7 +13257,7 @@
         <v>0</v>
       </c>
       <c r="H379" t="n">
-        <v>54007</v>
+        <v>55213</v>
       </c>
     </row>
     <row r="380">
@@ -13370,7 +13370,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -13393,7 +13393,7 @@
         <v>0</v>
       </c>
       <c r="H383" t="n">
-        <v>13384</v>
+        <v>13393</v>
       </c>
     </row>
     <row r="384">
@@ -13438,7 +13438,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -13461,7 +13461,7 @@
         <v>0</v>
       </c>
       <c r="H385" t="n">
-        <v>26225</v>
+        <v>26546</v>
       </c>
     </row>
     <row r="386">
@@ -13472,7 +13472,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -13495,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="H386" t="n">
-        <v>33901</v>
+        <v>34180</v>
       </c>
     </row>
     <row r="387">
@@ -13506,7 +13506,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -13529,7 +13529,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="n">
-        <v>14984</v>
+        <v>15229</v>
       </c>
     </row>
     <row r="388">
@@ -13540,7 +13540,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -13563,7 +13563,7 @@
         <v>0</v>
       </c>
       <c r="H388" t="n">
-        <v>6844</v>
+        <v>6868</v>
       </c>
     </row>
     <row r="389">
@@ -13710,7 +13710,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -13733,7 +13733,7 @@
         <v>0</v>
       </c>
       <c r="H393" t="n">
-        <v>23077</v>
+        <v>23078</v>
       </c>
     </row>
     <row r="394">
@@ -13812,7 +13812,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -13835,7 +13835,7 @@
         <v>0</v>
       </c>
       <c r="H396" t="n">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="397">
@@ -13982,7 +13982,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -14005,7 +14005,7 @@
         <v>0</v>
       </c>
       <c r="H401" t="n">
-        <v>14751</v>
+        <v>14757</v>
       </c>
     </row>
     <row r="402">
@@ -14016,7 +14016,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -14039,7 +14039,7 @@
         <v>0</v>
       </c>
       <c r="H402" t="n">
-        <v>3863</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="403">
@@ -14050,7 +14050,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -14073,7 +14073,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="n">
-        <v>50649</v>
+        <v>51230</v>
       </c>
     </row>
     <row r="404">
@@ -14084,7 +14084,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -14107,7 +14107,7 @@
         <v>0</v>
       </c>
       <c r="H404" t="n">
-        <v>785</v>
+        <v>788</v>
       </c>
     </row>
     <row r="405">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -14175,7 +14175,7 @@
         <v>0</v>
       </c>
       <c r="H406" t="n">
-        <v>24237</v>
+        <v>24497</v>
       </c>
     </row>
     <row r="407">
@@ -14254,7 +14254,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -14277,7 +14277,7 @@
         <v>0</v>
       </c>
       <c r="H409" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="410">
@@ -14356,7 +14356,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -14379,7 +14379,7 @@
         <v>0</v>
       </c>
       <c r="H412" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="413">
@@ -14458,7 +14458,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -14481,7 +14481,7 @@
         <v>0</v>
       </c>
       <c r="H415" t="n">
-        <v>2309</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="416">
@@ -14492,7 +14492,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -14515,7 +14515,7 @@
         <v>0</v>
       </c>
       <c r="H416" t="n">
-        <v>15966</v>
+        <v>15975</v>
       </c>
     </row>
     <row r="417">
@@ -14526,7 +14526,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -14549,7 +14549,7 @@
         <v>0</v>
       </c>
       <c r="H417" t="n">
-        <v>3081</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="418">
@@ -14900,7 +14900,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>2024/04/25</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -14923,7 +14923,7 @@
         <v>0</v>
       </c>
       <c r="H428" t="n">
-        <v>24919</v>
+        <v>25165</v>
       </c>
     </row>
     <row r="429">
@@ -14934,7 +14934,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -14957,7 +14957,7 @@
         <v>0</v>
       </c>
       <c r="H429" t="n">
-        <v>19367</v>
+        <v>19513</v>
       </c>
     </row>
     <row r="430">
@@ -15002,7 +15002,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -15025,7 +15025,7 @@
         <v>0</v>
       </c>
       <c r="H431" t="n">
-        <v>37956</v>
+        <v>38408</v>
       </c>
     </row>
     <row r="432">
@@ -15070,7 +15070,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -15093,7 +15093,7 @@
         <v>0</v>
       </c>
       <c r="H433" t="n">
-        <v>10707</v>
+        <v>10939</v>
       </c>
     </row>
     <row r="434">
@@ -15240,7 +15240,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -15263,7 +15263,7 @@
         <v>0</v>
       </c>
       <c r="H438" t="n">
-        <v>5959</v>
+        <v>5961</v>
       </c>
     </row>
     <row r="439">
@@ -15308,7 +15308,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -15331,7 +15331,7 @@
         <v>0</v>
       </c>
       <c r="H440" t="n">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="441">
@@ -15376,7 +15376,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -15399,7 +15399,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="n">
-        <v>2838</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="443">
@@ -15614,7 +15614,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>2024/04/26</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -15637,7 +15637,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="n">
-        <v>143632</v>
+        <v>153284</v>
       </c>
     </row>
     <row r="450">
@@ -15648,7 +15648,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -15671,7 +15671,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="451">
@@ -15716,7 +15716,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -15739,7 +15739,7 @@
         <v>0</v>
       </c>
       <c r="H452" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="453">
@@ -15750,7 +15750,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -15773,7 +15773,7 @@
         <v>0</v>
       </c>
       <c r="H453" t="n">
-        <v>30131</v>
+        <v>30133</v>
       </c>
     </row>
     <row r="454">
@@ -15852,7 +15852,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -15875,7 +15875,7 @@
         <v>0</v>
       </c>
       <c r="H456" t="n">
-        <v>15104</v>
+        <v>15110</v>
       </c>
     </row>
     <row r="457">
@@ -15988,7 +15988,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -16011,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="n">
-        <v>14865</v>
+        <v>15029</v>
       </c>
     </row>
     <row r="461">
@@ -16022,7 +16022,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -16045,7 +16045,7 @@
         <v>0</v>
       </c>
       <c r="H461" t="n">
-        <v>2421</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="462">
@@ -16056,7 +16056,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -16079,7 +16079,7 @@
         <v>0</v>
       </c>
       <c r="H462" t="n">
-        <v>9891</v>
+        <v>9895</v>
       </c>
     </row>
     <row r="463">
@@ -16192,7 +16192,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -16215,7 +16215,7 @@
         <v>0</v>
       </c>
       <c r="H466" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="467">
@@ -16294,7 +16294,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -16317,7 +16317,7 @@
         <v>0</v>
       </c>
       <c r="H469" t="n">
-        <v>37401</v>
+        <v>38423</v>
       </c>
     </row>
     <row r="470">
@@ -16464,7 +16464,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>2024/04/29</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -16487,7 +16487,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="n">
-        <v>1793</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="475">
@@ -16566,7 +16566,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -16589,7 +16589,7 @@
         <v>0</v>
       </c>
       <c r="H477" t="n">
-        <v>102721</v>
+        <v>102353</v>
       </c>
     </row>
     <row r="478">
@@ -16702,7 +16702,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -16940,7 +16940,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -16963,7 +16963,7 @@
         <v>0</v>
       </c>
       <c r="H488" t="n">
-        <v>1427</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="489">
@@ -17008,7 +17008,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -17212,7 +17212,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -17235,7 +17235,7 @@
         <v>0</v>
       </c>
       <c r="H496" t="n">
-        <v>972</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="497">
@@ -17382,7 +17382,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -17405,7 +17405,7 @@
         <v>0</v>
       </c>
       <c r="H501" t="n">
-        <v>1169</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="502">
@@ -17450,7 +17450,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -17473,7 +17473,7 @@
         <v>0</v>
       </c>
       <c r="H503" t="n">
-        <v>5712</v>
+        <v>5898</v>
       </c>
     </row>
     <row r="504">
@@ -17552,7 +17552,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -17575,7 +17575,7 @@
         <v>0</v>
       </c>
       <c r="H506" t="n">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="507">
@@ -17586,7 +17586,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -17609,7 +17609,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="n">
-        <v>571</v>
+        <v>583</v>
       </c>
     </row>
     <row r="508">
@@ -17756,7 +17756,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>2024/02/02</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -17779,7 +17779,7 @@
         <v>0</v>
       </c>
       <c r="H512" t="n">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="513">
@@ -17858,7 +17858,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -17881,7 +17881,7 @@
         <v>0</v>
       </c>
       <c r="H515" t="n">
-        <v>4071</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="516">
@@ -18028,7 +18028,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -18051,7 +18051,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="n">
-        <v>2075</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="521">
@@ -18096,7 +18096,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -18119,7 +18119,7 @@
         <v>0</v>
       </c>
       <c r="H522" t="n">
-        <v>644</v>
+        <v>696</v>
       </c>
     </row>
     <row r="523">
@@ -18198,7 +18198,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -18221,7 +18221,7 @@
         <v>0</v>
       </c>
       <c r="H525" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="526">
@@ -18402,7 +18402,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -18425,7 +18425,7 @@
         <v>0</v>
       </c>
       <c r="H531" t="n">
-        <v>339</v>
+        <v>365</v>
       </c>
     </row>
     <row r="532">
@@ -18436,7 +18436,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -18459,7 +18459,7 @@
         <v>0</v>
       </c>
       <c r="H532" t="n">
-        <v>1112</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="533">
@@ -18470,7 +18470,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -18493,7 +18493,7 @@
         <v>0</v>
       </c>
       <c r="H533" t="n">
-        <v>328</v>
+        <v>347</v>
       </c>
     </row>
     <row r="534">
@@ -18708,7 +18708,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -18731,7 +18731,7 @@
         <v>0</v>
       </c>
       <c r="H540" t="n">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="541">
@@ -18742,7 +18742,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -18765,7 +18765,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="n">
-        <v>944</v>
+        <v>998</v>
       </c>
     </row>
     <row r="542">
@@ -18946,7 +18946,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -18969,7 +18969,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="548">
@@ -19082,7 +19082,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>2024/04/23</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -19105,7 +19105,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="n">
-        <v>433</v>
+        <v>449</v>
       </c>
     </row>
     <row r="552">
@@ -19116,7 +19116,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -19139,7 +19139,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="n">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="553">
@@ -19354,7 +19354,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -19377,7 +19377,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="n">
-        <v>995</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="560">
@@ -19490,7 +19490,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -19513,7 +19513,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="n">
-        <v>874</v>
+        <v>950</v>
       </c>
     </row>
     <row r="564">
@@ -19558,7 +19558,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -19581,7 +19581,7 @@
         <v>0</v>
       </c>
       <c r="H565" t="n">
-        <v>2657</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="566">
@@ -19660,7 +19660,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -19683,7 +19683,7 @@
         <v>0</v>
       </c>
       <c r="H568" t="n">
-        <v>1081</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="569">
@@ -19728,7 +19728,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -19751,7 +19751,7 @@
         <v>0</v>
       </c>
       <c r="H570" t="n">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="571">
@@ -19898,7 +19898,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>2024/04/24</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -19921,7 +19921,7 @@
         <v>0</v>
       </c>
       <c r="H575" t="n">
-        <v>586</v>
+        <v>614</v>
       </c>
     </row>
     <row r="576">
@@ -20272,7 +20272,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -20295,7 +20295,7 @@
         <v>0</v>
       </c>
       <c r="H586" t="n">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="587">
@@ -20340,7 +20340,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -20363,7 +20363,7 @@
         <v>0</v>
       </c>
       <c r="H588" t="n">
-        <v>268</v>
+        <v>279</v>
       </c>
     </row>
     <row r="589">
@@ -20408,7 +20408,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -20431,7 +20431,7 @@
         <v>0</v>
       </c>
       <c r="H590" t="n">
-        <v>1130</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="591">
@@ -20510,7 +20510,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -20533,7 +20533,7 @@
         <v>0</v>
       </c>
       <c r="H593" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="594">
@@ -20544,7 +20544,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -20567,7 +20567,7 @@
         <v>0</v>
       </c>
       <c r="H594" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="595">
@@ -20612,7 +20612,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -20714,7 +20714,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -20737,7 +20737,7 @@
         <v>0</v>
       </c>
       <c r="H599" t="n">
-        <v>797</v>
+        <v>880</v>
       </c>
     </row>
     <row r="600">
@@ -20782,7 +20782,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -20805,7 +20805,7 @@
         <v>0</v>
       </c>
       <c r="H601" t="n">
-        <v>6418</v>
+        <v>6451</v>
       </c>
     </row>
     <row r="602">
@@ -20816,7 +20816,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -20839,7 +20839,7 @@
         <v>0</v>
       </c>
       <c r="H602" t="n">
-        <v>1223</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="603">
@@ -20918,7 +20918,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/05/05</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -21156,7 +21156,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -21179,7 +21179,7 @@
         <v>0</v>
       </c>
       <c r="H612" t="n">
-        <v>117</v>
+        <v>132</v>
       </c>
     </row>
     <row r="613">
@@ -21258,7 +21258,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
@@ -21281,7 +21281,7 @@
         <v>0</v>
       </c>
       <c r="H615" t="n">
-        <v>248</v>
+        <v>284</v>
       </c>
     </row>
     <row r="616">
@@ -21462,7 +21462,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -21485,7 +21485,7 @@
         <v>0</v>
       </c>
       <c r="H621" t="n">
-        <v>1617</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="622">
@@ -21530,7 +21530,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -21553,7 +21553,7 @@
         <v>0</v>
       </c>
       <c r="H623" t="n">
-        <v>170</v>
+        <v>228</v>
       </c>
     </row>
     <row r="624">
@@ -21564,7 +21564,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -21587,7 +21587,7 @@
         <v>0</v>
       </c>
       <c r="H624" t="n">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="625">
@@ -21632,7 +21632,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -21655,7 +21655,7 @@
         <v>0</v>
       </c>
       <c r="H626" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="627">
@@ -21870,7 +21870,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -21893,7 +21893,7 @@
         <v>0</v>
       </c>
       <c r="H633" t="n">
-        <v>1775</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="634">

--- a/consolidado_historico4.xlsx
+++ b/consolidado_historico4.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H640"/>
+  <dimension ref="A1:H641"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,7 +552,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7">
@@ -586,7 +586,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2631</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="8">
@@ -756,7 +756,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13">
@@ -858,7 +858,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
@@ -926,7 +926,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>9414</v>
+        <v>9521</v>
       </c>
     </row>
     <row r="21">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024/04/26</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>23082</v>
+        <v>23377</v>
       </c>
     </row>
     <row r="32">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>5614</v>
+        <v>5622</v>
       </c>
     </row>
     <row r="35">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>27389</v>
+        <v>27416</v>
       </c>
     </row>
     <row r="37">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>4669</v>
+        <v>4739</v>
       </c>
     </row>
     <row r="38">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>18685</v>
+        <v>18928</v>
       </c>
     </row>
     <row r="39">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024/04/25</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>24913</v>
+        <v>24915</v>
       </c>
     </row>
     <row r="45">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>28507</v>
+        <v>28849</v>
       </c>
     </row>
     <row r="48">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>8104</v>
+        <v>8182</v>
       </c>
     </row>
     <row r="49">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>5011</v>
+        <v>5103</v>
       </c>
     </row>
     <row r="55">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2024/04/23</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>8234</v>
+        <v>8404</v>
       </c>
     </row>
     <row r="57">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>1975</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="58">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>75282</v>
+        <v>76324</v>
       </c>
     </row>
     <row r="59">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2024/04/13</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>1830</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="64">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2717,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>376</v>
+        <v>745</v>
       </c>
     </row>
     <row r="70">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>4767</v>
+        <v>4826</v>
       </c>
     </row>
     <row r="75">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>93174</v>
+        <v>94057</v>
       </c>
     </row>
     <row r="76">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>135892</v>
+        <v>136390</v>
       </c>
     </row>
     <row r="81">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2024/04/14</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>5546</v>
+        <v>5679</v>
       </c>
     </row>
     <row r="82">
@@ -3136,7 +3136,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="83">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>10050</v>
+        <v>10184</v>
       </c>
     </row>
     <row r="84">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>26332</v>
+        <v>26605</v>
       </c>
     </row>
     <row r="85">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>12982</v>
+        <v>13216</v>
       </c>
     </row>
     <row r="89">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>17681</v>
+        <v>17847</v>
       </c>
     </row>
     <row r="94">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>4416</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="95">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>14306</v>
+        <v>14586</v>
       </c>
     </row>
     <row r="96">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>5931</v>
+        <v>5936</v>
       </c>
     </row>
     <row r="97">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2024/04/14</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>7807</v>
+        <v>7921</v>
       </c>
     </row>
     <row r="98">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>70332</v>
+        <v>71088</v>
       </c>
     </row>
     <row r="100">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2024/04/24</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>22772</v>
+        <v>22774</v>
       </c>
     </row>
     <row r="103">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3918,7 +3918,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>1586</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="106">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>4167</v>
+        <v>4205</v>
       </c>
     </row>
     <row r="109">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2024/04/13</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>95971</v>
+        <v>95992</v>
       </c>
     </row>
     <row r="112">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>6777</v>
+        <v>6866</v>
       </c>
     </row>
     <row r="113">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4281,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>235930</v>
+        <v>237928</v>
       </c>
     </row>
     <row r="116">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>12624</v>
+        <v>12739</v>
       </c>
     </row>
     <row r="118">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>4680</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="120">
@@ -4462,7 +4462,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>10314</v>
+        <v>10528</v>
       </c>
     </row>
     <row r="122">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2024/04/14</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4519,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="123">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>15604</v>
+        <v>15879</v>
       </c>
     </row>
     <row r="124">
@@ -4598,7 +4598,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>12465</v>
+        <v>12609</v>
       </c>
     </row>
     <row r="126">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4655,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>23777</v>
+        <v>24065</v>
       </c>
     </row>
     <row r="127">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>1629</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="128">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2024/04/24</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>22242</v>
+        <v>22509</v>
       </c>
     </row>
     <row r="129">
@@ -4734,7 +4734,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="130">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4791,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>230071</v>
+        <v>233307</v>
       </c>
     </row>
     <row r="131">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>26396</v>
+        <v>26730</v>
       </c>
     </row>
     <row r="133">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>13972</v>
+        <v>13975</v>
       </c>
     </row>
     <row r="137">
@@ -5006,7 +5006,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5029,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>14804</v>
+        <v>14987</v>
       </c>
     </row>
     <row r="138">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="139">
@@ -5074,7 +5074,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5097,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>15518</v>
+        <v>15887</v>
       </c>
     </row>
     <row r="140">
@@ -5108,7 +5108,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5131,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>3557</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="141">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5199,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>30634</v>
+        <v>30990</v>
       </c>
     </row>
     <row r="143">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/11</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5301,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="146">
@@ -5414,7 +5414,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>17884</v>
+        <v>18078</v>
       </c>
     </row>
     <row r="150">
@@ -5482,7 +5482,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5505,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>900</v>
+        <v>910</v>
       </c>
     </row>
     <row r="152">
@@ -5516,7 +5516,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5539,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>45376</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="153">
@@ -5550,7 +5550,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5573,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>13021</v>
+        <v>13022</v>
       </c>
     </row>
     <row r="154">
@@ -5584,7 +5584,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5607,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="H154" t="n">
-        <v>12905</v>
+        <v>13056</v>
       </c>
     </row>
     <row r="155">
@@ -5618,7 +5618,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5641,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>4610</v>
+        <v>4717</v>
       </c>
     </row>
     <row r="156">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>47644</v>
+        <v>48277</v>
       </c>
     </row>
     <row r="158">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5743,7 +5743,7 @@
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>31975</v>
+        <v>32542</v>
       </c>
     </row>
     <row r="159">
@@ -5822,7 +5822,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5845,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>19183</v>
+        <v>19205</v>
       </c>
     </row>
     <row r="162">
@@ -5856,7 +5856,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2024/04/24</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>44811</v>
+        <v>45206</v>
       </c>
     </row>
     <row r="163">
@@ -5890,7 +5890,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5913,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>3225</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="164">
@@ -5924,7 +5924,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5947,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>43567</v>
+        <v>44119</v>
       </c>
     </row>
     <row r="165">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6015,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>42096</v>
+        <v>42145</v>
       </c>
     </row>
     <row r="167">
@@ -6094,7 +6094,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6117,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="H169" t="n">
-        <v>15809</v>
+        <v>16147</v>
       </c>
     </row>
     <row r="170">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6151,7 +6151,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>86306</v>
+        <v>87277</v>
       </c>
     </row>
     <row r="171">
@@ -6298,7 +6298,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6321,7 +6321,7 @@
         <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>24917</v>
+        <v>25308</v>
       </c>
     </row>
     <row r="176">
@@ -6366,7 +6366,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6389,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="H177" t="n">
-        <v>13521</v>
+        <v>13680</v>
       </c>
     </row>
     <row r="178">
@@ -6400,7 +6400,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6423,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>44770</v>
+        <v>45265</v>
       </c>
     </row>
     <row r="179">
@@ -6502,7 +6502,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6525,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="H181" t="n">
-        <v>100958</v>
+        <v>102334</v>
       </c>
     </row>
     <row r="182">
@@ -6536,7 +6536,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>3117</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="183">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6627,7 +6627,7 @@
         <v>0</v>
       </c>
       <c r="H184" t="n">
-        <v>40065</v>
+        <v>40551</v>
       </c>
     </row>
     <row r="185">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>12821</v>
+        <v>12950</v>
       </c>
     </row>
     <row r="186">
@@ -6672,7 +6672,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6695,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>36712</v>
+        <v>37214</v>
       </c>
     </row>
     <row r="187">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6729,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="n">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="188">
@@ -6740,7 +6740,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6763,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>9469</v>
+        <v>9669</v>
       </c>
     </row>
     <row r="189">
@@ -6774,7 +6774,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -6797,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="n">
-        <v>31780</v>
+        <v>32176</v>
       </c>
     </row>
     <row r="190">
@@ -6842,7 +6842,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6876,7 +6876,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6899,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>68045</v>
+        <v>68851</v>
       </c>
     </row>
     <row r="193">
@@ -6978,7 +6978,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>19001</v>
+        <v>19220</v>
       </c>
     </row>
     <row r="196">
@@ -7012,7 +7012,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>23589</v>
+        <v>23779</v>
       </c>
     </row>
     <row r="197">
@@ -7046,7 +7046,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -7069,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>21274</v>
+        <v>21297</v>
       </c>
     </row>
     <row r="198">
@@ -7080,7 +7080,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="199">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -7443,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="n">
-        <v>6449</v>
+        <v>6450</v>
       </c>
     </row>
     <row r="209">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -7545,7 +7545,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>42423</v>
+        <v>43001</v>
       </c>
     </row>
     <row r="212">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -7579,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="n">
-        <v>37581</v>
+        <v>38118</v>
       </c>
     </row>
     <row r="213">
@@ -7590,7 +7590,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -7613,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="H213" t="n">
-        <v>15131</v>
+        <v>15276</v>
       </c>
     </row>
     <row r="214">
@@ -7658,7 +7658,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7681,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="n">
-        <v>24894</v>
+        <v>25074</v>
       </c>
     </row>
     <row r="216">
@@ -7726,7 +7726,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -7749,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="n">
-        <v>40089</v>
+        <v>40418</v>
       </c>
     </row>
     <row r="218">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="n">
-        <v>17004</v>
+        <v>17224</v>
       </c>
     </row>
     <row r="219">
@@ -7794,7 +7794,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -7817,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="n">
-        <v>16009</v>
+        <v>16146</v>
       </c>
     </row>
     <row r="220">
@@ -7828,7 +7828,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>45806</v>
+        <v>46579</v>
       </c>
     </row>
     <row r="221">
@@ -7862,7 +7862,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -7885,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>14762</v>
+        <v>14785</v>
       </c>
     </row>
     <row r="222">
@@ -7896,7 +7896,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/11</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -7919,7 +7919,7 @@
         <v>0</v>
       </c>
       <c r="H222" t="n">
-        <v>21425</v>
+        <v>21443</v>
       </c>
     </row>
     <row r="223">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -7953,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>79049</v>
+        <v>79077</v>
       </c>
     </row>
     <row r="224">
@@ -7964,7 +7964,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="n">
-        <v>48446</v>
+        <v>48455</v>
       </c>
     </row>
     <row r="225">
@@ -8032,7 +8032,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -8055,7 +8055,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="n">
-        <v>21648</v>
+        <v>21968</v>
       </c>
     </row>
     <row r="227">
@@ -8066,7 +8066,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -8089,7 +8089,7 @@
         <v>0</v>
       </c>
       <c r="H227" t="n">
-        <v>1324</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="228">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -8259,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="H232" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="233">
@@ -8270,7 +8270,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -8293,7 +8293,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="234">
@@ -8372,7 +8372,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/11</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -8395,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="H236" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="237">
@@ -8406,7 +8406,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -8429,7 +8429,7 @@
         <v>0</v>
       </c>
       <c r="H237" t="n">
-        <v>11504</v>
+        <v>11509</v>
       </c>
     </row>
     <row r="238">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -8463,7 +8463,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>49118</v>
+        <v>49989</v>
       </c>
     </row>
     <row r="239">
@@ -8474,7 +8474,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -8497,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="H239" t="n">
-        <v>32805</v>
+        <v>32806</v>
       </c>
     </row>
     <row r="240">
@@ -8508,7 +8508,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="n">
-        <v>30768</v>
+        <v>31207</v>
       </c>
     </row>
     <row r="241">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -8678,7 +8678,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="n">
-        <v>13196</v>
+        <v>13343</v>
       </c>
     </row>
     <row r="246">
@@ -8712,7 +8712,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -8735,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="H246" t="n">
-        <v>10570</v>
+        <v>10779</v>
       </c>
     </row>
     <row r="247">
@@ -8814,7 +8814,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -8837,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="n">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="250">
@@ -9086,7 +9086,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="n">
-        <v>10764</v>
+        <v>10768</v>
       </c>
     </row>
     <row r="258">
@@ -9120,7 +9120,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -9143,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>25282</v>
+        <v>25509</v>
       </c>
     </row>
     <row r="259">
@@ -9188,7 +9188,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>2024/04/14</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -9211,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="H260" t="n">
-        <v>75888</v>
+        <v>77444</v>
       </c>
     </row>
     <row r="261">
@@ -9222,7 +9222,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -9279,7 +9279,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="n">
-        <v>3003</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="263">
@@ -9290,7 +9290,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -9313,7 +9313,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="n">
-        <v>21291</v>
+        <v>21606</v>
       </c>
     </row>
     <row r="264">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -9381,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="H265" t="n">
-        <v>79005</v>
+        <v>79645</v>
       </c>
     </row>
     <row r="266">
@@ -9460,7 +9460,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>2024/04/14</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -9483,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="H268" t="n">
-        <v>12533</v>
+        <v>12582</v>
       </c>
     </row>
     <row r="269">
@@ -9494,7 +9494,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -9517,7 +9517,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="n">
-        <v>9795</v>
+        <v>9799</v>
       </c>
     </row>
     <row r="270">
@@ -9528,7 +9528,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -9551,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="H270" t="n">
-        <v>26093</v>
+        <v>26368</v>
       </c>
     </row>
     <row r="271">
@@ -9562,7 +9562,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -9585,7 +9585,7 @@
         <v>0</v>
       </c>
       <c r="H271" t="n">
-        <v>7765</v>
+        <v>7853</v>
       </c>
     </row>
     <row r="272">
@@ -9596,7 +9596,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -9619,7 +9619,7 @@
         <v>0</v>
       </c>
       <c r="H272" t="n">
-        <v>977</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="273">
@@ -9630,7 +9630,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="H273" t="n">
-        <v>10421</v>
+        <v>10531</v>
       </c>
     </row>
     <row r="274">
@@ -9766,7 +9766,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="n">
-        <v>9543</v>
+        <v>9573</v>
       </c>
     </row>
     <row r="278">
@@ -9800,7 +9800,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -9823,7 +9823,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="n">
-        <v>8214</v>
+        <v>8293</v>
       </c>
     </row>
     <row r="279">
@@ -9834,7 +9834,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -9857,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="n">
-        <v>20871</v>
+        <v>21073</v>
       </c>
     </row>
     <row r="280">
@@ -9868,7 +9868,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -9891,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="n">
-        <v>35573</v>
+        <v>36037</v>
       </c>
     </row>
     <row r="281">
@@ -9970,7 +9970,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -10004,7 +10004,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -10027,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="H284" t="n">
-        <v>40220</v>
+        <v>40225</v>
       </c>
     </row>
     <row r="285">
@@ -10038,7 +10038,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -10061,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="H285" t="n">
-        <v>692</v>
+        <v>746</v>
       </c>
     </row>
     <row r="286">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>2024/03/09</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -10106,7 +10106,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="288">
@@ -10140,7 +10140,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="n">
-        <v>26517</v>
+        <v>27023</v>
       </c>
     </row>
     <row r="289">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -10231,7 +10231,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="n">
-        <v>11174</v>
+        <v>11359</v>
       </c>
     </row>
     <row r="291">
@@ -10242,7 +10242,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -10265,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="n">
-        <v>31316</v>
+        <v>32126</v>
       </c>
     </row>
     <row r="292">
@@ -10276,7 +10276,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -10299,7 +10299,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="n">
-        <v>6678</v>
+        <v>6771</v>
       </c>
     </row>
     <row r="293">
@@ -10310,7 +10310,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -10333,7 +10333,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="n">
-        <v>49533</v>
+        <v>50290</v>
       </c>
     </row>
     <row r="294">
@@ -10344,7 +10344,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="n">
-        <v>21357</v>
+        <v>21690</v>
       </c>
     </row>
     <row r="295">
@@ -10378,7 +10378,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -10401,7 +10401,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="n">
-        <v>13264</v>
+        <v>13452</v>
       </c>
     </row>
     <row r="296">
@@ -10412,7 +10412,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -10435,7 +10435,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="n">
-        <v>20598</v>
+        <v>21007</v>
       </c>
     </row>
     <row r="297">
@@ -10446,7 +10446,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -10480,7 +10480,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -10503,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="n">
-        <v>6741</v>
+        <v>6834</v>
       </c>
     </row>
     <row r="299">
@@ -10514,7 +10514,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -10537,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="H299" t="n">
-        <v>13415</v>
+        <v>13432</v>
       </c>
     </row>
     <row r="300">
@@ -10616,7 +10616,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -10639,7 +10639,7 @@
         <v>0</v>
       </c>
       <c r="H302" t="n">
-        <v>16750</v>
+        <v>16927</v>
       </c>
     </row>
     <row r="303">
@@ -10650,7 +10650,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="H303" t="n">
-        <v>40860</v>
+        <v>41281</v>
       </c>
     </row>
     <row r="304">
@@ -10752,7 +10752,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="H306" t="n">
-        <v>26669</v>
+        <v>27005</v>
       </c>
     </row>
     <row r="307">
@@ -10786,7 +10786,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -10809,7 +10809,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="308">
@@ -10820,7 +10820,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="n">
-        <v>6245</v>
+        <v>6346</v>
       </c>
     </row>
     <row r="309">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -10911,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="n">
-        <v>10333</v>
+        <v>10470</v>
       </c>
     </row>
     <row r="311">
@@ -10922,7 +10922,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -10945,7 +10945,7 @@
         <v>0</v>
       </c>
       <c r="H311" t="n">
-        <v>183006</v>
+        <v>185241</v>
       </c>
     </row>
     <row r="312">
@@ -10990,7 +10990,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -11013,7 +11013,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="n">
-        <v>3471</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="314">
@@ -11092,7 +11092,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -11115,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="n">
-        <v>55172</v>
+        <v>55634</v>
       </c>
     </row>
     <row r="317">
@@ -11160,7 +11160,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -11183,7 +11183,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="n">
-        <v>67442</v>
+        <v>68250</v>
       </c>
     </row>
     <row r="319">
@@ -11194,7 +11194,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="n">
-        <v>30740</v>
+        <v>30766</v>
       </c>
     </row>
     <row r="320">
@@ -11228,7 +11228,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="n">
-        <v>65651</v>
+        <v>66362</v>
       </c>
     </row>
     <row r="321">
@@ -11262,7 +11262,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>2024/04/24</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -11285,7 +11285,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="322">
@@ -11330,7 +11330,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -11353,7 +11353,7 @@
         <v>0</v>
       </c>
       <c r="H323" t="n">
-        <v>1748</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="324">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="H324" t="n">
-        <v>4548</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="325">
@@ -11398,7 +11398,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -11421,7 +11421,7 @@
         <v>0</v>
       </c>
       <c r="H325" t="n">
-        <v>34035</v>
+        <v>34048</v>
       </c>
     </row>
     <row r="326">
@@ -11500,7 +11500,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -11523,7 +11523,7 @@
         <v>0</v>
       </c>
       <c r="H328" t="n">
-        <v>18744</v>
+        <v>18766</v>
       </c>
     </row>
     <row r="329">
@@ -11602,7 +11602,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -11625,7 +11625,7 @@
         <v>0</v>
       </c>
       <c r="H331" t="n">
-        <v>2028</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="332">
@@ -11636,7 +11636,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="H332" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="333">
@@ -11670,7 +11670,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -11693,7 +11693,7 @@
         <v>0</v>
       </c>
       <c r="H333" t="n">
-        <v>1763</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="334">
@@ -11738,7 +11738,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -11761,7 +11761,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="n">
-        <v>61260</v>
+        <v>61811</v>
       </c>
     </row>
     <row r="336">
@@ -11879,7 +11879,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Oficina de Atención</t>
+          <t>Subsecretaría de Relaciones Exteriores</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -11908,7 +11908,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -11931,7 +11931,7 @@
         <v>0</v>
       </c>
       <c r="H340" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="341">
@@ -12010,7 +12010,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -12033,7 +12033,7 @@
         <v>0</v>
       </c>
       <c r="H343" t="n">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="344">
@@ -12044,7 +12044,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -12067,7 +12067,7 @@
         <v>0</v>
       </c>
       <c r="H344" t="n">
-        <v>23872</v>
+        <v>24140</v>
       </c>
     </row>
     <row r="345">
@@ -12078,7 +12078,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -12101,7 +12101,7 @@
         <v>0</v>
       </c>
       <c r="H345" t="n">
-        <v>2526</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="346">
@@ -12146,7 +12146,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -12169,7 +12169,7 @@
         <v>0</v>
       </c>
       <c r="H347" t="n">
-        <v>10184</v>
+        <v>10205</v>
       </c>
     </row>
     <row r="348">
@@ -12214,7 +12214,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/11</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -12237,7 +12237,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="n">
-        <v>11203</v>
+        <v>11210</v>
       </c>
     </row>
     <row r="350">
@@ -12248,7 +12248,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -12271,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="H350" t="n">
-        <v>133826</v>
+        <v>134554</v>
       </c>
     </row>
     <row r="351">
@@ -12282,7 +12282,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -12305,7 +12305,7 @@
         <v>0</v>
       </c>
       <c r="H351" t="n">
-        <v>36796</v>
+        <v>37320</v>
       </c>
     </row>
     <row r="352">
@@ -12316,7 +12316,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -12339,7 +12339,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="n">
-        <v>11474</v>
+        <v>11597</v>
       </c>
     </row>
     <row r="353">
@@ -12384,7 +12384,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -12407,7 +12407,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="n">
-        <v>3566</v>
+        <v>3833</v>
       </c>
     </row>
     <row r="355">
@@ -12452,7 +12452,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -12475,7 +12475,7 @@
         <v>0</v>
       </c>
       <c r="H356" t="n">
-        <v>18807</v>
+        <v>18824</v>
       </c>
     </row>
     <row r="357">
@@ -12486,7 +12486,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -12509,7 +12509,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="n">
-        <v>33875</v>
+        <v>33882</v>
       </c>
     </row>
     <row r="358">
@@ -12554,7 +12554,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -12577,7 +12577,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="n">
-        <v>88269</v>
+        <v>89264</v>
       </c>
     </row>
     <row r="360">
@@ -12588,7 +12588,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>2024/04/29</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -12622,7 +12622,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -12645,7 +12645,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="n">
-        <v>50244</v>
+        <v>50251</v>
       </c>
     </row>
     <row r="362">
@@ -12656,7 +12656,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -12679,7 +12679,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="363">
@@ -12690,7 +12690,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="n">
-        <v>29034</v>
+        <v>29360</v>
       </c>
     </row>
     <row r="364">
@@ -12758,7 +12758,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -12781,7 +12781,7 @@
         <v>0</v>
       </c>
       <c r="H365" t="n">
-        <v>17800</v>
+        <v>18038</v>
       </c>
     </row>
     <row r="366">
@@ -12792,7 +12792,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -12815,7 +12815,7 @@
         <v>0</v>
       </c>
       <c r="H366" t="n">
-        <v>2448</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="367">
@@ -12860,7 +12860,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="n">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="369">
@@ -12894,7 +12894,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -12917,7 +12917,7 @@
         <v>0</v>
       </c>
       <c r="H369" t="n">
-        <v>12862</v>
+        <v>12882</v>
       </c>
     </row>
     <row r="370">
@@ -12928,7 +12928,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -12962,7 +12962,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -12985,7 +12985,7 @@
         <v>0</v>
       </c>
       <c r="H371" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="372">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>2024/04/25</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -13019,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="H372" t="n">
-        <v>6386</v>
+        <v>6492</v>
       </c>
     </row>
     <row r="373">
@@ -13030,7 +13030,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>2024/04/26</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -13053,7 +13053,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="n">
-        <v>8953</v>
+        <v>9064</v>
       </c>
     </row>
     <row r="374">
@@ -13064,7 +13064,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -13087,7 +13087,7 @@
         <v>0</v>
       </c>
       <c r="H374" t="n">
-        <v>6151</v>
+        <v>6236</v>
       </c>
     </row>
     <row r="375">
@@ -13098,7 +13098,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>2024/04/25</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -13121,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="n">
-        <v>55930</v>
+        <v>56594</v>
       </c>
     </row>
     <row r="376">
@@ -13268,7 +13268,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -13291,7 +13291,7 @@
         <v>0</v>
       </c>
       <c r="H380" t="n">
-        <v>16786</v>
+        <v>16968</v>
       </c>
     </row>
     <row r="381">
@@ -13302,7 +13302,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="H381" t="n">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="382">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -13359,7 +13359,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="n">
-        <v>3365</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="383">
@@ -13404,7 +13404,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2024/04/24</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -13427,7 +13427,7 @@
         <v>0</v>
       </c>
       <c r="H384" t="n">
-        <v>180820</v>
+        <v>182523</v>
       </c>
     </row>
     <row r="385">
@@ -13506,7 +13506,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -13529,7 +13529,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="n">
-        <v>15229</v>
+        <v>15235</v>
       </c>
     </row>
     <row r="388">
@@ -13608,7 +13608,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="n">
-        <v>1002</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="391">
@@ -13642,7 +13642,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -13665,7 +13665,7 @@
         <v>0</v>
       </c>
       <c r="H391" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="392">
@@ -13710,7 +13710,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -13733,7 +13733,7 @@
         <v>0</v>
       </c>
       <c r="H393" t="n">
-        <v>23078</v>
+        <v>23353</v>
       </c>
     </row>
     <row r="394">
@@ -13744,7 +13744,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -13767,7 +13767,7 @@
         <v>0</v>
       </c>
       <c r="H394" t="n">
-        <v>15179</v>
+        <v>15195</v>
       </c>
     </row>
     <row r="395">
@@ -13778,7 +13778,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -13801,7 +13801,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="n">
-        <v>9201</v>
+        <v>9311</v>
       </c>
     </row>
     <row r="396">
@@ -13880,7 +13880,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -13903,7 +13903,7 @@
         <v>0</v>
       </c>
       <c r="H398" t="n">
-        <v>68200</v>
+        <v>68971</v>
       </c>
     </row>
     <row r="399">
@@ -13948,7 +13948,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/12</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -13971,7 +13971,7 @@
         <v>0</v>
       </c>
       <c r="H400" t="n">
-        <v>7221</v>
+        <v>7291</v>
       </c>
     </row>
     <row r="401">
@@ -13982,7 +13982,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -14005,7 +14005,7 @@
         <v>0</v>
       </c>
       <c r="H401" t="n">
-        <v>14757</v>
+        <v>14784</v>
       </c>
     </row>
     <row r="402">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -14175,7 +14175,7 @@
         <v>0</v>
       </c>
       <c r="H406" t="n">
-        <v>24497</v>
+        <v>24509</v>
       </c>
     </row>
     <row r="407">
@@ -14186,7 +14186,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -14209,7 +14209,7 @@
         <v>0</v>
       </c>
       <c r="H407" t="n">
-        <v>16340</v>
+        <v>16570</v>
       </c>
     </row>
     <row r="408">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -14243,7 +14243,7 @@
         <v>0</v>
       </c>
       <c r="H408" t="n">
-        <v>58812</v>
+        <v>60324</v>
       </c>
     </row>
     <row r="409">
@@ -14288,7 +14288,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -14311,7 +14311,7 @@
         <v>0</v>
       </c>
       <c r="H410" t="n">
-        <v>17358</v>
+        <v>18145</v>
       </c>
     </row>
     <row r="411">
@@ -14322,7 +14322,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -14345,7 +14345,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="n">
-        <v>11844</v>
+        <v>11881</v>
       </c>
     </row>
     <row r="412">
@@ -14492,7 +14492,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -14560,7 +14560,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -14583,7 +14583,7 @@
         <v>0</v>
       </c>
       <c r="H418" t="n">
-        <v>17241</v>
+        <v>17548</v>
       </c>
     </row>
     <row r="419">
@@ -14594,7 +14594,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -14617,7 +14617,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="n">
-        <v>3947</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="420">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -14651,7 +14651,7 @@
         <v>0</v>
       </c>
       <c r="H420" t="n">
-        <v>18604</v>
+        <v>18825</v>
       </c>
     </row>
     <row r="421">
@@ -14662,7 +14662,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -14685,7 +14685,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="n">
-        <v>14952</v>
+        <v>14955</v>
       </c>
     </row>
     <row r="422">
@@ -14696,7 +14696,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -14719,7 +14719,7 @@
         <v>0</v>
       </c>
       <c r="H422" t="n">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="423">
@@ -14730,7 +14730,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>2024/04/23</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -14753,7 +14753,7 @@
         <v>0</v>
       </c>
       <c r="H423" t="n">
-        <v>15021</v>
+        <v>15161</v>
       </c>
     </row>
     <row r="424">
@@ -14764,7 +14764,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -14787,7 +14787,7 @@
         <v>0</v>
       </c>
       <c r="H424" t="n">
-        <v>19879</v>
+        <v>20239</v>
       </c>
     </row>
     <row r="425">
@@ -14866,7 +14866,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -14889,7 +14889,7 @@
         <v>0</v>
       </c>
       <c r="H427" t="n">
-        <v>47829</v>
+        <v>48347</v>
       </c>
     </row>
     <row r="428">
@@ -14900,7 +14900,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -14923,7 +14923,7 @@
         <v>0</v>
       </c>
       <c r="H428" t="n">
-        <v>25165</v>
+        <v>25438</v>
       </c>
     </row>
     <row r="429">
@@ -14934,7 +14934,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -14957,7 +14957,7 @@
         <v>0</v>
       </c>
       <c r="H429" t="n">
-        <v>19513</v>
+        <v>19659</v>
       </c>
     </row>
     <row r="430">
@@ -15036,7 +15036,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -15104,7 +15104,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -15127,7 +15127,7 @@
         <v>0</v>
       </c>
       <c r="H434" t="n">
-        <v>83479</v>
+        <v>85000</v>
       </c>
     </row>
     <row r="435">
@@ -15138,7 +15138,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -15161,7 +15161,7 @@
         <v>0</v>
       </c>
       <c r="H435" t="n">
-        <v>34589</v>
+        <v>34977</v>
       </c>
     </row>
     <row r="436">
@@ -15172,7 +15172,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -15195,7 +15195,7 @@
         <v>0</v>
       </c>
       <c r="H436" t="n">
-        <v>4088</v>
+        <v>4089</v>
       </c>
     </row>
     <row r="437">
@@ -15206,7 +15206,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -15229,7 +15229,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="n">
-        <v>11218</v>
+        <v>11227</v>
       </c>
     </row>
     <row r="438">
@@ -15240,7 +15240,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -15478,7 +15478,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -15501,7 +15501,7 @@
         <v>0</v>
       </c>
       <c r="H445" t="n">
-        <v>11655</v>
+        <v>11681</v>
       </c>
     </row>
     <row r="446">
@@ -15512,7 +15512,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -15546,7 +15546,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -15569,7 +15569,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="n">
-        <v>18199</v>
+        <v>18582</v>
       </c>
     </row>
     <row r="448">
@@ -15682,7 +15682,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -15705,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="452">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -15807,7 +15807,7 @@
         <v>0</v>
       </c>
       <c r="H454" t="n">
-        <v>51166</v>
+        <v>51676</v>
       </c>
     </row>
     <row r="455">
@@ -15818,7 +15818,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -15841,7 +15841,7 @@
         <v>0</v>
       </c>
       <c r="H455" t="n">
-        <v>38913</v>
+        <v>39350</v>
       </c>
     </row>
     <row r="456">
@@ -15954,7 +15954,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -15977,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="H459" t="n">
-        <v>22173</v>
+        <v>22432</v>
       </c>
     </row>
     <row r="460">
@@ -15988,7 +15988,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -16011,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="n">
-        <v>15029</v>
+        <v>15140</v>
       </c>
     </row>
     <row r="461">
@@ -16158,7 +16158,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -16181,7 +16181,7 @@
         <v>0</v>
       </c>
       <c r="H465" t="n">
-        <v>65929</v>
+        <v>67161</v>
       </c>
     </row>
     <row r="466">
@@ -16226,7 +16226,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -16249,7 +16249,7 @@
         <v>0</v>
       </c>
       <c r="H467" t="n">
-        <v>923</v>
+        <v>941</v>
       </c>
     </row>
     <row r="468">
@@ -16260,7 +16260,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -16283,7 +16283,7 @@
         <v>0</v>
       </c>
       <c r="H468" t="n">
-        <v>92461</v>
+        <v>95018</v>
       </c>
     </row>
     <row r="469">
@@ -16396,7 +16396,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -16430,7 +16430,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -16453,7 +16453,7 @@
         <v>0</v>
       </c>
       <c r="H473" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="474">
@@ -16498,7 +16498,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -16521,7 +16521,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="n">
-        <v>2440</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="476">
@@ -16566,7 +16566,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -16589,7 +16589,7 @@
         <v>0</v>
       </c>
       <c r="H477" t="n">
-        <v>102353</v>
+        <v>103526</v>
       </c>
     </row>
     <row r="478">
@@ -16634,7 +16634,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -16657,7 +16657,7 @@
         <v>0</v>
       </c>
       <c r="H479" t="n">
-        <v>3650</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="480">
@@ -16668,7 +16668,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -16691,7 +16691,7 @@
         <v>0</v>
       </c>
       <c r="H480" t="n">
-        <v>831955</v>
+        <v>857989</v>
       </c>
     </row>
     <row r="481">
@@ -16736,7 +16736,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -16759,7 +16759,7 @@
         <v>0</v>
       </c>
       <c r="H482" t="n">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="483">
@@ -16804,7 +16804,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -16827,7 +16827,7 @@
         <v>0</v>
       </c>
       <c r="H484" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="485">
@@ -16906,7 +16906,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -16929,7 +16929,7 @@
         <v>0</v>
       </c>
       <c r="H487" t="n">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="488">
@@ -16974,7 +16974,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -16997,7 +16997,7 @@
         <v>0</v>
       </c>
       <c r="H489" t="n">
-        <v>2764</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="490">
@@ -17110,7 +17110,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -17133,7 +17133,7 @@
         <v>0</v>
       </c>
       <c r="H493" t="n">
-        <v>249</v>
+        <v>263</v>
       </c>
     </row>
     <row r="494">
@@ -17246,7 +17246,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -17269,7 +17269,7 @@
         <v>0</v>
       </c>
       <c r="H497" t="n">
-        <v>387</v>
+        <v>429</v>
       </c>
     </row>
     <row r="498">
@@ -17348,7 +17348,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -17371,7 +17371,7 @@
         <v>0</v>
       </c>
       <c r="H500" t="n">
-        <v>498</v>
+        <v>520</v>
       </c>
     </row>
     <row r="501">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -17439,7 +17439,7 @@
         <v>0</v>
       </c>
       <c r="H502" t="n">
-        <v>14874</v>
+        <v>15480</v>
       </c>
     </row>
     <row r="503">
@@ -17484,7 +17484,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -17507,7 +17507,7 @@
         <v>0</v>
       </c>
       <c r="H504" t="n">
-        <v>1492</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="505">
@@ -17518,7 +17518,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -17541,7 +17541,7 @@
         <v>0</v>
       </c>
       <c r="H505" t="n">
-        <v>700</v>
+        <v>728</v>
       </c>
     </row>
     <row r="506">
@@ -17688,7 +17688,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>2024/05/01</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -17711,7 +17711,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="n">
-        <v>801</v>
+        <v>834</v>
       </c>
     </row>
     <row r="511">
@@ -17858,7 +17858,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -17881,7 +17881,7 @@
         <v>0</v>
       </c>
       <c r="H515" t="n">
-        <v>4258</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="516">
@@ -18062,7 +18062,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -18085,7 +18085,7 @@
         <v>0</v>
       </c>
       <c r="H521" t="n">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="522">
@@ -18130,7 +18130,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -18153,7 +18153,7 @@
         <v>0</v>
       </c>
       <c r="H523" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="524">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -18391,7 +18391,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="n">
-        <v>3727</v>
+        <v>3789</v>
       </c>
     </row>
     <row r="531">
@@ -18504,7 +18504,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -18527,7 +18527,7 @@
         <v>0</v>
       </c>
       <c r="H534" t="n">
-        <v>2835</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="535">
@@ -18538,7 +18538,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -18561,7 +18561,7 @@
         <v>0</v>
       </c>
       <c r="H535" t="n">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="536">
@@ -18674,7 +18674,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -18697,7 +18697,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="n">
-        <v>460</v>
+        <v>478</v>
       </c>
     </row>
     <row r="540">
@@ -18980,7 +18980,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -19003,7 +19003,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="n">
-        <v>1680</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="549">
@@ -19218,7 +19218,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -19320,7 +19320,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -19343,7 +19343,7 @@
         <v>0</v>
       </c>
       <c r="H558" t="n">
-        <v>621</v>
+        <v>657</v>
       </c>
     </row>
     <row r="559">
@@ -19694,7 +19694,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
@@ -19717,7 +19717,7 @@
         <v>0</v>
       </c>
       <c r="H569" t="n">
-        <v>400</v>
+        <v>490</v>
       </c>
     </row>
     <row r="570">
@@ -19830,7 +19830,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -19853,7 +19853,7 @@
         <v>0</v>
       </c>
       <c r="H573" t="n">
-        <v>985</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="574">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -19887,7 +19887,7 @@
         <v>0</v>
       </c>
       <c r="H574" t="n">
-        <v>267</v>
+        <v>286</v>
       </c>
     </row>
     <row r="575">
@@ -20034,7 +20034,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -20057,7 +20057,7 @@
         <v>0</v>
       </c>
       <c r="H579" t="n">
-        <v>2598</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="580">
@@ -20170,7 +20170,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -20193,7 +20193,7 @@
         <v>0</v>
       </c>
       <c r="H583" t="n">
-        <v>5643</v>
+        <v>5793</v>
       </c>
     </row>
     <row r="584">
@@ -20476,7 +20476,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -20499,7 +20499,7 @@
         <v>0</v>
       </c>
       <c r="H592" t="n">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="593">
@@ -20578,7 +20578,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -20601,7 +20601,7 @@
         <v>0</v>
       </c>
       <c r="H595" t="n">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="596">
@@ -20612,7 +20612,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/11</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -20635,7 +20635,7 @@
         <v>0</v>
       </c>
       <c r="H596" t="n">
-        <v>267</v>
+        <v>287</v>
       </c>
     </row>
     <row r="597">
@@ -20782,7 +20782,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -20805,7 +20805,7 @@
         <v>0</v>
       </c>
       <c r="H601" t="n">
-        <v>6451</v>
+        <v>6860</v>
       </c>
     </row>
     <row r="602">
@@ -20952,7 +20952,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -20975,7 +20975,7 @@
         <v>0</v>
       </c>
       <c r="H606" t="n">
-        <v>138099</v>
+        <v>146451</v>
       </c>
     </row>
     <row r="607">
@@ -21020,7 +21020,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
@@ -21043,7 +21043,7 @@
         <v>0</v>
       </c>
       <c r="H608" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="609">
@@ -21190,7 +21190,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -21213,7 +21213,7 @@
         <v>0</v>
       </c>
       <c r="H613" t="n">
-        <v>1086</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="614">
@@ -21326,7 +21326,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
@@ -21349,7 +21349,7 @@
         <v>0</v>
       </c>
       <c r="H617" t="n">
-        <v>2075</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="618">
@@ -21360,7 +21360,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
@@ -21383,7 +21383,7 @@
         <v>0</v>
       </c>
       <c r="H618" t="n">
-        <v>661</v>
+        <v>842</v>
       </c>
     </row>
     <row r="619">
@@ -21394,7 +21394,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -21417,7 +21417,7 @@
         <v>0</v>
       </c>
       <c r="H619" t="n">
-        <v>570</v>
+        <v>734</v>
       </c>
     </row>
     <row r="620">
@@ -21428,7 +21428,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -21451,7 +21451,7 @@
         <v>0</v>
       </c>
       <c r="H620" t="n">
-        <v>1916</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="621">
@@ -21700,7 +21700,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -21723,7 +21723,7 @@
         <v>0</v>
       </c>
       <c r="H628" t="n">
-        <v>8200</v>
+        <v>11279</v>
       </c>
     </row>
     <row r="629">
@@ -22074,7 +22074,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -22097,7 +22097,7 @@
         <v>0</v>
       </c>
       <c r="H639" t="n">
-        <v>606</v>
+        <v>825</v>
       </c>
     </row>
     <row r="640">
@@ -22132,6 +22132,40 @@
       </c>
       <c r="H640" t="n">
         <v>34</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>2024/05/15</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>Corporación Cultural de Las Condes</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>CM075</t>
+        </is>
+      </c>
+      <c r="E641" t="n">
+        <v>0</v>
+      </c>
+      <c r="F641" t="n">
+        <v>0</v>
+      </c>
+      <c r="G641" t="n">
+        <v>0</v>
+      </c>
+      <c r="H641" t="n">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado_historico4.xlsx
+++ b/consolidado_historico4.xlsx
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024/04/23</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>44124</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="31">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>12316</v>
+        <v>12459</v>
       </c>
     </row>
     <row r="56">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>25101</v>
+        <v>25376</v>
       </c>
     </row>
     <row r="74">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2024/04/23</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>18605</v>
+        <v>18832</v>
       </c>
     </row>
     <row r="86">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>95992</v>
+        <v>97071</v>
       </c>
     </row>
     <row r="112">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>38197</v>
+        <v>38223</v>
       </c>
     </row>
     <row r="132">
@@ -5244,7 +5244,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="145">
@@ -5550,7 +5550,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5573,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>13022</v>
+        <v>13184</v>
       </c>
     </row>
     <row r="154">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2024/04/29</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>63260</v>
+        <v>64210</v>
       </c>
     </row>
     <row r="157">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5924,7 +5924,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5947,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>44119</v>
+        <v>44130</v>
       </c>
     </row>
     <row r="165">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>17057</v>
+        <v>17225</v>
       </c>
     </row>
     <row r="175">
@@ -6842,7 +6842,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6865,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="H191" t="n">
-        <v>1982</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="192">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -7658,7 +7658,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7681,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="n">
-        <v>25074</v>
+        <v>25109</v>
       </c>
     </row>
     <row r="216">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -7953,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>79077</v>
+        <v>79847</v>
       </c>
     </row>
     <row r="224">
@@ -8066,7 +8066,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -8089,7 +8089,7 @@
         <v>0</v>
       </c>
       <c r="H227" t="n">
-        <v>1326</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="228">
@@ -8848,7 +8848,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="H250" t="n">
-        <v>23313</v>
+        <v>23599</v>
       </c>
     </row>
     <row r="251">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -8905,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="H251" t="n">
-        <v>18543</v>
+        <v>18813</v>
       </c>
     </row>
     <row r="252">
@@ -8984,7 +8984,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -9007,7 +9007,7 @@
         <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>3051</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="255">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -9381,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="H265" t="n">
-        <v>79645</v>
+        <v>79646</v>
       </c>
     </row>
     <row r="266">
@@ -9494,7 +9494,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -9517,7 +9517,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="n">
-        <v>9799</v>
+        <v>9962</v>
       </c>
     </row>
     <row r="270">
@@ -10956,7 +10956,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="n">
-        <v>23740</v>
+        <v>23745</v>
       </c>
     </row>
     <row r="313">
@@ -11534,7 +11534,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>2024/04/24</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -11557,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="n">
-        <v>22405</v>
+        <v>22603</v>
       </c>
     </row>
     <row r="330">
@@ -11772,7 +11772,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -11795,7 +11795,7 @@
         <v>0</v>
       </c>
       <c r="H336" t="n">
-        <v>13526</v>
+        <v>13547</v>
       </c>
     </row>
     <row r="337">
@@ -12486,7 +12486,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -12509,7 +12509,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="n">
-        <v>33882</v>
+        <v>34411</v>
       </c>
     </row>
     <row r="358">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>2024/04/26</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -12543,7 +12543,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="n">
-        <v>34851</v>
+        <v>35186</v>
       </c>
     </row>
     <row r="359">
@@ -13200,7 +13200,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -13223,7 +13223,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="n">
-        <v>2094</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="379">
@@ -13506,7 +13506,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -13529,7 +13529,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="n">
-        <v>15235</v>
+        <v>15242</v>
       </c>
     </row>
     <row r="388">
@@ -13914,7 +13914,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -13937,7 +13937,7 @@
         <v>0</v>
       </c>
       <c r="H399" t="n">
-        <v>22278</v>
+        <v>22603</v>
       </c>
     </row>
     <row r="400">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -14832,7 +14832,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -14855,7 +14855,7 @@
         <v>0</v>
       </c>
       <c r="H426" t="n">
-        <v>77561</v>
+        <v>78420</v>
       </c>
     </row>
     <row r="427">
@@ -15240,7 +15240,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -15263,7 +15263,7 @@
         <v>0</v>
       </c>
       <c r="H438" t="n">
-        <v>5961</v>
+        <v>6031</v>
       </c>
     </row>
     <row r="439">
@@ -15410,7 +15410,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -15433,7 +15433,7 @@
         <v>0</v>
       </c>
       <c r="H443" t="n">
-        <v>8241</v>
+        <v>8533</v>
       </c>
     </row>
     <row r="444">
@@ -15444,7 +15444,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -15467,7 +15467,7 @@
         <v>0</v>
       </c>
       <c r="H444" t="n">
-        <v>3977</v>
+        <v>4103</v>
       </c>
     </row>
     <row r="445">
@@ -15580,7 +15580,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -15603,7 +15603,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="n">
-        <v>1076</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="449">
@@ -16464,7 +16464,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -16532,7 +16532,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>2024/04/26</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -17654,7 +17654,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -17677,7 +17677,7 @@
         <v>0</v>
       </c>
       <c r="H509" t="n">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="510">
@@ -17722,7 +17722,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -17745,7 +17745,7 @@
         <v>0</v>
       </c>
       <c r="H511" t="n">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="512">
@@ -17858,7 +17858,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -18096,7 +18096,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -18334,7 +18334,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>2024/04/26</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -19252,7 +19252,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -19275,7 +19275,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="n">
-        <v>719</v>
+        <v>762</v>
       </c>
     </row>
     <row r="557">
@@ -19762,7 +19762,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -19785,7 +19785,7 @@
         <v>0</v>
       </c>
       <c r="H571" t="n">
-        <v>3102</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="572">
@@ -19796,7 +19796,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>2024/04/26</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -19819,7 +19819,7 @@
         <v>0</v>
       </c>
       <c r="H572" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="573">
@@ -20136,7 +20136,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -20159,7 +20159,7 @@
         <v>0</v>
       </c>
       <c r="H582" t="n">
-        <v>269</v>
+        <v>280</v>
       </c>
     </row>
     <row r="583">
@@ -20884,7 +20884,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>2023/11/06</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
@@ -20986,7 +20986,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -21009,7 +21009,7 @@
         <v>0</v>
       </c>
       <c r="H607" t="n">
-        <v>209</v>
+        <v>227</v>
       </c>
     </row>
     <row r="608">
@@ -21428,7 +21428,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -21451,7 +21451,7 @@
         <v>0</v>
       </c>
       <c r="H620" t="n">
-        <v>2522</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="621">
@@ -21734,7 +21734,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>2024/04/26</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -21757,7 +21757,7 @@
         <v>0</v>
       </c>
       <c r="H629" t="n">
-        <v>199</v>
+        <v>392</v>
       </c>
     </row>
     <row r="630">

--- a/consolidado_historico4.xlsx
+++ b/consolidado_historico4.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H641"/>
+  <dimension ref="A1:H642"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,7 +688,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024/04/25</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>5622</v>
+        <v>5655</v>
       </c>
     </row>
     <row r="35">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/05/27</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>4739</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="38">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/05/28</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>44882</v>
+        <v>45581</v>
       </c>
     </row>
     <row r="40">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/05/20</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>1748</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="50">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/27</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2024/04/26</t>
+          <t>2024/05/28</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>15978</v>
+        <v>16238</v>
       </c>
     </row>
     <row r="62">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/18</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>1831</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="64">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2660,7 +2660,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2024/04/13</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>25031</v>
+        <v>25284</v>
       </c>
     </row>
     <row r="69">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/24</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>16198</v>
+        <v>16370</v>
       </c>
     </row>
     <row r="72">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/27</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>31361</v>
+        <v>33174</v>
       </c>
     </row>
     <row r="77">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>22774</v>
+        <v>23036</v>
       </c>
     </row>
     <row r="103">
@@ -4224,7 +4224,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/05/29</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4247,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>2194</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="115">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2024/05/01</t>
+          <t>2024/05/25</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>218817</v>
+        <v>221354</v>
       </c>
     </row>
     <row r="125">
@@ -4598,7 +4598,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>12609</v>
+        <v>12610</v>
       </c>
     </row>
     <row r="126">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/05/28</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>9798</v>
+        <v>9948</v>
       </c>
     </row>
     <row r="149">
@@ -6230,7 +6230,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2024/03/27</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -6253,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>16569</v>
+        <v>17415</v>
       </c>
     </row>
     <row r="174">
@@ -6400,7 +6400,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6423,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>45265</v>
+        <v>45439</v>
       </c>
     </row>
     <row r="179">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -7239,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="203">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/05/29</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -7273,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="H203" t="n">
-        <v>1038</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="204">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -7545,7 +7545,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>43001</v>
+        <v>43000</v>
       </c>
     </row>
     <row r="212">
@@ -7964,7 +7964,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="n">
-        <v>48455</v>
+        <v>48998</v>
       </c>
     </row>
     <row r="225">
@@ -8134,7 +8134,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -8168,7 +8168,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2024/04/30</t>
+          <t>2024/05/31</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="231">
@@ -8338,7 +8338,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -8361,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="H235" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="236">
@@ -8644,7 +8644,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/20</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="245">
@@ -9154,7 +9154,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/27</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -9177,7 +9177,7 @@
         <v>0</v>
       </c>
       <c r="H259" t="n">
-        <v>15079</v>
+        <v>15224</v>
       </c>
     </row>
     <row r="260">
@@ -9426,7 +9426,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="H267" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="268">
@@ -9562,7 +9562,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -9585,7 +9585,7 @@
         <v>0</v>
       </c>
       <c r="H271" t="n">
-        <v>7853</v>
+        <v>7854</v>
       </c>
     </row>
     <row r="272">
@@ -9698,7 +9698,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>2024/04/30</t>
+          <t>2024/05/20</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -9721,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="H275" t="n">
-        <v>55943</v>
+        <v>56076</v>
       </c>
     </row>
     <row r="276">
@@ -10004,7 +10004,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -10027,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="H284" t="n">
-        <v>40225</v>
+        <v>40243</v>
       </c>
     </row>
     <row r="285">
@@ -10480,7 +10480,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -10503,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="n">
-        <v>6834</v>
+        <v>6865</v>
       </c>
     </row>
     <row r="299">
@@ -10718,7 +10718,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/05/24</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -10741,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="H305" t="n">
-        <v>40496</v>
+        <v>40515</v>
       </c>
     </row>
     <row r="306">
@@ -10956,7 +10956,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/05/29</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="n">
-        <v>23745</v>
+        <v>24040</v>
       </c>
     </row>
     <row r="313">
@@ -11194,7 +11194,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="n">
-        <v>30766</v>
+        <v>30767</v>
       </c>
     </row>
     <row r="320">
@@ -11568,7 +11568,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -11591,7 +11591,7 @@
         <v>0</v>
       </c>
       <c r="H330" t="n">
-        <v>46542</v>
+        <v>47219</v>
       </c>
     </row>
     <row r="331">
@@ -11840,7 +11840,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/20</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -11863,7 +11863,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="n">
-        <v>45286</v>
+        <v>45830</v>
       </c>
     </row>
     <row r="339">
@@ -11942,7 +11942,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -11965,7 +11965,7 @@
         <v>0</v>
       </c>
       <c r="H341" t="n">
-        <v>57955</v>
+        <v>58637</v>
       </c>
     </row>
     <row r="342">
@@ -12010,7 +12010,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/31</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -12350,7 +12350,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>2024/04/30</t>
+          <t>2024/05/28</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -12373,7 +12373,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="n">
-        <v>33332</v>
+        <v>33712</v>
       </c>
     </row>
     <row r="354">
@@ -12588,7 +12588,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/05/20</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -12611,7 +12611,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="n">
-        <v>12795</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="361">
@@ -12758,7 +12758,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/27</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -13574,7 +13574,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/19</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -13597,7 +13597,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="n">
-        <v>137766</v>
+        <v>139789</v>
       </c>
     </row>
     <row r="390">
@@ -13676,7 +13676,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/05/24</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -13699,7 +13699,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="n">
-        <v>9482</v>
+        <v>9669</v>
       </c>
     </row>
     <row r="393">
@@ -14118,7 +14118,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -14141,7 +14141,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="n">
-        <v>10448</v>
+        <v>10564</v>
       </c>
     </row>
     <row r="406">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/05/27</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -14175,7 +14175,7 @@
         <v>0</v>
       </c>
       <c r="H406" t="n">
-        <v>24509</v>
+        <v>24772</v>
       </c>
     </row>
     <row r="407">
@@ -14390,7 +14390,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -14413,7 +14413,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="n">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="414">
@@ -14424,7 +14424,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/05/24</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="H414" t="n">
-        <v>30787</v>
+        <v>31048</v>
       </c>
     </row>
     <row r="415">
@@ -14662,7 +14662,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -14685,7 +14685,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="n">
-        <v>14955</v>
+        <v>15144</v>
       </c>
     </row>
     <row r="422">
@@ -14730,7 +14730,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/20</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -14753,7 +14753,7 @@
         <v>0</v>
       </c>
       <c r="H423" t="n">
-        <v>15161</v>
+        <v>15163</v>
       </c>
     </row>
     <row r="424">
@@ -14798,7 +14798,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/05/28</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -14821,7 +14821,7 @@
         <v>0</v>
       </c>
       <c r="H425" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="426">
@@ -15070,7 +15070,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/05/31</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -15093,7 +15093,7 @@
         <v>0</v>
       </c>
       <c r="H433" t="n">
-        <v>10939</v>
+        <v>11058</v>
       </c>
     </row>
     <row r="434">
@@ -15614,7 +15614,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/05/29</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -15637,7 +15637,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="n">
-        <v>153284</v>
+        <v>156912</v>
       </c>
     </row>
     <row r="450">
@@ -15886,7 +15886,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -15909,7 +15909,7 @@
         <v>0</v>
       </c>
       <c r="H457" t="n">
-        <v>164551</v>
+        <v>166506</v>
       </c>
     </row>
     <row r="458">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/28</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -15943,7 +15943,7 @@
         <v>0</v>
       </c>
       <c r="H458" t="n">
-        <v>4323</v>
+        <v>4325</v>
       </c>
     </row>
     <row r="459">
@@ -15988,7 +15988,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/05/31</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -16011,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="n">
-        <v>15140</v>
+        <v>14521</v>
       </c>
     </row>
     <row r="461">
@@ -16090,7 +16090,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>2024/04/28</t>
+          <t>2024/05/28</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -16113,7 +16113,7 @@
         <v>0</v>
       </c>
       <c r="H463" t="n">
-        <v>48842</v>
+        <v>51861</v>
       </c>
     </row>
     <row r="464">
@@ -16124,7 +16124,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/27</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -16147,7 +16147,7 @@
         <v>0</v>
       </c>
       <c r="H464" t="n">
-        <v>52213</v>
+        <v>52902</v>
       </c>
     </row>
     <row r="465">
@@ -16532,7 +16532,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/05/29</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -16555,7 +16555,7 @@
         <v>0</v>
       </c>
       <c r="H476" t="n">
-        <v>4829</v>
+        <v>4968</v>
       </c>
     </row>
     <row r="477">
@@ -16702,7 +16702,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -16725,7 +16725,7 @@
         <v>0</v>
       </c>
       <c r="H481" t="n">
-        <v>3396</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="482">
@@ -16770,7 +16770,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/05/27</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -16793,7 +16793,7 @@
         <v>0</v>
       </c>
       <c r="H483" t="n">
-        <v>573</v>
+        <v>666</v>
       </c>
     </row>
     <row r="484">
@@ -16872,7 +16872,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/05/27</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -16895,7 +16895,7 @@
         <v>0</v>
       </c>
       <c r="H486" t="n">
-        <v>2186</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="487">
@@ -17008,7 +17008,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/05/27</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -17031,7 +17031,7 @@
         <v>0</v>
       </c>
       <c r="H490" t="n">
-        <v>311</v>
+        <v>384</v>
       </c>
     </row>
     <row r="491">
@@ -17144,7 +17144,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2024/05/30</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -17167,7 +17167,7 @@
         <v>0</v>
       </c>
       <c r="H494" t="n">
-        <v>916</v>
+        <v>997</v>
       </c>
     </row>
     <row r="495">
@@ -17824,7 +17824,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/20</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -17847,7 +17847,7 @@
         <v>0</v>
       </c>
       <c r="H514" t="n">
-        <v>1670</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="515">
@@ -17858,7 +17858,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/05/31</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -17892,7 +17892,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -17915,7 +17915,7 @@
         <v>0</v>
       </c>
       <c r="H516" t="n">
-        <v>12846</v>
+        <v>13399</v>
       </c>
     </row>
     <row r="517">
@@ -17960,7 +17960,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>2024/04/30</t>
+          <t>2024/05/19</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -18504,7 +18504,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/05/24</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -18640,7 +18640,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>2024/04/23</t>
+          <t>2024/05/20</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -18663,7 +18663,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="539">
@@ -18776,7 +18776,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>2024/04/28</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -18799,7 +18799,7 @@
         <v>0</v>
       </c>
       <c r="H542" t="n">
-        <v>2224</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="543">
@@ -18912,7 +18912,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/28</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -18935,7 +18935,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="n">
-        <v>5655</v>
+        <v>5677</v>
       </c>
     </row>
     <row r="547">
@@ -19218,7 +19218,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -19320,7 +19320,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/29</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -19343,7 +19343,7 @@
         <v>0</v>
       </c>
       <c r="H558" t="n">
-        <v>657</v>
+        <v>833</v>
       </c>
     </row>
     <row r="559">
@@ -19456,7 +19456,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/20</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -19479,7 +19479,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="563">
@@ -19490,7 +19490,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/05/24</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -19932,7 +19932,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -19955,7 +19955,7 @@
         <v>0</v>
       </c>
       <c r="H576" t="n">
-        <v>471</v>
+        <v>506</v>
       </c>
     </row>
     <row r="577">
@@ -19966,7 +19966,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/05/20</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -19989,7 +19989,7 @@
         <v>0</v>
       </c>
       <c r="H577" t="n">
-        <v>786</v>
+        <v>816</v>
       </c>
     </row>
     <row r="578">
@@ -20068,7 +20068,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/20</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -20091,7 +20091,7 @@
         <v>0</v>
       </c>
       <c r="H580" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="581">
@@ -20306,7 +20306,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -20329,7 +20329,7 @@
         <v>0</v>
       </c>
       <c r="H587" t="n">
-        <v>1336</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="588">
@@ -20442,7 +20442,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -20465,7 +20465,7 @@
         <v>0</v>
       </c>
       <c r="H591" t="n">
-        <v>1066</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="592">
@@ -20748,7 +20748,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/05/30</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
@@ -20771,7 +20771,7 @@
         <v>0</v>
       </c>
       <c r="H600" t="n">
-        <v>198</v>
+        <v>290</v>
       </c>
     </row>
     <row r="601">
@@ -20850,7 +20850,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -20873,7 +20873,7 @@
         <v>0</v>
       </c>
       <c r="H603" t="n">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="604">
@@ -21088,7 +21088,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -21111,7 +21111,7 @@
         <v>0</v>
       </c>
       <c r="H610" t="n">
-        <v>163</v>
+        <v>183</v>
       </c>
     </row>
     <row r="611">
@@ -21122,17 +21122,17 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>2024/01/26</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>Corporación de Fomento de Desarrollo comunal y Productivo de la Granja</t>
+          <t>Corporación de investigación y avance de la Paleontología e historia natural de Atacama</t>
         </is>
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>CM284</t>
+          <t>FU020</t>
         </is>
       </c>
       <c r="E611" t="n">
@@ -21145,7 +21145,7 @@
         <v>0</v>
       </c>
       <c r="H611" t="n">
-        <v>11</v>
+        <v>132</v>
       </c>
     </row>
     <row r="612">
@@ -21156,17 +21156,17 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>Corporación de investigación y avance de la Paleontología e historia natural de Atacama</t>
+          <t>Municipalidad de Lo Barnechea</t>
         </is>
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>FU020</t>
+          <t>MU144</t>
         </is>
       </c>
       <c r="E612" t="n">
@@ -21179,7 +21179,7 @@
         <v>0</v>
       </c>
       <c r="H612" t="n">
-        <v>132</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="613">
@@ -21190,17 +21190,17 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/02/13</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>Municipalidad de Lo Barnechea</t>
+          <t>Asociación Cultural Municipal de Cerrillos</t>
         </is>
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>MU144</t>
+          <t>MA068</t>
         </is>
       </c>
       <c r="E613" t="n">
@@ -21213,7 +21213,7 @@
         <v>0</v>
       </c>
       <c r="H613" t="n">
-        <v>1361</v>
+        <v>40</v>
       </c>
     </row>
     <row r="614">
@@ -21224,17 +21224,17 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>Asociación Cultural Municipal de Cerrillos</t>
+          <t>Corporación Cultural de La Reina</t>
         </is>
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>MA068</t>
+          <t>CM073</t>
         </is>
       </c>
       <c r="E614" t="n">
@@ -21247,7 +21247,7 @@
         <v>0</v>
       </c>
       <c r="H614" t="n">
-        <v>40</v>
+        <v>284</v>
       </c>
     </row>
     <row r="615">
@@ -21258,17 +21258,17 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>Corporación Cultural de La Reina</t>
+          <t>Corporación Municipal de Deportes y Recreación de Panguipulli</t>
         </is>
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>CM073</t>
+          <t>CM233</t>
         </is>
       </c>
       <c r="E615" t="n">
@@ -21281,7 +21281,7 @@
         <v>0</v>
       </c>
       <c r="H615" t="n">
-        <v>284</v>
+        <v>52</v>
       </c>
     </row>
     <row r="616">
@@ -21292,17 +21292,17 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Deportes y Recreación de Panguipulli</t>
+          <t>Municipalidad de Curanilahue</t>
         </is>
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>CM233</t>
+          <t>MU075</t>
         </is>
       </c>
       <c r="E616" t="n">
@@ -21315,7 +21315,7 @@
         <v>0</v>
       </c>
       <c r="H616" t="n">
-        <v>52</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="617">
@@ -21331,12 +21331,12 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>Municipalidad de Curanilahue</t>
+          <t>Municipalidad de Vitacura</t>
         </is>
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>MU075</t>
+          <t>MU341</t>
         </is>
       </c>
       <c r="E617" t="n">
@@ -21349,7 +21349,7 @@
         <v>0</v>
       </c>
       <c r="H617" t="n">
-        <v>2626</v>
+        <v>842</v>
       </c>
     </row>
     <row r="618">
@@ -21365,12 +21365,12 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>Municipalidad de Vitacura</t>
+          <t>Municipalidad de Panquehue</t>
         </is>
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>MU341</t>
+          <t>MU201</t>
         </is>
       </c>
       <c r="E618" t="n">
@@ -21383,7 +21383,7 @@
         <v>0</v>
       </c>
       <c r="H618" t="n">
-        <v>842</v>
+        <v>734</v>
       </c>
     </row>
     <row r="619">
@@ -21394,17 +21394,17 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>Municipalidad de Panquehue</t>
+          <t>Municipalidad de Constitución</t>
         </is>
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>MU201</t>
+          <t>MU064</t>
         </is>
       </c>
       <c r="E619" t="n">
@@ -21417,7 +21417,7 @@
         <v>0</v>
       </c>
       <c r="H619" t="n">
-        <v>734</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="620">
@@ -21428,17 +21428,17 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>Municipalidad de Constitución</t>
+          <t>Fundación para la Promoción y Desarrollo de la Mujer  (PRODEMU)</t>
         </is>
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>MU064</t>
+          <t>FU003</t>
         </is>
       </c>
       <c r="E620" t="n">
@@ -21451,7 +21451,7 @@
         <v>0</v>
       </c>
       <c r="H620" t="n">
-        <v>2515</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="621">
@@ -21462,17 +21462,17 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>Fundación para la Promoción y Desarrollo de la Mujer  (PRODEMU)</t>
+          <t>Corporación Municipal de Deportes y Desarrollo Social de Quintero</t>
         </is>
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>FU003</t>
+          <t>CM196</t>
         </is>
       </c>
       <c r="E621" t="n">
@@ -21485,7 +21485,7 @@
         <v>0</v>
       </c>
       <c r="H621" t="n">
-        <v>2405</v>
+        <v>317</v>
       </c>
     </row>
     <row r="622">
@@ -21496,17 +21496,17 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>2024/04/25</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Deportes y Desarrollo Social de Quintero</t>
+          <t>Fundación de Orquestas Juveniles e Infantiles de Chile (FOJI)</t>
         </is>
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>CM196</t>
+          <t>FU004</t>
         </is>
       </c>
       <c r="E622" t="n">
@@ -21519,7 +21519,7 @@
         <v>0</v>
       </c>
       <c r="H622" t="n">
-        <v>317</v>
+        <v>228</v>
       </c>
     </row>
     <row r="623">
@@ -21530,17 +21530,17 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>Fundación de Orquestas Juveniles e Infantiles de Chile (FOJI)</t>
+          <t>Municipalidad de Algarrobo</t>
         </is>
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>FU004</t>
+          <t>MU001</t>
         </is>
       </c>
       <c r="E623" t="n">
@@ -21553,7 +21553,7 @@
         <v>0</v>
       </c>
       <c r="H623" t="n">
-        <v>228</v>
+        <v>498</v>
       </c>
     </row>
     <row r="624">
@@ -21564,17 +21564,17 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>Municipalidad de Algarrobo</t>
+          <t>Corporación Municipal de desarrollo Comunal y Productivo de Licantén</t>
         </is>
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>MU001</t>
+          <t>CM156</t>
         </is>
       </c>
       <c r="E624" t="n">
@@ -21587,7 +21587,7 @@
         <v>0</v>
       </c>
       <c r="H624" t="n">
-        <v>498</v>
+        <v>5</v>
       </c>
     </row>
     <row r="625">
@@ -21598,17 +21598,17 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>Corporación Municipal de desarrollo Comunal y Productivo de Licantén</t>
+          <t>Fundación para el Desarrollo de las Artes y la Cultura de la comuna de Punta Arenas</t>
         </is>
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>CM156</t>
+          <t>FU022</t>
         </is>
       </c>
       <c r="E625" t="n">
@@ -21632,17 +21632,17 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/05/27</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>Fundación para el Desarrollo de las Artes y la Cultura de la comuna de Punta Arenas</t>
+          <t>CLUB DE LA REINA SOCIAL DEPORTIVO Y RECREACIONAL</t>
         </is>
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>FU022</t>
+          <t>CM281</t>
         </is>
       </c>
       <c r="E626" t="n">
@@ -21655,7 +21655,7 @@
         <v>0</v>
       </c>
       <c r="H626" t="n">
-        <v>5</v>
+        <v>119</v>
       </c>
     </row>
     <row r="627">
@@ -21666,17 +21666,17 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>2024/04/23</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>CLUB DE LA REINA SOCIAL DEPORTIVO Y RECREACIONAL</t>
+          <t>Servicio Local de Educación Pública de Iquique</t>
         </is>
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>CM281</t>
+          <t>AJ032</t>
         </is>
       </c>
       <c r="E627" t="n">
@@ -21689,7 +21689,7 @@
         <v>0</v>
       </c>
       <c r="H627" t="n">
-        <v>92</v>
+        <v>11279</v>
       </c>
     </row>
     <row r="628">
@@ -21700,17 +21700,17 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>Servicio Local de Educación Pública de Iquique</t>
+          <t>Fundación Centro Cultural Palacio de La Moneda</t>
         </is>
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>AJ032</t>
+          <t>FU018</t>
         </is>
       </c>
       <c r="E628" t="n">
@@ -21723,7 +21723,7 @@
         <v>0</v>
       </c>
       <c r="H628" t="n">
-        <v>11279</v>
+        <v>392</v>
       </c>
     </row>
     <row r="629">
@@ -21734,17 +21734,17 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>Fundación Centro Cultural Palacio de La Moneda</t>
+          <t>Corporación Municipal de Cultura de TilTil</t>
         </is>
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>FU018</t>
+          <t>CM258</t>
         </is>
       </c>
       <c r="E629" t="n">
@@ -21757,7 +21757,7 @@
         <v>0</v>
       </c>
       <c r="H629" t="n">
-        <v>392</v>
+        <v>633</v>
       </c>
     </row>
     <row r="630">
@@ -21768,17 +21768,17 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Cultura de TilTil</t>
+          <t>Corporación Municipal de Fomento y Desarrollo Comunal de Sierra Gorda</t>
         </is>
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>CM258</t>
+          <t>CM054</t>
         </is>
       </c>
       <c r="E630" t="n">
@@ -21791,7 +21791,7 @@
         <v>0</v>
       </c>
       <c r="H630" t="n">
-        <v>633</v>
+        <v>91</v>
       </c>
     </row>
     <row r="631">
@@ -21802,17 +21802,17 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Fomento y Desarrollo Comunal de Sierra Gorda</t>
+          <t>Corporación Regional de Investigación y Desarrollo Centro de Investigación en Ecosistemas de la Patagonia</t>
         </is>
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>CM054</t>
+          <t>FU021</t>
         </is>
       </c>
       <c r="E631" t="n">
@@ -21825,7 +21825,7 @@
         <v>0</v>
       </c>
       <c r="H631" t="n">
-        <v>91</v>
+        <v>204</v>
       </c>
     </row>
     <row r="632">
@@ -21836,17 +21836,17 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>Corporación Regional de Investigación y Desarrollo Centro de Investigación en Ecosistemas de la Patagonia</t>
+          <t>Corporación Cultural de Antofagasta</t>
         </is>
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>FU021</t>
+          <t>CM067</t>
         </is>
       </c>
       <c r="E632" t="n">
@@ -21859,7 +21859,7 @@
         <v>0</v>
       </c>
       <c r="H632" t="n">
-        <v>204</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="633">
@@ -21870,17 +21870,17 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/30</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>Corporación Cultural de Antofagasta</t>
+          <t>Asociación de Gobernadores y Gobernadoras Regionales de Chile  AGORECHI</t>
         </is>
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>CM067</t>
+          <t>FU025</t>
         </is>
       </c>
       <c r="E633" t="n">
@@ -21893,7 +21893,7 @@
         <v>0</v>
       </c>
       <c r="H633" t="n">
-        <v>1892</v>
+        <v>26</v>
       </c>
     </row>
     <row r="634">
@@ -21904,17 +21904,17 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/31</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>Asociación de Gobernadores y Gobernadoras Regionales de Chile  AGORECHI</t>
+          <t>Servicio Local de Educación Pública de Magallanes</t>
         </is>
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>FU025</t>
+          <t>AJ030</t>
         </is>
       </c>
       <c r="E634" t="n">
@@ -21927,7 +21927,7 @@
         <v>0</v>
       </c>
       <c r="H634" t="n">
-        <v>24</v>
+        <v>5929</v>
       </c>
     </row>
     <row r="635">
@@ -21943,12 +21943,12 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>Servicio Local de Educación Pública de Magallanes</t>
+          <t>Corporación de desarrollo territorial de la región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>AJ030</t>
+          <t>FU023</t>
         </is>
       </c>
       <c r="E635" t="n">
@@ -21961,7 +21961,7 @@
         <v>0</v>
       </c>
       <c r="H635" t="n">
-        <v>5760</v>
+        <v>86</v>
       </c>
     </row>
     <row r="636">
@@ -21972,17 +21972,17 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>Corporación de desarrollo territorial de la región de Arica y Parinacota</t>
+          <t>Corporación de Deportes de Parral</t>
         </is>
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>FU023</t>
+          <t>CM127</t>
         </is>
       </c>
       <c r="E636" t="n">
@@ -21995,7 +21995,7 @@
         <v>0</v>
       </c>
       <c r="H636" t="n">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="637">
@@ -22006,17 +22006,17 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>Corporación de Deportes de Parral</t>
+          <t>Corporación de Deportes de Independencia</t>
         </is>
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>CM127</t>
+          <t>CM125</t>
         </is>
       </c>
       <c r="E637" t="n">
@@ -22029,7 +22029,7 @@
         <v>0</v>
       </c>
       <c r="H637" t="n">
-        <v>16</v>
+        <v>870</v>
       </c>
     </row>
     <row r="638">
@@ -22040,17 +22040,17 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>Corporación de Deportes de Independencia</t>
+          <t>Servicio Local de educación Pública Punilla Cordillera</t>
         </is>
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>CM125</t>
+          <t>AJ033</t>
         </is>
       </c>
       <c r="E638" t="n">
@@ -22063,7 +22063,7 @@
         <v>0</v>
       </c>
       <c r="H638" t="n">
-        <v>870</v>
+        <v>825</v>
       </c>
     </row>
     <row r="639">
@@ -22074,17 +22074,17 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>Servicio Local de educación Pública Punilla Cordillera</t>
+          <t>Corporación Municipal de Deporte de Padre Hurtado</t>
         </is>
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>AJ033</t>
+          <t>CM176</t>
         </is>
       </c>
       <c r="E639" t="n">
@@ -22097,7 +22097,7 @@
         <v>0</v>
       </c>
       <c r="H639" t="n">
-        <v>825</v>
+        <v>34</v>
       </c>
     </row>
     <row r="640">
@@ -22108,17 +22108,17 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>2024/04/25</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Deporte de Padre Hurtado</t>
+          <t>Corporación Cultural de Las Condes</t>
         </is>
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>CM176</t>
+          <t>CM075</t>
         </is>
       </c>
       <c r="E640" t="n">
@@ -22131,7 +22131,7 @@
         <v>0</v>
       </c>
       <c r="H640" t="n">
-        <v>34</v>
+        <v>103</v>
       </c>
     </row>
     <row r="641">
@@ -22142,17 +22142,17 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/29</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>Corporación Cultural de Las Condes</t>
+          <t>Asociación de Municipalidades del Norte de Chile</t>
         </is>
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>CM075</t>
+          <t>MA020</t>
         </is>
       </c>
       <c r="E641" t="n">
@@ -22165,7 +22165,41 @@
         <v>0</v>
       </c>
       <c r="H641" t="n">
-        <v>103</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>2024/05/29</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>Corporación de Fomento de Desarrollo comunal y Productivo de la Granja</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>CM284</t>
+        </is>
+      </c>
+      <c r="E642" t="n">
+        <v>0</v>
+      </c>
+      <c r="F642" t="n">
+        <v>0</v>
+      </c>
+      <c r="G642" t="n">
+        <v>0</v>
+      </c>
+      <c r="H642" t="n">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado_historico4.xlsx
+++ b/consolidado_historico4.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H642"/>
+  <dimension ref="A1:H644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -416,7 +416,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024/05/04</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024/04/20</t>
+          <t>2024/06/02</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1459,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>5655</v>
+        <v>5663</v>
       </c>
     </row>
     <row r="35">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>27416</v>
+        <v>27440</v>
       </c>
     </row>
     <row r="37">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>5819</v>
+        <v>5899</v>
       </c>
     </row>
     <row r="41">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>22741</v>
+        <v>22975</v>
       </c>
     </row>
     <row r="53">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>76324</v>
+        <v>77341</v>
       </c>
     </row>
     <row r="59">
@@ -2592,7 +2592,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2024/05/24</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>16370</v>
+        <v>16541</v>
       </c>
     </row>
     <row r="72">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>4826</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="75">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>2394</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="87">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>1657</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="88">
@@ -3748,7 +3748,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>45227</v>
+        <v>45654</v>
       </c>
     </row>
     <row r="101">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4009,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>1646</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="108">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>99402</v>
+        <v>108080</v>
       </c>
     </row>
     <row r="114">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4519,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="123">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2024/05/25</t>
+          <t>2024/06/02</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4598,7 +4598,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>12610</v>
+        <v>12742</v>
       </c>
     </row>
     <row r="126">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>13975</v>
+        <v>14198</v>
       </c>
     </row>
     <row r="137">
@@ -6026,7 +6026,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>986</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="168">
@@ -6060,7 +6060,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="169">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6151,7 +6151,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>87277</v>
+        <v>88247</v>
       </c>
     </row>
     <row r="171">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6185,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="172">
@@ -6230,7 +6230,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -6400,7 +6400,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6423,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>45439</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="179">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6729,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="n">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="188">
@@ -7148,7 +7148,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="n">
-        <v>25736</v>
+        <v>25978</v>
       </c>
     </row>
     <row r="201">
@@ -7318,7 +7318,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -7341,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="n">
-        <v>3066</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="206">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -7862,7 +7862,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -7998,7 +7998,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/08</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="n">
-        <v>7504</v>
+        <v>7587</v>
       </c>
     </row>
     <row r="226">
@@ -8542,7 +8542,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -8565,7 +8565,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>10565</v>
+        <v>10578</v>
       </c>
     </row>
     <row r="242">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -8599,7 +8599,7 @@
         <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>23207</v>
+        <v>23668</v>
       </c>
     </row>
     <row r="243">
@@ -8780,7 +8780,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -8803,7 +8803,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="n">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="249">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -9018,7 +9018,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -9041,7 +9041,7 @@
         <v>0</v>
       </c>
       <c r="H255" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="256">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -9494,7 +9494,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -9664,7 +9664,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="H274" t="n">
-        <v>13498</v>
+        <v>13502</v>
       </c>
     </row>
     <row r="275">
@@ -9936,7 +9936,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -9959,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="n">
-        <v>1499</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="283">
@@ -9970,7 +9970,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -10004,7 +10004,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -10027,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="H284" t="n">
-        <v>40243</v>
+        <v>40387</v>
       </c>
     </row>
     <row r="285">
@@ -10616,7 +10616,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -10639,7 +10639,7 @@
         <v>0</v>
       </c>
       <c r="H302" t="n">
-        <v>16927</v>
+        <v>17105</v>
       </c>
     </row>
     <row r="303">
@@ -11058,7 +11058,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -11262,7 +11262,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -11398,7 +11398,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -11421,7 +11421,7 @@
         <v>0</v>
       </c>
       <c r="H325" t="n">
-        <v>34048</v>
+        <v>34061</v>
       </c>
     </row>
     <row r="326">
@@ -11432,7 +11432,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -11455,7 +11455,7 @@
         <v>0</v>
       </c>
       <c r="H326" t="n">
-        <v>13680</v>
+        <v>13853</v>
       </c>
     </row>
     <row r="327">
@@ -11534,7 +11534,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -11976,7 +11976,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -11999,7 +11999,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="n">
-        <v>19033</v>
+        <v>20236</v>
       </c>
     </row>
     <row r="343">
@@ -12112,7 +12112,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -12135,7 +12135,7 @@
         <v>0</v>
       </c>
       <c r="H346" t="n">
-        <v>49082</v>
+        <v>49087</v>
       </c>
     </row>
     <row r="347">
@@ -12248,7 +12248,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -12271,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="H350" t="n">
-        <v>134554</v>
+        <v>134978</v>
       </c>
     </row>
     <row r="351">
@@ -12350,7 +12350,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>2024/05/28</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -12373,7 +12373,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="n">
-        <v>33712</v>
+        <v>33720</v>
       </c>
     </row>
     <row r="354">
@@ -12622,7 +12622,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -12645,7 +12645,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="n">
-        <v>50251</v>
+        <v>50257</v>
       </c>
     </row>
     <row r="362">
@@ -12690,7 +12690,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="n">
-        <v>29360</v>
+        <v>29364</v>
       </c>
     </row>
     <row r="364">
@@ -12724,7 +12724,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -12747,7 +12747,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="365">
@@ -12758,7 +12758,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -12781,7 +12781,7 @@
         <v>0</v>
       </c>
       <c r="H365" t="n">
-        <v>18038</v>
+        <v>18041</v>
       </c>
     </row>
     <row r="366">
@@ -12826,7 +12826,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -12849,7 +12849,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="n">
-        <v>2328</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="368">
@@ -13166,7 +13166,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -13189,7 +13189,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="n">
-        <v>2128</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="378">
@@ -13404,7 +13404,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -13472,7 +13472,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -13495,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="H386" t="n">
-        <v>34180</v>
+        <v>34464</v>
       </c>
     </row>
     <row r="387">
@@ -13676,7 +13676,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>2024/05/24</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -13699,7 +13699,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="n">
-        <v>9669</v>
+        <v>10018</v>
       </c>
     </row>
     <row r="393">
@@ -14594,7 +14594,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -14617,7 +14617,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="n">
-        <v>3948</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="420">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -14798,7 +14798,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>2024/05/28</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -14821,7 +14821,7 @@
         <v>0</v>
       </c>
       <c r="H425" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="426">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>2024/04/25</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -14991,7 +14991,7 @@
         <v>0</v>
       </c>
       <c r="H430" t="n">
-        <v>48859</v>
+        <v>48881</v>
       </c>
     </row>
     <row r="431">
@@ -15002,7 +15002,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -15025,7 +15025,7 @@
         <v>0</v>
       </c>
       <c r="H431" t="n">
-        <v>38408</v>
+        <v>38409</v>
       </c>
     </row>
     <row r="432">
@@ -15104,7 +15104,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -15240,7 +15240,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -15263,7 +15263,7 @@
         <v>0</v>
       </c>
       <c r="H438" t="n">
-        <v>6031</v>
+        <v>6032</v>
       </c>
     </row>
     <row r="439">
@@ -15274,7 +15274,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>2024/04/29</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -15297,7 +15297,7 @@
         <v>0</v>
       </c>
       <c r="H439" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="440">
@@ -15648,7 +15648,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -15671,7 +15671,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="n">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="451">
@@ -15954,7 +15954,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -15977,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="H459" t="n">
-        <v>22432</v>
+        <v>22723</v>
       </c>
     </row>
     <row r="460">
@@ -16090,7 +16090,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>2024/05/28</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -16113,7 +16113,7 @@
         <v>0</v>
       </c>
       <c r="H463" t="n">
-        <v>51861</v>
+        <v>52850</v>
       </c>
     </row>
     <row r="464">
@@ -16328,7 +16328,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>2024/04/26</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -16351,7 +16351,7 @@
         <v>0</v>
       </c>
       <c r="H470" t="n">
-        <v>1876</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="471">
@@ -16464,7 +16464,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -16487,7 +16487,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="n">
-        <v>1849</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="475">
@@ -16532,7 +16532,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -16702,7 +16702,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -16736,7 +16736,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -16759,7 +16759,7 @@
         <v>0</v>
       </c>
       <c r="H482" t="n">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="483">
@@ -17212,7 +17212,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -17382,7 +17382,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -17405,7 +17405,7 @@
         <v>0</v>
       </c>
       <c r="H501" t="n">
-        <v>1221</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="502">
@@ -17552,7 +17552,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -17575,7 +17575,7 @@
         <v>0</v>
       </c>
       <c r="H506" t="n">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="507">
@@ -17586,7 +17586,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -17609,7 +17609,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="n">
-        <v>583</v>
+        <v>595</v>
       </c>
     </row>
     <row r="508">
@@ -17858,7 +17858,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -17960,7 +17960,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>2024/05/19</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -18096,7 +18096,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -18266,7 +18266,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -18289,7 +18289,7 @@
         <v>0</v>
       </c>
       <c r="H527" t="n">
-        <v>940</v>
+        <v>973</v>
       </c>
     </row>
     <row r="528">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -18391,7 +18391,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="n">
-        <v>3789</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="531">
@@ -18470,7 +18470,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -18493,7 +18493,7 @@
         <v>0</v>
       </c>
       <c r="H533" t="n">
-        <v>347</v>
+        <v>366</v>
       </c>
     </row>
     <row r="534">
@@ -18640,7 +18640,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -18663,7 +18663,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="539">
@@ -18878,7 +18878,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -18901,7 +18901,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="546">
@@ -18980,7 +18980,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -19003,7 +19003,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="n">
-        <v>1763</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="549">
@@ -19116,7 +19116,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -19139,7 +19139,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="n">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="553">
@@ -19184,7 +19184,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -19252,7 +19252,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -19275,7 +19275,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="n">
-        <v>762</v>
+        <v>807</v>
       </c>
     </row>
     <row r="557">
@@ -19354,7 +19354,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -19377,7 +19377,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="n">
-        <v>1030</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="560">
@@ -19388,7 +19388,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/06/01</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -19411,7 +19411,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="561">
@@ -19626,7 +19626,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>2023/03/31</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -19660,7 +19660,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -19683,7 +19683,7 @@
         <v>0</v>
       </c>
       <c r="H568" t="n">
-        <v>1131</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="569">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -19887,7 +19887,7 @@
         <v>0</v>
       </c>
       <c r="H574" t="n">
-        <v>286</v>
+        <v>305</v>
       </c>
     </row>
     <row r="575">
@@ -20442,7 +20442,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/01</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -20612,7 +20612,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>2024/05/11</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -20635,7 +20635,7 @@
         <v>0</v>
       </c>
       <c r="H596" t="n">
-        <v>287</v>
+        <v>306</v>
       </c>
     </row>
     <row r="597">
@@ -20986,7 +20986,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -21009,7 +21009,7 @@
         <v>0</v>
       </c>
       <c r="H607" t="n">
-        <v>227</v>
+        <v>248</v>
       </c>
     </row>
     <row r="608">
@@ -21054,7 +21054,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -21077,7 +21077,7 @@
         <v>0</v>
       </c>
       <c r="H609" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
     <row r="610">
@@ -21122,7 +21122,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -21145,7 +21145,7 @@
         <v>0</v>
       </c>
       <c r="H611" t="n">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="612">
@@ -21258,7 +21258,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
@@ -21281,7 +21281,7 @@
         <v>0</v>
       </c>
       <c r="H615" t="n">
-        <v>52</v>
+        <v>91</v>
       </c>
     </row>
     <row r="616">
@@ -21292,7 +21292,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -21315,7 +21315,7 @@
         <v>0</v>
       </c>
       <c r="H616" t="n">
-        <v>2626</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="617">
@@ -21428,7 +21428,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -21451,7 +21451,7 @@
         <v>0</v>
       </c>
       <c r="H620" t="n">
-        <v>2405</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="621">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -21530,7 +21530,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -21553,7 +21553,7 @@
         <v>0</v>
       </c>
       <c r="H623" t="n">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="624">
@@ -21564,7 +21564,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -21587,7 +21587,7 @@
         <v>0</v>
       </c>
       <c r="H624" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="625">
@@ -21734,7 +21734,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -21757,7 +21757,7 @@
         <v>0</v>
       </c>
       <c r="H629" t="n">
-        <v>633</v>
+        <v>642</v>
       </c>
     </row>
     <row r="630">
@@ -21938,7 +21938,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -21961,7 +21961,7 @@
         <v>0</v>
       </c>
       <c r="H635" t="n">
-        <v>86</v>
+        <v>110</v>
       </c>
     </row>
     <row r="636">
@@ -21972,7 +21972,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -21995,7 +21995,7 @@
         <v>0</v>
       </c>
       <c r="H636" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="637">
@@ -22108,7 +22108,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -22131,7 +22131,7 @@
         <v>0</v>
       </c>
       <c r="H640" t="n">
-        <v>103</v>
+        <v>206</v>
       </c>
     </row>
     <row r="641">
@@ -22200,6 +22200,74 @@
       </c>
       <c r="H642" t="n">
         <v>33</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>2024/06/06</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>Municipalidad de Iquique</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>MU112</t>
+        </is>
+      </c>
+      <c r="E643" t="n">
+        <v>0</v>
+      </c>
+      <c r="F643" t="n">
+        <v>0</v>
+      </c>
+      <c r="G643" t="n">
+        <v>0</v>
+      </c>
+      <c r="H643" t="n">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>2024/06/07</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Fomento al Desarrollo Comunal y Productivo de Parral</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>CM220</t>
+        </is>
+      </c>
+      <c r="E644" t="n">
+        <v>0</v>
+      </c>
+      <c r="F644" t="n">
+        <v>0</v>
+      </c>
+      <c r="G644" t="n">
+        <v>0</v>
+      </c>
+      <c r="H644" t="n">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado_historico4.xlsx
+++ b/consolidado_historico4.xlsx
@@ -552,7 +552,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7">
@@ -586,7 +586,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2632</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="8">
@@ -756,7 +756,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13">
@@ -858,7 +858,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
@@ -926,7 +926,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>9521</v>
+        <v>9623</v>
       </c>
     </row>
     <row r="21">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>23377</v>
+        <v>23673</v>
       </c>
     </row>
     <row r="32">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2024/06/04</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>5663</v>
+        <v>5690</v>
       </c>
     </row>
     <row r="35">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>4740</v>
+        <v>4809</v>
       </c>
     </row>
     <row r="38">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2024/05/28</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>45581</v>
+        <v>46277</v>
       </c>
     </row>
     <row r="40">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>24915</v>
+        <v>25246</v>
       </c>
     </row>
     <row r="45">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>28849</v>
+        <v>29194</v>
       </c>
     </row>
     <row r="48">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>8182</v>
+        <v>8262</v>
       </c>
     </row>
     <row r="49">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>22975</v>
+        <v>23240</v>
       </c>
     </row>
     <row r="53">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>5103</v>
+        <v>5195</v>
       </c>
     </row>
     <row r="55">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>8404</v>
+        <v>8589</v>
       </c>
     </row>
     <row r="57">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>14924</v>
+        <v>15197</v>
       </c>
     </row>
     <row r="61">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>15577</v>
+        <v>15657</v>
       </c>
     </row>
     <row r="63">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2024/05/18</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>2065</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="64">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>13730</v>
+        <v>13890</v>
       </c>
     </row>
     <row r="66">
@@ -2660,7 +2660,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>25284</v>
+        <v>25542</v>
       </c>
     </row>
     <row r="69">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>25376</v>
+        <v>25680</v>
       </c>
     </row>
     <row r="74">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>94057</v>
+        <v>94933</v>
       </c>
     </row>
     <row r="76">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="78">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>12275</v>
+        <v>12444</v>
       </c>
     </row>
     <row r="80">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>136390</v>
+        <v>136885</v>
       </c>
     </row>
     <row r="81">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3136,7 +3136,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2024/06/04</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>10184</v>
+        <v>10317</v>
       </c>
     </row>
     <row r="84">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>26605</v>
+        <v>26892</v>
       </c>
     </row>
     <row r="85">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>13216</v>
+        <v>13452</v>
       </c>
     </row>
     <row r="89">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>81467</v>
+        <v>81518</v>
       </c>
     </row>
     <row r="90">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>17847</v>
+        <v>18019</v>
       </c>
     </row>
     <row r="94">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>4419</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="95">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>14586</v>
+        <v>14726</v>
       </c>
     </row>
     <row r="96">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>5936</v>
+        <v>5941</v>
       </c>
     </row>
     <row r="97">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>71088</v>
+        <v>71839</v>
       </c>
     </row>
     <row r="100">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>82690</v>
+        <v>83600</v>
       </c>
     </row>
     <row r="102">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>23036</v>
+        <v>23288</v>
       </c>
     </row>
     <row r="103">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3918,7 +3918,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>1720</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="106">
@@ -3952,7 +3952,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>47999</v>
+        <v>48486</v>
       </c>
     </row>
     <row r="107">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>4205</v>
+        <v>4242</v>
       </c>
     </row>
     <row r="109">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>97071</v>
+        <v>98186</v>
       </c>
     </row>
     <row r="112">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>6866</v>
+        <v>6956</v>
       </c>
     </row>
     <row r="113">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4281,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>237928</v>
+        <v>239921</v>
       </c>
     </row>
     <row r="116">
@@ -4292,7 +4292,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>84672</v>
+        <v>85917</v>
       </c>
     </row>
     <row r="117">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>12739</v>
+        <v>12856</v>
       </c>
     </row>
     <row r="118">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>7198</v>
+        <v>7199</v>
       </c>
     </row>
     <row r="119">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>4708</v>
+        <v>4736</v>
       </c>
     </row>
     <row r="120">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>15879</v>
+        <v>16147</v>
       </c>
     </row>
     <row r="124">
@@ -4598,7 +4598,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2024/06/04</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>12742</v>
+        <v>12743</v>
       </c>
     </row>
     <row r="126">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4655,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>24065</v>
+        <v>24354</v>
       </c>
     </row>
     <row r="127">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>1651</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="128">
@@ -4734,7 +4734,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="130">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4791,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>233307</v>
+        <v>236715</v>
       </c>
     </row>
     <row r="131">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>38223</v>
+        <v>38249</v>
       </c>
     </row>
     <row r="132">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>26730</v>
+        <v>27080</v>
       </c>
     </row>
     <row r="133">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>32595</v>
+        <v>32930</v>
       </c>
     </row>
     <row r="134">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4961,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="136">
@@ -5006,7 +5006,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5029,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>14987</v>
+        <v>14991</v>
       </c>
     </row>
     <row r="138">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="139">
@@ -5074,7 +5074,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5097,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>15887</v>
+        <v>16266</v>
       </c>
     </row>
     <row r="140">
@@ -5108,7 +5108,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5131,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>3571</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="141">
@@ -5142,7 +5142,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>1271</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="142">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5199,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>30990</v>
+        <v>31361</v>
       </c>
     </row>
     <row r="143">
@@ -5244,7 +5244,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="145">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2024/05/11</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5301,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="146">
@@ -5312,7 +5312,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5335,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>17741</v>
+        <v>18014</v>
       </c>
     </row>
     <row r="147">
@@ -5414,7 +5414,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>18078</v>
+        <v>18272</v>
       </c>
     </row>
     <row r="150">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5471,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="151">
@@ -5482,7 +5482,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5505,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>910</v>
+        <v>920</v>
       </c>
     </row>
     <row r="152">
@@ -5516,7 +5516,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5539,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>45954</v>
+        <v>46585</v>
       </c>
     </row>
     <row r="153">
@@ -5550,7 +5550,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5573,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>13184</v>
+        <v>13348</v>
       </c>
     </row>
     <row r="154">
@@ -5584,7 +5584,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5607,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="H154" t="n">
-        <v>13056</v>
+        <v>13208</v>
       </c>
     </row>
     <row r="155">
@@ -5618,7 +5618,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5641,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>4717</v>
+        <v>4855</v>
       </c>
     </row>
     <row r="156">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>64210</v>
+        <v>65170</v>
       </c>
     </row>
     <row r="157">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>48277</v>
+        <v>48293</v>
       </c>
     </row>
     <row r="158">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5743,7 +5743,7 @@
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>32542</v>
+        <v>33110</v>
       </c>
     </row>
     <row r="159">
@@ -5856,7 +5856,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>45206</v>
+        <v>45641</v>
       </c>
     </row>
     <row r="163">
@@ -5890,7 +5890,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5913,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>3280</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="164">
@@ -5924,7 +5924,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5947,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>44130</v>
+        <v>44707</v>
       </c>
     </row>
     <row r="165">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6015,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>42145</v>
+        <v>42194</v>
       </c>
     </row>
     <row r="167">
@@ -6094,7 +6094,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6117,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="H169" t="n">
-        <v>16147</v>
+        <v>16494</v>
       </c>
     </row>
     <row r="170">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6219,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>888</v>
+        <v>904</v>
       </c>
     </row>
     <row r="173">
@@ -6230,7 +6230,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -6253,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>17415</v>
+        <v>17603</v>
       </c>
     </row>
     <row r="174">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>17225</v>
+        <v>17393</v>
       </c>
     </row>
     <row r="175">
@@ -6298,7 +6298,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6321,7 +6321,7 @@
         <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>25308</v>
+        <v>25716</v>
       </c>
     </row>
     <row r="176">
@@ -6332,7 +6332,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6355,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>2167</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="177">
@@ -6400,7 +6400,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2024/06/05</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6423,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>45496</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="179">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>27681</v>
+        <v>27711</v>
       </c>
     </row>
     <row r="181">
@@ -6502,7 +6502,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6525,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="H181" t="n">
-        <v>102334</v>
+        <v>103739</v>
       </c>
     </row>
     <row r="182">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6627,7 +6627,7 @@
         <v>0</v>
       </c>
       <c r="H184" t="n">
-        <v>40551</v>
+        <v>40552</v>
       </c>
     </row>
     <row r="185">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>12950</v>
+        <v>13075</v>
       </c>
     </row>
     <row r="186">
@@ -6672,7 +6672,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6695,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>37214</v>
+        <v>37724</v>
       </c>
     </row>
     <row r="187">
@@ -6740,7 +6740,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6763,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>9669</v>
+        <v>9869</v>
       </c>
     </row>
     <row r="189">
@@ -6774,7 +6774,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -6797,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="n">
-        <v>32176</v>
+        <v>32574</v>
       </c>
     </row>
     <row r="190">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="H190" t="n">
-        <v>3375</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="191">
@@ -6842,7 +6842,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6876,7 +6876,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6899,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>68851</v>
+        <v>69527</v>
       </c>
     </row>
     <row r="193">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6967,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>6785</v>
+        <v>6787</v>
       </c>
     </row>
     <row r="195">
@@ -6978,7 +6978,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>19220</v>
+        <v>19438</v>
       </c>
     </row>
     <row r="196">
@@ -7012,7 +7012,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>23779</v>
+        <v>24019</v>
       </c>
     </row>
     <row r="197">
@@ -7046,7 +7046,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -7069,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>21297</v>
+        <v>21320</v>
       </c>
     </row>
     <row r="198">
@@ -7080,7 +7080,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="199">
@@ -7182,7 +7182,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -7205,7 +7205,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="n">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="202">
@@ -7352,7 +7352,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -7375,7 +7375,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>144986</v>
+        <v>147733</v>
       </c>
     </row>
     <row r="207">
@@ -7386,7 +7386,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -7409,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="n">
-        <v>765</v>
+        <v>778</v>
       </c>
     </row>
     <row r="208">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -7443,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="n">
-        <v>6450</v>
+        <v>6451</v>
       </c>
     </row>
     <row r="209">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -7477,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="H209" t="n">
-        <v>5969</v>
+        <v>6090</v>
       </c>
     </row>
     <row r="210">
@@ -7488,7 +7488,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>81258</v>
+        <v>82373</v>
       </c>
     </row>
     <row r="211">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -7545,7 +7545,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>43000</v>
+        <v>43577</v>
       </c>
     </row>
     <row r="212">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -7579,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="n">
-        <v>38118</v>
+        <v>38601</v>
       </c>
     </row>
     <row r="213">
@@ -7590,7 +7590,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -7613,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="H213" t="n">
-        <v>15276</v>
+        <v>15421</v>
       </c>
     </row>
     <row r="214">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -7647,7 +7647,7 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>10776</v>
+        <v>10882</v>
       </c>
     </row>
     <row r="215">
@@ -7658,7 +7658,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7681,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="n">
-        <v>25109</v>
+        <v>25600</v>
       </c>
     </row>
     <row r="216">
@@ -7692,7 +7692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -7715,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="n">
-        <v>33438</v>
+        <v>33839</v>
       </c>
     </row>
     <row r="217">
@@ -7726,7 +7726,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -7749,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="n">
-        <v>40418</v>
+        <v>40890</v>
       </c>
     </row>
     <row r="218">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="n">
-        <v>17224</v>
+        <v>17446</v>
       </c>
     </row>
     <row r="219">
@@ -7794,7 +7794,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -7817,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="n">
-        <v>16146</v>
+        <v>16279</v>
       </c>
     </row>
     <row r="220">
@@ -7828,7 +7828,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>46579</v>
+        <v>47097</v>
       </c>
     </row>
     <row r="221">
@@ -7862,7 +7862,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -7885,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>14785</v>
+        <v>14808</v>
       </c>
     </row>
     <row r="222">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -7953,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>79847</v>
+        <v>80667</v>
       </c>
     </row>
     <row r="224">
@@ -7964,7 +7964,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="n">
-        <v>48998</v>
+        <v>49557</v>
       </c>
     </row>
     <row r="225">
@@ -7998,7 +7998,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>2024/06/08</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -8032,7 +8032,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -8055,7 +8055,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="n">
-        <v>21968</v>
+        <v>22281</v>
       </c>
     </row>
     <row r="227">
@@ -8066,7 +8066,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -8089,7 +8089,7 @@
         <v>0</v>
       </c>
       <c r="H227" t="n">
-        <v>1401</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="228">
@@ -8202,7 +8202,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -8225,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="H231" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="232">
@@ -8270,7 +8270,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -8293,7 +8293,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>648</v>
+        <v>657</v>
       </c>
     </row>
     <row r="234">
@@ -8304,7 +8304,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="H234" t="n">
-        <v>56613</v>
+        <v>57376</v>
       </c>
     </row>
     <row r="235">
@@ -8372,7 +8372,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2024/05/11</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -8395,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="H236" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="237">
@@ -8406,7 +8406,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -8429,7 +8429,7 @@
         <v>0</v>
       </c>
       <c r="H237" t="n">
-        <v>11509</v>
+        <v>11587</v>
       </c>
     </row>
     <row r="238">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -8463,7 +8463,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>49989</v>
+        <v>50855</v>
       </c>
     </row>
     <row r="239">
@@ -8474,7 +8474,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -8497,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="H239" t="n">
-        <v>32806</v>
+        <v>32809</v>
       </c>
     </row>
     <row r="240">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -8599,7 +8599,7 @@
         <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>23668</v>
+        <v>23689</v>
       </c>
     </row>
     <row r="243">
@@ -8610,7 +8610,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>28823</v>
+        <v>28930</v>
       </c>
     </row>
     <row r="244">
@@ -8644,7 +8644,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="245">
@@ -8678,7 +8678,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="n">
-        <v>13343</v>
+        <v>13489</v>
       </c>
     </row>
     <row r="246">
@@ -8746,7 +8746,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="n">
-        <v>702</v>
+        <v>705</v>
       </c>
     </row>
     <row r="248">
@@ -8814,7 +8814,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -8837,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="250">
@@ -8848,7 +8848,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="H250" t="n">
-        <v>23599</v>
+        <v>23855</v>
       </c>
     </row>
     <row r="251">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -9075,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>13711</v>
+        <v>13971</v>
       </c>
     </row>
     <row r="257">
@@ -9086,7 +9086,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="n">
-        <v>10768</v>
+        <v>10772</v>
       </c>
     </row>
     <row r="258">
@@ -9120,7 +9120,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -9143,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>25509</v>
+        <v>25736</v>
       </c>
     </row>
     <row r="259">
@@ -9188,7 +9188,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -9211,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="H260" t="n">
-        <v>77444</v>
+        <v>79140</v>
       </c>
     </row>
     <row r="261">
@@ -9222,7 +9222,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="H261" t="n">
-        <v>16051</v>
+        <v>16147</v>
       </c>
     </row>
     <row r="262">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -9279,7 +9279,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="n">
-        <v>3114</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="263">
@@ -9290,7 +9290,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -9313,7 +9313,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="n">
-        <v>21606</v>
+        <v>21917</v>
       </c>
     </row>
     <row r="264">
@@ -9324,7 +9324,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -9347,7 +9347,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="n">
-        <v>16324</v>
+        <v>16626</v>
       </c>
     </row>
     <row r="265">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -9381,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="H265" t="n">
-        <v>79646</v>
+        <v>80491</v>
       </c>
     </row>
     <row r="266">
@@ -9392,7 +9392,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="H266" t="n">
-        <v>25093</v>
+        <v>25405</v>
       </c>
     </row>
     <row r="267">
@@ -9494,7 +9494,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -9517,7 +9517,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="n">
-        <v>9962</v>
+        <v>10126</v>
       </c>
     </row>
     <row r="270">
@@ -9528,7 +9528,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -9551,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="H270" t="n">
-        <v>26368</v>
+        <v>26647</v>
       </c>
     </row>
     <row r="271">
@@ -9562,7 +9562,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -9585,7 +9585,7 @@
         <v>0</v>
       </c>
       <c r="H271" t="n">
-        <v>7854</v>
+        <v>7940</v>
       </c>
     </row>
     <row r="272">
@@ -9630,7 +9630,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="H273" t="n">
-        <v>10531</v>
+        <v>10642</v>
       </c>
     </row>
     <row r="274">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -9755,7 +9755,7 @@
         <v>0</v>
       </c>
       <c r="H276" t="n">
-        <v>72797</v>
+        <v>73592</v>
       </c>
     </row>
     <row r="277">
@@ -9766,7 +9766,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="n">
-        <v>9573</v>
+        <v>9602</v>
       </c>
     </row>
     <row r="278">
@@ -9800,7 +9800,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -9823,7 +9823,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="n">
-        <v>8293</v>
+        <v>8373</v>
       </c>
     </row>
     <row r="279">
@@ -9834,7 +9834,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -9857,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="n">
-        <v>21073</v>
+        <v>21277</v>
       </c>
     </row>
     <row r="280">
@@ -9868,7 +9868,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -9891,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="n">
-        <v>36037</v>
+        <v>36486</v>
       </c>
     </row>
     <row r="281">
@@ -9902,7 +9902,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -10004,7 +10004,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>2024/06/05</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -10027,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="H284" t="n">
-        <v>40387</v>
+        <v>40813</v>
       </c>
     </row>
     <row r="285">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -10106,7 +10106,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="288">
@@ -10140,7 +10140,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="n">
-        <v>27023</v>
+        <v>27535</v>
       </c>
     </row>
     <row r="289">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -10231,7 +10231,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="n">
-        <v>11359</v>
+        <v>11547</v>
       </c>
     </row>
     <row r="291">
@@ -10276,7 +10276,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -10299,7 +10299,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="n">
-        <v>6771</v>
+        <v>6864</v>
       </c>
     </row>
     <row r="293">
@@ -10310,7 +10310,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -10333,7 +10333,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="n">
-        <v>50290</v>
+        <v>51037</v>
       </c>
     </row>
     <row r="294">
@@ -10344,7 +10344,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="n">
-        <v>21690</v>
+        <v>22034</v>
       </c>
     </row>
     <row r="295">
@@ -10378,7 +10378,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -10401,7 +10401,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="n">
-        <v>13452</v>
+        <v>13560</v>
       </c>
     </row>
     <row r="296">
@@ -10412,7 +10412,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -10435,7 +10435,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="n">
-        <v>21007</v>
+        <v>21012</v>
       </c>
     </row>
     <row r="297">
@@ -10446,7 +10446,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -10469,7 +10469,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="n">
-        <v>76754</v>
+        <v>78018</v>
       </c>
     </row>
     <row r="298">
@@ -10480,7 +10480,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -10503,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="n">
-        <v>6865</v>
+        <v>6985</v>
       </c>
     </row>
     <row r="299">
@@ -10514,7 +10514,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -10537,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="H299" t="n">
-        <v>13432</v>
+        <v>13442</v>
       </c>
     </row>
     <row r="300">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -10571,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="H300" t="n">
-        <v>2562</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="301">
@@ -10582,7 +10582,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -10605,7 +10605,7 @@
         <v>0</v>
       </c>
       <c r="H301" t="n">
-        <v>19207</v>
+        <v>19441</v>
       </c>
     </row>
     <row r="302">
@@ -10650,7 +10650,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="H303" t="n">
-        <v>41281</v>
+        <v>41703</v>
       </c>
     </row>
     <row r="304">
@@ -10684,7 +10684,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -10752,7 +10752,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="H306" t="n">
-        <v>27005</v>
+        <v>27331</v>
       </c>
     </row>
     <row r="307">
@@ -10786,7 +10786,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -10809,7 +10809,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="308">
@@ -10854,7 +10854,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -10877,7 +10877,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="n">
-        <v>53211</v>
+        <v>53800</v>
       </c>
     </row>
     <row r="310">
@@ -10922,7 +10922,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -10945,7 +10945,7 @@
         <v>0</v>
       </c>
       <c r="H311" t="n">
-        <v>185241</v>
+        <v>187220</v>
       </c>
     </row>
     <row r="312">
@@ -10956,7 +10956,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="n">
-        <v>24040</v>
+        <v>24045</v>
       </c>
     </row>
     <row r="313">
@@ -10990,7 +10990,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -11013,7 +11013,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="n">
-        <v>3512</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="314">
@@ -11024,7 +11024,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -11047,7 +11047,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="n">
-        <v>43579</v>
+        <v>44186</v>
       </c>
     </row>
     <row r="315">
@@ -11058,7 +11058,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="n">
-        <v>20022</v>
+        <v>20921</v>
       </c>
     </row>
     <row r="316">
@@ -11092,7 +11092,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -11115,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="n">
-        <v>55634</v>
+        <v>56096</v>
       </c>
     </row>
     <row r="317">
@@ -11160,7 +11160,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -11183,7 +11183,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="n">
-        <v>68250</v>
+        <v>69084</v>
       </c>
     </row>
     <row r="319">
@@ -11194,7 +11194,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="n">
-        <v>30767</v>
+        <v>30841</v>
       </c>
     </row>
     <row r="320">
@@ -11228,7 +11228,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="n">
-        <v>66362</v>
+        <v>67049</v>
       </c>
     </row>
     <row r="321">
@@ -11296,7 +11296,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -11319,7 +11319,7 @@
         <v>0</v>
       </c>
       <c r="H322" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="323">
@@ -11330,7 +11330,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -11353,7 +11353,7 @@
         <v>0</v>
       </c>
       <c r="H323" t="n">
-        <v>1785</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="324">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="H324" t="n">
-        <v>4554</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="325">
@@ -11466,7 +11466,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -11489,7 +11489,7 @@
         <v>0</v>
       </c>
       <c r="H327" t="n">
-        <v>40892</v>
+        <v>41374</v>
       </c>
     </row>
     <row r="328">
@@ -11500,7 +11500,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -11523,7 +11523,7 @@
         <v>0</v>
       </c>
       <c r="H328" t="n">
-        <v>18766</v>
+        <v>18785</v>
       </c>
     </row>
     <row r="329">
@@ -11534,7 +11534,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>2024/06/05</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -11602,7 +11602,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -11625,7 +11625,7 @@
         <v>0</v>
       </c>
       <c r="H331" t="n">
-        <v>2063</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="332">
@@ -11636,7 +11636,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="H332" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="333">
@@ -11670,7 +11670,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -11693,7 +11693,7 @@
         <v>0</v>
       </c>
       <c r="H333" t="n">
-        <v>2084</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="334">
@@ -11738,7 +11738,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -11761,7 +11761,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="n">
-        <v>61811</v>
+        <v>62365</v>
       </c>
     </row>
     <row r="336">
@@ -11772,7 +11772,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -11795,7 +11795,7 @@
         <v>0</v>
       </c>
       <c r="H336" t="n">
-        <v>13547</v>
+        <v>13653</v>
       </c>
     </row>
     <row r="337">
@@ -11874,7 +11874,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -11908,7 +11908,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -11931,7 +11931,7 @@
         <v>0</v>
       </c>
       <c r="H340" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="341">
@@ -11942,7 +11942,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -11976,7 +11976,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -11999,7 +11999,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="n">
-        <v>20236</v>
+        <v>19935</v>
       </c>
     </row>
     <row r="343">
@@ -12044,7 +12044,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -12067,7 +12067,7 @@
         <v>0</v>
       </c>
       <c r="H344" t="n">
-        <v>24140</v>
+        <v>24406</v>
       </c>
     </row>
     <row r="345">
@@ -12078,7 +12078,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -12101,7 +12101,7 @@
         <v>0</v>
       </c>
       <c r="H345" t="n">
-        <v>2595</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="346">
@@ -12146,7 +12146,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -12169,7 +12169,7 @@
         <v>0</v>
       </c>
       <c r="H347" t="n">
-        <v>10205</v>
+        <v>10225</v>
       </c>
     </row>
     <row r="348">
@@ -12180,7 +12180,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -12203,7 +12203,7 @@
         <v>0</v>
       </c>
       <c r="H348" t="n">
-        <v>5586</v>
+        <v>5647</v>
       </c>
     </row>
     <row r="349">
@@ -12214,7 +12214,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>2024/05/11</t>
+          <t>2024/06/08</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -12237,7 +12237,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="n">
-        <v>11210</v>
+        <v>11216</v>
       </c>
     </row>
     <row r="350">
@@ -12248,7 +12248,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -12271,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="H350" t="n">
-        <v>134978</v>
+        <v>135722</v>
       </c>
     </row>
     <row r="351">
@@ -12316,7 +12316,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -12339,7 +12339,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="n">
-        <v>11597</v>
+        <v>11717</v>
       </c>
     </row>
     <row r="353">
@@ -12384,7 +12384,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -12407,7 +12407,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="n">
-        <v>3833</v>
+        <v>4099</v>
       </c>
     </row>
     <row r="355">
@@ -12418,7 +12418,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -12441,7 +12441,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="n">
-        <v>8706</v>
+        <v>8846</v>
       </c>
     </row>
     <row r="356">
@@ -12452,7 +12452,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/08</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -12475,7 +12475,7 @@
         <v>0</v>
       </c>
       <c r="H356" t="n">
-        <v>18824</v>
+        <v>18841</v>
       </c>
     </row>
     <row r="357">
@@ -12486,7 +12486,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -12509,7 +12509,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="n">
-        <v>34411</v>
+        <v>34963</v>
       </c>
     </row>
     <row r="358">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -12543,7 +12543,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="n">
-        <v>35186</v>
+        <v>35189</v>
       </c>
     </row>
     <row r="359">
@@ -12554,7 +12554,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -12577,7 +12577,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="n">
-        <v>89264</v>
+        <v>90251</v>
       </c>
     </row>
     <row r="360">
@@ -12588,7 +12588,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -12611,7 +12611,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="n">
-        <v>12800</v>
+        <v>12929</v>
       </c>
     </row>
     <row r="361">
@@ -12656,7 +12656,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -12679,7 +12679,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="363">
@@ -12758,7 +12758,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>2024/06/05</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -12781,7 +12781,7 @@
         <v>0</v>
       </c>
       <c r="H365" t="n">
-        <v>18041</v>
+        <v>18272</v>
       </c>
     </row>
     <row r="366">
@@ -12792,7 +12792,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -12815,7 +12815,7 @@
         <v>0</v>
       </c>
       <c r="H366" t="n">
-        <v>2492</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="367">
@@ -12860,7 +12860,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="369">
@@ -12894,7 +12894,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -12917,7 +12917,7 @@
         <v>0</v>
       </c>
       <c r="H369" t="n">
-        <v>12882</v>
+        <v>12902</v>
       </c>
     </row>
     <row r="370">
@@ -12928,7 +12928,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -12962,7 +12962,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -12985,7 +12985,7 @@
         <v>0</v>
       </c>
       <c r="H371" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="372">
@@ -13030,7 +13030,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -13053,7 +13053,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="n">
-        <v>9064</v>
+        <v>9268</v>
       </c>
     </row>
     <row r="374">
@@ -13064,7 +13064,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -13087,7 +13087,7 @@
         <v>0</v>
       </c>
       <c r="H374" t="n">
-        <v>6236</v>
+        <v>6321</v>
       </c>
     </row>
     <row r="375">
@@ -13234,7 +13234,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -13257,7 +13257,7 @@
         <v>0</v>
       </c>
       <c r="H379" t="n">
-        <v>55213</v>
+        <v>56451</v>
       </c>
     </row>
     <row r="380">
@@ -13268,7 +13268,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -13291,7 +13291,7 @@
         <v>0</v>
       </c>
       <c r="H380" t="n">
-        <v>16968</v>
+        <v>17156</v>
       </c>
     </row>
     <row r="381">
@@ -13302,7 +13302,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="H381" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="382">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -13359,7 +13359,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="n">
-        <v>3617</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="383">
@@ -13370,7 +13370,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -13393,7 +13393,7 @@
         <v>0</v>
       </c>
       <c r="H383" t="n">
-        <v>13393</v>
+        <v>13402</v>
       </c>
     </row>
     <row r="384">
@@ -13404,7 +13404,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -13427,7 +13427,7 @@
         <v>0</v>
       </c>
       <c r="H384" t="n">
-        <v>182523</v>
+        <v>184264</v>
       </c>
     </row>
     <row r="385">
@@ -13438,7 +13438,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -13461,7 +13461,7 @@
         <v>0</v>
       </c>
       <c r="H385" t="n">
-        <v>26546</v>
+        <v>26845</v>
       </c>
     </row>
     <row r="386">
@@ -13472,7 +13472,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -13495,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="H386" t="n">
-        <v>34464</v>
+        <v>34465</v>
       </c>
     </row>
     <row r="387">
@@ -13506,7 +13506,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -13529,7 +13529,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="n">
-        <v>15242</v>
+        <v>15505</v>
       </c>
     </row>
     <row r="388">
@@ -13540,7 +13540,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -13563,7 +13563,7 @@
         <v>0</v>
       </c>
       <c r="H388" t="n">
-        <v>6868</v>
+        <v>6892</v>
       </c>
     </row>
     <row r="389">
@@ -13574,7 +13574,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>2024/05/19</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -13597,7 +13597,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="n">
-        <v>139789</v>
+        <v>141834</v>
       </c>
     </row>
     <row r="390">
@@ -13608,7 +13608,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="n">
-        <v>1021</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="391">
@@ -13642,7 +13642,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -13665,7 +13665,7 @@
         <v>0</v>
       </c>
       <c r="H391" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="392">
@@ -13710,7 +13710,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -13733,7 +13733,7 @@
         <v>0</v>
       </c>
       <c r="H393" t="n">
-        <v>23353</v>
+        <v>23630</v>
       </c>
     </row>
     <row r="394">
@@ -13744,7 +13744,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -13767,7 +13767,7 @@
         <v>0</v>
       </c>
       <c r="H394" t="n">
-        <v>15195</v>
+        <v>15211</v>
       </c>
     </row>
     <row r="395">
@@ -13778,7 +13778,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -13801,7 +13801,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="n">
-        <v>9311</v>
+        <v>9420</v>
       </c>
     </row>
     <row r="396">
@@ -13812,7 +13812,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -13835,7 +13835,7 @@
         <v>0</v>
       </c>
       <c r="H396" t="n">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="397">
@@ -13880,7 +13880,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -13903,7 +13903,7 @@
         <v>0</v>
       </c>
       <c r="H398" t="n">
-        <v>68971</v>
+        <v>69727</v>
       </c>
     </row>
     <row r="399">
@@ -13948,7 +13948,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>2024/05/12</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -13971,7 +13971,7 @@
         <v>0</v>
       </c>
       <c r="H400" t="n">
-        <v>7291</v>
+        <v>7364</v>
       </c>
     </row>
     <row r="401">
@@ -13982,7 +13982,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -14005,7 +14005,7 @@
         <v>0</v>
       </c>
       <c r="H401" t="n">
-        <v>14784</v>
+        <v>14819</v>
       </c>
     </row>
     <row r="402">
@@ -14016,7 +14016,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -14039,7 +14039,7 @@
         <v>0</v>
       </c>
       <c r="H402" t="n">
-        <v>3874</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="403">
@@ -14050,7 +14050,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -14073,7 +14073,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="n">
-        <v>51230</v>
+        <v>51819</v>
       </c>
     </row>
     <row r="404">
@@ -14084,7 +14084,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -14107,7 +14107,7 @@
         <v>0</v>
       </c>
       <c r="H404" t="n">
-        <v>788</v>
+        <v>791</v>
       </c>
     </row>
     <row r="405">
@@ -14186,7 +14186,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -14209,7 +14209,7 @@
         <v>0</v>
       </c>
       <c r="H407" t="n">
-        <v>16570</v>
+        <v>16797</v>
       </c>
     </row>
     <row r="408">
@@ -14254,7 +14254,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -14277,7 +14277,7 @@
         <v>0</v>
       </c>
       <c r="H409" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="410">
@@ -14288,7 +14288,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -14311,7 +14311,7 @@
         <v>0</v>
       </c>
       <c r="H410" t="n">
-        <v>18145</v>
+        <v>18932</v>
       </c>
     </row>
     <row r="411">
@@ -14322,7 +14322,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -14345,7 +14345,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="n">
-        <v>11881</v>
+        <v>11915</v>
       </c>
     </row>
     <row r="412">
@@ -14458,7 +14458,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -14481,7 +14481,7 @@
         <v>0</v>
       </c>
       <c r="H415" t="n">
-        <v>2312</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="416">
@@ -14492,7 +14492,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -14515,7 +14515,7 @@
         <v>0</v>
       </c>
       <c r="H416" t="n">
-        <v>15975</v>
+        <v>15984</v>
       </c>
     </row>
     <row r="417">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -14651,7 +14651,7 @@
         <v>0</v>
       </c>
       <c r="H420" t="n">
-        <v>18825</v>
+        <v>19045</v>
       </c>
     </row>
     <row r="421">
@@ -14662,7 +14662,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -14685,7 +14685,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="n">
-        <v>15144</v>
+        <v>15433</v>
       </c>
     </row>
     <row r="422">
@@ -14696,7 +14696,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -14719,7 +14719,7 @@
         <v>0</v>
       </c>
       <c r="H422" t="n">
-        <v>457</v>
+        <v>462</v>
       </c>
     </row>
     <row r="423">
@@ -14764,7 +14764,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -14787,7 +14787,7 @@
         <v>0</v>
       </c>
       <c r="H424" t="n">
-        <v>20239</v>
+        <v>20605</v>
       </c>
     </row>
     <row r="425">
@@ -14832,7 +14832,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -14855,7 +14855,7 @@
         <v>0</v>
       </c>
       <c r="H426" t="n">
-        <v>78420</v>
+        <v>79303</v>
       </c>
     </row>
     <row r="427">
@@ -14866,7 +14866,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -14889,7 +14889,7 @@
         <v>0</v>
       </c>
       <c r="H427" t="n">
-        <v>48347</v>
+        <v>48870</v>
       </c>
     </row>
     <row r="428">
@@ -14900,7 +14900,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -14923,7 +14923,7 @@
         <v>0</v>
       </c>
       <c r="H428" t="n">
-        <v>25438</v>
+        <v>25716</v>
       </c>
     </row>
     <row r="429">
@@ -14934,7 +14934,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -14957,7 +14957,7 @@
         <v>0</v>
       </c>
       <c r="H429" t="n">
-        <v>19659</v>
+        <v>19802</v>
       </c>
     </row>
     <row r="430">
@@ -15002,7 +15002,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -15025,7 +15025,7 @@
         <v>0</v>
       </c>
       <c r="H431" t="n">
-        <v>38409</v>
+        <v>38865</v>
       </c>
     </row>
     <row r="432">
@@ -15036,7 +15036,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -15070,7 +15070,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -15093,7 +15093,7 @@
         <v>0</v>
       </c>
       <c r="H433" t="n">
-        <v>11058</v>
+        <v>11068</v>
       </c>
     </row>
     <row r="434">
@@ -15104,7 +15104,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -15127,7 +15127,7 @@
         <v>0</v>
       </c>
       <c r="H434" t="n">
-        <v>85000</v>
+        <v>86687</v>
       </c>
     </row>
     <row r="435">
@@ -15138,7 +15138,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -15161,7 +15161,7 @@
         <v>0</v>
       </c>
       <c r="H435" t="n">
-        <v>34977</v>
+        <v>34990</v>
       </c>
     </row>
     <row r="436">
@@ -15172,7 +15172,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -15195,7 +15195,7 @@
         <v>0</v>
       </c>
       <c r="H436" t="n">
-        <v>4089</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="437">
@@ -15206,7 +15206,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -15229,7 +15229,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="n">
-        <v>11227</v>
+        <v>11236</v>
       </c>
     </row>
     <row r="438">
@@ -15240,7 +15240,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -15263,7 +15263,7 @@
         <v>0</v>
       </c>
       <c r="H438" t="n">
-        <v>6032</v>
+        <v>6105</v>
       </c>
     </row>
     <row r="439">
@@ -15376,7 +15376,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -15399,7 +15399,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="n">
-        <v>2868</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="443">
@@ -15444,7 +15444,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -15467,7 +15467,7 @@
         <v>0</v>
       </c>
       <c r="H444" t="n">
-        <v>4103</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="445">
@@ -15478,7 +15478,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -15501,7 +15501,7 @@
         <v>0</v>
       </c>
       <c r="H445" t="n">
-        <v>11681</v>
+        <v>11708</v>
       </c>
     </row>
     <row r="446">
@@ -15512,7 +15512,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -15546,7 +15546,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -15569,7 +15569,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="n">
-        <v>18582</v>
+        <v>18777</v>
       </c>
     </row>
     <row r="448">
@@ -15580,7 +15580,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -15603,7 +15603,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="n">
-        <v>1079</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="449">
@@ -15614,7 +15614,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -15637,7 +15637,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="n">
-        <v>156912</v>
+        <v>156960</v>
       </c>
     </row>
     <row r="450">
@@ -15648,7 +15648,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>2024/06/05</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -15682,7 +15682,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -15750,7 +15750,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -15773,7 +15773,7 @@
         <v>0</v>
       </c>
       <c r="H453" t="n">
-        <v>30133</v>
+        <v>30443</v>
       </c>
     </row>
     <row r="454">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -15807,7 +15807,7 @@
         <v>0</v>
       </c>
       <c r="H454" t="n">
-        <v>51676</v>
+        <v>52195</v>
       </c>
     </row>
     <row r="455">
@@ -15818,7 +15818,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -15841,7 +15841,7 @@
         <v>0</v>
       </c>
       <c r="H455" t="n">
-        <v>39350</v>
+        <v>39788</v>
       </c>
     </row>
     <row r="456">
@@ -15852,7 +15852,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -15875,7 +15875,7 @@
         <v>0</v>
       </c>
       <c r="H456" t="n">
-        <v>15110</v>
+        <v>15116</v>
       </c>
     </row>
     <row r="457">
@@ -15988,7 +15988,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -16011,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="n">
-        <v>14521</v>
+        <v>14149</v>
       </c>
     </row>
     <row r="461">
@@ -16022,7 +16022,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -16045,7 +16045,7 @@
         <v>0</v>
       </c>
       <c r="H461" t="n">
-        <v>2451</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="462">
@@ -16056,7 +16056,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -16079,7 +16079,7 @@
         <v>0</v>
       </c>
       <c r="H462" t="n">
-        <v>9895</v>
+        <v>9898</v>
       </c>
     </row>
     <row r="463">
@@ -16158,7 +16158,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -16181,7 +16181,7 @@
         <v>0</v>
       </c>
       <c r="H465" t="n">
-        <v>67161</v>
+        <v>68385</v>
       </c>
     </row>
     <row r="466">
@@ -16192,7 +16192,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -16215,7 +16215,7 @@
         <v>0</v>
       </c>
       <c r="H466" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="467">
@@ -16226,7 +16226,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -16249,7 +16249,7 @@
         <v>0</v>
       </c>
       <c r="H467" t="n">
-        <v>941</v>
+        <v>959</v>
       </c>
     </row>
     <row r="468">
@@ -16260,7 +16260,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -16283,7 +16283,7 @@
         <v>0</v>
       </c>
       <c r="H468" t="n">
-        <v>95018</v>
+        <v>97574</v>
       </c>
     </row>
     <row r="469">
@@ -16294,7 +16294,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -16317,7 +16317,7 @@
         <v>0</v>
       </c>
       <c r="H469" t="n">
-        <v>38423</v>
+        <v>39473</v>
       </c>
     </row>
     <row r="470">
@@ -16362,7 +16362,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -16396,7 +16396,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -16430,7 +16430,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -16453,7 +16453,7 @@
         <v>0</v>
       </c>
       <c r="H473" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="474">
@@ -16498,7 +16498,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -16521,7 +16521,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="n">
-        <v>2513</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="476">
@@ -16566,7 +16566,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -16589,7 +16589,7 @@
         <v>0</v>
       </c>
       <c r="H477" t="n">
-        <v>103526</v>
+        <v>104686</v>
       </c>
     </row>
     <row r="478">
@@ -16634,7 +16634,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -16657,7 +16657,7 @@
         <v>0</v>
       </c>
       <c r="H479" t="n">
-        <v>3654</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="480">
@@ -16668,7 +16668,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -16691,7 +16691,7 @@
         <v>0</v>
       </c>
       <c r="H480" t="n">
-        <v>857989</v>
+        <v>884329</v>
       </c>
     </row>
     <row r="481">
@@ -16804,7 +16804,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -16827,7 +16827,7 @@
         <v>0</v>
       </c>
       <c r="H484" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="485">
@@ -16940,7 +16940,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -16963,7 +16963,7 @@
         <v>0</v>
       </c>
       <c r="H488" t="n">
-        <v>1495</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="489">
@@ -16974,7 +16974,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -16997,7 +16997,7 @@
         <v>0</v>
       </c>
       <c r="H489" t="n">
-        <v>2814</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="490">
@@ -17008,7 +17008,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -17031,7 +17031,7 @@
         <v>0</v>
       </c>
       <c r="H490" t="n">
-        <v>384</v>
+        <v>455</v>
       </c>
     </row>
     <row r="491">
@@ -17110,7 +17110,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -17133,7 +17133,7 @@
         <v>0</v>
       </c>
       <c r="H493" t="n">
-        <v>263</v>
+        <v>277</v>
       </c>
     </row>
     <row r="494">
@@ -17144,7 +17144,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>2024/05/30</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -17167,7 +17167,7 @@
         <v>0</v>
       </c>
       <c r="H494" t="n">
-        <v>997</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="495">
@@ -17246,7 +17246,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -17269,7 +17269,7 @@
         <v>0</v>
       </c>
       <c r="H497" t="n">
-        <v>429</v>
+        <v>450</v>
       </c>
     </row>
     <row r="498">
@@ -17314,7 +17314,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -17337,7 +17337,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="n">
-        <v>1820</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="500">
@@ -17348,7 +17348,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -17371,7 +17371,7 @@
         <v>0</v>
       </c>
       <c r="H500" t="n">
-        <v>520</v>
+        <v>540</v>
       </c>
     </row>
     <row r="501">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -17439,7 +17439,7 @@
         <v>0</v>
       </c>
       <c r="H502" t="n">
-        <v>15480</v>
+        <v>16080</v>
       </c>
     </row>
     <row r="503">
@@ -17450,7 +17450,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -17473,7 +17473,7 @@
         <v>0</v>
       </c>
       <c r="H503" t="n">
-        <v>5898</v>
+        <v>6090</v>
       </c>
     </row>
     <row r="504">
@@ -17518,7 +17518,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -17541,7 +17541,7 @@
         <v>0</v>
       </c>
       <c r="H505" t="n">
-        <v>728</v>
+        <v>755</v>
       </c>
     </row>
     <row r="506">
@@ -17620,7 +17620,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -17643,7 +17643,7 @@
         <v>0</v>
       </c>
       <c r="H508" t="n">
-        <v>317</v>
+        <v>356</v>
       </c>
     </row>
     <row r="509">
@@ -17654,7 +17654,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -17677,7 +17677,7 @@
         <v>0</v>
       </c>
       <c r="H509" t="n">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="510">
@@ -17824,7 +17824,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -17847,7 +17847,7 @@
         <v>0</v>
       </c>
       <c r="H514" t="n">
-        <v>1728</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="515">
@@ -17858,7 +17858,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -17881,7 +17881,7 @@
         <v>0</v>
       </c>
       <c r="H515" t="n">
-        <v>4478</v>
+        <v>4898</v>
       </c>
     </row>
     <row r="516">
@@ -17926,7 +17926,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>2024/04/30</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -17949,7 +17949,7 @@
         <v>0</v>
       </c>
       <c r="H517" t="n">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="518">
@@ -18028,7 +18028,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -18051,7 +18051,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="n">
-        <v>2192</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="521">
@@ -18062,7 +18062,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -18085,7 +18085,7 @@
         <v>0</v>
       </c>
       <c r="H521" t="n">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="522">
@@ -18130,7 +18130,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -18153,7 +18153,7 @@
         <v>0</v>
       </c>
       <c r="H523" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="524">
@@ -18300,7 +18300,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -18323,7 +18323,7 @@
         <v>0</v>
       </c>
       <c r="H528" t="n">
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="529">
@@ -18402,7 +18402,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -18425,7 +18425,7 @@
         <v>0</v>
       </c>
       <c r="H531" t="n">
-        <v>365</v>
+        <v>390</v>
       </c>
     </row>
     <row r="532">
@@ -18436,7 +18436,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -18459,7 +18459,7 @@
         <v>0</v>
       </c>
       <c r="H532" t="n">
-        <v>1161</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="533">
@@ -18504,7 +18504,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>2024/05/24</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -18527,7 +18527,7 @@
         <v>0</v>
       </c>
       <c r="H534" t="n">
-        <v>2985</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="535">
@@ -18674,7 +18674,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -18697,7 +18697,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="n">
-        <v>478</v>
+        <v>496</v>
       </c>
     </row>
     <row r="540">
@@ -18708,7 +18708,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -18731,7 +18731,7 @@
         <v>0</v>
       </c>
       <c r="H540" t="n">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
     <row r="541">
@@ -18742,7 +18742,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -18765,7 +18765,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="n">
-        <v>998</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="542">
@@ -18912,7 +18912,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>2024/05/28</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -18935,7 +18935,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="n">
-        <v>5677</v>
+        <v>5699</v>
       </c>
     </row>
     <row r="547">
@@ -18946,7 +18946,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -18969,7 +18969,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="548">
@@ -19218,7 +19218,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -19286,7 +19286,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -19309,7 +19309,7 @@
         <v>0</v>
       </c>
       <c r="H557" t="n">
-        <v>333</v>
+        <v>386</v>
       </c>
     </row>
     <row r="558">
@@ -19422,7 +19422,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -19445,7 +19445,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="n">
-        <v>522</v>
+        <v>542</v>
       </c>
     </row>
     <row r="562">
@@ -19456,7 +19456,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -19479,7 +19479,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="563">
@@ -19490,7 +19490,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>2024/05/24</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -19513,7 +19513,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="n">
-        <v>950</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="564">
@@ -19524,7 +19524,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -19547,7 +19547,7 @@
         <v>0</v>
       </c>
       <c r="H564" t="n">
-        <v>228</v>
+        <v>500</v>
       </c>
     </row>
     <row r="565">
@@ -19558,7 +19558,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -19581,7 +19581,7 @@
         <v>0</v>
       </c>
       <c r="H565" t="n">
-        <v>2842</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="566">
@@ -19694,7 +19694,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
@@ -19728,7 +19728,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -19751,7 +19751,7 @@
         <v>0</v>
       </c>
       <c r="H570" t="n">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="571">
@@ -19830,7 +19830,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -19853,7 +19853,7 @@
         <v>0</v>
       </c>
       <c r="H573" t="n">
-        <v>1042</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="574">
@@ -19898,7 +19898,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -19921,7 +19921,7 @@
         <v>0</v>
       </c>
       <c r="H575" t="n">
-        <v>614</v>
+        <v>641</v>
       </c>
     </row>
     <row r="576">
@@ -20034,7 +20034,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -20057,7 +20057,7 @@
         <v>0</v>
       </c>
       <c r="H579" t="n">
-        <v>2765</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="580">
@@ -20136,7 +20136,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -20159,7 +20159,7 @@
         <v>0</v>
       </c>
       <c r="H582" t="n">
-        <v>280</v>
+        <v>291</v>
       </c>
     </row>
     <row r="583">
@@ -20340,7 +20340,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -20363,7 +20363,7 @@
         <v>0</v>
       </c>
       <c r="H588" t="n">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="589">
@@ -20408,7 +20408,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -20431,7 +20431,7 @@
         <v>0</v>
       </c>
       <c r="H590" t="n">
-        <v>1183</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="591">
@@ -20476,7 +20476,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -20499,7 +20499,7 @@
         <v>0</v>
       </c>
       <c r="H592" t="n">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="593">
@@ -20510,7 +20510,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -20533,7 +20533,7 @@
         <v>0</v>
       </c>
       <c r="H593" t="n">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="594">
@@ -20544,7 +20544,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -20567,7 +20567,7 @@
         <v>0</v>
       </c>
       <c r="H594" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="595">
@@ -20578,7 +20578,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -20601,7 +20601,7 @@
         <v>0</v>
       </c>
       <c r="H595" t="n">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="596">
@@ -20714,7 +20714,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -20737,7 +20737,7 @@
         <v>0</v>
       </c>
       <c r="H599" t="n">
-        <v>880</v>
+        <v>964</v>
       </c>
     </row>
     <row r="600">
@@ -20748,7 +20748,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>2024/05/30</t>
+          <t>2024/06/09</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
@@ -20771,7 +20771,7 @@
         <v>0</v>
       </c>
       <c r="H600" t="n">
-        <v>290</v>
+        <v>323</v>
       </c>
     </row>
     <row r="601">
@@ -20782,7 +20782,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -20805,7 +20805,7 @@
         <v>0</v>
       </c>
       <c r="H601" t="n">
-        <v>6860</v>
+        <v>7314</v>
       </c>
     </row>
     <row r="602">
@@ -20850,7 +20850,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -20873,7 +20873,7 @@
         <v>0</v>
       </c>
       <c r="H603" t="n">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="604">
@@ -20918,7 +20918,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>2024/05/05</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -20952,7 +20952,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -20975,7 +20975,7 @@
         <v>0</v>
       </c>
       <c r="H606" t="n">
-        <v>146451</v>
+        <v>155166</v>
       </c>
     </row>
     <row r="607">
@@ -21020,7 +21020,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
@@ -21043,7 +21043,7 @@
         <v>0</v>
       </c>
       <c r="H608" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="609">
@@ -21088,7 +21088,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -21156,7 +21156,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -21179,7 +21179,7 @@
         <v>0</v>
       </c>
       <c r="H612" t="n">
-        <v>1361</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="613">
@@ -21292,7 +21292,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>2024/06/05</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -21315,7 +21315,7 @@
         <v>0</v>
       </c>
       <c r="H616" t="n">
-        <v>2627</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="617">
@@ -21326,7 +21326,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
@@ -21349,7 +21349,7 @@
         <v>0</v>
       </c>
       <c r="H617" t="n">
-        <v>842</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="618">
@@ -21360,7 +21360,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
@@ -21383,7 +21383,7 @@
         <v>0</v>
       </c>
       <c r="H618" t="n">
-        <v>734</v>
+        <v>898</v>
       </c>
     </row>
     <row r="619">
@@ -21394,7 +21394,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -21417,7 +21417,7 @@
         <v>0</v>
       </c>
       <c r="H619" t="n">
-        <v>2515</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="620">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -21519,7 +21519,7 @@
         <v>0</v>
       </c>
       <c r="H622" t="n">
-        <v>228</v>
+        <v>288</v>
       </c>
     </row>
     <row r="623">
@@ -21530,7 +21530,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -21553,7 +21553,7 @@
         <v>0</v>
       </c>
       <c r="H623" t="n">
-        <v>500</v>
+        <v>646</v>
       </c>
     </row>
     <row r="624">
@@ -21666,7 +21666,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -21689,7 +21689,7 @@
         <v>0</v>
       </c>
       <c r="H627" t="n">
-        <v>11279</v>
+        <v>14519</v>
       </c>
     </row>
     <row r="628">
@@ -21836,7 +21836,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
@@ -21859,7 +21859,7 @@
         <v>0</v>
       </c>
       <c r="H632" t="n">
-        <v>1892</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="633">
@@ -21904,7 +21904,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -21927,7 +21927,7 @@
         <v>0</v>
       </c>
       <c r="H634" t="n">
-        <v>5929</v>
+        <v>6098</v>
       </c>
     </row>
     <row r="635">
@@ -22040,7 +22040,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -22063,7 +22063,7 @@
         <v>0</v>
       </c>
       <c r="H638" t="n">
-        <v>825</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="639">
@@ -22074,7 +22074,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>2024/04/25</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -22142,7 +22142,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -22244,7 +22244,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
@@ -22267,7 +22267,7 @@
         <v>0</v>
       </c>
       <c r="H644" t="n">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado_historico4.xlsx
+++ b/consolidado_historico4.xlsx
@@ -994,7 +994,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>831</v>
+        <v>845</v>
       </c>
     </row>
     <row r="20">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>44621</v>
+        <v>45123</v>
       </c>
     </row>
     <row r="31">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>18928</v>
+        <v>19174</v>
       </c>
     </row>
     <row r="39">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>7004</v>
+        <v>7008</v>
       </c>
     </row>
     <row r="44">
@@ -2592,7 +2592,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2024/06/04</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>28438</v>
+        <v>28565</v>
       </c>
     </row>
     <row r="67">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>5679</v>
+        <v>5753</v>
       </c>
     </row>
     <row r="82">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>7921</v>
+        <v>8035</v>
       </c>
     </row>
     <row r="98">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>8696</v>
+        <v>8796</v>
       </c>
     </row>
     <row r="99">
@@ -4462,7 +4462,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/15</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>10528</v>
+        <v>10742</v>
       </c>
     </row>
     <row r="122">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>48293</v>
+        <v>48965</v>
       </c>
     </row>
     <row r="158">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5811,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>22550</v>
+        <v>22750</v>
       </c>
     </row>
     <row r="161">
@@ -5822,7 +5822,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5845,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>19205</v>
+        <v>19227</v>
       </c>
     </row>
     <row r="162">
@@ -5958,7 +5958,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5981,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="n">
-        <v>7067</v>
+        <v>7085</v>
       </c>
     </row>
     <row r="166">
@@ -6366,7 +6366,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6627,7 +6627,7 @@
         <v>0</v>
       </c>
       <c r="H184" t="n">
-        <v>40552</v>
+        <v>41024</v>
       </c>
     </row>
     <row r="185">
@@ -7182,7 +7182,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -7205,7 +7205,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="n">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="202">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -7239,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="203">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2024/04/21</t>
+          <t>2024/06/15</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -7307,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>3898</v>
+        <v>3977</v>
       </c>
     </row>
     <row r="205">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -8259,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="H232" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="233">
@@ -8508,7 +8508,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="n">
-        <v>31207</v>
+        <v>31653</v>
       </c>
     </row>
     <row r="241">
@@ -9154,7 +9154,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -9177,7 +9177,7 @@
         <v>0</v>
       </c>
       <c r="H259" t="n">
-        <v>15224</v>
+        <v>15368</v>
       </c>
     </row>
     <row r="260">
@@ -9460,7 +9460,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/15</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -9483,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="H268" t="n">
-        <v>12582</v>
+        <v>12631</v>
       </c>
     </row>
     <row r="269">
@@ -10038,7 +10038,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -10061,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="H285" t="n">
-        <v>746</v>
+        <v>804</v>
       </c>
     </row>
     <row r="286">
@@ -10174,7 +10174,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -10197,7 +10197,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="n">
-        <v>69716</v>
+        <v>70784</v>
       </c>
     </row>
     <row r="290">
@@ -10480,7 +10480,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/15</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -10911,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="n">
-        <v>10470</v>
+        <v>10606</v>
       </c>
     </row>
     <row r="311">
@@ -11534,7 +11534,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -11942,7 +11942,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -11965,7 +11965,7 @@
         <v>0</v>
       </c>
       <c r="H341" t="n">
-        <v>58637</v>
+        <v>59346</v>
       </c>
     </row>
     <row r="342">
@@ -12010,7 +12010,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -12033,7 +12033,7 @@
         <v>0</v>
       </c>
       <c r="H343" t="n">
-        <v>315</v>
+        <v>325</v>
       </c>
     </row>
     <row r="344">
@@ -12282,7 +12282,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -12690,7 +12690,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="n">
-        <v>29364</v>
+        <v>29688</v>
       </c>
     </row>
     <row r="364">
@@ -13914,7 +13914,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -13937,7 +13937,7 @@
         <v>0</v>
       </c>
       <c r="H399" t="n">
-        <v>22603</v>
+        <v>22930</v>
       </c>
     </row>
     <row r="400">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -14175,7 +14175,7 @@
         <v>0</v>
       </c>
       <c r="H406" t="n">
-        <v>24772</v>
+        <v>25036</v>
       </c>
     </row>
     <row r="407">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -14243,7 +14243,7 @@
         <v>0</v>
       </c>
       <c r="H408" t="n">
-        <v>60324</v>
+        <v>61765</v>
       </c>
     </row>
     <row r="409">
@@ -15070,7 +15070,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -15093,7 +15093,7 @@
         <v>0</v>
       </c>
       <c r="H433" t="n">
-        <v>11068</v>
+        <v>11073</v>
       </c>
     </row>
     <row r="434">
@@ -15138,7 +15138,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -15161,7 +15161,7 @@
         <v>0</v>
       </c>
       <c r="H435" t="n">
-        <v>34990</v>
+        <v>35377</v>
       </c>
     </row>
     <row r="436">
@@ -15614,7 +15614,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -15637,7 +15637,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="n">
-        <v>156960</v>
+        <v>158344</v>
       </c>
     </row>
     <row r="450">
@@ -15886,7 +15886,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -15909,7 +15909,7 @@
         <v>0</v>
       </c>
       <c r="H457" t="n">
-        <v>166506</v>
+        <v>168635</v>
       </c>
     </row>
     <row r="458">
@@ -15988,7 +15988,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -16011,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="n">
-        <v>14149</v>
+        <v>14315</v>
       </c>
     </row>
     <row r="461">
@@ -18538,7 +18538,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -18561,7 +18561,7 @@
         <v>0</v>
       </c>
       <c r="H535" t="n">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="536">
@@ -18844,7 +18844,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -18912,7 +18912,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -19762,7 +19762,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -19785,7 +19785,7 @@
         <v>0</v>
       </c>
       <c r="H571" t="n">
-        <v>3103</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="572">
@@ -20068,7 +20068,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -20091,7 +20091,7 @@
         <v>0</v>
       </c>
       <c r="H580" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="581">
@@ -20204,7 +20204,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -20227,7 +20227,7 @@
         <v>0</v>
       </c>
       <c r="H584" t="n">
-        <v>435</v>
+        <v>570</v>
       </c>
     </row>
     <row r="585">
@@ -20816,7 +20816,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -20839,7 +20839,7 @@
         <v>0</v>
       </c>
       <c r="H602" t="n">
-        <v>1356</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="603">
@@ -21700,7 +21700,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -21723,7 +21723,7 @@
         <v>0</v>
       </c>
       <c r="H628" t="n">
-        <v>392</v>
+        <v>489</v>
       </c>
     </row>
     <row r="629">

--- a/consolidado_historico4.xlsx
+++ b/consolidado_historico4.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H644"/>
+  <dimension ref="A1:H646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,7 +688,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>1800</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="50">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>12459</v>
+        <v>12602</v>
       </c>
     </row>
     <row r="56">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/20</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>18832</v>
+        <v>18837</v>
       </c>
     </row>
     <row r="86">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>37134</v>
+        <v>37674</v>
       </c>
     </row>
     <row r="111">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>22509</v>
+        <v>22777</v>
       </c>
     </row>
     <row r="129">
@@ -4904,7 +4904,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4927,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>3336</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="135">
@@ -5006,7 +5006,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5029,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>14991</v>
+        <v>15171</v>
       </c>
     </row>
     <row r="138">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2024/05/28</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>9948</v>
+        <v>10098</v>
       </c>
     </row>
     <row r="149">
@@ -5958,7 +5958,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5981,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="n">
-        <v>7085</v>
+        <v>7094</v>
       </c>
     </row>
     <row r="166">
@@ -6298,7 +6298,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6321,7 +6321,7 @@
         <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>25716</v>
+        <v>25720</v>
       </c>
     </row>
     <row r="176">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6593,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="H183" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="184">
@@ -7658,7 +7658,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7681,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="n">
-        <v>25600</v>
+        <v>25601</v>
       </c>
     </row>
     <row r="216">
@@ -7896,7 +7896,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2024/05/11</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -7919,7 +7919,7 @@
         <v>0</v>
       </c>
       <c r="H222" t="n">
-        <v>21443</v>
+        <v>21459</v>
       </c>
     </row>
     <row r="223">
@@ -8134,7 +8134,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="H229" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="230">
@@ -9494,7 +9494,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -9517,7 +9517,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="n">
-        <v>10126</v>
+        <v>10130</v>
       </c>
     </row>
     <row r="270">
@@ -9562,7 +9562,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -9585,7 +9585,7 @@
         <v>0</v>
       </c>
       <c r="H271" t="n">
-        <v>7940</v>
+        <v>7941</v>
       </c>
     </row>
     <row r="272">
@@ -10514,7 +10514,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -10718,7 +10718,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>2024/05/24</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -10741,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="H305" t="n">
-        <v>40515</v>
+        <v>40906</v>
       </c>
     </row>
     <row r="306">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>2024/06/15</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -10911,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="n">
-        <v>10606</v>
+        <v>10607</v>
       </c>
     </row>
     <row r="311">
@@ -10956,7 +10956,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="n">
-        <v>24045</v>
+        <v>24347</v>
       </c>
     </row>
     <row r="313">
@@ -11568,7 +11568,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -11591,7 +11591,7 @@
         <v>0</v>
       </c>
       <c r="H330" t="n">
-        <v>47219</v>
+        <v>47900</v>
       </c>
     </row>
     <row r="331">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -12543,7 +12543,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="n">
-        <v>35189</v>
+        <v>35530</v>
       </c>
     </row>
     <row r="359">
@@ -12554,7 +12554,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -13098,7 +13098,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -13121,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="n">
-        <v>56594</v>
+        <v>56806</v>
       </c>
     </row>
     <row r="376">
@@ -13200,7 +13200,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -13223,7 +13223,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="n">
-        <v>2130</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="379">
@@ -13880,7 +13880,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -13903,7 +13903,7 @@
         <v>0</v>
       </c>
       <c r="H398" t="n">
-        <v>69727</v>
+        <v>69739</v>
       </c>
     </row>
     <row r="399">
@@ -14356,7 +14356,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -14379,7 +14379,7 @@
         <v>0</v>
       </c>
       <c r="H412" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="413">
@@ -14424,7 +14424,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>2024/05/24</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="H414" t="n">
-        <v>31048</v>
+        <v>31317</v>
       </c>
     </row>
     <row r="415">
@@ -14560,7 +14560,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -14583,7 +14583,7 @@
         <v>0</v>
       </c>
       <c r="H418" t="n">
-        <v>17548</v>
+        <v>17866</v>
       </c>
     </row>
     <row r="419">
@@ -14730,7 +14730,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -14753,7 +14753,7 @@
         <v>0</v>
       </c>
       <c r="H423" t="n">
-        <v>15163</v>
+        <v>15313</v>
       </c>
     </row>
     <row r="424">
@@ -15308,7 +15308,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -15331,7 +15331,7 @@
         <v>0</v>
       </c>
       <c r="H440" t="n">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="441">
@@ -16872,7 +16872,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -16895,7 +16895,7 @@
         <v>0</v>
       </c>
       <c r="H486" t="n">
-        <v>2290</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="487">
@@ -17824,7 +17824,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -17847,7 +17847,7 @@
         <v>0</v>
       </c>
       <c r="H514" t="n">
-        <v>1933</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="515">
@@ -17858,7 +17858,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -18470,7 +18470,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>2024/06/04</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -18844,7 +18844,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>2024/06/18</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -18867,7 +18867,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="n">
-        <v>1605</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="545">
@@ -19320,7 +19320,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -19343,7 +19343,7 @@
         <v>0</v>
       </c>
       <c r="H558" t="n">
-        <v>833</v>
+        <v>876</v>
       </c>
     </row>
     <row r="559">
@@ -19796,7 +19796,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -19819,7 +19819,7 @@
         <v>0</v>
       </c>
       <c r="H572" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="573">
@@ -19966,7 +19966,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -19989,7 +19989,7 @@
         <v>0</v>
       </c>
       <c r="H577" t="n">
-        <v>816</v>
+        <v>845</v>
       </c>
     </row>
     <row r="578">
@@ -20170,7 +20170,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -20193,7 +20193,7 @@
         <v>0</v>
       </c>
       <c r="H583" t="n">
-        <v>5793</v>
+        <v>5936</v>
       </c>
     </row>
     <row r="584">
@@ -20306,7 +20306,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -20329,7 +20329,7 @@
         <v>0</v>
       </c>
       <c r="H587" t="n">
-        <v>1469</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="588">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>2023/07/21</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -20703,7 +20703,7 @@
         <v>0</v>
       </c>
       <c r="H598" t="n">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="599">
@@ -22268,6 +22268,74 @@
       </c>
       <c r="H644" t="n">
         <v>80</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>2024/06/18</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>Corporación Teatro Regional Del Biobío</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>FU027</t>
+        </is>
+      </c>
+      <c r="E645" t="n">
+        <v>0</v>
+      </c>
+      <c r="F645" t="n">
+        <v>0</v>
+      </c>
+      <c r="G645" t="n">
+        <v>0</v>
+      </c>
+      <c r="H645" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>2024/06/21</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>Corporación De Desarrollo De Magallanes</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>FU026</t>
+        </is>
+      </c>
+      <c r="E646" t="n">
+        <v>0</v>
+      </c>
+      <c r="F646" t="n">
+        <v>0</v>
+      </c>
+      <c r="G646" t="n">
+        <v>0</v>
+      </c>
+      <c r="H646" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado_historico4.xlsx
+++ b/consolidado_historico4.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H646"/>
+  <dimension ref="A1:H647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024/06/02</t>
+          <t>2024/06/26</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>25246</v>
+        <v>25571</v>
       </c>
     </row>
     <row r="45">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2024/06/19</t>
+          <t>2024/06/27</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2024/06/21</t>
+          <t>2024/06/26</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/26</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>2029</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="58">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2024/05/28</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>16238</v>
+        <v>16499</v>
       </c>
     </row>
     <row r="62">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/27</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>13890</v>
+        <v>13892</v>
       </c>
     </row>
     <row r="66">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/06/27</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>23288</v>
+        <v>23290</v>
       </c>
     </row>
     <row r="103">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/06/27</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4224,7 +4224,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4247,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>2233</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="115">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2024/04/23</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4451,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>17109</v>
+        <v>17477</v>
       </c>
     </row>
     <row r="121">
@@ -5346,7 +5346,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/26</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5369,7 +5369,7 @@
         <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="148">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2024/06/15</t>
+          <t>2024/06/22</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -7307,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>3977</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="205">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/28</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -7443,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="n">
-        <v>6451</v>
+        <v>6535</v>
       </c>
     </row>
     <row r="209">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/06/28</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -8123,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>1899</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="229">
@@ -8542,7 +8542,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/06/28</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -8565,7 +8565,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>10578</v>
+        <v>10591</v>
       </c>
     </row>
     <row r="242">
@@ -8712,7 +8712,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -8735,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="H246" t="n">
-        <v>10779</v>
+        <v>11001</v>
       </c>
     </row>
     <row r="247">
@@ -8984,7 +8984,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/26</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -9007,7 +9007,7 @@
         <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>3054</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="255">
@@ -9698,7 +9698,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -9721,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="H275" t="n">
-        <v>56076</v>
+        <v>56700</v>
       </c>
     </row>
     <row r="276">
@@ -10718,7 +10718,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>2024/06/18</t>
+          <t>2024/06/27</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -10741,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="H305" t="n">
-        <v>40906</v>
+        <v>41120</v>
       </c>
     </row>
     <row r="306">
@@ -11840,7 +11840,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -11863,7 +11863,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="n">
-        <v>45830</v>
+        <v>46417</v>
       </c>
     </row>
     <row r="339">
@@ -12350,7 +12350,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -12373,7 +12373,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="n">
-        <v>33720</v>
+        <v>33721</v>
       </c>
     </row>
     <row r="354">
@@ -12588,7 +12588,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -12611,7 +12611,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="n">
-        <v>12929</v>
+        <v>13064</v>
       </c>
     </row>
     <row r="361">
@@ -12792,7 +12792,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/28</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/27</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -13019,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="H372" t="n">
-        <v>6492</v>
+        <v>6596</v>
       </c>
     </row>
     <row r="373">
@@ -13846,7 +13846,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/06/26</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -13869,7 +13869,7 @@
         <v>0</v>
       </c>
       <c r="H397" t="n">
-        <v>19305</v>
+        <v>19999</v>
       </c>
     </row>
     <row r="398">
@@ -14424,7 +14424,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>2024/06/19</t>
+          <t>2024/06/28</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="H414" t="n">
-        <v>31317</v>
+        <v>31375</v>
       </c>
     </row>
     <row r="415">
@@ -15070,7 +15070,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/06/28</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -15093,7 +15093,7 @@
         <v>0</v>
       </c>
       <c r="H433" t="n">
-        <v>11073</v>
+        <v>11191</v>
       </c>
     </row>
     <row r="434">
@@ -15410,7 +15410,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/26</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -15433,7 +15433,7 @@
         <v>0</v>
       </c>
       <c r="H443" t="n">
-        <v>8533</v>
+        <v>8822</v>
       </c>
     </row>
     <row r="444">
@@ -15716,7 +15716,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/26</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -15739,7 +15739,7 @@
         <v>0</v>
       </c>
       <c r="H452" t="n">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="453">
@@ -16702,7 +16702,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -17620,7 +17620,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -17643,7 +17643,7 @@
         <v>0</v>
       </c>
       <c r="H508" t="n">
-        <v>356</v>
+        <v>382</v>
       </c>
     </row>
     <row r="509">
@@ -17858,7 +17858,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>2024/06/18</t>
+          <t>2024/06/26</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -17892,7 +17892,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -17915,7 +17915,7 @@
         <v>0</v>
       </c>
       <c r="H516" t="n">
-        <v>13399</v>
+        <v>13954</v>
       </c>
     </row>
     <row r="517">
@@ -18198,7 +18198,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -18221,7 +18221,7 @@
         <v>0</v>
       </c>
       <c r="H525" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="526">
@@ -18266,7 +18266,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/06/27</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -18289,7 +18289,7 @@
         <v>0</v>
       </c>
       <c r="H527" t="n">
-        <v>973</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="528">
@@ -18776,7 +18776,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/27</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -18799,7 +18799,7 @@
         <v>0</v>
       </c>
       <c r="H542" t="n">
-        <v>2344</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="543">
@@ -18815,7 +18815,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>Corporación de Turismo Municipalidad de Paihuano</t>
+          <t>Corporación Municipal de Turismo de Paihuano</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
@@ -20374,7 +20374,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/06/27</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -20397,7 +20397,7 @@
         <v>0</v>
       </c>
       <c r="H589" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="590">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>2024/06/21</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -21632,7 +21632,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -21655,7 +21655,7 @@
         <v>0</v>
       </c>
       <c r="H626" t="n">
-        <v>119</v>
+        <v>148</v>
       </c>
     </row>
     <row r="627">
@@ -21870,7 +21870,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>2024/05/30</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -21893,7 +21893,7 @@
         <v>0</v>
       </c>
       <c r="H633" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="634">
@@ -22312,29 +22312,63 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
+          <t>2024/06/25</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Deportes y Recreación de Tocopilla</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>CM259</t>
+        </is>
+      </c>
+      <c r="E646" t="n">
+        <v>0</v>
+      </c>
+      <c r="F646" t="n">
+        <v>0</v>
+      </c>
+      <c r="G646" t="n">
+        <v>0</v>
+      </c>
+      <c r="H646" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
           <t>2024/06/21</t>
         </is>
       </c>
-      <c r="C646" t="inlineStr">
+      <c r="C647" t="inlineStr">
         <is>
           <t>Corporación De Desarrollo De Magallanes</t>
         </is>
       </c>
-      <c r="D646" t="inlineStr">
+      <c r="D647" t="inlineStr">
         <is>
           <t>FU026</t>
         </is>
       </c>
-      <c r="E646" t="n">
-        <v>0</v>
-      </c>
-      <c r="F646" t="n">
-        <v>0</v>
-      </c>
-      <c r="G646" t="n">
-        <v>0</v>
-      </c>
-      <c r="H646" t="n">
+      <c r="E647" t="n">
+        <v>0</v>
+      </c>
+      <c r="F647" t="n">
+        <v>0</v>
+      </c>
+      <c r="G647" t="n">
+        <v>0</v>
+      </c>
+      <c r="H647" t="n">
         <v>7</v>
       </c>
     </row>

--- a/consolidado_historico4.xlsx
+++ b/consolidado_historico4.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H647"/>
+  <dimension ref="A1:H648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -416,7 +416,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/07/03</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -790,7 +790,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
@@ -994,7 +994,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/07/01</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>845</v>
+        <v>859</v>
       </c>
     </row>
     <row r="20">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/07/01</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/07/01</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>5690</v>
+        <v>5698</v>
       </c>
     </row>
     <row r="35">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/07/03</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>4809</v>
+        <v>4879</v>
       </c>
     </row>
     <row r="38">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/07/03</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/30</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2024/06/05</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2024/06/20</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3748,7 +3748,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>45654</v>
+        <v>45655</v>
       </c>
     </row>
     <row r="101">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2024/06/27</t>
+          <t>2024/07/01</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/07/01</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4519,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="123">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2024/06/02</t>
+          <t>2024/07/01</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>221354</v>
+        <v>223648</v>
       </c>
     </row>
     <row r="125">
@@ -4598,7 +4598,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>12743</v>
+        <v>12877</v>
       </c>
     </row>
     <row r="126">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>14198</v>
+        <v>14642</v>
       </c>
     </row>
     <row r="137">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/07/03</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5471,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="151">
@@ -5924,7 +5924,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5947,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>44707</v>
+        <v>44718</v>
       </c>
     </row>
     <row r="165">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6151,7 +6151,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>88247</v>
+        <v>89208</v>
       </c>
     </row>
     <row r="171">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2024/06/04</t>
+          <t>2024/07/01</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6185,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="172">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>27711</v>
+        <v>27723</v>
       </c>
     </row>
     <row r="181">
@@ -6536,7 +6536,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>3155</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="183">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6672,7 +6672,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/07/03</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6695,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>37724</v>
+        <v>37841</v>
       </c>
     </row>
     <row r="187">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/07/01</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -6933,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="194">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/07/03</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6967,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>6787</v>
+        <v>6789</v>
       </c>
     </row>
     <row r="195">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2024/06/22</t>
+          <t>2024/06/29</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -7307,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>4030</v>
+        <v>4057</v>
       </c>
     </row>
     <row r="205">
@@ -7318,7 +7318,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -7341,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="n">
-        <v>3069</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="206">
@@ -7658,7 +7658,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2024/06/21</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7681,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="n">
-        <v>25601</v>
+        <v>25903</v>
       </c>
     </row>
     <row r="216">
@@ -7726,7 +7726,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -7749,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="n">
-        <v>40890</v>
+        <v>41022</v>
       </c>
     </row>
     <row r="218">
@@ -7862,7 +7862,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/07/01</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -8168,7 +8168,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="231">
@@ -8202,7 +8202,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -8225,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="H231" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="232">
@@ -8338,7 +8338,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -8599,7 +8599,7 @@
         <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>23689</v>
+        <v>23924</v>
       </c>
     </row>
     <row r="243">
@@ -8610,7 +8610,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>28930</v>
+        <v>29011</v>
       </c>
     </row>
     <row r="244">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/07/03</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -9426,7 +9426,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="H267" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="268">
@@ -9596,7 +9596,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -9619,7 +9619,7 @@
         <v>0</v>
       </c>
       <c r="H272" t="n">
-        <v>1019</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="273">
@@ -9664,7 +9664,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/07/03</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="H274" t="n">
-        <v>13502</v>
+        <v>13505</v>
       </c>
     </row>
     <row r="275">
@@ -9936,7 +9936,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -9959,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="n">
-        <v>1517</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="283">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -10571,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="H300" t="n">
-        <v>2565</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="301">
@@ -10616,7 +10616,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/07/03</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -10639,7 +10639,7 @@
         <v>0</v>
       </c>
       <c r="H302" t="n">
-        <v>17105</v>
+        <v>17282</v>
       </c>
     </row>
     <row r="303">
@@ -10684,7 +10684,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -11058,7 +11058,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/07/03</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -11092,7 +11092,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/07/03</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -11115,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="n">
-        <v>56096</v>
+        <v>56530</v>
       </c>
     </row>
     <row r="317">
@@ -11194,7 +11194,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="n">
-        <v>30841</v>
+        <v>30879</v>
       </c>
     </row>
     <row r="320">
@@ -11262,7 +11262,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>2024/06/04</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -11398,7 +11398,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -11421,7 +11421,7 @@
         <v>0</v>
       </c>
       <c r="H325" t="n">
-        <v>34061</v>
+        <v>34074</v>
       </c>
     </row>
     <row r="326">
@@ -11432,7 +11432,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -11455,7 +11455,7 @@
         <v>0</v>
       </c>
       <c r="H326" t="n">
-        <v>13853</v>
+        <v>13855</v>
       </c>
     </row>
     <row r="327">
@@ -11534,7 +11534,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -11557,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="n">
-        <v>22603</v>
+        <v>22960</v>
       </c>
     </row>
     <row r="330">
@@ -12248,7 +12248,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -12271,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="H350" t="n">
-        <v>135722</v>
+        <v>136146</v>
       </c>
     </row>
     <row r="351">
@@ -12350,7 +12350,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>2024/06/25</t>
+          <t>2024/07/01</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -12373,7 +12373,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="n">
-        <v>33721</v>
+        <v>34102</v>
       </c>
     </row>
     <row r="354">
@@ -12452,7 +12452,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>2024/06/08</t>
+          <t>2024/07/03</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -12588,7 +12588,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>2024/06/25</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -12611,7 +12611,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="n">
-        <v>13064</v>
+        <v>13069</v>
       </c>
     </row>
     <row r="361">
@@ -12690,7 +12690,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="n">
-        <v>29688</v>
+        <v>29692</v>
       </c>
     </row>
     <row r="364">
@@ -13166,7 +13166,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -13189,7 +13189,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="n">
-        <v>2160</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="378">
@@ -13370,7 +13370,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -13393,7 +13393,7 @@
         <v>0</v>
       </c>
       <c r="H383" t="n">
-        <v>13402</v>
+        <v>13411</v>
       </c>
     </row>
     <row r="384">
@@ -13404,7 +13404,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/07/03</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -13427,7 +13427,7 @@
         <v>0</v>
       </c>
       <c r="H384" t="n">
-        <v>184264</v>
+        <v>184267</v>
       </c>
     </row>
     <row r="385">
@@ -13676,7 +13676,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>2024/06/05</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -13699,7 +13699,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="n">
-        <v>10018</v>
+        <v>10106</v>
       </c>
     </row>
     <row r="393">
@@ -13982,7 +13982,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -14005,7 +14005,7 @@
         <v>0</v>
       </c>
       <c r="H401" t="n">
-        <v>14819</v>
+        <v>14825</v>
       </c>
     </row>
     <row r="402">
@@ -14016,7 +14016,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -14039,7 +14039,7 @@
         <v>0</v>
       </c>
       <c r="H402" t="n">
-        <v>3885</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="403">
@@ -14254,7 +14254,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -14277,7 +14277,7 @@
         <v>0</v>
       </c>
       <c r="H409" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="410">
@@ -14356,7 +14356,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>2024/06/21</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -14379,7 +14379,7 @@
         <v>0</v>
       </c>
       <c r="H412" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="413">
@@ -14594,7 +14594,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -14617,7 +14617,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="n">
-        <v>3949</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="420">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/07/01</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -14662,7 +14662,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -14685,7 +14685,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="n">
-        <v>15433</v>
+        <v>15481</v>
       </c>
     </row>
     <row r="422">
@@ -15002,7 +15002,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -15025,7 +15025,7 @@
         <v>0</v>
       </c>
       <c r="H431" t="n">
-        <v>38865</v>
+        <v>38866</v>
       </c>
     </row>
     <row r="432">
@@ -15104,7 +15104,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -15240,7 +15240,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -15263,7 +15263,7 @@
         <v>0</v>
       </c>
       <c r="H438" t="n">
-        <v>6105</v>
+        <v>6106</v>
       </c>
     </row>
     <row r="439">
@@ -15274,7 +15274,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -15297,7 +15297,7 @@
         <v>0</v>
       </c>
       <c r="H439" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="440">
@@ -15750,7 +15750,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/07/03</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -15773,7 +15773,7 @@
         <v>0</v>
       </c>
       <c r="H453" t="n">
-        <v>30443</v>
+        <v>30751</v>
       </c>
     </row>
     <row r="454">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>2024/05/28</t>
+          <t>2024/07/03</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -15943,7 +15943,7 @@
         <v>0</v>
       </c>
       <c r="H458" t="n">
-        <v>4325</v>
+        <v>4327</v>
       </c>
     </row>
     <row r="459">
@@ -15954,7 +15954,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -15977,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="H459" t="n">
-        <v>22723</v>
+        <v>22733</v>
       </c>
     </row>
     <row r="460">
@@ -16464,7 +16464,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -16487,7 +16487,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="n">
-        <v>1904</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="475">
@@ -16702,7 +16702,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>2024/06/25</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -16906,7 +16906,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -16929,7 +16929,7 @@
         <v>0</v>
       </c>
       <c r="H487" t="n">
-        <v>235</v>
+        <v>255</v>
       </c>
     </row>
     <row r="488">
@@ -16940,7 +16940,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -16963,7 +16963,7 @@
         <v>0</v>
       </c>
       <c r="H488" t="n">
-        <v>1574</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="489">
@@ -17586,7 +17586,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>2024/06/05</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -17609,7 +17609,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="n">
-        <v>595</v>
+        <v>607</v>
       </c>
     </row>
     <row r="508">
@@ -17858,7 +17858,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>2024/06/26</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -17881,7 +17881,7 @@
         <v>0</v>
       </c>
       <c r="H515" t="n">
-        <v>4898</v>
+        <v>4907</v>
       </c>
     </row>
     <row r="516">
@@ -18470,7 +18470,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>2024/06/19</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -18493,7 +18493,7 @@
         <v>0</v>
       </c>
       <c r="H533" t="n">
-        <v>366</v>
+        <v>384</v>
       </c>
     </row>
     <row r="534">
@@ -18640,7 +18640,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/07/01</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -18663,7 +18663,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="539">
@@ -18708,7 +18708,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/07/01</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -18731,7 +18731,7 @@
         <v>0</v>
       </c>
       <c r="H540" t="n">
-        <v>307</v>
+        <v>318</v>
       </c>
     </row>
     <row r="541">
@@ -18878,7 +18878,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>2024/06/05</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -18901,7 +18901,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="546">
@@ -18912,7 +18912,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -19116,7 +19116,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/07/03</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -19139,7 +19139,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="n">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="553">
@@ -19184,7 +19184,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>2024/06/05</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -19207,7 +19207,7 @@
         <v>0</v>
       </c>
       <c r="H554" t="n">
-        <v>107</v>
+        <v>121</v>
       </c>
     </row>
     <row r="555">
@@ -19252,7 +19252,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>2024/06/04</t>
+          <t>2024/07/01</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -19275,7 +19275,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="n">
-        <v>807</v>
+        <v>852</v>
       </c>
     </row>
     <row r="557">
@@ -19354,7 +19354,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -19377,7 +19377,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="n">
-        <v>1065</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="560">
@@ -19422,7 +19422,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -19445,7 +19445,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="n">
-        <v>542</v>
+        <v>562</v>
       </c>
     </row>
     <row r="562">
@@ -19660,7 +19660,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -19683,7 +19683,7 @@
         <v>0</v>
       </c>
       <c r="H568" t="n">
-        <v>1182</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="569">
@@ -19932,7 +19932,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/07/01</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -19955,7 +19955,7 @@
         <v>0</v>
       </c>
       <c r="H576" t="n">
-        <v>506</v>
+        <v>542</v>
       </c>
     </row>
     <row r="577">
@@ -20544,7 +20544,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/07/03</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -20567,7 +20567,7 @@
         <v>0</v>
       </c>
       <c r="H594" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="595">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>2024/06/24</t>
+          <t>2024/07/01</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -20703,7 +20703,7 @@
         <v>0</v>
       </c>
       <c r="H598" t="n">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="599">
@@ -20782,7 +20782,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/07/01</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -20805,7 +20805,7 @@
         <v>0</v>
       </c>
       <c r="H601" t="n">
-        <v>7314</v>
+        <v>7339</v>
       </c>
     </row>
     <row r="602">
@@ -20850,7 +20850,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/07/01</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -20873,7 +20873,7 @@
         <v>0</v>
       </c>
       <c r="H603" t="n">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="604">
@@ -21394,7 +21394,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -21417,7 +21417,7 @@
         <v>0</v>
       </c>
       <c r="H619" t="n">
-        <v>3124</v>
+        <v>3732</v>
       </c>
     </row>
     <row r="620">
@@ -21428,7 +21428,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -21451,7 +21451,7 @@
         <v>0</v>
       </c>
       <c r="H620" t="n">
-        <v>2797</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="621">
@@ -21564,7 +21564,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>2024/06/05</t>
+          <t>2024/07/01</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -21587,7 +21587,7 @@
         <v>0</v>
       </c>
       <c r="H624" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="625">
@@ -21598,7 +21598,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -21621,7 +21621,7 @@
         <v>0</v>
       </c>
       <c r="H625" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="626">
@@ -21734,7 +21734,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>2024/06/05</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -21757,7 +21757,7 @@
         <v>0</v>
       </c>
       <c r="H629" t="n">
-        <v>642</v>
+        <v>651</v>
       </c>
     </row>
     <row r="630">
@@ -21938,7 +21938,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>2024/06/05</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -21961,7 +21961,7 @@
         <v>0</v>
       </c>
       <c r="H635" t="n">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="636">
@@ -21972,7 +21972,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -21995,7 +21995,7 @@
         <v>0</v>
       </c>
       <c r="H636" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="637">
@@ -22074,7 +22074,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -22097,7 +22097,7 @@
         <v>0</v>
       </c>
       <c r="H639" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="640">
@@ -22108,7 +22108,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -22131,7 +22131,7 @@
         <v>0</v>
       </c>
       <c r="H640" t="n">
-        <v>206</v>
+        <v>309</v>
       </c>
     </row>
     <row r="641">
@@ -22244,7 +22244,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
@@ -22267,7 +22267,7 @@
         <v>0</v>
       </c>
       <c r="H644" t="n">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="645">
@@ -22278,7 +22278,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>2024/06/18</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -22301,7 +22301,7 @@
         <v>0</v>
       </c>
       <c r="H645" t="n">
-        <v>48</v>
+        <v>254</v>
       </c>
     </row>
     <row r="646">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>2024/06/25</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
@@ -22335,7 +22335,7 @@
         <v>0</v>
       </c>
       <c r="H646" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="647">
@@ -22370,6 +22370,40 @@
       </c>
       <c r="H647" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>2024/07/01</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>Comercializadora de Trigo COTRISA</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>EP029</t>
+        </is>
+      </c>
+      <c r="E648" t="n">
+        <v>0</v>
+      </c>
+      <c r="F648" t="n">
+        <v>0</v>
+      </c>
+      <c r="G648" t="n">
+        <v>0</v>
+      </c>
+      <c r="H648" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado_historico4.xlsx
+++ b/consolidado_historico4.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H650"/>
+  <dimension ref="A1:H651"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -416,7 +416,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024/07/04</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
@@ -620,7 +620,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
@@ -756,7 +756,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024/06/26</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2024/07/02</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2024/07/01</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>666</v>
+        <v>710</v>
       </c>
     </row>
     <row r="105">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>25984</v>
+        <v>26025</v>
       </c>
     </row>
     <row r="125">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5856,7 +5856,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2024/07/23</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163">
@@ -6978,7 +6978,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2024/07/18</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2024/06/21</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -7273,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="H203" t="n">
-        <v>2392</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="204">
@@ -7488,7 +7488,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2024/07/01</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="211">
@@ -7828,7 +7828,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2024/07/01</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="221">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -7953,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>641</v>
+        <v>695</v>
       </c>
     </row>
     <row r="224">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -8259,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="H232" t="n">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="233">
@@ -9562,7 +9562,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -9585,7 +9585,7 @@
         <v>0</v>
       </c>
       <c r="H271" t="n">
-        <v>4632</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="272">
@@ -10752,7 +10752,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="H306" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="307">
@@ -11466,7 +11466,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>2024/07/03</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -11602,7 +11602,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -11625,7 +11625,7 @@
         <v>0</v>
       </c>
       <c r="H331" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="332">
@@ -12010,7 +12010,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -12033,7 +12033,7 @@
         <v>0</v>
       </c>
       <c r="H343" t="n">
-        <v>13349</v>
+        <v>13513</v>
       </c>
     </row>
     <row r="344">
@@ -12588,7 +12588,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>2024/06/18</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -12611,7 +12611,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="n">
-        <v>2166</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="361">
@@ -13302,7 +13302,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="H381" t="n">
-        <v>10591</v>
+        <v>10610</v>
       </c>
     </row>
     <row r="382">
@@ -13812,7 +13812,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -14492,7 +14492,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -15206,7 +15206,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -15512,7 +15512,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -15750,7 +15750,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>2024/07/03</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -15807,7 +15807,7 @@
         <v>0</v>
       </c>
       <c r="H454" t="n">
-        <v>4327</v>
+        <v>4329</v>
       </c>
     </row>
     <row r="455">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -15943,7 +15943,7 @@
         <v>0</v>
       </c>
       <c r="H458" t="n">
-        <v>34103</v>
+        <v>34102</v>
       </c>
     </row>
     <row r="459">
@@ -16056,17 +16056,17 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>2024/07/26</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Municipalidad de Litueche</t>
+          <t>Municipalidad de Limache</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>MU141</t>
+          <t>MU139</t>
         </is>
       </c>
       <c r="E462" t="n">
@@ -16079,7 +16079,7 @@
         <v>0</v>
       </c>
       <c r="H462" t="n">
-        <v>10119</v>
+        <v>36955</v>
       </c>
     </row>
     <row r="463">
@@ -16090,17 +16090,17 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Municipalidad de Llanquihue</t>
+          <t>Municipalidad de Litueche</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>MU142</t>
+          <t>MU141</t>
         </is>
       </c>
       <c r="E463" t="n">
@@ -16113,7 +16113,7 @@
         <v>0</v>
       </c>
       <c r="H463" t="n">
-        <v>9725</v>
+        <v>10120</v>
       </c>
     </row>
     <row r="464">
@@ -16124,17 +16124,17 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>2024/07/01</t>
+          <t>2024/07/10</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>Municipalidad de Llay Llay</t>
+          <t>Municipalidad de Llanquihue</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>MU143</t>
+          <t>MU142</t>
         </is>
       </c>
       <c r="E464" t="n">
@@ -16147,7 +16147,7 @@
         <v>0</v>
       </c>
       <c r="H464" t="n">
-        <v>1730</v>
+        <v>9725</v>
       </c>
     </row>
     <row r="465">
@@ -16158,17 +16158,17 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Municipalidad de Lo Barnechea</t>
+          <t>Municipalidad de Llay Llay</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>MU144</t>
+          <t>MU143</t>
         </is>
       </c>
       <c r="E465" t="n">
@@ -16181,7 +16181,7 @@
         <v>0</v>
       </c>
       <c r="H465" t="n">
-        <v>1903</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="466">
@@ -16192,17 +16192,17 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/07/08</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Municipalidad de Lo Espejo</t>
+          <t>Municipalidad de Lo Barnechea</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>MU145</t>
+          <t>MU144</t>
         </is>
       </c>
       <c r="E466" t="n">
@@ -16215,7 +16215,7 @@
         <v>0</v>
       </c>
       <c r="H466" t="n">
-        <v>59346</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="467">
@@ -16226,17 +16226,17 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/11</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Municipalidad de Lo Prado</t>
+          <t>Municipalidad de Lo Espejo</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>MU146</t>
+          <t>MU145</t>
         </is>
       </c>
       <c r="E467" t="n">
@@ -16249,7 +16249,7 @@
         <v>0</v>
       </c>
       <c r="H467" t="n">
-        <v>875</v>
+        <v>59346</v>
       </c>
     </row>
     <row r="468">
@@ -16260,17 +16260,17 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Municipalidad de Lolol</t>
+          <t>Municipalidad de Lo Prado</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>MU147</t>
+          <t>MU146</t>
         </is>
       </c>
       <c r="E468" t="n">
@@ -16283,7 +16283,7 @@
         <v>0</v>
       </c>
       <c r="H468" t="n">
-        <v>10800</v>
+        <v>875</v>
       </c>
     </row>
     <row r="469">
@@ -16294,17 +16294,17 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/07/10</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Municipalidad de Loncoche</t>
+          <t>Municipalidad de Lolol</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>MU148</t>
+          <t>MU147</t>
         </is>
       </c>
       <c r="E469" t="n">
@@ -16317,7 +16317,7 @@
         <v>0</v>
       </c>
       <c r="H469" t="n">
-        <v>25995</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="470">
@@ -16328,17 +16328,17 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/15</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Municipalidad de Lonquimay</t>
+          <t>Municipalidad de Loncoche</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>MU150</t>
+          <t>MU148</t>
         </is>
       </c>
       <c r="E470" t="n">
@@ -16351,7 +16351,7 @@
         <v>0</v>
       </c>
       <c r="H470" t="n">
-        <v>24641</v>
+        <v>25995</v>
       </c>
     </row>
     <row r="471">
@@ -16362,17 +16362,17 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Municipalidad de Los Alamos</t>
+          <t>Municipalidad de Lonquimay</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>MU151</t>
+          <t>MU150</t>
         </is>
       </c>
       <c r="E471" t="n">
@@ -16385,7 +16385,7 @@
         <v>0</v>
       </c>
       <c r="H471" t="n">
-        <v>81141</v>
+        <v>24641</v>
       </c>
     </row>
     <row r="472">
@@ -16396,17 +16396,17 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Municipalidad de Los Andes</t>
+          <t>Municipalidad de Los Alamos</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>MU152</t>
+          <t>MU151</t>
         </is>
       </c>
       <c r="E472" t="n">
@@ -16419,7 +16419,7 @@
         <v>0</v>
       </c>
       <c r="H472" t="n">
-        <v>52712</v>
+        <v>81333</v>
       </c>
     </row>
     <row r="473">
@@ -16430,17 +16430,17 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/10</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Municipalidad de Los Lagos</t>
+          <t>Municipalidad de Los Andes</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>MU154</t>
+          <t>MU152</t>
         </is>
       </c>
       <c r="E473" t="n">
@@ -16453,7 +16453,7 @@
         <v>0</v>
       </c>
       <c r="H473" t="n">
-        <v>4360</v>
+        <v>52712</v>
       </c>
     </row>
     <row r="474">
@@ -16464,17 +16464,17 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>2024/06/01</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Municipalidad de Los Muermos</t>
+          <t>Municipalidad de Los Lagos</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>MU155</t>
+          <t>MU154</t>
         </is>
       </c>
       <c r="E474" t="n">
@@ -16487,7 +16487,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="n">
-        <v>250</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="475">
@@ -16498,17 +16498,17 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/06/01</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Municipalidad de Los Sauces</t>
+          <t>Municipalidad de Los Muermos</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>MU156</t>
+          <t>MU155</t>
         </is>
       </c>
       <c r="E475" t="n">
@@ -16521,7 +16521,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="n">
-        <v>15355</v>
+        <v>250</v>
       </c>
     </row>
     <row r="476">
@@ -16532,17 +16532,17 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/07/15</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Municipalidad de Los Vilos</t>
+          <t>Municipalidad de Los Sauces</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>MU157</t>
+          <t>MU156</t>
         </is>
       </c>
       <c r="E476" t="n">
@@ -16555,7 +16555,7 @@
         <v>0</v>
       </c>
       <c r="H476" t="n">
-        <v>14233</v>
+        <v>15355</v>
       </c>
     </row>
     <row r="477">
@@ -16566,17 +16566,17 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/09</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Municipalidad de Lumaco</t>
+          <t>Municipalidad de Los Vilos</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>MU159</t>
+          <t>MU157</t>
         </is>
       </c>
       <c r="E477" t="n">
@@ -16589,7 +16589,7 @@
         <v>0</v>
       </c>
       <c r="H477" t="n">
-        <v>18466</v>
+        <v>14233</v>
       </c>
     </row>
     <row r="478">
@@ -16600,17 +16600,17 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Municipalidad de Machalí</t>
+          <t>Municipalidad de Lumaco</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>MU160</t>
+          <t>MU159</t>
         </is>
       </c>
       <c r="E478" t="n">
@@ -16623,7 +16623,7 @@
         <v>0</v>
       </c>
       <c r="H478" t="n">
-        <v>30022</v>
+        <v>18466</v>
       </c>
     </row>
     <row r="479">
@@ -16634,17 +16634,17 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Municipalidad de Macul</t>
+          <t>Municipalidad de Machalí</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>MU161</t>
+          <t>MU160</t>
         </is>
       </c>
       <c r="E479" t="n">
@@ -16657,7 +16657,7 @@
         <v>0</v>
       </c>
       <c r="H479" t="n">
-        <v>1085</v>
+        <v>30022</v>
       </c>
     </row>
     <row r="480">
@@ -16668,17 +16668,17 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Municipalidad de Máfil</t>
+          <t>Municipalidad de Macul</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>MU162</t>
+          <t>MU161</t>
         </is>
       </c>
       <c r="E480" t="n">
@@ -16691,7 +16691,7 @@
         <v>0</v>
       </c>
       <c r="H480" t="n">
-        <v>8453</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="481">
@@ -16702,17 +16702,17 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/11</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Municipalidad de Maipú</t>
+          <t>Municipalidad de Máfil</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>MU163</t>
+          <t>MU162</t>
         </is>
       </c>
       <c r="E481" t="n">
@@ -16725,7 +16725,7 @@
         <v>0</v>
       </c>
       <c r="H481" t="n">
-        <v>707</v>
+        <v>8453</v>
       </c>
     </row>
     <row r="482">
@@ -16736,17 +16736,17 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>2024/07/25</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Municipalidad de Malloa</t>
+          <t>Municipalidad de Maipú</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>MU164</t>
+          <t>MU163</t>
         </is>
       </c>
       <c r="E482" t="n">
@@ -16759,7 +16759,7 @@
         <v>0</v>
       </c>
       <c r="H482" t="n">
-        <v>15462</v>
+        <v>707</v>
       </c>
     </row>
     <row r="483">
@@ -16770,17 +16770,17 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/25</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Municipalidad de Marchige</t>
+          <t>Municipalidad de Malloa</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>MU165</t>
+          <t>MU164</t>
         </is>
       </c>
       <c r="E483" t="n">
@@ -16793,7 +16793,7 @@
         <v>0</v>
       </c>
       <c r="H483" t="n">
-        <v>18972</v>
+        <v>15462</v>
       </c>
     </row>
     <row r="484">
@@ -16804,17 +16804,17 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>2024/07/25</t>
+          <t>2024/07/10</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Municipalidad de María Elena</t>
+          <t>Municipalidad de Marchige</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>MU166</t>
+          <t>MU165</t>
         </is>
       </c>
       <c r="E484" t="n">
@@ -16827,7 +16827,7 @@
         <v>0</v>
       </c>
       <c r="H484" t="n">
-        <v>18</v>
+        <v>18972</v>
       </c>
     </row>
     <row r="485">
@@ -16838,17 +16838,17 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/27</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Municipalidad de María Pinto</t>
+          <t>Municipalidad de María Elena</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>MU167</t>
+          <t>MU166</t>
         </is>
       </c>
       <c r="E485" t="n">
@@ -16861,7 +16861,7 @@
         <v>0</v>
       </c>
       <c r="H485" t="n">
-        <v>335</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="486">
@@ -16872,17 +16872,17 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Municipalidad de Mariquina</t>
+          <t>Municipalidad de María Pinto</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>MU168</t>
+          <t>MU167</t>
         </is>
       </c>
       <c r="E486" t="n">
@@ -16895,7 +16895,7 @@
         <v>0</v>
       </c>
       <c r="H486" t="n">
-        <v>21223</v>
+        <v>335</v>
       </c>
     </row>
     <row r="487">
@@ -16906,17 +16906,17 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/07/10</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Municipalidad de Maule</t>
+          <t>Municipalidad de Mariquina</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>MU169</t>
+          <t>MU168</t>
         </is>
       </c>
       <c r="E487" t="n">
@@ -16929,7 +16929,7 @@
         <v>0</v>
       </c>
       <c r="H487" t="n">
-        <v>29549</v>
+        <v>21223</v>
       </c>
     </row>
     <row r="488">
@@ -16940,17 +16940,17 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/15</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Municipalidad de Maullín</t>
+          <t>Municipalidad de Maule</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>MU170</t>
+          <t>MU169</t>
         </is>
       </c>
       <c r="E488" t="n">
@@ -16963,7 +16963,7 @@
         <v>0</v>
       </c>
       <c r="H488" t="n">
-        <v>21480</v>
+        <v>29549</v>
       </c>
     </row>
     <row r="489">
@@ -16979,12 +16979,12 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Municipalidad de Mejillones</t>
+          <t>Municipalidad de Maullín</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>MU171</t>
+          <t>MU170</t>
         </is>
       </c>
       <c r="E489" t="n">
@@ -16997,7 +16997,7 @@
         <v>0</v>
       </c>
       <c r="H489" t="n">
-        <v>23912</v>
+        <v>21480</v>
       </c>
     </row>
     <row r="490">
@@ -17008,17 +17008,17 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>Municipalidad de Melipeuco</t>
+          <t>Municipalidad de Mejillones</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>MU172</t>
+          <t>MU171</t>
         </is>
       </c>
       <c r="E490" t="n">
@@ -17031,7 +17031,7 @@
         <v>0</v>
       </c>
       <c r="H490" t="n">
-        <v>5709</v>
+        <v>23912</v>
       </c>
     </row>
     <row r="491">
@@ -17042,17 +17042,17 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>2021/05/19</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>Municipalidad de Melipilla</t>
+          <t>Municipalidad de Melipeuco</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>MU173</t>
+          <t>MU172</t>
         </is>
       </c>
       <c r="E491" t="n">
@@ -17065,7 +17065,7 @@
         <v>0</v>
       </c>
       <c r="H491" t="n">
-        <v>698</v>
+        <v>5709</v>
       </c>
     </row>
     <row r="492">
@@ -17076,17 +17076,17 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>2024/07/19</t>
+          <t>2021/05/19</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>Municipalidad de Molina</t>
+          <t>Municipalidad de Melipilla</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>MU174</t>
+          <t>MU173</t>
         </is>
       </c>
       <c r="E492" t="n">
@@ -17099,7 +17099,7 @@
         <v>0</v>
       </c>
       <c r="H492" t="n">
-        <v>44775</v>
+        <v>698</v>
       </c>
     </row>
     <row r="493">
@@ -17110,17 +17110,17 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/19</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>Municipalidad de Monte Patria</t>
+          <t>Municipalidad de Molina</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>MU175</t>
+          <t>MU174</t>
         </is>
       </c>
       <c r="E493" t="n">
@@ -17133,7 +17133,7 @@
         <v>0</v>
       </c>
       <c r="H493" t="n">
-        <v>35515</v>
+        <v>44775</v>
       </c>
     </row>
     <row r="494">
@@ -17144,17 +17144,17 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>2024/07/26</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>Municipalidad de Mostazal</t>
+          <t>Municipalidad de Monte Patria</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>MU176</t>
+          <t>MU175</t>
         </is>
       </c>
       <c r="E494" t="n">
@@ -17167,7 +17167,7 @@
         <v>0</v>
       </c>
       <c r="H494" t="n">
-        <v>30881</v>
+        <v>35515</v>
       </c>
     </row>
     <row r="495">
@@ -17178,17 +17178,17 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>2024/07/22</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Municipalidad de Mulchén</t>
+          <t>Municipalidad de Mostazal</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>MU177</t>
+          <t>MU176</t>
         </is>
       </c>
       <c r="E495" t="n">
@@ -17201,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="H495" t="n">
-        <v>48903</v>
+        <v>32300</v>
       </c>
     </row>
     <row r="496">
@@ -17212,17 +17212,17 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>Municipalidad de Nacimiento</t>
+          <t>Municipalidad de Mulchén</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>MU178</t>
+          <t>MU177</t>
         </is>
       </c>
       <c r="E496" t="n">
@@ -17235,7 +17235,7 @@
         <v>0</v>
       </c>
       <c r="H496" t="n">
-        <v>35777</v>
+        <v>48903</v>
       </c>
     </row>
     <row r="497">
@@ -17246,17 +17246,17 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>Municipalidad de Nancagua</t>
+          <t>Municipalidad de Nacimiento</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>MU179</t>
+          <t>MU178</t>
         </is>
       </c>
       <c r="E497" t="n">
@@ -17269,7 +17269,7 @@
         <v>0</v>
       </c>
       <c r="H497" t="n">
-        <v>12650</v>
+        <v>35777</v>
       </c>
     </row>
     <row r="498">
@@ -17280,17 +17280,17 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/09</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Municipalidad de Navidad</t>
+          <t>Municipalidad de Nancagua</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>MU180</t>
+          <t>MU179</t>
         </is>
       </c>
       <c r="E498" t="n">
@@ -17303,7 +17303,7 @@
         <v>0</v>
       </c>
       <c r="H498" t="n">
-        <v>14044</v>
+        <v>12650</v>
       </c>
     </row>
     <row r="499">
@@ -17314,17 +17314,17 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>Municipalidad de Negrete</t>
+          <t>Municipalidad de Navidad</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>MU181</t>
+          <t>MU180</t>
         </is>
       </c>
       <c r="E499" t="n">
@@ -17337,7 +17337,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="n">
-        <v>10248</v>
+        <v>14044</v>
       </c>
     </row>
     <row r="500">
@@ -17348,17 +17348,17 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>2024/07/22</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>Municipalidad de Ninhue</t>
+          <t>Municipalidad de Negrete</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>MU182</t>
+          <t>MU181</t>
         </is>
       </c>
       <c r="E500" t="n">
@@ -17371,7 +17371,7 @@
         <v>0</v>
       </c>
       <c r="H500" t="n">
-        <v>4267</v>
+        <v>10248</v>
       </c>
     </row>
     <row r="501">
@@ -17382,17 +17382,17 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/07/22</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>Municipalidad de Nogales</t>
+          <t>Municipalidad de Ninhue</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>MU183</t>
+          <t>MU182</t>
         </is>
       </c>
       <c r="E501" t="n">
@@ -17405,7 +17405,7 @@
         <v>0</v>
       </c>
       <c r="H501" t="n">
-        <v>10743</v>
+        <v>4267</v>
       </c>
     </row>
     <row r="502">
@@ -17416,17 +17416,17 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/15</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>Municipalidad de Ñiquén</t>
+          <t>Municipalidad de Nogales</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>MU185</t>
+          <t>MU183</t>
         </is>
       </c>
       <c r="E502" t="n">
@@ -17439,7 +17439,7 @@
         <v>0</v>
       </c>
       <c r="H502" t="n">
-        <v>21352</v>
+        <v>10743</v>
       </c>
     </row>
     <row r="503">
@@ -17450,17 +17450,17 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>Municipalidad de Ñuñoa</t>
+          <t>Municipalidad de Ñiquén</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>MU186</t>
+          <t>MU185</t>
         </is>
       </c>
       <c r="E503" t="n">
@@ -17473,7 +17473,7 @@
         <v>0</v>
       </c>
       <c r="H503" t="n">
-        <v>337</v>
+        <v>21352</v>
       </c>
     </row>
     <row r="504">
@@ -17484,17 +17484,17 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Municipalidad de OHiggins</t>
+          <t>Municipalidad de Ñuñoa</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>MU187</t>
+          <t>MU186</t>
         </is>
       </c>
       <c r="E504" t="n">
@@ -17507,7 +17507,7 @@
         <v>0</v>
       </c>
       <c r="H504" t="n">
-        <v>1536</v>
+        <v>341</v>
       </c>
     </row>
     <row r="505">
@@ -17518,17 +17518,17 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Olivar</t>
+          <t>Municipalidad de OHiggins</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>MU188</t>
+          <t>MU187</t>
         </is>
       </c>
       <c r="E505" t="n">
@@ -17541,7 +17541,7 @@
         <v>0</v>
       </c>
       <c r="H505" t="n">
-        <v>296</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="506">
@@ -17552,17 +17552,17 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>2024/07/26</t>
+          <t>2024/07/09</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>Municipalidad de Ollague</t>
+          <t>Ilustre Municipalidad de Olivar</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>MU189</t>
+          <t>MU188</t>
         </is>
       </c>
       <c r="E506" t="n">
@@ -17575,7 +17575,7 @@
         <v>0</v>
       </c>
       <c r="H506" t="n">
-        <v>76</v>
+        <v>296</v>
       </c>
     </row>
     <row r="507">
@@ -17586,17 +17586,17 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>Municipalidad de Olmué</t>
+          <t>Municipalidad de Ollague</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>MU190</t>
+          <t>MU189</t>
         </is>
       </c>
       <c r="E507" t="n">
@@ -17609,7 +17609,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="n">
-        <v>17555</v>
+        <v>76</v>
       </c>
     </row>
     <row r="508">
@@ -17620,17 +17620,17 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/15</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>Municipalidad de Osorno</t>
+          <t>Municipalidad de Olmué</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>MU191</t>
+          <t>MU190</t>
         </is>
       </c>
       <c r="E508" t="n">
@@ -17643,7 +17643,7 @@
         <v>0</v>
       </c>
       <c r="H508" t="n">
-        <v>84503</v>
+        <v>17555</v>
       </c>
     </row>
     <row r="509">
@@ -17654,17 +17654,17 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>2024/07/18</t>
+          <t>2024/07/10</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>Municipalidad de Ovalle</t>
+          <t>Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>MU192</t>
+          <t>MU191</t>
         </is>
       </c>
       <c r="E509" t="n">
@@ -17677,7 +17677,7 @@
         <v>0</v>
       </c>
       <c r="H509" t="n">
-        <v>63216</v>
+        <v>84503</v>
       </c>
     </row>
     <row r="510">
@@ -17688,17 +17688,17 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/07/18</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>Municipalidad de Padre Hurtado</t>
+          <t>Municipalidad de Ovalle</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>MU193</t>
+          <t>MU192</t>
         </is>
       </c>
       <c r="E510" t="n">
@@ -17711,7 +17711,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="n">
-        <v>4764</v>
+        <v>63216</v>
       </c>
     </row>
     <row r="511">
@@ -17722,17 +17722,17 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>Municipalidad de Padre Las Casas</t>
+          <t>Municipalidad de Padre Hurtado</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>MU194</t>
+          <t>MU193</t>
         </is>
       </c>
       <c r="E511" t="n">
@@ -17745,7 +17745,7 @@
         <v>0</v>
       </c>
       <c r="H511" t="n">
-        <v>5323</v>
+        <v>4764</v>
       </c>
     </row>
     <row r="512">
@@ -17756,17 +17756,17 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>2024/07/19</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>Municipalidad de Paihuano</t>
+          <t>Municipalidad de Padre Las Casas</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>MU195</t>
+          <t>MU194</t>
         </is>
       </c>
       <c r="E512" t="n">
@@ -17779,7 +17779,7 @@
         <v>0</v>
       </c>
       <c r="H512" t="n">
-        <v>13451</v>
+        <v>5323</v>
       </c>
     </row>
     <row r="513">
@@ -17790,17 +17790,17 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/07/19</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>Municipalidad de Paillaco</t>
+          <t>Municipalidad de Paihuano</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>MU196</t>
+          <t>MU195</t>
         </is>
       </c>
       <c r="E513" t="n">
@@ -17813,7 +17813,7 @@
         <v>0</v>
       </c>
       <c r="H513" t="n">
-        <v>19175</v>
+        <v>13451</v>
       </c>
     </row>
     <row r="514">
@@ -17824,17 +17824,17 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>2024/07/03</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>Municipalidad de Palena</t>
+          <t>Municipalidad de Paillaco</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>MU198</t>
+          <t>MU196</t>
         </is>
       </c>
       <c r="E514" t="n">
@@ -17847,7 +17847,7 @@
         <v>0</v>
       </c>
       <c r="H514" t="n">
-        <v>4879</v>
+        <v>19175</v>
       </c>
     </row>
     <row r="515">
@@ -17858,17 +17858,17 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>2024/07/19</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>Municipalidad de Palmilla</t>
+          <t>Municipalidad de Palena</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>MU199</t>
+          <t>MU198</t>
         </is>
       </c>
       <c r="E515" t="n">
@@ -17881,7 +17881,7 @@
         <v>0</v>
       </c>
       <c r="H515" t="n">
-        <v>4968</v>
+        <v>4879</v>
       </c>
     </row>
     <row r="516">
@@ -17892,17 +17892,17 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/07/19</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>Municipalidad de Panguipulli</t>
+          <t>Municipalidad de Palmilla</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>MU200</t>
+          <t>MU199</t>
         </is>
       </c>
       <c r="E516" t="n">
@@ -17915,7 +17915,7 @@
         <v>0</v>
       </c>
       <c r="H516" t="n">
-        <v>1962</v>
+        <v>4968</v>
       </c>
     </row>
     <row r="517">
@@ -17926,17 +17926,17 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/07/15</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>Municipalidad de Panquehue</t>
+          <t>Municipalidad de Panguipulli</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>MU201</t>
+          <t>MU200</t>
         </is>
       </c>
       <c r="E517" t="n">
@@ -17949,7 +17949,7 @@
         <v>0</v>
       </c>
       <c r="H517" t="n">
-        <v>1061</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="518">
@@ -17960,17 +17960,17 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/07/11</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>Municipalidad de Papudo</t>
+          <t>Municipalidad de Panquehue</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>MU202</t>
+          <t>MU201</t>
         </is>
       </c>
       <c r="E518" t="n">
@@ -17983,7 +17983,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="n">
-        <v>10988</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="519">
@@ -17994,17 +17994,17 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/09</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>Municipalidad de Paredones</t>
+          <t>Municipalidad de Papudo</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>MU203</t>
+          <t>MU202</t>
         </is>
       </c>
       <c r="E519" t="n">
@@ -18017,7 +18017,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="n">
-        <v>6957</v>
+        <v>10988</v>
       </c>
     </row>
     <row r="520">
@@ -18028,17 +18028,17 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>Municipalidad de Parral</t>
+          <t>Municipalidad de Paredones</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>MU204</t>
+          <t>MU203</t>
         </is>
       </c>
       <c r="E520" t="n">
@@ -18051,7 +18051,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="n">
-        <v>46536</v>
+        <v>6958</v>
       </c>
     </row>
     <row r="521">
@@ -18067,12 +18067,12 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>Municipalidad de Pedro Aguirre Cerda</t>
+          <t>Municipalidad de Parral</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>MU205</t>
+          <t>MU204</t>
         </is>
       </c>
       <c r="E521" t="n">
@@ -18085,7 +18085,7 @@
         <v>0</v>
       </c>
       <c r="H521" t="n">
-        <v>67736</v>
+        <v>46536</v>
       </c>
     </row>
     <row r="522">
@@ -18096,17 +18096,17 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>2024/07/22</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>Municipalidad de Pelarco</t>
+          <t>Municipalidad de Pedro Aguirre Cerda</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>MU206</t>
+          <t>MU205</t>
         </is>
       </c>
       <c r="E522" t="n">
@@ -18119,7 +18119,7 @@
         <v>0</v>
       </c>
       <c r="H522" t="n">
-        <v>11226</v>
+        <v>67736</v>
       </c>
     </row>
     <row r="523">
@@ -18130,17 +18130,17 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/22</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>Municipalidad de Pelluhue</t>
+          <t>Municipalidad de Pelarco</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>MU207</t>
+          <t>MU206</t>
         </is>
       </c>
       <c r="E523" t="n">
@@ -18153,7 +18153,7 @@
         <v>0</v>
       </c>
       <c r="H523" t="n">
-        <v>22589</v>
+        <v>11226</v>
       </c>
     </row>
     <row r="524">
@@ -18169,12 +18169,12 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>Municipalidad de Pemuco</t>
+          <t>Municipalidad de Pelluhue</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>MU208</t>
+          <t>MU207</t>
         </is>
       </c>
       <c r="E524" t="n">
@@ -18187,7 +18187,7 @@
         <v>0</v>
       </c>
       <c r="H524" t="n">
-        <v>1695</v>
+        <v>22589</v>
       </c>
     </row>
     <row r="525">
@@ -18198,17 +18198,17 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>Municipalidad de Pencahue</t>
+          <t>Municipalidad de Pemuco</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>MU209</t>
+          <t>MU208</t>
         </is>
       </c>
       <c r="E525" t="n">
@@ -18221,7 +18221,7 @@
         <v>0</v>
       </c>
       <c r="H525" t="n">
-        <v>11666</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="526">
@@ -18232,17 +18232,17 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>2024/07/23</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Penco</t>
+          <t>Municipalidad de Pencahue</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>MU210</t>
+          <t>MU209</t>
         </is>
       </c>
       <c r="E526" t="n">
@@ -18255,7 +18255,7 @@
         <v>0</v>
       </c>
       <c r="H526" t="n">
-        <v>32966</v>
+        <v>11666</v>
       </c>
     </row>
     <row r="527">
@@ -18266,17 +18266,17 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/07/23</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>Municipalidad de Peñaflor</t>
+          <t>I. Municipalidad de Penco</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>MU211</t>
+          <t>MU210</t>
         </is>
       </c>
       <c r="E527" t="n">
@@ -18289,7 +18289,7 @@
         <v>0</v>
       </c>
       <c r="H527" t="n">
-        <v>56560</v>
+        <v>32966</v>
       </c>
     </row>
     <row r="528">
@@ -18300,17 +18300,17 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/07/11</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>Municipalidad de Peñalolén</t>
+          <t>Municipalidad de Peñaflor</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>MU212</t>
+          <t>MU211</t>
         </is>
       </c>
       <c r="E528" t="n">
@@ -18323,7 +18323,7 @@
         <v>0</v>
       </c>
       <c r="H528" t="n">
-        <v>1087</v>
+        <v>56560</v>
       </c>
     </row>
     <row r="529">
@@ -18334,17 +18334,17 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>2024/07/14</t>
+          <t>2024/07/08</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>Municipalidad de Peralillo</t>
+          <t>Municipalidad de Peñalolén</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>MU213</t>
+          <t>MU212</t>
         </is>
       </c>
       <c r="E529" t="n">
@@ -18357,7 +18357,7 @@
         <v>0</v>
       </c>
       <c r="H529" t="n">
-        <v>2533</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="530">
@@ -18368,17 +18368,17 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/14</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>Municipalidad de Perquenco</t>
+          <t>Municipalidad de Peralillo</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>MU214</t>
+          <t>MU213</t>
         </is>
       </c>
       <c r="E530" t="n">
@@ -18391,7 +18391,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="n">
-        <v>11847</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="531">
@@ -18402,17 +18402,17 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>2024/07/26</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>Municipalidad de Petorca</t>
+          <t>Municipalidad de Perquenco</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>MU215</t>
+          <t>MU214</t>
         </is>
       </c>
       <c r="E531" t="n">
@@ -18425,7 +18425,7 @@
         <v>0</v>
       </c>
       <c r="H531" t="n">
-        <v>2570</v>
+        <v>11847</v>
       </c>
     </row>
     <row r="532">
@@ -18436,17 +18436,17 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/07/26</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>Municipalidad de Peumo</t>
+          <t>Municipalidad de Petorca</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>MU216</t>
+          <t>MU215</t>
         </is>
       </c>
       <c r="E532" t="n">
@@ -18459,7 +18459,7 @@
         <v>0</v>
       </c>
       <c r="H532" t="n">
-        <v>18362</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="533">
@@ -18470,17 +18470,17 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>Municipalidad de Pica</t>
+          <t>Municipalidad de Peumo</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>MU217</t>
+          <t>MU216</t>
         </is>
       </c>
       <c r="E533" t="n">
@@ -18493,7 +18493,7 @@
         <v>0</v>
       </c>
       <c r="H533" t="n">
-        <v>16648</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="534">
@@ -18509,12 +18509,12 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>Municipalidad de Pichidegua</t>
+          <t>Municipalidad de Pica</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>MU218</t>
+          <t>MU217</t>
         </is>
       </c>
       <c r="E534" t="n">
@@ -18527,7 +18527,7 @@
         <v>0</v>
       </c>
       <c r="H534" t="n">
-        <v>22381</v>
+        <v>16648</v>
       </c>
     </row>
     <row r="535">
@@ -18543,12 +18543,12 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>Municipalidad de Pichilemu</t>
+          <t>Municipalidad de Pichidegua</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>MU219</t>
+          <t>MU218</t>
         </is>
       </c>
       <c r="E535" t="n">
@@ -18561,7 +18561,7 @@
         <v>0</v>
       </c>
       <c r="H535" t="n">
-        <v>34748</v>
+        <v>22381</v>
       </c>
     </row>
     <row r="536">
@@ -18572,17 +18572,17 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>2024/07/25</t>
+          <t>2024/07/11</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>Municipalidad de Pinto</t>
+          <t>Municipalidad de Pichilemu</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>MU220</t>
+          <t>MU219</t>
         </is>
       </c>
       <c r="E536" t="n">
@@ -18595,7 +18595,7 @@
         <v>0</v>
       </c>
       <c r="H536" t="n">
-        <v>18858</v>
+        <v>34748</v>
       </c>
     </row>
     <row r="537">
@@ -18606,17 +18606,17 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>Municipalidad de Pirque</t>
+          <t>Municipalidad de Pinto</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>MU221</t>
+          <t>MU220</t>
         </is>
       </c>
       <c r="E537" t="n">
@@ -18629,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="H537" t="n">
-        <v>166</v>
+        <v>18875</v>
       </c>
     </row>
     <row r="538">
@@ -18640,17 +18640,17 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>2024/07/26</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>Municipalidad de Pitrufquén</t>
+          <t>Municipalidad de Pirque</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>MU222</t>
+          <t>MU221</t>
         </is>
       </c>
       <c r="E538" t="n">
@@ -18663,7 +18663,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="n">
-        <v>24650</v>
+        <v>166</v>
       </c>
     </row>
     <row r="539">
@@ -18674,17 +18674,17 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/07/26</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>Municipalidad de Placilla</t>
+          <t>Municipalidad de Pitrufquén</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>MU223</t>
+          <t>MU222</t>
         </is>
       </c>
       <c r="E539" t="n">
@@ -18697,7 +18697,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="n">
-        <v>7103</v>
+        <v>24650</v>
       </c>
     </row>
     <row r="540">
@@ -18708,17 +18708,17 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>2024/07/18</t>
+          <t>2024/07/08</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>Municipalidad de Portezuelo</t>
+          <t>Municipalidad de Placilla</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>MU224</t>
+          <t>MU223</t>
         </is>
       </c>
       <c r="E540" t="n">
@@ -18731,7 +18731,7 @@
         <v>0</v>
       </c>
       <c r="H540" t="n">
-        <v>9529</v>
+        <v>7103</v>
       </c>
     </row>
     <row r="541">
@@ -18742,17 +18742,17 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/18</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>Municipalidad de Porvenir</t>
+          <t>Municipalidad de Portezuelo</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>MU225</t>
+          <t>MU224</t>
         </is>
       </c>
       <c r="E541" t="n">
@@ -18765,7 +18765,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="n">
-        <v>5946</v>
+        <v>9529</v>
       </c>
     </row>
     <row r="542">
@@ -18776,17 +18776,17 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>Municipalidad de Pozo Almonte</t>
+          <t>Municipalidad de Porvenir</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>MU226</t>
+          <t>MU225</t>
         </is>
       </c>
       <c r="E542" t="n">
@@ -18799,7 +18799,7 @@
         <v>0</v>
       </c>
       <c r="H542" t="n">
-        <v>3896</v>
+        <v>5946</v>
       </c>
     </row>
     <row r="543">
@@ -18810,17 +18810,17 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>Municipalidad de Primavera</t>
+          <t>Municipalidad de Pozo Almonte</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>MU227</t>
+          <t>MU226</t>
         </is>
       </c>
       <c r="E543" t="n">
@@ -18833,7 +18833,7 @@
         <v>0</v>
       </c>
       <c r="H543" t="n">
-        <v>1658</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="544">
@@ -18844,17 +18844,17 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>Municipalidad de Pucón</t>
+          <t>Municipalidad de Primavera</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>MU230</t>
+          <t>MU227</t>
         </is>
       </c>
       <c r="E544" t="n">
@@ -18867,7 +18867,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="n">
-        <v>41712</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="545">
@@ -18878,17 +18878,17 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/15</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>Municipalidad de Pudahuel</t>
+          <t>Municipalidad de Pucón</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>MU231</t>
+          <t>MU230</t>
         </is>
       </c>
       <c r="E545" t="n">
@@ -18901,7 +18901,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="n">
-        <v>285</v>
+        <v>41712</v>
       </c>
     </row>
     <row r="546">
@@ -18912,17 +18912,17 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/10</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>Municipalidad de Puente Alto</t>
+          <t>Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>MU232</t>
+          <t>MU231</t>
         </is>
       </c>
       <c r="E546" t="n">
@@ -18935,7 +18935,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="n">
-        <v>705</v>
+        <v>285</v>
       </c>
     </row>
     <row r="547">
@@ -18951,12 +18951,12 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>Municipalidad de Puerto Montt</t>
+          <t>Municipalidad de Puente Alto</t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>MU233</t>
+          <t>MU232</t>
         </is>
       </c>
       <c r="E547" t="n">
@@ -18969,7 +18969,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="n">
-        <v>240068</v>
+        <v>705</v>
       </c>
     </row>
     <row r="548">
@@ -18980,17 +18980,17 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>Municipalidad de Puerto Natales</t>
+          <t>Municipalidad de Puerto Montt</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>MU234</t>
+          <t>MU233</t>
         </is>
       </c>
       <c r="E548" t="n">
@@ -19003,7 +19003,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="n">
-        <v>1692</v>
+        <v>240068</v>
       </c>
     </row>
     <row r="549">
@@ -19014,17 +19014,17 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/07/09</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>Municipalidad de Puerto Octay</t>
+          <t>Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>MU235</t>
+          <t>MU234</t>
         </is>
       </c>
       <c r="E549" t="n">
@@ -19037,7 +19037,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="n">
-        <v>4986</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="550">
@@ -19048,17 +19048,17 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>2024/07/18</t>
+          <t>2024/07/11</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>Municipalidad de Puerto Varas</t>
+          <t>Municipalidad de Puerto Octay</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>MU236</t>
+          <t>MU235</t>
         </is>
       </c>
       <c r="E550" t="n">
@@ -19071,7 +19071,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="n">
-        <v>15993</v>
+        <v>4986</v>
       </c>
     </row>
     <row r="551">
@@ -19082,17 +19082,17 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/18</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>Municipalidad de Pumanque</t>
+          <t>Municipalidad de Puerto Varas</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>MU237</t>
+          <t>MU236</t>
         </is>
       </c>
       <c r="E551" t="n">
@@ -19105,7 +19105,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="n">
-        <v>3514</v>
+        <v>15993</v>
       </c>
     </row>
     <row r="552">
@@ -19116,17 +19116,17 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/07/10</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>Municipalidad de Punitaqui</t>
+          <t>Municipalidad de Pumanque</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>MU238</t>
+          <t>MU237</t>
         </is>
       </c>
       <c r="E552" t="n">
@@ -19139,7 +19139,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="n">
-        <v>17446</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="553">
@@ -19150,17 +19150,17 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>Municipalidad de Punta Arenas</t>
+          <t>Municipalidad de Punitaqui</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>MU239</t>
+          <t>MU238</t>
         </is>
       </c>
       <c r="E553" t="n">
@@ -19173,7 +19173,7 @@
         <v>0</v>
       </c>
       <c r="H553" t="n">
-        <v>4246</v>
+        <v>17446</v>
       </c>
     </row>
     <row r="554">
@@ -19184,17 +19184,17 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>Municipalidad de Puqueldón</t>
+          <t>Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>MU240</t>
+          <t>MU239</t>
         </is>
       </c>
       <c r="E554" t="n">
@@ -19207,7 +19207,7 @@
         <v>0</v>
       </c>
       <c r="H554" t="n">
-        <v>444</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="555">
@@ -19218,17 +19218,17 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>Municipalidad de Purranque</t>
+          <t>Municipalidad de Puqueldón</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>MU242</t>
+          <t>MU240</t>
         </is>
       </c>
       <c r="E555" t="n">
@@ -19241,7 +19241,7 @@
         <v>0</v>
       </c>
       <c r="H555" t="n">
-        <v>12974</v>
+        <v>444</v>
       </c>
     </row>
     <row r="556">
@@ -19252,17 +19252,17 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/11</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>Municipalidad de Putaendo</t>
+          <t>Municipalidad de Purranque</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>MU243</t>
+          <t>MU242</t>
         </is>
       </c>
       <c r="E556" t="n">
@@ -19275,7 +19275,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="n">
-        <v>19655</v>
+        <v>12974</v>
       </c>
     </row>
     <row r="557">
@@ -19286,17 +19286,17 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>2024/07/23</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>Municipalidad de Putre</t>
+          <t>Municipalidad de Putaendo</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>MU244</t>
+          <t>MU243</t>
         </is>
       </c>
       <c r="E557" t="n">
@@ -19309,7 +19309,7 @@
         <v>0</v>
       </c>
       <c r="H557" t="n">
-        <v>1174</v>
+        <v>19655</v>
       </c>
     </row>
     <row r="558">
@@ -19320,17 +19320,17 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/07/23</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>Municipalidad de Puyehue</t>
+          <t>Municipalidad de Putre</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>MU245</t>
+          <t>MU244</t>
         </is>
       </c>
       <c r="E558" t="n">
@@ -19343,7 +19343,7 @@
         <v>0</v>
       </c>
       <c r="H558" t="n">
-        <v>17603</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="559">
@@ -19354,17 +19354,17 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>Municipalidad de Queilén</t>
+          <t>Municipalidad de Puyehue</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>MU246</t>
+          <t>MU245</t>
         </is>
       </c>
       <c r="E559" t="n">
@@ -19377,7 +19377,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="n">
-        <v>1435</v>
+        <v>17603</v>
       </c>
     </row>
     <row r="560">
@@ -19388,17 +19388,17 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/07/08</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>Municipalidad de Quellón</t>
+          <t>Municipalidad de Queilén</t>
         </is>
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>MU247</t>
+          <t>MU246</t>
         </is>
       </c>
       <c r="E560" t="n">
@@ -19411,7 +19411,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="n">
-        <v>326</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="561">
@@ -19422,17 +19422,17 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/07/11</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>Municipalidad de Quemchi</t>
+          <t>Municipalidad de Quellón</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>MU248</t>
+          <t>MU247</t>
         </is>
       </c>
       <c r="E561" t="n">
@@ -19445,7 +19445,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="n">
-        <v>10750</v>
+        <v>326</v>
       </c>
     </row>
     <row r="562">
@@ -19456,17 +19456,17 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/09</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>Municipalidad de Quilaco</t>
+          <t>Municipalidad de Quemchi</t>
         </is>
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>MU249</t>
+          <t>MU248</t>
         </is>
       </c>
       <c r="E562" t="n">
@@ -19479,7 +19479,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="n">
-        <v>1098</v>
+        <v>10750</v>
       </c>
     </row>
     <row r="563">
@@ -19490,17 +19490,17 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/10</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>Municipalidad de Quilicura</t>
+          <t>Municipalidad de Quilaco</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>MU250</t>
+          <t>MU249</t>
         </is>
       </c>
       <c r="E563" t="n">
@@ -19513,7 +19513,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="n">
-        <v>91232</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="564">
@@ -19524,17 +19524,17 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>Municipalidad de Quilleco</t>
+          <t>Municipalidad de Quilicura</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>MU251</t>
+          <t>MU250</t>
         </is>
       </c>
       <c r="E564" t="n">
@@ -19547,7 +19547,7 @@
         <v>0</v>
       </c>
       <c r="H564" t="n">
-        <v>14866</v>
+        <v>91232</v>
       </c>
     </row>
     <row r="565">
@@ -19558,17 +19558,17 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>Municipalidad de Quillota</t>
+          <t>Municipalidad de Quilleco</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>MU253</t>
+          <t>MU251</t>
         </is>
       </c>
       <c r="E565" t="n">
@@ -19581,7 +19581,7 @@
         <v>0</v>
       </c>
       <c r="H565" t="n">
-        <v>46962</v>
+        <v>14866</v>
       </c>
     </row>
     <row r="566">
@@ -19597,12 +19597,12 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>Municipalidad de Quilpué</t>
+          <t>Municipalidad de Quillota</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>MU254</t>
+          <t>MU253</t>
         </is>
       </c>
       <c r="E566" t="n">
@@ -19615,7 +19615,7 @@
         <v>0</v>
       </c>
       <c r="H566" t="n">
-        <v>2332</v>
+        <v>46962</v>
       </c>
     </row>
     <row r="567">
@@ -19626,17 +19626,17 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/07/09</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>Municipalidad de Quinchao</t>
+          <t>Municipalidad de Quilpué</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>MU255</t>
+          <t>MU254</t>
         </is>
       </c>
       <c r="E567" t="n">
@@ -19649,7 +19649,7 @@
         <v>0</v>
       </c>
       <c r="H567" t="n">
-        <v>31</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="568">
@@ -19660,17 +19660,17 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>2024/06/24</t>
+          <t>2024/07/15</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>Municipalidad de Quinta Normal</t>
+          <t>Municipalidad de Quinchao</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>MU257</t>
+          <t>MU255</t>
         </is>
       </c>
       <c r="E568" t="n">
@@ -19683,7 +19683,7 @@
         <v>0</v>
       </c>
       <c r="H568" t="n">
-        <v>17477</v>
+        <v>31</v>
       </c>
     </row>
     <row r="569">
@@ -19694,17 +19694,17 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>Municipalidad de Quintero</t>
+          <t>Municipalidad de Quinta Normal</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>MU258</t>
+          <t>MU257</t>
         </is>
       </c>
       <c r="E569" t="n">
@@ -19717,7 +19717,7 @@
         <v>0</v>
       </c>
       <c r="H569" t="n">
-        <v>39074</v>
+        <v>17477</v>
       </c>
     </row>
     <row r="570">
@@ -19728,17 +19728,17 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/08</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>Municipalidad de Quirihue</t>
+          <t>Municipalidad de Quintero</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>MU259</t>
+          <t>MU258</t>
         </is>
       </c>
       <c r="E570" t="n">
@@ -19751,7 +19751,7 @@
         <v>0</v>
       </c>
       <c r="H570" t="n">
-        <v>25792</v>
+        <v>39074</v>
       </c>
     </row>
     <row r="571">
@@ -19762,17 +19762,17 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>Municipalidad de Rancagua</t>
+          <t>Municipalidad de Quirihue</t>
         </is>
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>MU260</t>
+          <t>MU259</t>
         </is>
       </c>
       <c r="E571" t="n">
@@ -19785,7 +19785,7 @@
         <v>0</v>
       </c>
       <c r="H571" t="n">
-        <v>921</v>
+        <v>25792</v>
       </c>
     </row>
     <row r="572">
@@ -19796,17 +19796,17 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>2024/07/25</t>
+          <t>2024/07/08</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>Municipalidad de Ránquil</t>
+          <t>Municipalidad de Rancagua</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>MU261</t>
+          <t>MU260</t>
         </is>
       </c>
       <c r="E572" t="n">
@@ -19819,7 +19819,7 @@
         <v>0</v>
       </c>
       <c r="H572" t="n">
-        <v>13197</v>
+        <v>921</v>
       </c>
     </row>
     <row r="573">
@@ -19830,17 +19830,17 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>2024/07/16</t>
+          <t>2024/07/25</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>Municipalidad de Rauco</t>
+          <t>Municipalidad de Ránquil</t>
         </is>
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>MU262</t>
+          <t>MU261</t>
         </is>
       </c>
       <c r="E573" t="n">
@@ -19853,7 +19853,7 @@
         <v>0</v>
       </c>
       <c r="H573" t="n">
-        <v>10450</v>
+        <v>13197</v>
       </c>
     </row>
     <row r="574">
@@ -19864,17 +19864,17 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>Municipalidad de Renaico</t>
+          <t>Municipalidad de Rauco</t>
         </is>
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>MU264</t>
+          <t>MU262</t>
         </is>
       </c>
       <c r="E574" t="n">
@@ -19887,7 +19887,7 @@
         <v>0</v>
       </c>
       <c r="H574" t="n">
-        <v>12877</v>
+        <v>10450</v>
       </c>
     </row>
     <row r="575">
@@ -19898,17 +19898,17 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>Municipalidad de Renca</t>
+          <t>Municipalidad de Renaico</t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>MU265</t>
+          <t>MU264</t>
         </is>
       </c>
       <c r="E575" t="n">
@@ -19921,7 +19921,7 @@
         <v>0</v>
       </c>
       <c r="H575" t="n">
-        <v>1524</v>
+        <v>12877</v>
       </c>
     </row>
     <row r="576">
@@ -19932,17 +19932,17 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>Municipalidad de Rengo</t>
+          <t>Municipalidad de Renca</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>MU266</t>
+          <t>MU265</t>
         </is>
       </c>
       <c r="E576" t="n">
@@ -19955,7 +19955,7 @@
         <v>0</v>
       </c>
       <c r="H576" t="n">
-        <v>89209</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="577">
@@ -19966,17 +19966,17 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/10</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>Municipalidad de Requínoa</t>
+          <t>Municipalidad de Rengo</t>
         </is>
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>MU267</t>
+          <t>MU266</t>
         </is>
       </c>
       <c r="E577" t="n">
@@ -19989,7 +19989,7 @@
         <v>0</v>
       </c>
       <c r="H577" t="n">
-        <v>25964</v>
+        <v>89209</v>
       </c>
     </row>
     <row r="578">
@@ -20000,17 +20000,17 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>Municipalidad de Retiro</t>
+          <t>Municipalidad de Requínoa</t>
         </is>
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>MU268</t>
+          <t>MU267</t>
         </is>
       </c>
       <c r="E578" t="n">
@@ -20023,7 +20023,7 @@
         <v>0</v>
       </c>
       <c r="H578" t="n">
-        <v>41856</v>
+        <v>25964</v>
       </c>
     </row>
     <row r="579">
@@ -20034,17 +20034,17 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>2024/07/22</t>
+          <t>2024/07/09</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>Municipalidad de Rinconada</t>
+          <t>Municipalidad de Retiro</t>
         </is>
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>MU269</t>
+          <t>MU268</t>
         </is>
       </c>
       <c r="E579" t="n">
@@ -20057,7 +20057,7 @@
         <v>0</v>
       </c>
       <c r="H579" t="n">
-        <v>2989</v>
+        <v>41856</v>
       </c>
     </row>
     <row r="580">
@@ -20068,17 +20068,17 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/22</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>Municipalidad de Rio Bueno</t>
+          <t>Municipalidad de Rinconada</t>
         </is>
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>MU270</t>
+          <t>MU269</t>
         </is>
       </c>
       <c r="E580" t="n">
@@ -20091,7 +20091,7 @@
         <v>0</v>
       </c>
       <c r="H580" t="n">
-        <v>30753</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="581">
@@ -20102,17 +20102,17 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>Municipalidad de Río Claro</t>
+          <t>Municipalidad de Rio Bueno</t>
         </is>
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>MU271</t>
+          <t>MU270</t>
         </is>
       </c>
       <c r="E581" t="n">
@@ -20125,7 +20125,7 @@
         <v>0</v>
       </c>
       <c r="H581" t="n">
-        <v>21222</v>
+        <v>31061</v>
       </c>
     </row>
     <row r="582">
@@ -20136,17 +20136,17 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>Municipalidad de Río Hurtado</t>
+          <t>Municipalidad de Río Claro</t>
         </is>
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>MU272</t>
+          <t>MU271</t>
         </is>
       </c>
       <c r="E582" t="n">
@@ -20159,7 +20159,7 @@
         <v>0</v>
       </c>
       <c r="H582" t="n">
-        <v>6620</v>
+        <v>21222</v>
       </c>
     </row>
     <row r="583">
@@ -20170,17 +20170,17 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>Municipalidad de Río Ibáñez</t>
+          <t>Municipalidad de Río Hurtado</t>
         </is>
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>MU273</t>
+          <t>MU272</t>
         </is>
       </c>
       <c r="E583" t="n">
@@ -20193,7 +20193,7 @@
         <v>0</v>
       </c>
       <c r="H583" t="n">
-        <v>5717</v>
+        <v>6744</v>
       </c>
     </row>
     <row r="584">
@@ -20204,17 +20204,17 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/11</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>Municipalidad de Río Negro</t>
+          <t>Municipalidad de Río Ibáñez</t>
         </is>
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>MU274</t>
+          <t>MU273</t>
         </is>
       </c>
       <c r="E584" t="n">
@@ -20227,7 +20227,7 @@
         <v>0</v>
       </c>
       <c r="H584" t="n">
-        <v>13198</v>
+        <v>5717</v>
       </c>
     </row>
     <row r="585">
@@ -20238,17 +20238,17 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>Municipalidad de Río Verde</t>
+          <t>Municipalidad de Río Negro</t>
         </is>
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>MU275</t>
+          <t>MU274</t>
         </is>
       </c>
       <c r="E585" t="n">
@@ -20261,7 +20261,7 @@
         <v>0</v>
       </c>
       <c r="H585" t="n">
-        <v>394</v>
+        <v>13198</v>
       </c>
     </row>
     <row r="586">
@@ -20272,17 +20272,17 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/11</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>Municipalidad de Romeral</t>
+          <t>Municipalidad de Río Verde</t>
         </is>
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>MU276</t>
+          <t>MU275</t>
         </is>
       </c>
       <c r="E586" t="n">
@@ -20295,7 +20295,7 @@
         <v>0</v>
       </c>
       <c r="H586" t="n">
-        <v>27657</v>
+        <v>394</v>
       </c>
     </row>
     <row r="587">
@@ -20306,17 +20306,17 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>2024/07/14</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>Municipalidad de Saavedra</t>
+          <t>Municipalidad de Romeral</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>MU277</t>
+          <t>MU276</t>
         </is>
       </c>
       <c r="E587" t="n">
@@ -20329,7 +20329,7 @@
         <v>0</v>
       </c>
       <c r="H587" t="n">
-        <v>4566</v>
+        <v>27657</v>
       </c>
     </row>
     <row r="588">
@@ -20340,17 +20340,17 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>2024/07/22</t>
+          <t>2024/07/14</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>Municipalidad de Sagrada Familia</t>
+          <t>Municipalidad de Saavedra</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>MU278</t>
+          <t>MU277</t>
         </is>
       </c>
       <c r="E588" t="n">
@@ -20363,7 +20363,7 @@
         <v>0</v>
       </c>
       <c r="H588" t="n">
-        <v>19607</v>
+        <v>4566</v>
       </c>
     </row>
     <row r="589">
@@ -20374,17 +20374,17 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/22</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>Municipalidad de Salamanca</t>
+          <t>Municipalidad de Sagrada Familia</t>
         </is>
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>MU279</t>
+          <t>MU278</t>
         </is>
       </c>
       <c r="E589" t="n">
@@ -20397,7 +20397,7 @@
         <v>0</v>
       </c>
       <c r="H589" t="n">
-        <v>23540</v>
+        <v>19607</v>
       </c>
     </row>
     <row r="590">
@@ -20408,17 +20408,17 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>2024/07/25</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>Municipalidad de San Antonio</t>
+          <t>Municipalidad de Salamanca</t>
         </is>
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>MU280</t>
+          <t>MU279</t>
         </is>
       </c>
       <c r="E590" t="n">
@@ -20431,7 +20431,7 @@
         <v>0</v>
       </c>
       <c r="H590" t="n">
-        <v>54248</v>
+        <v>23542</v>
       </c>
     </row>
     <row r="591">
@@ -20442,17 +20442,17 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/25</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>Municipalidad de San Bernardo</t>
+          <t>Municipalidad de San Antonio</t>
         </is>
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>MU281</t>
+          <t>MU280</t>
         </is>
       </c>
       <c r="E591" t="n">
@@ -20465,7 +20465,7 @@
         <v>0</v>
       </c>
       <c r="H591" t="n">
-        <v>2133</v>
+        <v>54248</v>
       </c>
     </row>
     <row r="592">
@@ -20476,17 +20476,17 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>2024/07/22</t>
+          <t>2024/07/10</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>Municipalidad de San Carlos</t>
+          <t>Municipalidad de San Bernardo</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>MU282</t>
+          <t>MU281</t>
         </is>
       </c>
       <c r="E592" t="n">
@@ -20499,7 +20499,7 @@
         <v>0</v>
       </c>
       <c r="H592" t="n">
-        <v>38417</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="593">
@@ -20510,17 +20510,17 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/22</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>Municipalidad de San Clemente</t>
+          <t>Municipalidad de San Carlos</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>MU283</t>
+          <t>MU282</t>
         </is>
       </c>
       <c r="E593" t="n">
@@ -20533,7 +20533,7 @@
         <v>0</v>
       </c>
       <c r="H593" t="n">
-        <v>70768</v>
+        <v>38417</v>
       </c>
     </row>
     <row r="594">
@@ -20544,17 +20544,17 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>2024/07/25</t>
+          <t>2024/07/10</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>Municipalidad de San Esteban</t>
+          <t>Municipalidad de San Clemente</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>MU284</t>
+          <t>MU283</t>
         </is>
       </c>
       <c r="E594" t="n">
@@ -20567,7 +20567,7 @@
         <v>0</v>
       </c>
       <c r="H594" t="n">
-        <v>17025</v>
+        <v>70768</v>
       </c>
     </row>
     <row r="595">
@@ -20578,17 +20578,17 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/07/25</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>Municipalidad de San Fabián</t>
+          <t>Municipalidad de San Esteban</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>MU285</t>
+          <t>MU284</t>
         </is>
       </c>
       <c r="E595" t="n">
@@ -20601,7 +20601,7 @@
         <v>0</v>
       </c>
       <c r="H595" t="n">
-        <v>11738</v>
+        <v>17025</v>
       </c>
     </row>
     <row r="596">
@@ -20612,17 +20612,17 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/11</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>Municipalidad de San Felipe</t>
+          <t>Municipalidad de San Fabián</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>MU286</t>
+          <t>MU285</t>
         </is>
       </c>
       <c r="E596" t="n">
@@ -20635,7 +20635,7 @@
         <v>0</v>
       </c>
       <c r="H596" t="n">
-        <v>81508</v>
+        <v>11738</v>
       </c>
     </row>
     <row r="597">
@@ -20651,12 +20651,12 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>Municipalidad de San Fernando</t>
+          <t>Municipalidad de San Felipe</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>MU287</t>
+          <t>MU286</t>
         </is>
       </c>
       <c r="E597" t="n">
@@ -20669,7 +20669,7 @@
         <v>0</v>
       </c>
       <c r="H597" t="n">
-        <v>221</v>
+        <v>81508</v>
       </c>
     </row>
     <row r="598">
@@ -20685,12 +20685,12 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>Municipalidad de San Gregorio</t>
+          <t>Municipalidad de San Fernando</t>
         </is>
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>MU288</t>
+          <t>MU287</t>
         </is>
       </c>
       <c r="E598" t="n">
@@ -20703,7 +20703,7 @@
         <v>0</v>
       </c>
       <c r="H598" t="n">
-        <v>763</v>
+        <v>221</v>
       </c>
     </row>
     <row r="599">
@@ -20714,17 +20714,17 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>2024/07/24</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>Municipalidad de San Ignacio</t>
+          <t>Municipalidad de San Gregorio</t>
         </is>
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>MU289</t>
+          <t>MU288</t>
         </is>
       </c>
       <c r="E599" t="n">
@@ -20737,7 +20737,7 @@
         <v>0</v>
       </c>
       <c r="H599" t="n">
-        <v>23158</v>
+        <v>763</v>
       </c>
     </row>
     <row r="600">
@@ -20748,17 +20748,17 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/24</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>Municipalidad de San Javier</t>
+          <t>Municipalidad de San Ignacio</t>
         </is>
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>MU290</t>
+          <t>MU289</t>
         </is>
       </c>
       <c r="E600" t="n">
@@ -20771,7 +20771,7 @@
         <v>0</v>
       </c>
       <c r="H600" t="n">
-        <v>44156</v>
+        <v>23158</v>
       </c>
     </row>
     <row r="601">
@@ -20787,12 +20787,12 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>Municipalidad de San Joaquín</t>
+          <t>Municipalidad de San Javier</t>
         </is>
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>MU291</t>
+          <t>MU290</t>
         </is>
       </c>
       <c r="E601" t="n">
@@ -20805,7 +20805,7 @@
         <v>0</v>
       </c>
       <c r="H601" t="n">
-        <v>794</v>
+        <v>44156</v>
       </c>
     </row>
     <row r="602">
@@ -20821,12 +20821,12 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>Municipalidad de San José de Maipo</t>
+          <t>Municipalidad de San Joaquín</t>
         </is>
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>MU292</t>
+          <t>MU291</t>
         </is>
       </c>
       <c r="E602" t="n">
@@ -20839,7 +20839,7 @@
         <v>0</v>
       </c>
       <c r="H602" t="n">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="603">
@@ -20855,12 +20855,12 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>Municipalidad de San Juan de la Costa</t>
+          <t>Municipalidad de San José de Maipo</t>
         </is>
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>MU293</t>
+          <t>MU292</t>
         </is>
       </c>
       <c r="E603" t="n">
@@ -20873,7 +20873,7 @@
         <v>0</v>
       </c>
       <c r="H603" t="n">
-        <v>12610</v>
+        <v>792</v>
       </c>
     </row>
     <row r="604">
@@ -20884,17 +20884,17 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/10</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>Municipalidad de San Miguel</t>
+          <t>Municipalidad de San Juan de la Costa</t>
         </is>
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>MU294</t>
+          <t>MU293</t>
         </is>
       </c>
       <c r="E604" t="n">
@@ -20907,7 +20907,7 @@
         <v>0</v>
       </c>
       <c r="H604" t="n">
-        <v>45</v>
+        <v>12610</v>
       </c>
     </row>
     <row r="605">
@@ -20918,17 +20918,17 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>Municipalidad de San Nicolás</t>
+          <t>Municipalidad de San Miguel</t>
         </is>
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>MU295</t>
+          <t>MU294</t>
         </is>
       </c>
       <c r="E605" t="n">
@@ -20941,7 +20941,7 @@
         <v>0</v>
       </c>
       <c r="H605" t="n">
-        <v>16825</v>
+        <v>45</v>
       </c>
     </row>
     <row r="606">
@@ -20952,17 +20952,17 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/07/08</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>Municipalidad de San Pablo</t>
+          <t>Municipalidad de San Nicolás</t>
         </is>
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>MU296</t>
+          <t>MU295</t>
         </is>
       </c>
       <c r="E606" t="n">
@@ -20975,7 +20975,7 @@
         <v>0</v>
       </c>
       <c r="H606" t="n">
-        <v>8796</v>
+        <v>16825</v>
       </c>
     </row>
     <row r="607">
@@ -20986,17 +20986,17 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>Municipalidad de San Pedro</t>
+          <t>Municipalidad de San Pablo</t>
         </is>
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>MU297</t>
+          <t>MU296</t>
         </is>
       </c>
       <c r="E607" t="n">
@@ -21009,7 +21009,7 @@
         <v>0</v>
       </c>
       <c r="H607" t="n">
-        <v>14026</v>
+        <v>8796</v>
       </c>
     </row>
     <row r="608">
@@ -21020,17 +21020,17 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/09</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>Municipalidad de San Pedro De La Paz</t>
+          <t>Municipalidad de San Pedro</t>
         </is>
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>MU299</t>
+          <t>MU297</t>
         </is>
       </c>
       <c r="E608" t="n">
@@ -21043,7 +21043,7 @@
         <v>0</v>
       </c>
       <c r="H608" t="n">
-        <v>70333</v>
+        <v>14026</v>
       </c>
     </row>
     <row r="609">
@@ -21054,17 +21054,17 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>Municipalidad de San Ramón</t>
+          <t>Municipalidad de San Pedro De La Paz</t>
         </is>
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>MU301</t>
+          <t>MU299</t>
         </is>
       </c>
       <c r="E609" t="n">
@@ -21077,7 +21077,7 @@
         <v>0</v>
       </c>
       <c r="H609" t="n">
-        <v>38866</v>
+        <v>70333</v>
       </c>
     </row>
     <row r="610">
@@ -21088,17 +21088,17 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>2024/06/29</t>
+          <t>2024/07/11</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>Municipalidad de San Rosendo</t>
+          <t>Municipalidad de San Ramón</t>
         </is>
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>MU302</t>
+          <t>MU301</t>
         </is>
       </c>
       <c r="E610" t="n">
@@ -21111,7 +21111,7 @@
         <v>0</v>
       </c>
       <c r="H610" t="n">
-        <v>4057</v>
+        <v>38866</v>
       </c>
     </row>
     <row r="611">
@@ -21122,17 +21122,17 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/06/29</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>Municipalidad de San Vicente de Tagua Tagua</t>
+          <t>Municipalidad de San Rosendo</t>
         </is>
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>MU303</t>
+          <t>MU302</t>
         </is>
       </c>
       <c r="E611" t="n">
@@ -21145,7 +21145,7 @@
         <v>0</v>
       </c>
       <c r="H611" t="n">
-        <v>2930</v>
+        <v>4057</v>
       </c>
     </row>
     <row r="612">
@@ -21161,12 +21161,12 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>Municipalidad de Santa Juana</t>
+          <t>Municipalidad de San Vicente de Tagua Tagua</t>
         </is>
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>MU306</t>
+          <t>MU303</t>
         </is>
       </c>
       <c r="E612" t="n">
@@ -21179,7 +21179,7 @@
         <v>0</v>
       </c>
       <c r="H612" t="n">
-        <v>19650</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="613">
@@ -21190,17 +21190,17 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>Municipalidad de Santa María</t>
+          <t>Municipalidad de Santa Juana</t>
         </is>
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>MU307</t>
+          <t>MU306</t>
         </is>
       </c>
       <c r="E613" t="n">
@@ -21213,7 +21213,7 @@
         <v>0</v>
       </c>
       <c r="H613" t="n">
-        <v>4357</v>
+        <v>19650</v>
       </c>
     </row>
     <row r="614">
@@ -21224,17 +21224,17 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>2024/07/13</t>
+          <t>2024/07/15</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>Municipalidad de Santiago</t>
+          <t>Municipalidad de Santa María</t>
         </is>
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>MU308</t>
+          <t>MU307</t>
         </is>
       </c>
       <c r="E614" t="n">
@@ -21247,7 +21247,7 @@
         <v>0</v>
       </c>
       <c r="H614" t="n">
-        <v>184267</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="615">
@@ -21258,17 +21258,17 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/07/13</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>Municipalidad de Santo Domingo</t>
+          <t>Municipalidad de Santiago</t>
         </is>
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>MU309</t>
+          <t>MU308</t>
         </is>
       </c>
       <c r="E615" t="n">
@@ -21281,7 +21281,7 @@
         <v>0</v>
       </c>
       <c r="H615" t="n">
-        <v>17343</v>
+        <v>184267</v>
       </c>
     </row>
     <row r="616">
@@ -21292,17 +21292,17 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/07/11</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>Municipalidad de Sierra Gorda</t>
+          <t>Municipalidad de Santo Domingo</t>
         </is>
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>MU310</t>
+          <t>MU309</t>
         </is>
       </c>
       <c r="E616" t="n">
@@ -21315,7 +21315,7 @@
         <v>0</v>
       </c>
       <c r="H616" t="n">
-        <v>4464</v>
+        <v>17343</v>
       </c>
     </row>
     <row r="617">
@@ -21326,17 +21326,17 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>Municipalidad de Talagante</t>
+          <t>Municipalidad de Sierra Gorda</t>
         </is>
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>MU311</t>
+          <t>MU310</t>
         </is>
       </c>
       <c r="E617" t="n">
@@ -21349,7 +21349,7 @@
         <v>0</v>
       </c>
       <c r="H617" t="n">
-        <v>2318</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="618">
@@ -21360,17 +21360,17 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/09</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>Municipalidad de Talca</t>
+          <t>Municipalidad de Talagante</t>
         </is>
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>MU312</t>
+          <t>MU311</t>
         </is>
       </c>
       <c r="E618" t="n">
@@ -21383,7 +21383,7 @@
         <v>0</v>
       </c>
       <c r="H618" t="n">
-        <v>189454</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="619">
@@ -21394,17 +21394,17 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>Municipalidad de Talcahuano</t>
+          <t>Municipalidad de Talca</t>
         </is>
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>MU313</t>
+          <t>MU312</t>
         </is>
       </c>
       <c r="E619" t="n">
@@ -21417,7 +21417,7 @@
         <v>0</v>
       </c>
       <c r="H619" t="n">
-        <v>87165</v>
+        <v>189454</v>
       </c>
     </row>
     <row r="620">
@@ -21428,17 +21428,17 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>2024/07/25</t>
+          <t>2024/07/11</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>Municipalidad de Taltal</t>
+          <t>Municipalidad de Talcahuano</t>
         </is>
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>MU314</t>
+          <t>MU313</t>
         </is>
       </c>
       <c r="E620" t="n">
@@ -21451,7 +21451,7 @@
         <v>0</v>
       </c>
       <c r="H620" t="n">
-        <v>41320</v>
+        <v>87165</v>
       </c>
     </row>
     <row r="621">
@@ -21462,17 +21462,17 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/07/25</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>Municipalidad de Teno</t>
+          <t>Municipalidad de Taltal</t>
         </is>
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>MU316</t>
+          <t>MU314</t>
         </is>
       </c>
       <c r="E621" t="n">
@@ -21485,7 +21485,7 @@
         <v>0</v>
       </c>
       <c r="H621" t="n">
-        <v>35874</v>
+        <v>41320</v>
       </c>
     </row>
     <row r="622">
@@ -21496,17 +21496,17 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/11</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>Municipalidad de Teodoro Schmidt</t>
+          <t>Municipalidad de Teno</t>
         </is>
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>MU317</t>
+          <t>MU316</t>
         </is>
       </c>
       <c r="E622" t="n">
@@ -21519,7 +21519,7 @@
         <v>0</v>
       </c>
       <c r="H622" t="n">
-        <v>2634</v>
+        <v>35874</v>
       </c>
     </row>
     <row r="623">
@@ -21530,17 +21530,17 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/07/10</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>Municipalidad de Tierra Amarilla</t>
+          <t>Municipalidad de Teodoro Schmidt</t>
         </is>
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>MU318</t>
+          <t>MU317</t>
         </is>
       </c>
       <c r="E623" t="n">
@@ -21553,7 +21553,7 @@
         <v>0</v>
       </c>
       <c r="H623" t="n">
-        <v>13411</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="624">
@@ -21564,17 +21564,17 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>Municipalidad de Tiltil</t>
+          <t>Municipalidad de Tierra Amarilla</t>
         </is>
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>MU319</t>
+          <t>MU318</t>
         </is>
       </c>
       <c r="E624" t="n">
@@ -21587,7 +21587,7 @@
         <v>0</v>
       </c>
       <c r="H624" t="n">
-        <v>688</v>
+        <v>13411</v>
       </c>
     </row>
     <row r="625">
@@ -21598,17 +21598,17 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/07/09</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>Municipalidad de Timaukel</t>
+          <t>Municipalidad de Tiltil</t>
         </is>
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>MU320</t>
+          <t>MU319</t>
         </is>
       </c>
       <c r="E625" t="n">
@@ -21621,7 +21621,7 @@
         <v>0</v>
       </c>
       <c r="H625" t="n">
-        <v>932</v>
+        <v>688</v>
       </c>
     </row>
     <row r="626">
@@ -21632,17 +21632,17 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>Municipalidad de Tirúa</t>
+          <t>Municipalidad de Timaukel</t>
         </is>
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>MU321</t>
+          <t>MU320</t>
         </is>
       </c>
       <c r="E626" t="n">
@@ -21655,7 +21655,7 @@
         <v>0</v>
       </c>
       <c r="H626" t="n">
-        <v>22950</v>
+        <v>932</v>
       </c>
     </row>
     <row r="627">
@@ -21671,12 +21671,12 @@
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>Municipalidad de Tocopilla</t>
+          <t>Municipalidad de Tirúa</t>
         </is>
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>MU322</t>
+          <t>MU321</t>
         </is>
       </c>
       <c r="E627" t="n">
@@ -21689,7 +21689,7 @@
         <v>0</v>
       </c>
       <c r="H627" t="n">
-        <v>49398</v>
+        <v>22950</v>
       </c>
     </row>
     <row r="628">
@@ -21700,17 +21700,17 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>2024/07/19</t>
+          <t>2024/07/10</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>Municipalidad de Toltén</t>
+          <t>Municipalidad de Tocopilla</t>
         </is>
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>MU323</t>
+          <t>MU322</t>
         </is>
       </c>
       <c r="E628" t="n">
@@ -21723,7 +21723,7 @@
         <v>0</v>
       </c>
       <c r="H628" t="n">
-        <v>1904</v>
+        <v>49398</v>
       </c>
     </row>
     <row r="629">
@@ -21734,17 +21734,17 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/07/19</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>Municipalidad de Tome</t>
+          <t>Municipalidad de Toltén</t>
         </is>
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>MU324</t>
+          <t>MU323</t>
         </is>
       </c>
       <c r="E629" t="n">
@@ -21757,7 +21757,7 @@
         <v>0</v>
       </c>
       <c r="H629" t="n">
-        <v>136883</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="630">
@@ -21768,17 +21768,17 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>2024/07/04</t>
+          <t>2024/07/15</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>Municipalidad de Torres del Paine</t>
+          <t>Municipalidad de Tome</t>
         </is>
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>MU325</t>
+          <t>MU324</t>
         </is>
       </c>
       <c r="E630" t="n">
@@ -21791,7 +21791,7 @@
         <v>0</v>
       </c>
       <c r="H630" t="n">
-        <v>2568</v>
+        <v>136883</v>
       </c>
     </row>
     <row r="631">
@@ -21802,17 +21802,17 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>Municipalidad de Tortel</t>
+          <t>Municipalidad de Torres del Paine</t>
         </is>
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>MU326</t>
+          <t>MU325</t>
         </is>
       </c>
       <c r="E631" t="n">
@@ -21825,7 +21825,7 @@
         <v>0</v>
       </c>
       <c r="H631" t="n">
-        <v>3598</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="632">
@@ -21841,12 +21841,12 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>Municipalidad de Traiguén</t>
+          <t>Municipalidad de Tortel</t>
         </is>
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>MU327</t>
+          <t>MU326</t>
         </is>
       </c>
       <c r="E632" t="n">
@@ -21859,7 +21859,7 @@
         <v>0</v>
       </c>
       <c r="H632" t="n">
-        <v>45780</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="633">
@@ -21870,17 +21870,17 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>2024/07/22</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>Municipalidad de Trehuaco</t>
+          <t>Municipalidad de Traiguén</t>
         </is>
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>MU328</t>
+          <t>MU327</t>
         </is>
       </c>
       <c r="E633" t="n">
@@ -21893,7 +21893,7 @@
         <v>0</v>
       </c>
       <c r="H633" t="n">
-        <v>8026</v>
+        <v>45780</v>
       </c>
     </row>
     <row r="634">
@@ -21904,17 +21904,17 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>2024/07/18</t>
+          <t>2024/07/22</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>Municipalidad de Tucapel</t>
+          <t>Municipalidad de Trehuaco</t>
         </is>
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>MU329</t>
+          <t>MU328</t>
         </is>
       </c>
       <c r="E634" t="n">
@@ -21927,7 +21927,7 @@
         <v>0</v>
       </c>
       <c r="H634" t="n">
-        <v>15775</v>
+        <v>8026</v>
       </c>
     </row>
     <row r="635">
@@ -21938,17 +21938,17 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/18</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>Municipalidad de Valdivia</t>
+          <t>Municipalidad de Tucapel</t>
         </is>
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>MU330</t>
+          <t>MU329</t>
         </is>
       </c>
       <c r="E635" t="n">
@@ -21961,7 +21961,7 @@
         <v>0</v>
       </c>
       <c r="H635" t="n">
-        <v>2117</v>
+        <v>15775</v>
       </c>
     </row>
     <row r="636">
@@ -21972,17 +21972,17 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>2019/12/19</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>Municipalidad de Vallenar</t>
+          <t>Municipalidad de Valdivia</t>
         </is>
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>MU331</t>
+          <t>MU330</t>
         </is>
       </c>
       <c r="E636" t="n">
@@ -21995,7 +21995,7 @@
         <v>0</v>
       </c>
       <c r="H636" t="n">
-        <v>171</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="637">
@@ -22006,17 +22006,17 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2019/12/19</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>Municipalidad de Valparaíso</t>
+          <t>Municipalidad de Vallenar</t>
         </is>
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>MU332</t>
+          <t>MU331</t>
         </is>
       </c>
       <c r="E637" t="n">
@@ -22029,7 +22029,7 @@
         <v>0</v>
       </c>
       <c r="H637" t="n">
-        <v>18291</v>
+        <v>171</v>
       </c>
     </row>
     <row r="638">
@@ -22040,17 +22040,17 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/07/08</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>Municipalidad de Vichuquén</t>
+          <t>Municipalidad de Valparaíso</t>
         </is>
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>MU333</t>
+          <t>MU332</t>
         </is>
       </c>
       <c r="E638" t="n">
@@ -22063,7 +22063,7 @@
         <v>0</v>
       </c>
       <c r="H638" t="n">
-        <v>6701</v>
+        <v>18291</v>
       </c>
     </row>
     <row r="639">
@@ -22074,17 +22074,17 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>2017/03/09</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>Municipalidad de Vicuña</t>
+          <t>Municipalidad de Vichuquén</t>
         </is>
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>MU335</t>
+          <t>MU333</t>
         </is>
       </c>
       <c r="E639" t="n">
@@ -22097,7 +22097,7 @@
         <v>0</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>6701</v>
       </c>
     </row>
     <row r="640">
@@ -22108,17 +22108,17 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2017/03/09</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>Municipalidad de Vilcún</t>
+          <t>Municipalidad de Vicuña</t>
         </is>
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>MU336</t>
+          <t>MU335</t>
         </is>
       </c>
       <c r="E640" t="n">
@@ -22131,7 +22131,7 @@
         <v>0</v>
       </c>
       <c r="H640" t="n">
-        <v>27180</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641">
@@ -22142,17 +22142,17 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>Municipalidad de Villa Alegre</t>
+          <t>Municipalidad de Vilcún</t>
         </is>
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>MU337</t>
+          <t>MU336</t>
         </is>
       </c>
       <c r="E641" t="n">
@@ -22165,7 +22165,7 @@
         <v>0</v>
       </c>
       <c r="H641" t="n">
-        <v>22996</v>
+        <v>27180</v>
       </c>
     </row>
     <row r="642">
@@ -22176,17 +22176,17 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/09</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>Municipalidad de Villa Alemana</t>
+          <t>Municipalidad de Villa Alegre</t>
         </is>
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>MU338</t>
+          <t>MU337</t>
         </is>
       </c>
       <c r="E642" t="n">
@@ -22199,7 +22199,7 @@
         <v>0</v>
       </c>
       <c r="H642" t="n">
-        <v>262</v>
+        <v>22996</v>
       </c>
     </row>
     <row r="643">
@@ -22210,17 +22210,17 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/07/10</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>Municipalidad de Villarrica</t>
+          <t>Municipalidad de Villa Alemana</t>
         </is>
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>MU339</t>
+          <t>MU338</t>
         </is>
       </c>
       <c r="E643" t="n">
@@ -22233,7 +22233,7 @@
         <v>0</v>
       </c>
       <c r="H643" t="n">
-        <v>45278</v>
+        <v>262</v>
       </c>
     </row>
     <row r="644">
@@ -22244,17 +22244,17 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/11</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>Municipalidad de Viña del Mar</t>
+          <t>Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>MU340</t>
+          <t>MU339</t>
         </is>
       </c>
       <c r="E644" t="n">
@@ -22267,7 +22267,7 @@
         <v>0</v>
       </c>
       <c r="H644" t="n">
-        <v>6280</v>
+        <v>45278</v>
       </c>
     </row>
     <row r="645">
@@ -22278,17 +22278,17 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>Municipalidad de Vitacura</t>
+          <t>Municipalidad de Viña del Mar</t>
         </is>
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>MU341</t>
+          <t>MU340</t>
         </is>
       </c>
       <c r="E645" t="n">
@@ -22301,7 +22301,7 @@
         <v>0</v>
       </c>
       <c r="H645" t="n">
-        <v>1211</v>
+        <v>6280</v>
       </c>
     </row>
     <row r="646">
@@ -22312,17 +22312,17 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/07/11</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>Municipalidad de Yerbas Buenas</t>
+          <t>Municipalidad de Vitacura</t>
         </is>
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>MU342</t>
+          <t>MU341</t>
         </is>
       </c>
       <c r="E646" t="n">
@@ -22335,7 +22335,7 @@
         <v>0</v>
       </c>
       <c r="H646" t="n">
-        <v>16417</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="647">
@@ -22346,17 +22346,17 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/07/15</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>Municipalidad de Yumbel</t>
+          <t>Municipalidad de Yerbas Buenas</t>
         </is>
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>MU343</t>
+          <t>MU342</t>
         </is>
       </c>
       <c r="E647" t="n">
@@ -22369,7 +22369,7 @@
         <v>0</v>
       </c>
       <c r="H647" t="n">
-        <v>23945</v>
+        <v>16417</v>
       </c>
     </row>
     <row r="648">
@@ -22380,17 +22380,17 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/07/11</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>Municipalidad de Yungay</t>
+          <t>Municipalidad de Yumbel</t>
         </is>
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>MU344</t>
+          <t>MU343</t>
         </is>
       </c>
       <c r="E648" t="n">
@@ -22403,7 +22403,7 @@
         <v>0</v>
       </c>
       <c r="H648" t="n">
-        <v>25036</v>
+        <v>23945</v>
       </c>
     </row>
     <row r="649">
@@ -22414,17 +22414,17 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>Municipalidad de Zapallar</t>
+          <t>Municipalidad de Yungay</t>
         </is>
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>MU345</t>
+          <t>MU344</t>
         </is>
       </c>
       <c r="E649" t="n">
@@ -22437,7 +22437,7 @@
         <v>0</v>
       </c>
       <c r="H649" t="n">
-        <v>24676</v>
+        <v>25036</v>
       </c>
     </row>
     <row r="650">
@@ -22453,24 +22453,58 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
+          <t>Municipalidad de Zapallar</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>MU345</t>
+        </is>
+      </c>
+      <c r="E650" t="n">
+        <v>0</v>
+      </c>
+      <c r="F650" t="n">
+        <v>0</v>
+      </c>
+      <c r="G650" t="n">
+        <v>0</v>
+      </c>
+      <c r="H650" t="n">
+        <v>24676</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>2024/07/12</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
           <t>Universidad de Aysén</t>
         </is>
       </c>
-      <c r="D650" t="inlineStr">
+      <c r="D651" t="inlineStr">
         <is>
           <t>UN017</t>
         </is>
       </c>
-      <c r="E650" t="n">
-        <v>0</v>
-      </c>
-      <c r="F650" t="n">
-        <v>0</v>
-      </c>
-      <c r="G650" t="n">
-        <v>0</v>
-      </c>
-      <c r="H650" t="n">
+      <c r="E651" t="n">
+        <v>0</v>
+      </c>
+      <c r="F651" t="n">
+        <v>0</v>
+      </c>
+      <c r="G651" t="n">
+        <v>0</v>
+      </c>
+      <c r="H651" t="n">
         <v>132</v>
       </c>
     </row>

--- a/consolidado_historico4.xlsx
+++ b/consolidado_historico4.xlsx
@@ -518,7 +518,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024/08/22</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -586,7 +586,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024/08/07</t>
+          <t>2024/09/06</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
@@ -688,7 +688,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024/08/07</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
@@ -892,7 +892,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024/08/24</t>
+          <t>2024/09/03</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/02</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>41552</v>
+        <v>42584</v>
       </c>
     </row>
     <row r="41">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2024/08/29</t>
+          <t>2024/09/04</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>54860</v>
+        <v>55885</v>
       </c>
     </row>
     <row r="49">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>3443</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="50">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2024/08/02</t>
+          <t>2024/09/03</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2024/08/01</t>
+          <t>2024/09/01</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2717,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>13508</v>
+        <v>13511</v>
       </c>
     </row>
     <row r="70">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/09/03</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2024/08/07</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>15127</v>
+        <v>15132</v>
       </c>
     </row>
     <row r="72">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2024/08/07</t>
+          <t>2024/09/04</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2024/08/06</t>
+          <t>2024/09/03</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>27477</v>
+        <v>27491</v>
       </c>
     </row>
     <row r="77">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>16171</v>
+        <v>16180</v>
       </c>
     </row>
     <row r="80">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2024/08/21</t>
+          <t>2024/09/04</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>9904</v>
+        <v>9905</v>
       </c>
     </row>
     <row r="82">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/03</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2024/07/24</t>
+          <t>2024/08/31</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>1912</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="102">
@@ -3952,7 +3952,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2024/08/20</t>
+          <t>2024/09/04</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2024/08/19</t>
+          <t>2024/09/02</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2024/08/23</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>161124</v>
+        <v>161299</v>
       </c>
     </row>
     <row r="139">
@@ -5618,7 +5618,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/09/04</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5641,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>2018</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="156">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2024/08/08</t>
+          <t>2024/09/04</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>439</v>
+        <v>450</v>
       </c>
     </row>
     <row r="158">
@@ -5890,7 +5890,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2024/08/05</t>
+          <t>2024/09/02</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -6026,7 +6026,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2024/08/07</t>
+          <t>2024/09/06</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>412</v>
+        <v>514</v>
       </c>
     </row>
     <row r="168">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2024/08/05</t>
+          <t>2024/09/03</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6185,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>1375</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="172">
@@ -6366,7 +6366,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2024/08/30</t>
+          <t>2024/09/02</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6389,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="H177" t="n">
-        <v>393</v>
+        <v>408</v>
       </c>
     </row>
     <row r="178">
@@ -6400,7 +6400,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/09/03</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6423,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>3971</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="179">
@@ -6502,7 +6502,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/06</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6525,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2024/08/05</t>
+          <t>2024/09/03</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6593,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="H183" t="n">
-        <v>342</v>
+        <v>361</v>
       </c>
     </row>
     <row r="184">
@@ -6672,7 +6672,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6695,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>619</v>
+        <v>632</v>
       </c>
     </row>
     <row r="187">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2024/07/19</t>
+          <t>2024/09/02</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6729,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="n">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="188">
@@ -6774,7 +6774,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2024/08/05</t>
+          <t>2024/09/03</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -6797,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="n">
-        <v>329</v>
+        <v>340</v>
       </c>
     </row>
     <row r="190">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/02</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6967,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>1992</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="195">
@@ -7046,7 +7046,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2024/08/06</t>
+          <t>2024/09/02</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -7069,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="198">
@@ -7148,7 +7148,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2024/08/08</t>
+          <t>2024/09/06</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="201">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2024/08/05</t>
+          <t>2024/09/03</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -7443,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="n">
-        <v>581</v>
+        <v>600</v>
       </c>
     </row>
     <row r="209">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2024/08/08</t>
+          <t>2024/09/04</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -7545,7 +7545,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="212">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2024/08/02</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -7579,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2024/08/05</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -7647,7 +7647,7 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="215">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/06</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="n">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="219">
@@ -7794,7 +7794,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2024/08/08</t>
+          <t>2024/09/03</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -7817,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="n">
-        <v>1133</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="220">
@@ -7896,7 +7896,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2024/08/02</t>
+          <t>2024/09/02</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -7919,7 +7919,7 @@
         <v>0</v>
       </c>
       <c r="H222" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="223">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2024/08/08</t>
+          <t>2024/09/03</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -7953,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="224">
@@ -8304,7 +8304,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2024/08/01</t>
+          <t>2024/09/03</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="H234" t="n">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="235">
@@ -8372,7 +8372,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2024/08/06</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -8395,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="H236" t="n">
-        <v>1286</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="237">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -8463,7 +8463,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="239">
@@ -8610,7 +8610,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>2024/08/07</t>
+          <t>2024/09/03</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="244">
@@ -8644,7 +8644,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>2024/07/02</t>
+          <t>2024/09/04</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="245">
@@ -8678,7 +8678,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/04</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="n">
-        <v>402</v>
+        <v>420</v>
       </c>
     </row>
     <row r="246">
@@ -8746,7 +8746,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>2024/08/08</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="n">
-        <v>1309</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="248">
@@ -8780,7 +8780,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2024/08/05</t>
+          <t>2024/09/04</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -8803,7 +8803,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="n">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="249">
@@ -9086,7 +9086,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>2024/08/23</t>
+          <t>2024/09/06</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="n">
-        <v>1741</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="258">
@@ -9120,7 +9120,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2024/08/08</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -9143,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="259">
@@ -9392,7 +9392,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/02</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="H266" t="n">
-        <v>266</v>
+        <v>273</v>
       </c>
     </row>
     <row r="267">
@@ -9936,7 +9936,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/03</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -9959,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="n">
-        <v>1213</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="283">
@@ -10038,7 +10038,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/09/04</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -10061,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="H285" t="n">
-        <v>203</v>
+        <v>232</v>
       </c>
     </row>
     <row r="286">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>2024/08/06</t>
+          <t>2024/09/03</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -10231,7 +10231,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="n">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="291">
@@ -10242,7 +10242,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>2024/08/07</t>
+          <t>2024/09/06</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -10265,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="n">
-        <v>357</v>
+        <v>412</v>
       </c>
     </row>
     <row r="292">
@@ -10276,7 +10276,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/02</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -10412,7 +10412,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>2024/08/05</t>
+          <t>2024/09/04</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -10435,7 +10435,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="297">
@@ -10514,7 +10514,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/04</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -10537,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="H299" t="n">
-        <v>2068</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="300">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -10571,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="H300" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="301">
@@ -11228,7 +11228,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>2024/06/30</t>
+          <t>2024/09/03</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="321">
@@ -11568,7 +11568,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>2024/07/16</t>
+          <t>2024/09/04</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -11591,7 +11591,7 @@
         <v>0</v>
       </c>
       <c r="H330" t="n">
-        <v>812</v>
+        <v>829</v>
       </c>
     </row>
     <row r="331">
@@ -11602,7 +11602,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>2024/08/01</t>
+          <t>2024/09/04</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -11670,7 +11670,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/03</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -11693,7 +11693,7 @@
         <v>0</v>
       </c>
       <c r="H333" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="334">
@@ -12112,7 +12112,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>2024/08/20</t>
+          <t>2024/09/06</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -12554,7 +12554,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/09/03</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -12577,7 +12577,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="n">
-        <v>3087</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="360">
@@ -12622,7 +12622,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/06</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -12645,7 +12645,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="n">
-        <v>14884</v>
+        <v>14889</v>
       </c>
     </row>
     <row r="362">
@@ -13030,7 +13030,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>2024/08/08</t>
+          <t>2024/09/06</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -13053,7 +13053,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="n">
-        <v>41855</v>
+        <v>42324</v>
       </c>
     </row>
     <row r="374">
@@ -13268,7 +13268,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>2024/08/05</t>
+          <t>2024/09/03</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -13291,7 +13291,7 @@
         <v>0</v>
       </c>
       <c r="H380" t="n">
-        <v>6791</v>
+        <v>6793</v>
       </c>
     </row>
     <row r="381">
@@ -13370,7 +13370,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>2024/08/20</t>
+          <t>2024/09/03</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -13393,7 +13393,7 @@
         <v>0</v>
       </c>
       <c r="H383" t="n">
-        <v>27735</v>
+        <v>27747</v>
       </c>
     </row>
     <row r="384">
@@ -13472,7 +13472,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>2024/08/02</t>
+          <t>2024/09/04</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -13495,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="H386" t="n">
-        <v>10610</v>
+        <v>10625</v>
       </c>
     </row>
     <row r="387">
@@ -13608,7 +13608,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="n">
-        <v>17466</v>
+        <v>17467</v>
       </c>
     </row>
     <row r="391">
@@ -13744,7 +13744,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -13812,7 +13812,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/06</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -13835,7 +13835,7 @@
         <v>0</v>
       </c>
       <c r="H396" t="n">
-        <v>940</v>
+        <v>950</v>
       </c>
     </row>
     <row r="397">
@@ -13846,7 +13846,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/09/06</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -13869,7 +13869,7 @@
         <v>0</v>
       </c>
       <c r="H397" t="n">
-        <v>46515</v>
+        <v>46950</v>
       </c>
     </row>
     <row r="398">
@@ -13982,7 +13982,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -14016,7 +14016,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>2024/08/20</t>
+          <t>2024/09/06</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -14050,7 +14050,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/06</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -14073,7 +14073,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="n">
-        <v>42294</v>
+        <v>42345</v>
       </c>
     </row>
     <row r="404">
@@ -14186,7 +14186,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -14209,7 +14209,7 @@
         <v>0</v>
       </c>
       <c r="H407" t="n">
-        <v>15913</v>
+        <v>16105</v>
       </c>
     </row>
     <row r="408">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>2024/08/15</t>
+          <t>2024/09/06</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -14243,7 +14243,7 @@
         <v>0</v>
       </c>
       <c r="H408" t="n">
-        <v>26250</v>
+        <v>26542</v>
       </c>
     </row>
     <row r="409">
@@ -14288,7 +14288,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/03</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -14662,7 +14662,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/04</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -14685,7 +14685,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="n">
-        <v>10465</v>
+        <v>10469</v>
       </c>
     </row>
     <row r="422">
@@ -14934,7 +14934,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>2024/08/19</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -14957,7 +14957,7 @@
         <v>0</v>
       </c>
       <c r="H429" t="n">
-        <v>14643</v>
+        <v>14875</v>
       </c>
     </row>
     <row r="430">
@@ -15036,7 +15036,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/04</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -15059,7 +15059,7 @@
         <v>0</v>
       </c>
       <c r="H432" t="n">
-        <v>23318</v>
+        <v>23602</v>
       </c>
     </row>
     <row r="433">
@@ -15478,7 +15478,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/06</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -15501,7 +15501,7 @@
         <v>0</v>
       </c>
       <c r="H445" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="446">
@@ -15580,7 +15580,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>2024/08/08</t>
+          <t>2024/09/04</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -15603,7 +15603,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="n">
-        <v>26467</v>
+        <v>26718</v>
       </c>
     </row>
     <row r="449">
@@ -15648,7 +15648,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>2024/08/20</t>
+          <t>2024/09/03</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -15671,7 +15671,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="n">
-        <v>6183</v>
+        <v>6189</v>
       </c>
     </row>
     <row r="451">
@@ -15716,7 +15716,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/02</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -15852,7 +15852,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/06</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -15875,7 +15875,7 @@
         <v>0</v>
       </c>
       <c r="H456" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="457">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>2024/08/30</t>
+          <t>2024/08/31</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -15954,7 +15954,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/02</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -15988,7 +15988,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>2024/08/01</t>
+          <t>2024/09/03</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -16011,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="n">
-        <v>4329</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="461">
@@ -16090,7 +16090,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>2024/08/08</t>
+          <t>2024/09/02</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -16113,7 +16113,7 @@
         <v>0</v>
       </c>
       <c r="H463" t="n">
-        <v>11312</v>
+        <v>11427</v>
       </c>
     </row>
     <row r="464">
@@ -16294,7 +16294,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -16317,7 +16317,7 @@
         <v>0</v>
       </c>
       <c r="H469" t="n">
-        <v>10227</v>
+        <v>10228</v>
       </c>
     </row>
     <row r="470">
@@ -16362,7 +16362,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>2024/08/01</t>
+          <t>2024/09/03</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -16770,7 +16770,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>2024/08/11</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -16793,7 +16793,7 @@
         <v>0</v>
       </c>
       <c r="H483" t="n">
-        <v>14498</v>
+        <v>14499</v>
       </c>
     </row>
     <row r="484">
@@ -16838,7 +16838,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/06</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -16861,7 +16861,7 @@
         <v>0</v>
       </c>
       <c r="H485" t="n">
-        <v>30352</v>
+        <v>30356</v>
       </c>
     </row>
     <row r="486">
@@ -17212,7 +17212,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/06</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -17235,7 +17235,7 @@
         <v>0</v>
       </c>
       <c r="H496" t="n">
-        <v>24195</v>
+        <v>24474</v>
       </c>
     </row>
     <row r="497">
@@ -17246,7 +17246,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -17269,7 +17269,7 @@
         <v>0</v>
       </c>
       <c r="H497" t="n">
-        <v>5769</v>
+        <v>5828</v>
       </c>
     </row>
     <row r="498">
@@ -17382,7 +17382,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>2024/08/19</t>
+          <t>2024/09/04</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -17405,7 +17405,7 @@
         <v>0</v>
       </c>
       <c r="H501" t="n">
-        <v>32931</v>
+        <v>32969</v>
       </c>
     </row>
     <row r="502">
@@ -17586,7 +17586,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -17609,7 +17609,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="n">
-        <v>4376</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="508">
@@ -17688,7 +17688,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>2024/08/02</t>
+          <t>2024/09/04</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -17711,7 +17711,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="n">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="511">
@@ -17790,7 +17790,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>2024/08/01</t>
+          <t>2024/09/02</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -17960,7 +17960,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>2024/08/29</t>
+          <t>2024/09/02</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -18062,7 +18062,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>2024/08/19</t>
+          <t>2024/09/03</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -18085,7 +18085,7 @@
         <v>0</v>
       </c>
       <c r="H521" t="n">
-        <v>4949</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="522">
@@ -18130,7 +18130,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/06</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -18153,7 +18153,7 @@
         <v>0</v>
       </c>
       <c r="H523" t="n">
-        <v>2084</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="524">
@@ -18266,7 +18266,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/06</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -18289,7 +18289,7 @@
         <v>0</v>
       </c>
       <c r="H527" t="n">
-        <v>47069</v>
+        <v>47576</v>
       </c>
     </row>
     <row r="528">
@@ -18538,7 +18538,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>2024/08/08</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -18561,7 +18561,7 @@
         <v>0</v>
       </c>
       <c r="H535" t="n">
-        <v>1134</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="536">
@@ -18640,7 +18640,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/02</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -18663,7 +18663,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="n">
-        <v>2575</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="539">
@@ -18878,7 +18878,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/09/06</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -18901,7 +18901,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="n">
-        <v>24650</v>
+        <v>24952</v>
       </c>
     </row>
     <row r="546">
@@ -19014,7 +19014,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -19037,7 +19037,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="n">
-        <v>3907</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="550">
@@ -19150,7 +19150,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/06</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -19173,7 +19173,7 @@
         <v>0</v>
       </c>
       <c r="H553" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="554">
@@ -19320,7 +19320,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>2024/08/20</t>
+          <t>2024/09/04</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -19343,7 +19343,7 @@
         <v>0</v>
       </c>
       <c r="H558" t="n">
-        <v>16002</v>
+        <v>16011</v>
       </c>
     </row>
     <row r="559">
@@ -20034,7 +20034,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>2024/08/07</t>
+          <t>2024/09/03</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -20057,7 +20057,7 @@
         <v>0</v>
       </c>
       <c r="H579" t="n">
-        <v>938</v>
+        <v>954</v>
       </c>
     </row>
     <row r="580">
@@ -20102,7 +20102,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>2024/08/28</t>
+          <t>2024/09/03</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -20136,7 +20136,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>2024/08/27</t>
+          <t>2024/09/01</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -20170,7 +20170,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/09/06</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -20193,7 +20193,7 @@
         <v>0</v>
       </c>
       <c r="H583" t="n">
-        <v>1524</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="584">
@@ -20204,7 +20204,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/04</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -20227,7 +20227,7 @@
         <v>0</v>
       </c>
       <c r="H584" t="n">
-        <v>90218</v>
+        <v>91185</v>
       </c>
     </row>
     <row r="585">
@@ -20340,7 +20340,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>2024/08/27</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -20374,7 +20374,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/02</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -20408,7 +20408,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/09/03</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -20442,7 +20442,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/06</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -20465,7 +20465,7 @@
         <v>0</v>
       </c>
       <c r="H591" t="n">
-        <v>5744</v>
+        <v>5768</v>
       </c>
     </row>
     <row r="592">
@@ -21258,7 +21258,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/04</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
@@ -21281,7 +21281,7 @@
         <v>0</v>
       </c>
       <c r="H615" t="n">
-        <v>14198</v>
+        <v>14200</v>
       </c>
     </row>
     <row r="616">
@@ -21326,7 +21326,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
@@ -21700,7 +21700,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>2024/08/26</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -21723,7 +21723,7 @@
         <v>0</v>
       </c>
       <c r="H628" t="n">
-        <v>41827</v>
+        <v>42210</v>
       </c>
     </row>
     <row r="629">
@@ -21836,7 +21836,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>2024/08/07</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
@@ -21859,7 +21859,7 @@
         <v>0</v>
       </c>
       <c r="H632" t="n">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="633">
@@ -21972,7 +21972,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/09/06</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -21995,7 +21995,7 @@
         <v>0</v>
       </c>
       <c r="H636" t="n">
-        <v>1905</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="637">
@@ -22006,7 +22006,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -22029,7 +22029,7 @@
         <v>0</v>
       </c>
       <c r="H637" t="n">
-        <v>138039</v>
+        <v>138457</v>
       </c>
     </row>
     <row r="638">
@@ -22040,7 +22040,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>2024/08/07</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -22063,7 +22063,7 @@
         <v>0</v>
       </c>
       <c r="H638" t="n">
-        <v>2571</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="639">
@@ -22278,7 +22278,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>2024/08/08</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -22301,7 +22301,7 @@
         <v>0</v>
       </c>
       <c r="H645" t="n">
-        <v>18561</v>
+        <v>18832</v>
       </c>
     </row>
     <row r="646">
@@ -22482,7 +22482,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/06</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -22505,7 +22505,7 @@
         <v>0</v>
       </c>
       <c r="H651" t="n">
-        <v>45849</v>
+        <v>46442</v>
       </c>
     </row>
     <row r="652">
@@ -22618,7 +22618,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/04</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">

--- a/consolidado_historico4.xlsx
+++ b/consolidado_historico4.xlsx
@@ -416,7 +416,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -450,7 +450,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024/08/26</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -620,7 +620,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
@@ -722,7 +722,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024/08/07</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
@@ -756,7 +756,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
@@ -790,7 +790,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024/08/15</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
@@ -824,7 +824,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15">
@@ -858,7 +858,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024/08/08</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
@@ -926,7 +926,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
@@ -960,7 +960,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024/08/06</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>153169</v>
+        <v>155936</v>
       </c>
     </row>
     <row r="22">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>84457</v>
+        <v>85469</v>
       </c>
     </row>
     <row r="23">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>52553</v>
+        <v>53312</v>
       </c>
     </row>
     <row r="25">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024/08/08</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>13506</v>
+        <v>13651</v>
       </c>
     </row>
     <row r="26">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>3635</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="27">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>52609</v>
+        <v>53489</v>
       </c>
     </row>
     <row r="28">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>22551</v>
+        <v>22869</v>
       </c>
     </row>
     <row r="29">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>3278</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="30">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>2540</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="31">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2024/08/07</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>6059</v>
+        <v>6138</v>
       </c>
     </row>
     <row r="32">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1459,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>145907</v>
+        <v>147984</v>
       </c>
     </row>
     <row r="33">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>80494</v>
+        <v>81708</v>
       </c>
     </row>
     <row r="35">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>72945</v>
+        <v>74033</v>
       </c>
     </row>
     <row r="36">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>58908</v>
+        <v>60142</v>
       </c>
     </row>
     <row r="37">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024/09/02</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>80905</v>
+        <v>83596</v>
       </c>
     </row>
     <row r="39">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>102728</v>
+        <v>105363</v>
       </c>
     </row>
     <row r="40">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024/08/05</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2024/08/27</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>1148</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="43">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>21640</v>
+        <v>26276</v>
       </c>
     </row>
     <row r="44">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1443</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="45">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>70798</v>
+        <v>72028</v>
       </c>
     </row>
     <row r="46">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>34236</v>
+        <v>34794</v>
       </c>
     </row>
     <row r="47">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>17231</v>
+        <v>17530</v>
       </c>
     </row>
     <row r="48">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>3289</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="51">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>1895</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="52">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2024/08/15</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>58141</v>
+        <v>58903</v>
       </c>
     </row>
     <row r="56">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>12934</v>
+        <v>12949</v>
       </c>
     </row>
     <row r="57">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2024/08/08</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="61">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2592,7 +2592,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/09/14</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>11979</v>
+        <v>12018</v>
       </c>
     </row>
     <row r="68">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>3661</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="71">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2024/08/08</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>29090</v>
+        <v>29164</v>
       </c>
     </row>
     <row r="73">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>81595</v>
+        <v>81625</v>
       </c>
     </row>
     <row r="74">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2024/08/10</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>21488</v>
+        <v>21501</v>
       </c>
     </row>
     <row r="76">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>18818</v>
+        <v>18831</v>
       </c>
     </row>
     <row r="78">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2024/08/21</t>
+          <t>2024/09/08</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>11225</v>
+        <v>11227</v>
       </c>
     </row>
     <row r="79">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>3951</v>
+        <v>3952</v>
       </c>
     </row>
     <row r="81">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>11253</v>
+        <v>11260</v>
       </c>
     </row>
     <row r="87">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/14</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>172591</v>
+        <v>182498</v>
       </c>
     </row>
     <row r="88">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>63474</v>
+        <v>64024</v>
       </c>
     </row>
     <row r="89">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>3838</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="91">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3499,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>5377</v>
+        <v>5468</v>
       </c>
     </row>
     <row r="93">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>21362</v>
+        <v>21751</v>
       </c>
     </row>
     <row r="94">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>6491</v>
+        <v>6581</v>
       </c>
     </row>
     <row r="95">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>2825</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="97">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>2630</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="98">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>2205</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="100">
@@ -3748,7 +3748,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>2325</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="101">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>6336</v>
+        <v>6454</v>
       </c>
     </row>
     <row r="103">
@@ -3952,7 +3952,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>915</v>
+        <v>950</v>
       </c>
     </row>
     <row r="107">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>70736</v>
+        <v>71591</v>
       </c>
     </row>
     <row r="109">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>5001</v>
+        <v>5061</v>
       </c>
     </row>
     <row r="114">
@@ -4292,7 +4292,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>48132</v>
+        <v>48648</v>
       </c>
     </row>
     <row r="117">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2024/08/21</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>15512</v>
+        <v>15663</v>
       </c>
     </row>
     <row r="120">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4519,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>137882</v>
+        <v>138380</v>
       </c>
     </row>
     <row r="123">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2024/08/08</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>19015</v>
+        <v>19079</v>
       </c>
     </row>
     <row r="124">
@@ -4598,7 +4598,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2024/08/22</t>
+          <t>2024/09/15</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4655,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>67088</v>
+        <v>68067</v>
       </c>
     </row>
     <row r="127">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2024/08/19</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4791,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>20881</v>
+        <v>20979</v>
       </c>
     </row>
     <row r="131">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>107031</v>
+        <v>108194</v>
       </c>
     </row>
     <row r="133">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>19907</v>
+        <v>20144</v>
       </c>
     </row>
     <row r="134">
@@ -4904,7 +4904,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4927,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>49274</v>
+        <v>49965</v>
       </c>
     </row>
     <row r="135">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4961,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>13787</v>
+        <v>13892</v>
       </c>
     </row>
     <row r="136">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>17283</v>
+        <v>17886</v>
       </c>
     </row>
     <row r="137">
@@ -5006,7 +5006,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5029,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>32106</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="138">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>161299</v>
+        <v>161335</v>
       </c>
     </row>
     <row r="139">
@@ -5108,7 +5108,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2024/08/22</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5131,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>426</v>
+        <v>627</v>
       </c>
     </row>
     <row r="141">
@@ -5142,7 +5142,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>6649</v>
+        <v>6747</v>
       </c>
     </row>
     <row r="142">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2024/08/08</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5199,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>15819</v>
+        <v>15901</v>
       </c>
     </row>
     <row r="143">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5233,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>18367</v>
+        <v>18539</v>
       </c>
     </row>
     <row r="144">
@@ -5244,7 +5244,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>79375</v>
+        <v>80418</v>
       </c>
     </row>
     <row r="145">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5301,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>38717</v>
+        <v>39231</v>
       </c>
     </row>
     <row r="146">
@@ -5312,7 +5312,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5335,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>243942</v>
+        <v>245982</v>
       </c>
     </row>
     <row r="147">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>20516</v>
+        <v>21314</v>
       </c>
     </row>
     <row r="149">
@@ -5414,7 +5414,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2024/08/08</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>34661</v>
+        <v>35082</v>
       </c>
     </row>
     <row r="150">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5471,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>28558</v>
+        <v>29075</v>
       </c>
     </row>
     <row r="151">
@@ -5584,7 +5584,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5607,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="H154" t="n">
-        <v>2738</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="155">
@@ -5856,7 +5856,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2024/08/30</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6015,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>450</v>
+        <v>472</v>
       </c>
     </row>
     <row r="167">
@@ -6094,7 +6094,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6117,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="H169" t="n">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="170">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2024/08/05</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6151,7 +6151,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="171">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6219,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>807</v>
+        <v>835</v>
       </c>
     </row>
     <row r="173">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6332,7 +6332,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2024/08/08</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6355,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="177">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2024/08/07</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>962</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="181">
@@ -6536,7 +6536,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>582</v>
+        <v>603</v>
       </c>
     </row>
     <row r="183">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2024/07/26</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>1111</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="186">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2024/08/08</t>
+          <t>2024/09/15</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="H190" t="n">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="191">
@@ -7012,7 +7012,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>1164</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="197">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2024/08/05</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -7239,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="n">
-        <v>3439</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="203">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -7307,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="205">
@@ -7318,7 +7318,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -7341,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="n">
-        <v>2593</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="206">
@@ -7386,7 +7386,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -7409,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="n">
-        <v>903</v>
+        <v>931</v>
       </c>
     </row>
     <row r="208">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2024/08/08</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -7477,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="H209" t="n">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="210">
@@ -7998,7 +7998,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="n">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="226">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>2024/08/21</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -8123,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>2541</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="229">
@@ -8202,7 +8202,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>2024/08/27</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -8225,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="H231" t="n">
-        <v>452</v>
+        <v>474</v>
       </c>
     </row>
     <row r="232">
@@ -8474,7 +8474,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2024/08/07</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -8497,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="H239" t="n">
-        <v>346</v>
+        <v>367</v>
       </c>
     </row>
     <row r="240">
@@ -8542,7 +8542,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -8565,7 +8565,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>2027</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="242">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -8599,7 +8599,7 @@
         <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>528</v>
+        <v>542</v>
       </c>
     </row>
     <row r="243">
@@ -8712,7 +8712,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -8735,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="H246" t="n">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="247">
@@ -8814,7 +8814,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -8837,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="n">
-        <v>314</v>
+        <v>357</v>
       </c>
     </row>
     <row r="250">
@@ -8848,7 +8848,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="H250" t="n">
-        <v>1137</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="251">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -8905,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="H251" t="n">
-        <v>6195</v>
+        <v>6321</v>
       </c>
     </row>
     <row r="252">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>2024/08/07</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>1339</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="253">
@@ -8950,7 +8950,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2024/07/04</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -8973,7 +8973,7 @@
         <v>0</v>
       </c>
       <c r="H253" t="n">
-        <v>651</v>
+        <v>671</v>
       </c>
     </row>
     <row r="254">
@@ -8984,7 +8984,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2024/08/05</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -9007,7 +9007,7 @@
         <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="255">
@@ -9188,7 +9188,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -9211,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="H260" t="n">
-        <v>1763</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="261">
@@ -9290,7 +9290,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -9313,7 +9313,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="n">
-        <v>33</v>
+        <v>85</v>
       </c>
     </row>
     <row r="264">
@@ -9324,7 +9324,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -9347,7 +9347,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="n">
-        <v>20534</v>
+        <v>20840</v>
       </c>
     </row>
     <row r="265">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>2024/08/29</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -9381,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="H265" t="n">
-        <v>3455</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="266">
@@ -9426,7 +9426,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="H267" t="n">
-        <v>16550</v>
+        <v>16687</v>
       </c>
     </row>
     <row r="268">
@@ -9460,7 +9460,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -9483,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="H268" t="n">
-        <v>995</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="269">
@@ -9528,7 +9528,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -9551,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="H270" t="n">
-        <v>935896</v>
+        <v>962379</v>
       </c>
     </row>
     <row r="271">
@@ -9562,7 +9562,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -9585,7 +9585,7 @@
         <v>0</v>
       </c>
       <c r="H271" t="n">
-        <v>8994</v>
+        <v>9164</v>
       </c>
     </row>
     <row r="272">
@@ -9596,7 +9596,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>2024/08/19</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -9619,7 +9619,7 @@
         <v>0</v>
       </c>
       <c r="H272" t="n">
-        <v>3580</v>
+        <v>3969</v>
       </c>
     </row>
     <row r="273">
@@ -9630,7 +9630,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>2024/08/08</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="H273" t="n">
-        <v>408</v>
+        <v>467</v>
       </c>
     </row>
     <row r="274">
@@ -9664,7 +9664,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>2024/08/07</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="H274" t="n">
-        <v>4979</v>
+        <v>5045</v>
       </c>
     </row>
     <row r="275">
@@ -9698,7 +9698,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>2024/07/24</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -9721,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="H275" t="n">
-        <v>2312</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="276">
@@ -9766,7 +9766,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="n">
-        <v>440</v>
+        <v>466</v>
       </c>
     </row>
     <row r="278">
@@ -9800,7 +9800,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -9823,7 +9823,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="n">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="279">
@@ -9834,7 +9834,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -9857,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="n">
-        <v>309</v>
+        <v>319</v>
       </c>
     </row>
     <row r="280">
@@ -9902,7 +9902,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -9925,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="n">
-        <v>3191</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="282">
@@ -9970,7 +9970,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -9993,7 +9993,7 @@
         <v>0</v>
       </c>
       <c r="H283" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="284">
@@ -10004,7 +10004,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -10027,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="H284" t="n">
-        <v>683</v>
+        <v>784</v>
       </c>
     </row>
     <row r="285">
@@ -10140,7 +10140,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>2024/08/07</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="n">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="289">
@@ -10174,7 +10174,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -10197,7 +10197,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="290">
@@ -10446,7 +10446,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -10469,7 +10469,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="n">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="298">
@@ -10480,7 +10480,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -10503,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="n">
-        <v>1082</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="299">
@@ -10684,7 +10684,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>2024/08/06</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -10707,7 +10707,7 @@
         <v>0</v>
       </c>
       <c r="H304" t="n">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="305">
@@ -10752,7 +10752,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="H306" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="307">
@@ -10786,7 +10786,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -10809,7 +10809,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="n">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="308">
@@ -10820,7 +10820,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>2024/08/19</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="309">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>2024/08/29</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -10911,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="311">
@@ -10922,7 +10922,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -10945,7 +10945,7 @@
         <v>0</v>
       </c>
       <c r="H311" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="312">
@@ -10990,7 +10990,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -11013,7 +11013,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="n">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="314">
@@ -11092,7 +11092,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -11115,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="n">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="317">
@@ -11126,7 +11126,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>2024/08/11</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -11149,7 +11149,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="318">
@@ -11160,7 +11160,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>2024/08/06</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -11262,7 +11262,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -11285,7 +11285,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="322">
@@ -11296,7 +11296,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -11319,7 +11319,7 @@
         <v>0</v>
       </c>
       <c r="H322" t="n">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="323">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="H324" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="325">
@@ -11398,7 +11398,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>2024/08/07</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -11421,7 +11421,7 @@
         <v>0</v>
       </c>
       <c r="H325" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="326">
@@ -11432,7 +11432,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>2024/08/10</t>
+          <t>2024/09/15</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -11455,7 +11455,7 @@
         <v>0</v>
       </c>
       <c r="H326" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="327">
@@ -11466,7 +11466,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -11489,7 +11489,7 @@
         <v>0</v>
       </c>
       <c r="H327" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="328">
@@ -11500,7 +11500,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>2024/08/20</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -11523,7 +11523,7 @@
         <v>0</v>
       </c>
       <c r="H328" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="329">
@@ -11568,7 +11568,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -11591,7 +11591,7 @@
         <v>0</v>
       </c>
       <c r="H330" t="n">
-        <v>829</v>
+        <v>845</v>
       </c>
     </row>
     <row r="331">
@@ -12010,7 +12010,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>2024/08/05</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -12033,7 +12033,7 @@
         <v>0</v>
       </c>
       <c r="H343" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="344">
@@ -12078,7 +12078,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>2024/08/22</t>
+          <t>2024/09/08</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -12101,7 +12101,7 @@
         <v>0</v>
       </c>
       <c r="H345" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="346">
@@ -12112,7 +12112,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -12135,7 +12135,7 @@
         <v>0</v>
       </c>
       <c r="H346" t="n">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="347">
@@ -12146,7 +12146,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -12169,7 +12169,7 @@
         <v>0</v>
       </c>
       <c r="H347" t="n">
-        <v>10274</v>
+        <v>10476</v>
       </c>
     </row>
     <row r="348">
@@ -12180,7 +12180,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -12203,7 +12203,7 @@
         <v>0</v>
       </c>
       <c r="H348" t="n">
-        <v>13677</v>
+        <v>13841</v>
       </c>
     </row>
     <row r="349">
@@ -12214,7 +12214,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/08</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -12237,7 +12237,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="n">
-        <v>3075</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="350">
@@ -12248,7 +12248,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>2024/08/06</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -12271,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="H350" t="n">
-        <v>3341</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="351">
@@ -12282,7 +12282,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>2024/08/10</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -12305,7 +12305,7 @@
         <v>0</v>
       </c>
       <c r="H351" t="n">
-        <v>75176</v>
+        <v>75986</v>
       </c>
     </row>
     <row r="352">
@@ -12316,7 +12316,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -12350,7 +12350,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -12373,7 +12373,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="n">
-        <v>7507</v>
+        <v>7584</v>
       </c>
     </row>
     <row r="354">
@@ -12384,7 +12384,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -12407,7 +12407,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="n">
-        <v>47836</v>
+        <v>48482</v>
       </c>
     </row>
     <row r="355">
@@ -12423,7 +12423,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Municipalidad de Aysen</t>
+          <t>Municipalidad de Aysén</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -12486,7 +12486,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -12509,7 +12509,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="n">
-        <v>33597</v>
+        <v>33927</v>
       </c>
     </row>
     <row r="358">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>2024/08/22</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -12543,7 +12543,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="n">
-        <v>23578</v>
+        <v>23899</v>
       </c>
     </row>
     <row r="359">
@@ -12588,7 +12588,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -12611,7 +12611,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="n">
-        <v>40662</v>
+        <v>41111</v>
       </c>
     </row>
     <row r="361">
@@ -12622,7 +12622,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -12645,7 +12645,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="n">
-        <v>14889</v>
+        <v>14915</v>
       </c>
     </row>
     <row r="362">
@@ -12656,7 +12656,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -12679,7 +12679,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="n">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="363">
@@ -12690,7 +12690,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="n">
-        <v>13911</v>
+        <v>13951</v>
       </c>
     </row>
     <row r="364">
@@ -12724,7 +12724,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>2024/08/29</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -12747,7 +12747,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="n">
-        <v>1057</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="365">
@@ -12758,7 +12758,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -12781,7 +12781,7 @@
         <v>0</v>
       </c>
       <c r="H365" t="n">
-        <v>2244</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="366">
@@ -12826,7 +12826,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>2024/08/19</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -12849,7 +12849,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="n">
-        <v>4152</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="368">
@@ -12860,7 +12860,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>2024/08/05</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -12928,7 +12928,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -12951,7 +12951,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="n">
-        <v>27454</v>
+        <v>27756</v>
       </c>
     </row>
     <row r="371">
@@ -12962,7 +12962,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/09/08</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -12985,7 +12985,7 @@
         <v>0</v>
       </c>
       <c r="H371" t="n">
-        <v>18732</v>
+        <v>18733</v>
       </c>
     </row>
     <row r="372">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -13019,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="H372" t="n">
-        <v>73354</v>
+        <v>74114</v>
       </c>
     </row>
     <row r="373">
@@ -13064,7 +13064,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -13087,7 +13087,7 @@
         <v>0</v>
       </c>
       <c r="H374" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="375">
@@ -13166,7 +13166,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/14</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -13189,7 +13189,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="378">
@@ -13200,7 +13200,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -13223,7 +13223,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="n">
-        <v>27190</v>
+        <v>27462</v>
       </c>
     </row>
     <row r="379">
@@ -13234,7 +13234,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/14</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -13257,7 +13257,7 @@
         <v>0</v>
       </c>
       <c r="H379" t="n">
-        <v>12733</v>
+        <v>12785</v>
       </c>
     </row>
     <row r="380">
@@ -13302,7 +13302,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="H381" t="n">
-        <v>172738</v>
+        <v>174736</v>
       </c>
     </row>
     <row r="382">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -13359,7 +13359,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="n">
-        <v>11176</v>
+        <v>11396</v>
       </c>
     </row>
     <row r="383">
@@ -13404,7 +13404,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -13427,7 +13427,7 @@
         <v>0</v>
       </c>
       <c r="H384" t="n">
-        <v>13793</v>
+        <v>13942</v>
       </c>
     </row>
     <row r="385">
@@ -13438,7 +13438,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -13506,7 +13506,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -13529,7 +13529,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="n">
-        <v>15713</v>
+        <v>15859</v>
       </c>
     </row>
     <row r="388">
@@ -13540,7 +13540,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>2024/08/19</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -13574,7 +13574,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -13597,7 +13597,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="n">
-        <v>6948</v>
+        <v>6980</v>
       </c>
     </row>
     <row r="390">
@@ -13608,7 +13608,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="n">
-        <v>17467</v>
+        <v>17653</v>
       </c>
     </row>
     <row r="391">
@@ -13642,7 +13642,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>2024/08/23</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -13665,7 +13665,7 @@
         <v>0</v>
       </c>
       <c r="H391" t="n">
-        <v>27771</v>
+        <v>28111</v>
       </c>
     </row>
     <row r="392">
@@ -13676,7 +13676,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -13699,7 +13699,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="n">
-        <v>32813</v>
+        <v>32815</v>
       </c>
     </row>
     <row r="393">
@@ -13744,7 +13744,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -13767,7 +13767,7 @@
         <v>0</v>
       </c>
       <c r="H394" t="n">
-        <v>41990</v>
+        <v>41998</v>
       </c>
     </row>
     <row r="395">
@@ -13880,7 +13880,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>2024/08/08</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -13903,7 +13903,7 @@
         <v>0</v>
       </c>
       <c r="H398" t="n">
-        <v>26019</v>
+        <v>26327</v>
       </c>
     </row>
     <row r="399">
@@ -13914,7 +13914,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -13948,7 +13948,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -13971,7 +13971,7 @@
         <v>0</v>
       </c>
       <c r="H400" t="n">
-        <v>49097</v>
+        <v>49102</v>
       </c>
     </row>
     <row r="401">
@@ -13982,7 +13982,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -14005,7 +14005,7 @@
         <v>0</v>
       </c>
       <c r="H401" t="n">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="402">
@@ -14016,7 +14016,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -14084,7 +14084,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/09/14</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -14107,7 +14107,7 @@
         <v>0</v>
       </c>
       <c r="H404" t="n">
-        <v>100422</v>
+        <v>101544</v>
       </c>
     </row>
     <row r="405">
@@ -14118,7 +14118,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>2024/08/22</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -14141,7 +14141,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="n">
-        <v>7218</v>
+        <v>7252</v>
       </c>
     </row>
     <row r="406">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -14175,7 +14175,7 @@
         <v>0</v>
       </c>
       <c r="H406" t="n">
-        <v>50270</v>
+        <v>50277</v>
       </c>
     </row>
     <row r="407">
@@ -14186,7 +14186,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -14209,7 +14209,7 @@
         <v>0</v>
       </c>
       <c r="H407" t="n">
-        <v>16105</v>
+        <v>16158</v>
       </c>
     </row>
     <row r="408">
@@ -14254,7 +14254,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -14277,7 +14277,7 @@
         <v>0</v>
       </c>
       <c r="H409" t="n">
-        <v>3744</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="410">
@@ -14322,7 +14322,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -14345,7 +14345,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="n">
-        <v>106539</v>
+        <v>107952</v>
       </c>
     </row>
     <row r="412">
@@ -14356,7 +14356,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -14390,7 +14390,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -14413,7 +14413,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="n">
-        <v>10265</v>
+        <v>10285</v>
       </c>
     </row>
     <row r="414">
@@ -14458,7 +14458,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -14481,7 +14481,7 @@
         <v>0</v>
       </c>
       <c r="H415" t="n">
-        <v>96697</v>
+        <v>97580</v>
       </c>
     </row>
     <row r="416">
@@ -14492,7 +14492,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -14515,7 +14515,7 @@
         <v>0</v>
       </c>
       <c r="H416" t="n">
-        <v>3089</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="417">
@@ -14526,7 +14526,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>2024/08/20</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -14549,7 +14549,7 @@
         <v>0</v>
       </c>
       <c r="H417" t="n">
-        <v>59401</v>
+        <v>59868</v>
       </c>
     </row>
     <row r="418">
@@ -14560,7 +14560,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -14583,7 +14583,7 @@
         <v>0</v>
       </c>
       <c r="H418" t="n">
-        <v>24501</v>
+        <v>24739</v>
       </c>
     </row>
     <row r="419">
@@ -14594,7 +14594,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -14617,7 +14617,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="n">
-        <v>15332</v>
+        <v>15448</v>
       </c>
     </row>
     <row r="420">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -14651,7 +14651,7 @@
         <v>0</v>
       </c>
       <c r="H420" t="n">
-        <v>13995</v>
+        <v>14307</v>
       </c>
     </row>
     <row r="421">
@@ -14764,7 +14764,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -14787,7 +14787,7 @@
         <v>0</v>
       </c>
       <c r="H424" t="n">
-        <v>3643</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="425">
@@ -14798,7 +14798,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -14821,7 +14821,7 @@
         <v>0</v>
       </c>
       <c r="H425" t="n">
-        <v>4429</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="426">
@@ -14832,7 +14832,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -14855,7 +14855,7 @@
         <v>0</v>
       </c>
       <c r="H426" t="n">
-        <v>10780</v>
+        <v>10784</v>
       </c>
     </row>
     <row r="427">
@@ -14866,7 +14866,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -14900,7 +14900,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -14923,7 +14923,7 @@
         <v>0</v>
       </c>
       <c r="H428" t="n">
-        <v>5902</v>
+        <v>5976</v>
       </c>
     </row>
     <row r="429">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -14991,7 +14991,7 @@
         <v>0</v>
       </c>
       <c r="H430" t="n">
-        <v>23505</v>
+        <v>24033</v>
       </c>
     </row>
     <row r="431">
@@ -15070,7 +15070,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -15104,7 +15104,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -15127,7 +15127,7 @@
         <v>0</v>
       </c>
       <c r="H434" t="n">
-        <v>4092</v>
+        <v>4093</v>
       </c>
     </row>
     <row r="435">
@@ -15172,7 +15172,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -15195,7 +15195,7 @@
         <v>0</v>
       </c>
       <c r="H436" t="n">
-        <v>16879</v>
+        <v>17047</v>
       </c>
     </row>
     <row r="437">
@@ -15206,7 +15206,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -15229,7 +15229,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="n">
-        <v>49472</v>
+        <v>50003</v>
       </c>
     </row>
     <row r="438">
@@ -15240,7 +15240,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -15263,7 +15263,7 @@
         <v>0</v>
       </c>
       <c r="H438" t="n">
-        <v>15243</v>
+        <v>15259</v>
       </c>
     </row>
     <row r="439">
@@ -15274,7 +15274,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>2024/08/22</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -15297,7 +15297,7 @@
         <v>0</v>
       </c>
       <c r="H439" t="n">
-        <v>7754</v>
+        <v>7841</v>
       </c>
     </row>
     <row r="440">
@@ -15308,7 +15308,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -15342,7 +15342,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -15365,7 +15365,7 @@
         <v>0</v>
       </c>
       <c r="H441" t="n">
-        <v>52998</v>
+        <v>53604</v>
       </c>
     </row>
     <row r="442">
@@ -15376,7 +15376,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -15399,7 +15399,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="n">
-        <v>38776</v>
+        <v>39335</v>
       </c>
     </row>
     <row r="443">
@@ -15410,7 +15410,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -15433,7 +15433,7 @@
         <v>0</v>
       </c>
       <c r="H443" t="n">
-        <v>8215</v>
+        <v>9055</v>
       </c>
     </row>
     <row r="444">
@@ -15512,7 +15512,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>2024/08/08</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -15535,7 +15535,7 @@
         <v>0</v>
       </c>
       <c r="H446" t="n">
-        <v>13860</v>
+        <v>13962</v>
       </c>
     </row>
     <row r="447">
@@ -15546,7 +15546,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>2024/08/19</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -15569,7 +15569,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="n">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="448">
@@ -15580,7 +15580,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -15603,7 +15603,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="n">
-        <v>26718</v>
+        <v>26720</v>
       </c>
     </row>
     <row r="449">
@@ -15614,7 +15614,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -15637,7 +15637,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="n">
-        <v>9132</v>
+        <v>9238</v>
       </c>
     </row>
     <row r="450">
@@ -15648,7 +15648,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -15671,7 +15671,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="n">
-        <v>6189</v>
+        <v>6325</v>
       </c>
     </row>
     <row r="451">
@@ -15716,7 +15716,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>2024/09/02</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -15739,7 +15739,7 @@
         <v>0</v>
       </c>
       <c r="H452" t="n">
-        <v>14854</v>
+        <v>14877</v>
       </c>
     </row>
     <row r="453">
@@ -15954,7 +15954,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>2024/09/02</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -15977,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="H459" t="n">
-        <v>19498</v>
+        <v>19728</v>
       </c>
     </row>
     <row r="460">
@@ -16022,7 +16022,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -16045,7 +16045,7 @@
         <v>0</v>
       </c>
       <c r="H461" t="n">
-        <v>1407</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="462">
@@ -16056,7 +16056,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>2024/08/20</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -16079,7 +16079,7 @@
         <v>0</v>
       </c>
       <c r="H462" t="n">
-        <v>26255</v>
+        <v>26597</v>
       </c>
     </row>
     <row r="463">
@@ -16090,7 +16090,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>2024/09/02</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -16113,7 +16113,7 @@
         <v>0</v>
       </c>
       <c r="H463" t="n">
-        <v>11427</v>
+        <v>11430</v>
       </c>
     </row>
     <row r="464">
@@ -16124,7 +16124,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>2024/08/29</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -16147,7 +16147,7 @@
         <v>0</v>
       </c>
       <c r="H464" t="n">
-        <v>34903</v>
+        <v>34904</v>
       </c>
     </row>
     <row r="465">
@@ -16158,7 +16158,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -16181,7 +16181,7 @@
         <v>0</v>
       </c>
       <c r="H465" t="n">
-        <v>50677</v>
+        <v>50695</v>
       </c>
     </row>
     <row r="466">
@@ -16192,7 +16192,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -16215,7 +16215,7 @@
         <v>0</v>
       </c>
       <c r="H466" t="n">
-        <v>55012</v>
+        <v>55617</v>
       </c>
     </row>
     <row r="467">
@@ -16226,7 +16226,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>2024/08/08</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -16249,7 +16249,7 @@
         <v>0</v>
       </c>
       <c r="H467" t="n">
-        <v>17021</v>
+        <v>17288</v>
       </c>
     </row>
     <row r="468">
@@ -16294,7 +16294,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -16317,7 +16317,7 @@
         <v>0</v>
       </c>
       <c r="H469" t="n">
-        <v>10228</v>
+        <v>10336</v>
       </c>
     </row>
     <row r="470">
@@ -16328,7 +16328,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -16351,7 +16351,7 @@
         <v>0</v>
       </c>
       <c r="H470" t="n">
-        <v>9827</v>
+        <v>9928</v>
       </c>
     </row>
     <row r="471">
@@ -16396,7 +16396,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -16419,7 +16419,7 @@
         <v>0</v>
       </c>
       <c r="H472" t="n">
-        <v>2178</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="473">
@@ -16430,7 +16430,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>2024/08/19</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -16464,7 +16464,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -16487,7 +16487,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="n">
-        <v>950</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="475">
@@ -16532,7 +16532,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>2024/08/19</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -16555,7 +16555,7 @@
         <v>0</v>
       </c>
       <c r="H476" t="n">
-        <v>26279</v>
+        <v>26281</v>
       </c>
     </row>
     <row r="477">
@@ -16566,7 +16566,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>2024/08/15</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -16589,7 +16589,7 @@
         <v>0</v>
       </c>
       <c r="H477" t="n">
-        <v>24931</v>
+        <v>25226</v>
       </c>
     </row>
     <row r="478">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -16623,7 +16623,7 @@
         <v>0</v>
       </c>
       <c r="H478" t="n">
-        <v>82145</v>
+        <v>82748</v>
       </c>
     </row>
     <row r="479">
@@ -16634,7 +16634,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -16657,7 +16657,7 @@
         <v>0</v>
       </c>
       <c r="H479" t="n">
-        <v>53237</v>
+        <v>53765</v>
       </c>
     </row>
     <row r="480">
@@ -16668,7 +16668,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -16691,7 +16691,7 @@
         <v>0</v>
       </c>
       <c r="H480" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="481">
@@ -16736,7 +16736,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -16759,7 +16759,7 @@
         <v>0</v>
       </c>
       <c r="H482" t="n">
-        <v>15538</v>
+        <v>15542</v>
       </c>
     </row>
     <row r="483">
@@ -16770,7 +16770,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -16793,7 +16793,7 @@
         <v>0</v>
       </c>
       <c r="H483" t="n">
-        <v>14499</v>
+        <v>14766</v>
       </c>
     </row>
     <row r="484">
@@ -16804,7 +16804,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>2024/08/07</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -16827,7 +16827,7 @@
         <v>0</v>
       </c>
       <c r="H484" t="n">
-        <v>18660</v>
+        <v>18856</v>
       </c>
     </row>
     <row r="485">
@@ -16838,7 +16838,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -16861,7 +16861,7 @@
         <v>0</v>
       </c>
       <c r="H485" t="n">
-        <v>30356</v>
+        <v>30689</v>
       </c>
     </row>
     <row r="486">
@@ -16872,7 +16872,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -16895,7 +16895,7 @@
         <v>0</v>
       </c>
       <c r="H486" t="n">
-        <v>1088</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="487">
@@ -16906,7 +16906,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -16929,7 +16929,7 @@
         <v>0</v>
       </c>
       <c r="H487" t="n">
-        <v>8529</v>
+        <v>8605</v>
       </c>
     </row>
     <row r="488">
@@ -16940,7 +16940,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -16963,7 +16963,7 @@
         <v>0</v>
       </c>
       <c r="H488" t="n">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="489">
@@ -17008,7 +17008,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -17031,7 +17031,7 @@
         <v>0</v>
       </c>
       <c r="H490" t="n">
-        <v>19169</v>
+        <v>19369</v>
       </c>
     </row>
     <row r="491">
@@ -17042,7 +17042,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>2024/08/21</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -17065,7 +17065,7 @@
         <v>0</v>
       </c>
       <c r="H491" t="n">
-        <v>1259</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="492">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -17099,7 +17099,7 @@
         <v>0</v>
       </c>
       <c r="H492" t="n">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="493">
@@ -17110,7 +17110,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -17133,7 +17133,7 @@
         <v>0</v>
       </c>
       <c r="H493" t="n">
-        <v>21432</v>
+        <v>21639</v>
       </c>
     </row>
     <row r="494">
@@ -17144,7 +17144,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -17167,7 +17167,7 @@
         <v>0</v>
       </c>
       <c r="H494" t="n">
-        <v>29901</v>
+        <v>30266</v>
       </c>
     </row>
     <row r="495">
@@ -17178,7 +17178,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -17201,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="H495" t="n">
-        <v>21681</v>
+        <v>21884</v>
       </c>
     </row>
     <row r="496">
@@ -17212,7 +17212,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -17235,7 +17235,7 @@
         <v>0</v>
       </c>
       <c r="H496" t="n">
-        <v>24474</v>
+        <v>24475</v>
       </c>
     </row>
     <row r="497">
@@ -17314,7 +17314,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>2024/08/23</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -17337,7 +17337,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="n">
-        <v>45358</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="500">
@@ -17348,7 +17348,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -17371,7 +17371,7 @@
         <v>0</v>
       </c>
       <c r="H500" t="n">
-        <v>36073</v>
+        <v>36090</v>
       </c>
     </row>
     <row r="501">
@@ -17382,7 +17382,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -17405,7 +17405,7 @@
         <v>0</v>
       </c>
       <c r="H501" t="n">
-        <v>32969</v>
+        <v>32971</v>
       </c>
     </row>
     <row r="502">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>2024/08/27</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -17439,7 +17439,7 @@
         <v>0</v>
       </c>
       <c r="H502" t="n">
-        <v>48914</v>
+        <v>48924</v>
       </c>
     </row>
     <row r="503">
@@ -17450,7 +17450,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>2024/08/19</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -17473,7 +17473,7 @@
         <v>0</v>
       </c>
       <c r="H503" t="n">
-        <v>36178</v>
+        <v>36192</v>
       </c>
     </row>
     <row r="504">
@@ -17518,7 +17518,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>2024/08/29</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -17541,7 +17541,7 @@
         <v>0</v>
       </c>
       <c r="H505" t="n">
-        <v>14199</v>
+        <v>14350</v>
       </c>
     </row>
     <row r="506">
@@ -17620,7 +17620,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -17643,7 +17643,7 @@
         <v>0</v>
       </c>
       <c r="H508" t="n">
-        <v>10879</v>
+        <v>11018</v>
       </c>
     </row>
     <row r="509">
@@ -17654,7 +17654,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -17677,7 +17677,7 @@
         <v>0</v>
       </c>
       <c r="H509" t="n">
-        <v>21385</v>
+        <v>21419</v>
       </c>
     </row>
     <row r="510">
@@ -17722,7 +17722,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -17745,7 +17745,7 @@
         <v>0</v>
       </c>
       <c r="H511" t="n">
-        <v>1555</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="512">
@@ -17756,7 +17756,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>2024/08/08</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -17779,7 +17779,7 @@
         <v>0</v>
       </c>
       <c r="H512" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="513">
@@ -17824,7 +17824,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -17847,7 +17847,7 @@
         <v>0</v>
       </c>
       <c r="H514" t="n">
-        <v>17733</v>
+        <v>17907</v>
       </c>
     </row>
     <row r="515">
@@ -17858,7 +17858,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -17881,7 +17881,7 @@
         <v>0</v>
       </c>
       <c r="H515" t="n">
-        <v>85404</v>
+        <v>86327</v>
       </c>
     </row>
     <row r="516">
@@ -17892,7 +17892,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -17915,7 +17915,7 @@
         <v>0</v>
       </c>
       <c r="H516" t="n">
-        <v>64694</v>
+        <v>66181</v>
       </c>
     </row>
     <row r="517">
@@ -17926,7 +17926,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -17949,7 +17949,7 @@
         <v>0</v>
       </c>
       <c r="H517" t="n">
-        <v>4792</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="518">
@@ -17960,7 +17960,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>2024/09/02</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -17983,7 +17983,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="n">
-        <v>5749</v>
+        <v>6167</v>
       </c>
     </row>
     <row r="519">
@@ -17994,7 +17994,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -18017,7 +18017,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="n">
-        <v>13460</v>
+        <v>13469</v>
       </c>
     </row>
     <row r="520">
@@ -18028,7 +18028,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>2024/08/20</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -18062,7 +18062,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -18085,7 +18085,7 @@
         <v>0</v>
       </c>
       <c r="H521" t="n">
-        <v>4996</v>
+        <v>5020</v>
       </c>
     </row>
     <row r="522">
@@ -18198,7 +18198,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -18221,7 +18221,7 @@
         <v>0</v>
       </c>
       <c r="H525" t="n">
-        <v>11093</v>
+        <v>11197</v>
       </c>
     </row>
     <row r="526">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -18255,7 +18255,7 @@
         <v>0</v>
       </c>
       <c r="H526" t="n">
-        <v>7056</v>
+        <v>7154</v>
       </c>
     </row>
     <row r="527">
@@ -18266,7 +18266,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -18289,7 +18289,7 @@
         <v>0</v>
       </c>
       <c r="H527" t="n">
-        <v>47576</v>
+        <v>47613</v>
       </c>
     </row>
     <row r="528">
@@ -18300,7 +18300,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -18323,7 +18323,7 @@
         <v>0</v>
       </c>
       <c r="H528" t="n">
-        <v>68434</v>
+        <v>69126</v>
       </c>
     </row>
     <row r="529">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -18391,7 +18391,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="n">
-        <v>22897</v>
+        <v>23225</v>
       </c>
     </row>
     <row r="531">
@@ -18402,7 +18402,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -18425,7 +18425,7 @@
         <v>0</v>
       </c>
       <c r="H531" t="n">
-        <v>1717</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="532">
@@ -18504,7 +18504,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>2024/08/17</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -18527,7 +18527,7 @@
         <v>0</v>
       </c>
       <c r="H534" t="n">
-        <v>57027</v>
+        <v>57486</v>
       </c>
     </row>
     <row r="535">
@@ -18572,7 +18572,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>2024/08/15</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -18595,7 +18595,7 @@
         <v>0</v>
       </c>
       <c r="H536" t="n">
-        <v>2769</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="537">
@@ -18606,7 +18606,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -18629,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="H537" t="n">
-        <v>11981</v>
+        <v>12110</v>
       </c>
     </row>
     <row r="538">
@@ -18708,7 +18708,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>2024/08/15</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -18731,7 +18731,7 @@
         <v>0</v>
       </c>
       <c r="H540" t="n">
-        <v>17036</v>
+        <v>17429</v>
       </c>
     </row>
     <row r="541">
@@ -18742,7 +18742,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>2024/08/11</t>
+          <t>2024/09/15</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -18765,7 +18765,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="n">
-        <v>22727</v>
+        <v>23073</v>
       </c>
     </row>
     <row r="542">
@@ -18776,7 +18776,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -18799,7 +18799,7 @@
         <v>0</v>
       </c>
       <c r="H542" t="n">
-        <v>35031</v>
+        <v>35316</v>
       </c>
     </row>
     <row r="543">
@@ -18810,7 +18810,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>2024/08/17</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -18833,7 +18833,7 @@
         <v>0</v>
       </c>
       <c r="H543" t="n">
-        <v>18875</v>
+        <v>18892</v>
       </c>
     </row>
     <row r="544">
@@ -18878,7 +18878,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -18901,7 +18901,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="n">
-        <v>24952</v>
+        <v>24954</v>
       </c>
     </row>
     <row r="546">
@@ -18946,7 +18946,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/09/14</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -18969,7 +18969,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="n">
-        <v>9635</v>
+        <v>9743</v>
       </c>
     </row>
     <row r="548">
@@ -18980,7 +18980,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -19003,7 +19003,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="n">
-        <v>5951</v>
+        <v>5956</v>
       </c>
     </row>
     <row r="549">
@@ -19082,7 +19082,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -19105,7 +19105,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="n">
-        <v>508</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="552">
@@ -19116,7 +19116,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -19139,7 +19139,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="n">
-        <v>42097</v>
+        <v>42490</v>
       </c>
     </row>
     <row r="553">
@@ -19184,7 +19184,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -19207,7 +19207,7 @@
         <v>0</v>
       </c>
       <c r="H554" t="n">
-        <v>705</v>
+        <v>839</v>
       </c>
     </row>
     <row r="555">
@@ -19218,7 +19218,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -19241,7 +19241,7 @@
         <v>0</v>
       </c>
       <c r="H555" t="n">
-        <v>245269</v>
+        <v>248420</v>
       </c>
     </row>
     <row r="556">
@@ -19252,7 +19252,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -19275,7 +19275,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="n">
-        <v>1715</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="557">
@@ -19286,7 +19286,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -19309,7 +19309,7 @@
         <v>0</v>
       </c>
       <c r="H557" t="n">
-        <v>5114</v>
+        <v>5244</v>
       </c>
     </row>
     <row r="558">
@@ -19354,7 +19354,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>2024/08/08</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -19377,7 +19377,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="n">
-        <v>3584</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="560">
@@ -19388,7 +19388,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -19411,7 +19411,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="n">
-        <v>17874</v>
+        <v>18086</v>
       </c>
     </row>
     <row r="561">
@@ -19422,7 +19422,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -19445,7 +19445,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="n">
-        <v>4282</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="562">
@@ -19456,7 +19456,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>2024/08/05</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -19490,7 +19490,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -19513,7 +19513,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="n">
-        <v>13089</v>
+        <v>13206</v>
       </c>
     </row>
     <row r="564">
@@ -19524,7 +19524,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -19547,7 +19547,7 @@
         <v>0</v>
       </c>
       <c r="H564" t="n">
-        <v>19877</v>
+        <v>20102</v>
       </c>
     </row>
     <row r="565">
@@ -19592,7 +19592,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -19615,7 +19615,7 @@
         <v>0</v>
       </c>
       <c r="H566" t="n">
-        <v>17606</v>
+        <v>18170</v>
       </c>
     </row>
     <row r="567">
@@ -19694,7 +19694,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
@@ -19717,7 +19717,7 @@
         <v>0</v>
       </c>
       <c r="H569" t="n">
-        <v>10860</v>
+        <v>10970</v>
       </c>
     </row>
     <row r="570">
@@ -19728,7 +19728,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -19751,7 +19751,7 @@
         <v>0</v>
       </c>
       <c r="H570" t="n">
-        <v>1172</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="571">
@@ -19762,7 +19762,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -19785,7 +19785,7 @@
         <v>0</v>
       </c>
       <c r="H571" t="n">
-        <v>92228</v>
+        <v>93225</v>
       </c>
     </row>
     <row r="572">
@@ -19796,7 +19796,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -19819,7 +19819,7 @@
         <v>0</v>
       </c>
       <c r="H572" t="n">
-        <v>15006</v>
+        <v>15145</v>
       </c>
     </row>
     <row r="573">
@@ -19830,7 +19830,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>2024/08/20</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -19853,7 +19853,7 @@
         <v>0</v>
       </c>
       <c r="H573" t="n">
-        <v>47639</v>
+        <v>48357</v>
       </c>
     </row>
     <row r="574">
@@ -19898,7 +19898,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -19921,7 +19921,7 @@
         <v>0</v>
       </c>
       <c r="H575" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="576">
@@ -19966,7 +19966,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>2024/08/19</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -19989,7 +19989,7 @@
         <v>0</v>
       </c>
       <c r="H577" t="n">
-        <v>39560</v>
+        <v>40034</v>
       </c>
     </row>
     <row r="578">
@@ -20000,7 +20000,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>2024/08/08</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -20023,7 +20023,7 @@
         <v>0</v>
       </c>
       <c r="H578" t="n">
-        <v>26043</v>
+        <v>26296</v>
       </c>
     </row>
     <row r="579">
@@ -20068,7 +20068,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>2024/08/27</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -20091,7 +20091,7 @@
         <v>0</v>
       </c>
       <c r="H580" t="n">
-        <v>13332</v>
+        <v>13467</v>
       </c>
     </row>
     <row r="581">
@@ -20170,7 +20170,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -20193,7 +20193,7 @@
         <v>0</v>
       </c>
       <c r="H583" t="n">
-        <v>1538</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="584">
@@ -20204,7 +20204,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -20238,7 +20238,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -20261,7 +20261,7 @@
         <v>0</v>
       </c>
       <c r="H585" t="n">
-        <v>26184</v>
+        <v>26404</v>
       </c>
     </row>
     <row r="586">
@@ -20272,7 +20272,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -20295,7 +20295,7 @@
         <v>0</v>
       </c>
       <c r="H586" t="n">
-        <v>42346</v>
+        <v>42840</v>
       </c>
     </row>
     <row r="587">
@@ -20340,7 +20340,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -20363,7 +20363,7 @@
         <v>0</v>
       </c>
       <c r="H588" t="n">
-        <v>31378</v>
+        <v>31380</v>
       </c>
     </row>
     <row r="589">
@@ -20374,7 +20374,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>2024/09/02</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -20397,7 +20397,7 @@
         <v>0</v>
       </c>
       <c r="H589" t="n">
-        <v>21524</v>
+        <v>21825</v>
       </c>
     </row>
     <row r="590">
@@ -20408,7 +20408,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -20431,7 +20431,7 @@
         <v>0</v>
       </c>
       <c r="H590" t="n">
-        <v>6829</v>
+        <v>7094</v>
       </c>
     </row>
     <row r="591">
@@ -20476,7 +20476,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -20499,7 +20499,7 @@
         <v>0</v>
       </c>
       <c r="H592" t="n">
-        <v>13322</v>
+        <v>13448</v>
       </c>
     </row>
     <row r="593">
@@ -20544,7 +20544,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -20567,7 +20567,7 @@
         <v>0</v>
       </c>
       <c r="H594" t="n">
-        <v>27993</v>
+        <v>28330</v>
       </c>
     </row>
     <row r="595">
@@ -20578,7 +20578,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -20601,7 +20601,7 @@
         <v>0</v>
       </c>
       <c r="H595" t="n">
-        <v>4572</v>
+        <v>4578</v>
       </c>
     </row>
     <row r="596">
@@ -20612,7 +20612,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>2024/08/15</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -20635,7 +20635,7 @@
         <v>0</v>
       </c>
       <c r="H596" t="n">
-        <v>19978</v>
+        <v>19980</v>
       </c>
     </row>
     <row r="597">
@@ -20646,7 +20646,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>2024/08/29</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
@@ -20669,7 +20669,7 @@
         <v>0</v>
       </c>
       <c r="H597" t="n">
-        <v>23544</v>
+        <v>24046</v>
       </c>
     </row>
     <row r="598">
@@ -20714,7 +20714,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/07</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -20737,7 +20737,7 @@
         <v>0</v>
       </c>
       <c r="H599" t="n">
-        <v>2168</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="600">
@@ -20748,7 +20748,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
@@ -20771,7 +20771,7 @@
         <v>0</v>
       </c>
       <c r="H600" t="n">
-        <v>38584</v>
+        <v>38661</v>
       </c>
     </row>
     <row r="601">
@@ -20782,7 +20782,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -20805,7 +20805,7 @@
         <v>0</v>
       </c>
       <c r="H601" t="n">
-        <v>71574</v>
+        <v>72378</v>
       </c>
     </row>
     <row r="602">
@@ -20816,7 +20816,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -20839,7 +20839,7 @@
         <v>0</v>
       </c>
       <c r="H602" t="n">
-        <v>17255</v>
+        <v>17484</v>
       </c>
     </row>
     <row r="603">
@@ -20850,7 +20850,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -20873,7 +20873,7 @@
         <v>0</v>
       </c>
       <c r="H603" t="n">
-        <v>11769</v>
+        <v>11799</v>
       </c>
     </row>
     <row r="604">
@@ -20884,7 +20884,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
@@ -20907,7 +20907,7 @@
         <v>0</v>
       </c>
       <c r="H604" t="n">
-        <v>82343</v>
+        <v>83170</v>
       </c>
     </row>
     <row r="605">
@@ -20918,7 +20918,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -20941,7 +20941,7 @@
         <v>0</v>
       </c>
       <c r="H605" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="606">
@@ -20952,7 +20952,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>2024/08/22</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -20986,7 +20986,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>2024/08/21</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -21020,7 +21020,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>2024/08/07</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
@@ -21043,7 +21043,7 @@
         <v>0</v>
       </c>
       <c r="H608" t="n">
-        <v>44737</v>
+        <v>45334</v>
       </c>
     </row>
     <row r="609">
@@ -21054,7 +21054,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -21077,7 +21077,7 @@
         <v>0</v>
       </c>
       <c r="H609" t="n">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="610">
@@ -21088,7 +21088,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>2024/08/10</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -21111,7 +21111,7 @@
         <v>0</v>
       </c>
       <c r="H610" t="n">
-        <v>806</v>
+        <v>821</v>
       </c>
     </row>
     <row r="611">
@@ -21122,7 +21122,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -21145,7 +21145,7 @@
         <v>0</v>
       </c>
       <c r="H611" t="n">
-        <v>12771</v>
+        <v>12872</v>
       </c>
     </row>
     <row r="612">
@@ -21156,7 +21156,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -21179,7 +21179,7 @@
         <v>0</v>
       </c>
       <c r="H612" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="613">
@@ -21190,7 +21190,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -21213,7 +21213,7 @@
         <v>0</v>
       </c>
       <c r="H613" t="n">
-        <v>17156</v>
+        <v>17489</v>
       </c>
     </row>
     <row r="614">
@@ -21224,7 +21224,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>2024/08/08</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -21247,7 +21247,7 @@
         <v>0</v>
       </c>
       <c r="H614" t="n">
-        <v>8796</v>
+        <v>8897</v>
       </c>
     </row>
     <row r="615">
@@ -21258,7 +21258,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
@@ -21281,7 +21281,7 @@
         <v>0</v>
       </c>
       <c r="H615" t="n">
-        <v>14200</v>
+        <v>14371</v>
       </c>
     </row>
     <row r="616">
@@ -21292,7 +21292,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -21315,7 +21315,7 @@
         <v>0</v>
       </c>
       <c r="H616" t="n">
-        <v>71020</v>
+        <v>71703</v>
       </c>
     </row>
     <row r="617">
@@ -21326,7 +21326,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
@@ -21349,7 +21349,7 @@
         <v>0</v>
       </c>
       <c r="H617" t="n">
-        <v>39312</v>
+        <v>39757</v>
       </c>
     </row>
     <row r="618">
@@ -21394,7 +21394,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>2024/08/15</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -21417,7 +21417,7 @@
         <v>0</v>
       </c>
       <c r="H619" t="n">
-        <v>2963</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="620">
@@ -21428,7 +21428,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -21451,7 +21451,7 @@
         <v>0</v>
       </c>
       <c r="H620" t="n">
-        <v>19883</v>
+        <v>20113</v>
       </c>
     </row>
     <row r="621">
@@ -21462,7 +21462,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/09/14</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -21485,7 +21485,7 @@
         <v>0</v>
       </c>
       <c r="H621" t="n">
-        <v>4485</v>
+        <v>4614</v>
       </c>
     </row>
     <row r="622">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>2024/08/22</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -21519,7 +21519,7 @@
         <v>0</v>
       </c>
       <c r="H622" t="n">
-        <v>186033</v>
+        <v>187788</v>
       </c>
     </row>
     <row r="623">
@@ -21530,7 +21530,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -21553,7 +21553,7 @@
         <v>0</v>
       </c>
       <c r="H623" t="n">
-        <v>17524</v>
+        <v>17708</v>
       </c>
     </row>
     <row r="624">
@@ -21598,7 +21598,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -21621,7 +21621,7 @@
         <v>0</v>
       </c>
       <c r="H625" t="n">
-        <v>2321</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="626">
@@ -21632,7 +21632,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -21655,7 +21655,7 @@
         <v>0</v>
       </c>
       <c r="H626" t="n">
-        <v>191457</v>
+        <v>193494</v>
       </c>
     </row>
     <row r="627">
@@ -21666,7 +21666,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -21689,7 +21689,7 @@
         <v>0</v>
       </c>
       <c r="H627" t="n">
-        <v>88430</v>
+        <v>89703</v>
       </c>
     </row>
     <row r="628">
@@ -21734,7 +21734,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -21757,7 +21757,7 @@
         <v>0</v>
       </c>
       <c r="H629" t="n">
-        <v>36218</v>
+        <v>36568</v>
       </c>
     </row>
     <row r="630">
@@ -21768,7 +21768,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -21791,7 +21791,7 @@
         <v>0</v>
       </c>
       <c r="H630" t="n">
-        <v>2635</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="631">
@@ -21802,7 +21802,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>2024/08/07</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -21825,7 +21825,7 @@
         <v>0</v>
       </c>
       <c r="H631" t="n">
-        <v>13420</v>
+        <v>13429</v>
       </c>
     </row>
     <row r="632">
@@ -21938,7 +21938,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -21961,7 +21961,7 @@
         <v>0</v>
       </c>
       <c r="H635" t="n">
-        <v>49926</v>
+        <v>50454</v>
       </c>
     </row>
     <row r="636">
@@ -22006,7 +22006,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -22029,7 +22029,7 @@
         <v>0</v>
       </c>
       <c r="H637" t="n">
-        <v>138457</v>
+        <v>139220</v>
       </c>
     </row>
     <row r="638">
@@ -22074,7 +22074,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -22097,7 +22097,7 @@
         <v>0</v>
       </c>
       <c r="H639" t="n">
-        <v>3620</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="640">
@@ -22108,7 +22108,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -22131,7 +22131,7 @@
         <v>0</v>
       </c>
       <c r="H640" t="n">
-        <v>46207</v>
+        <v>46536</v>
       </c>
     </row>
     <row r="641">
@@ -22142,7 +22142,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>2024/08/20</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -22165,7 +22165,7 @@
         <v>0</v>
       </c>
       <c r="H641" t="n">
-        <v>8110</v>
+        <v>8193</v>
       </c>
     </row>
     <row r="642">
@@ -22176,7 +22176,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>2024/08/19</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -22199,7 +22199,7 @@
         <v>0</v>
       </c>
       <c r="H642" t="n">
-        <v>16033</v>
+        <v>16290</v>
       </c>
     </row>
     <row r="643">
@@ -22210,7 +22210,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
@@ -22335,7 +22335,7 @@
         <v>0</v>
       </c>
       <c r="H646" t="n">
-        <v>6807</v>
+        <v>6915</v>
       </c>
     </row>
     <row r="647">
@@ -22380,7 +22380,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -22403,7 +22403,7 @@
         <v>0</v>
       </c>
       <c r="H648" t="n">
-        <v>27469</v>
+        <v>27760</v>
       </c>
     </row>
     <row r="649">
@@ -22414,7 +22414,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -22437,7 +22437,7 @@
         <v>0</v>
       </c>
       <c r="H649" t="n">
-        <v>23269</v>
+        <v>23551</v>
       </c>
     </row>
     <row r="650">
@@ -22448,7 +22448,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -22471,7 +22471,7 @@
         <v>0</v>
       </c>
       <c r="H650" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="651">
@@ -22482,7 +22482,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -22516,7 +22516,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
@@ -22539,7 +22539,7 @@
         <v>0</v>
       </c>
       <c r="H652" t="n">
-        <v>6469</v>
+        <v>6658</v>
       </c>
     </row>
     <row r="653">
@@ -22550,7 +22550,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -22573,7 +22573,7 @@
         <v>0</v>
       </c>
       <c r="H653" t="n">
-        <v>1395</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="654">
@@ -22584,7 +22584,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="H654" t="n">
-        <v>16684</v>
+        <v>16960</v>
       </c>
     </row>
     <row r="655">
@@ -22618,7 +22618,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -22641,7 +22641,7 @@
         <v>0</v>
       </c>
       <c r="H655" t="n">
-        <v>24201</v>
+        <v>24443</v>
       </c>
     </row>
     <row r="656">
@@ -22686,7 +22686,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
@@ -22709,7 +22709,7 @@
         <v>0</v>
       </c>
       <c r="H657" t="n">
-        <v>24950</v>
+        <v>25230</v>
       </c>
     </row>
     <row r="658">
@@ -22720,7 +22720,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
@@ -22743,7 +22743,7 @@
         <v>0</v>
       </c>
       <c r="H658" t="n">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado_historico4.xlsx
+++ b/consolidado_historico4.xlsx
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/09/18</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>228817</v>
+        <v>231420</v>
       </c>
     </row>
     <row r="21">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2024/08/29</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>90101</v>
+        <v>91809</v>
       </c>
     </row>
     <row r="38">
@@ -3136,7 +3136,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>1319</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="83">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2024/08/19</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="86">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2024/08/29</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4009,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>2155</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="108">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>26768</v>
+        <v>26805</v>
       </c>
     </row>
     <row r="111">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4281,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>32601</v>
+        <v>33050</v>
       </c>
     </row>
     <row r="116">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2024/08/19</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="118">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>524</v>
+        <v>664</v>
       </c>
     </row>
     <row r="157">
@@ -6060,7 +6060,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2024/08/06</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>1210</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="169">
@@ -6876,7 +6876,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2024/08/21</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6899,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="193">
@@ -6978,7 +6978,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="196">
@@ -7114,7 +7114,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -7488,7 +7488,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2024/08/22</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10310,7 +10310,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>2024/08/20</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -10333,7 +10333,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="294">
@@ -11772,7 +11772,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>2024/08/18</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -11795,7 +11795,7 @@
         <v>0</v>
       </c>
       <c r="H336" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="337">
@@ -11908,7 +11908,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -12418,7 +12418,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>2024/08/06</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -12441,7 +12441,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="n">
-        <v>34087</v>
+        <v>34100</v>
       </c>
     </row>
     <row r="356">
@@ -13098,7 +13098,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>2024/08/07</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -13121,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="n">
-        <v>12922</v>
+        <v>13096</v>
       </c>
     </row>
     <row r="376">
@@ -13744,7 +13744,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -13767,7 +13767,7 @@
         <v>0</v>
       </c>
       <c r="H394" t="n">
-        <v>41998</v>
+        <v>42481</v>
       </c>
     </row>
     <row r="395">
@@ -14322,7 +14322,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -14424,7 +14424,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="H414" t="n">
-        <v>24438</v>
+        <v>24741</v>
       </c>
     </row>
     <row r="415">
@@ -14594,7 +14594,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -14617,7 +14617,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="n">
-        <v>15448</v>
+        <v>15614</v>
       </c>
     </row>
     <row r="420">
@@ -14696,7 +14696,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -14719,7 +14719,7 @@
         <v>0</v>
       </c>
       <c r="H422" t="n">
-        <v>81067</v>
+        <v>81417</v>
       </c>
     </row>
     <row r="423">
@@ -15818,7 +15818,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>2024/08/20</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -15841,7 +15841,7 @@
         <v>0</v>
       </c>
       <c r="H455" t="n">
-        <v>50266</v>
+        <v>50897</v>
       </c>
     </row>
     <row r="456">
@@ -16566,7 +16566,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -16589,7 +16589,7 @@
         <v>0</v>
       </c>
       <c r="H477" t="n">
-        <v>25226</v>
+        <v>25227</v>
       </c>
     </row>
     <row r="478">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -16623,7 +16623,7 @@
         <v>0</v>
       </c>
       <c r="H478" t="n">
-        <v>82748</v>
+        <v>82953</v>
       </c>
     </row>
     <row r="479">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -17439,7 +17439,7 @@
         <v>0</v>
       </c>
       <c r="H502" t="n">
-        <v>48924</v>
+        <v>50400</v>
       </c>
     </row>
     <row r="503">
@@ -17450,7 +17450,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -17473,7 +17473,7 @@
         <v>0</v>
       </c>
       <c r="H503" t="n">
-        <v>36192</v>
+        <v>36602</v>
       </c>
     </row>
     <row r="504">
@@ -18164,7 +18164,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -18187,7 +18187,7 @@
         <v>0</v>
       </c>
       <c r="H524" t="n">
-        <v>1224</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="525">
@@ -18436,7 +18436,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>2024/08/20</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -18459,7 +18459,7 @@
         <v>0</v>
       </c>
       <c r="H532" t="n">
-        <v>11746</v>
+        <v>11825</v>
       </c>
     </row>
     <row r="533">
@@ -18470,7 +18470,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -18493,7 +18493,7 @@
         <v>0</v>
       </c>
       <c r="H533" t="n">
-        <v>33406</v>
+        <v>33801</v>
       </c>
     </row>
     <row r="534">
@@ -18776,7 +18776,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -18912,7 +18912,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -18935,7 +18935,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="n">
-        <v>7112</v>
+        <v>7121</v>
       </c>
     </row>
     <row r="547">
@@ -19082,7 +19082,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -19105,7 +19105,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="n">
-        <v>1059</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="552">
@@ -19218,7 +19218,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/18</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -19241,7 +19241,7 @@
         <v>0</v>
       </c>
       <c r="H555" t="n">
-        <v>248420</v>
+        <v>248451</v>
       </c>
     </row>
     <row r="556">
@@ -20102,7 +20102,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -20125,7 +20125,7 @@
         <v>0</v>
       </c>
       <c r="H581" t="n">
-        <v>10583</v>
+        <v>10722</v>
       </c>
     </row>
     <row r="582">
@@ -20204,7 +20204,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -20227,7 +20227,7 @@
         <v>0</v>
       </c>
       <c r="H584" t="n">
-        <v>91185</v>
+        <v>91200</v>
       </c>
     </row>
     <row r="585">
@@ -22618,7 +22618,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -22641,7 +22641,7 @@
         <v>0</v>
       </c>
       <c r="H655" t="n">
-        <v>24443</v>
+        <v>24464</v>
       </c>
     </row>
     <row r="656">

--- a/consolidado_historico4.xlsx
+++ b/consolidado_historico4.xlsx
@@ -688,7 +688,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/10/03</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024/09/18</t>
+          <t>2024/10/01</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/01</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/10/02</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>3307</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="54">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/10/02</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2024/09/01</t>
+          <t>2024/10/01</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/10/03</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2717,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>13511</v>
+        <v>13514</v>
       </c>
     </row>
     <row r="70">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/10/03</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>15132</v>
+        <v>15135</v>
       </c>
     </row>
     <row r="72">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/01</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2024/09/02</t>
+          <t>2024/10/01</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>112756</v>
+        <v>114350</v>
       </c>
     </row>
     <row r="110">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2024/08/30</t>
+          <t>2024/09/30</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>57866</v>
+        <v>58470</v>
       </c>
     </row>
     <row r="119">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2024/08/29</t>
+          <t>2024/09/30</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>46136</v>
+        <v>46649</v>
       </c>
     </row>
     <row r="125">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/03</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5301,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>39231</v>
+        <v>39351</v>
       </c>
     </row>
     <row r="146">
@@ -5924,7 +5924,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2024/09/02</t>
+          <t>2024/10/02</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -6060,7 +6060,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/10/03</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>514</v>
+        <v>615</v>
       </c>
     </row>
     <row r="169">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/10/04</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6219,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>1425</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="173">
@@ -6230,7 +6230,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/03</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -6253,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>835</v>
+        <v>863</v>
       </c>
     </row>
     <row r="174">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2024/07/19</t>
+          <t>2024/10/03</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="181">
@@ -6672,7 +6672,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/01</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6695,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>1187</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="187">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/10/02</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6729,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="n">
-        <v>632</v>
+        <v>645</v>
       </c>
     </row>
     <row r="188">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/10/01</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -7477,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="H209" t="n">
-        <v>600</v>
+        <v>619</v>
       </c>
     </row>
     <row r="210">
@@ -7488,7 +7488,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/04</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="211">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/10/03</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -7579,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="n">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="213">
@@ -7590,7 +7590,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/10/02</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -7613,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="H213" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/10/02</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -7647,7 +7647,7 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>943</v>
+        <v>988</v>
       </c>
     </row>
     <row r="215">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2024/08/08</t>
+          <t>2024/10/03</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="n">
-        <v>117</v>
+        <v>145</v>
       </c>
     </row>
     <row r="219">
@@ -7896,7 +7896,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2024/08/05</t>
+          <t>2024/10/02</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2024/09/02</t>
+          <t>2024/10/01</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -7953,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="224">
@@ -7964,7 +7964,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/10/01</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="225">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/01</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -8338,7 +8338,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/10/03</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -8361,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="H235" t="n">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="236">
@@ -8406,7 +8406,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/10/04</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -8429,7 +8429,7 @@
         <v>0</v>
       </c>
       <c r="H237" t="n">
-        <v>1339</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="238">
@@ -8508,7 +8508,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/01</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="n">
-        <v>367</v>
+        <v>388</v>
       </c>
     </row>
     <row r="241">
@@ -8644,7 +8644,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/10/01</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -8814,7 +8814,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/10/01</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -8837,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="n">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="250">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>2024/08/23</t>
+          <t>2024/09/30</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -9279,7 +9279,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="n">
-        <v>204</v>
+        <v>234</v>
       </c>
     </row>
     <row r="263">
@@ -9426,7 +9426,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>2024/09/02</t>
+          <t>2024/10/01</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="H267" t="n">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="268">
@@ -9766,7 +9766,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/10/02</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="n">
-        <v>490</v>
+        <v>715</v>
       </c>
     </row>
     <row r="278">
@@ -9936,7 +9936,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/01</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -9959,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="n">
-        <v>3361</v>
+        <v>3526</v>
       </c>
     </row>
     <row r="283">
@@ -10242,7 +10242,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/10/04</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -10265,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="n">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="292">
@@ -10276,7 +10276,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/10/01</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -10299,7 +10299,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="n">
-        <v>412</v>
+        <v>457</v>
       </c>
     </row>
     <row r="293">
@@ -10378,7 +10378,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/10/04</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -10401,7 +10401,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="n">
-        <v>887</v>
+        <v>901</v>
       </c>
     </row>
     <row r="296">
@@ -10582,7 +10582,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/10/03</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -10605,7 +10605,7 @@
         <v>0</v>
       </c>
       <c r="H301" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="302">
@@ -10718,7 +10718,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/04</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -10741,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="H305" t="n">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="306">
@@ -10752,7 +10752,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>2024/08/06</t>
+          <t>2024/10/02</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="H306" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="307">
@@ -10820,7 +10820,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/02</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="n">
-        <v>684</v>
+        <v>693</v>
       </c>
     </row>
     <row r="309">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/10/01</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -10911,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="311">
@@ -11058,7 +11058,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/10/01</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="n">
-        <v>434</v>
+        <v>509</v>
       </c>
     </row>
     <row r="316">
@@ -11330,7 +11330,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/04</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -11353,7 +11353,7 @@
         <v>0</v>
       </c>
       <c r="H323" t="n">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="324">
@@ -11636,7 +11636,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/10/01</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/10/03</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -11727,7 +11727,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="335">
@@ -12146,7 +12146,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/10/04</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -12169,7 +12169,7 @@
         <v>0</v>
       </c>
       <c r="H347" t="n">
-        <v>654</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="348">
@@ -12894,7 +12894,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/01</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -13064,7 +13064,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/10/02</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -13087,7 +13087,7 @@
         <v>0</v>
       </c>
       <c r="H374" t="n">
-        <v>42324</v>
+        <v>42460</v>
       </c>
     </row>
     <row r="375">
@@ -13302,7 +13302,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/10/02</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="H381" t="n">
-        <v>6793</v>
+        <v>6795</v>
       </c>
     </row>
     <row r="382">
@@ -13506,7 +13506,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/10/03</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -13529,7 +13529,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="n">
-        <v>10625</v>
+        <v>10641</v>
       </c>
     </row>
     <row r="388">
@@ -13778,7 +13778,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/03</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -13812,7 +13812,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>2024/08/21</t>
+          <t>2024/09/30</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -13835,7 +13835,7 @@
         <v>0</v>
       </c>
       <c r="H396" t="n">
-        <v>2253</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="397">
@@ -13948,7 +13948,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/01</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -13971,7 +13971,7 @@
         <v>0</v>
       </c>
       <c r="H400" t="n">
-        <v>25816</v>
+        <v>26317</v>
       </c>
     </row>
     <row r="401">
@@ -14016,7 +14016,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/01</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/03</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -14243,7 +14243,7 @@
         <v>0</v>
       </c>
       <c r="H408" t="n">
-        <v>16158</v>
+        <v>16396</v>
       </c>
     </row>
     <row r="409">
@@ -14254,7 +14254,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>2024/09/26</t>
+          <t>2024/10/02</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -14560,7 +14560,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>2024/09/26</t>
+          <t>2024/09/30</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -14583,7 +14583,7 @@
         <v>0</v>
       </c>
       <c r="H418" t="n">
-        <v>60115</v>
+        <v>60320</v>
       </c>
     </row>
     <row r="419">
@@ -14696,7 +14696,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/10/01</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -14719,7 +14719,7 @@
         <v>0</v>
       </c>
       <c r="H422" t="n">
-        <v>10469</v>
+        <v>10636</v>
       </c>
     </row>
     <row r="423">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/10/04</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -14991,7 +14991,7 @@
         <v>0</v>
       </c>
       <c r="H430" t="n">
-        <v>14876</v>
+        <v>14882</v>
       </c>
     </row>
     <row r="431">
@@ -15070,7 +15070,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/10/04</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -15093,7 +15093,7 @@
         <v>0</v>
       </c>
       <c r="H433" t="n">
-        <v>23602</v>
+        <v>23610</v>
       </c>
     </row>
     <row r="434">
@@ -15580,7 +15580,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/30</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -15682,7 +15682,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/03</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -15705,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="n">
-        <v>6325</v>
+        <v>6332</v>
       </c>
     </row>
     <row r="452">
@@ -15716,7 +15716,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>2024/09/27</t>
+          <t>2024/10/02</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -15750,7 +15750,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/01</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -15988,7 +15988,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/01</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -16396,7 +16396,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/10/03</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -16532,7 +16532,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>2024/08/23</t>
+          <t>2024/10/01</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -16555,7 +16555,7 @@
         <v>0</v>
       </c>
       <c r="H476" t="n">
-        <v>10917</v>
+        <v>11035</v>
       </c>
     </row>
     <row r="477">
@@ -16566,7 +16566,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/10/02</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -16589,7 +16589,7 @@
         <v>0</v>
       </c>
       <c r="H477" t="n">
-        <v>26559</v>
+        <v>26561</v>
       </c>
     </row>
     <row r="478">
@@ -16634,7 +16634,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/10/03</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -16872,7 +16872,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/04</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -16895,7 +16895,7 @@
         <v>0</v>
       </c>
       <c r="H486" t="n">
-        <v>30689</v>
+        <v>30693</v>
       </c>
     </row>
     <row r="487">
@@ -17382,7 +17382,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/03</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -17405,7 +17405,7 @@
         <v>0</v>
       </c>
       <c r="H501" t="n">
-        <v>36090</v>
+        <v>37208</v>
       </c>
     </row>
     <row r="502">
@@ -17722,7 +17722,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/10/04</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -17745,7 +17745,7 @@
         <v>0</v>
       </c>
       <c r="H511" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="512">
@@ -17994,7 +17994,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/10/03</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -18017,7 +18017,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="n">
-        <v>6167</v>
+        <v>6176</v>
       </c>
     </row>
     <row r="520">
@@ -19116,7 +19116,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>2024/09/17</t>
+          <t>2024/10/04</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -19139,7 +19139,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="n">
-        <v>1098</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="553">
@@ -19354,7 +19354,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/10/03</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -19694,7 +19694,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/10/04</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
@@ -19717,7 +19717,7 @@
         <v>0</v>
       </c>
       <c r="H569" t="n">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="570">
@@ -19898,7 +19898,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/10/02</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -19921,7 +19921,7 @@
         <v>0</v>
       </c>
       <c r="H575" t="n">
-        <v>2334</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="576">
@@ -20238,7 +20238,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>2024/09/17</t>
+          <t>2024/10/04</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -20261,7 +20261,7 @@
         <v>0</v>
       </c>
       <c r="H585" t="n">
-        <v>91200</v>
+        <v>91695</v>
       </c>
     </row>
     <row r="586">
@@ -20408,7 +20408,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/02</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -20646,7 +20646,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/01</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
@@ -20669,7 +20669,7 @@
         <v>0</v>
       </c>
       <c r="H597" t="n">
-        <v>19980</v>
+        <v>20336</v>
       </c>
     </row>
     <row r="598">
@@ -21292,7 +21292,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/01</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -21315,7 +21315,7 @@
         <v>0</v>
       </c>
       <c r="H616" t="n">
-        <v>14371</v>
+        <v>14373</v>
       </c>
     </row>
     <row r="617">
@@ -21394,7 +21394,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/28</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -21417,7 +21417,7 @@
         <v>0</v>
       </c>
       <c r="H619" t="n">
-        <v>4209</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="620">
@@ -21734,7 +21734,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/10/03</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -21757,7 +21757,7 @@
         <v>0</v>
       </c>
       <c r="H629" t="n">
-        <v>42210</v>
+        <v>42538</v>
       </c>
     </row>
     <row r="630">
@@ -21836,7 +21836,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>2024/09/26</t>
+          <t>2024/10/03</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
@@ -22006,7 +22006,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/10/02</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -22029,7 +22029,7 @@
         <v>0</v>
       </c>
       <c r="H637" t="n">
-        <v>1906</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="638">
@@ -22040,7 +22040,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/04</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -22063,7 +22063,7 @@
         <v>0</v>
       </c>
       <c r="H638" t="n">
-        <v>139220</v>
+        <v>139526</v>
       </c>
     </row>
     <row r="639">
@@ -22074,7 +22074,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/10/04</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -22097,7 +22097,7 @@
         <v>0</v>
       </c>
       <c r="H639" t="n">
-        <v>2574</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="640">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/10/04</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
@@ -22335,7 +22335,7 @@
         <v>0</v>
       </c>
       <c r="H646" t="n">
-        <v>18832</v>
+        <v>19101</v>
       </c>
     </row>
     <row r="647">
@@ -22448,7 +22448,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/04</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -22471,7 +22471,7 @@
         <v>0</v>
       </c>
       <c r="H650" t="n">
-        <v>23551</v>
+        <v>23560</v>
       </c>
     </row>
     <row r="651">

--- a/consolidado_historico4.xlsx
+++ b/consolidado_historico4.xlsx
@@ -450,7 +450,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -518,7 +518,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/10/07</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -586,7 +586,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -620,7 +620,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
@@ -722,7 +722,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
@@ -756,7 +756,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
@@ -790,7 +790,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/07</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -824,7 +824,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
@@ -858,7 +858,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
@@ -892,7 +892,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
@@ -926,7 +926,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
@@ -960,7 +960,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024/10/01</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>155936</v>
+        <v>158713</v>
       </c>
     </row>
     <row r="22">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>85469</v>
+        <v>86478</v>
       </c>
     </row>
     <row r="23">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>53312</v>
+        <v>54051</v>
       </c>
     </row>
     <row r="25">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>13651</v>
+        <v>13797</v>
       </c>
     </row>
     <row r="26">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024/09/25</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>3671</v>
+        <v>3707</v>
       </c>
     </row>
     <row r="27">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>53489</v>
+        <v>54369</v>
       </c>
     </row>
     <row r="28">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>22869</v>
+        <v>23189</v>
       </c>
     </row>
     <row r="29">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>3447</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="30">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/07</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>2569</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="31">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/07</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>6138</v>
+        <v>6219</v>
       </c>
     </row>
     <row r="32">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/12</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1459,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>147984</v>
+        <v>150067</v>
       </c>
     </row>
     <row r="33">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>81708</v>
+        <v>82925</v>
       </c>
     </row>
     <row r="35">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>74033</v>
+        <v>75106</v>
       </c>
     </row>
     <row r="36">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>60142</v>
+        <v>61389</v>
       </c>
     </row>
     <row r="37">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>83596</v>
+        <v>85555</v>
       </c>
     </row>
     <row r="39">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>105363</v>
+        <v>108007</v>
       </c>
     </row>
     <row r="40">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>42584</v>
+        <v>43579</v>
       </c>
     </row>
     <row r="41">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>1322</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="43">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>26276</v>
+        <v>29520</v>
       </c>
     </row>
     <row r="44">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1652</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="45">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>72028</v>
+        <v>73247</v>
       </c>
     </row>
     <row r="46">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>34794</v>
+        <v>35349</v>
       </c>
     </row>
     <row r="47">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>17530</v>
+        <v>17829</v>
       </c>
     </row>
     <row r="48">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>55885</v>
+        <v>56915</v>
       </c>
     </row>
     <row r="49">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>3498</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="50">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>3350</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="51">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>1933</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="52">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>12949</v>
+        <v>12962</v>
       </c>
     </row>
     <row r="57">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/12</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="60">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="61">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2592,7 +2592,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2024/09/14</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>12018</v>
+        <v>12057</v>
       </c>
     </row>
     <row r="68">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>29164</v>
+        <v>29235</v>
       </c>
     </row>
     <row r="73">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>81625</v>
+        <v>81649</v>
       </c>
     </row>
     <row r="74">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/10/07</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/12</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>21501</v>
+        <v>21513</v>
       </c>
     </row>
     <row r="76">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/10/07</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>27491</v>
+        <v>27501</v>
       </c>
     </row>
     <row r="77">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>18831</v>
+        <v>18841</v>
       </c>
     </row>
     <row r="78">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2024/09/08</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>11227</v>
+        <v>11229</v>
       </c>
     </row>
     <row r="79">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>16180</v>
+        <v>16187</v>
       </c>
     </row>
     <row r="80">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>3952</v>
+        <v>3953</v>
       </c>
     </row>
     <row r="81">
@@ -3136,7 +3136,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2024/09/17</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>1331</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="83">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/07</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>11260</v>
+        <v>11265</v>
       </c>
     </row>
     <row r="87">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2024/09/14</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>182498</v>
+        <v>192992</v>
       </c>
     </row>
     <row r="88">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3499,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>5468</v>
+        <v>5559</v>
       </c>
     </row>
     <row r="93">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>21751</v>
+        <v>22151</v>
       </c>
     </row>
     <row r="94">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>6581</v>
+        <v>6671</v>
       </c>
     </row>
     <row r="95">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/07</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>11928</v>
+        <v>12120</v>
       </c>
     </row>
     <row r="96">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>2910</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="97">
@@ -3748,7 +3748,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>2361</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="101">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>6454</v>
+        <v>6571</v>
       </c>
     </row>
     <row r="103">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>1116</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="104">
@@ -3952,7 +3952,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2024/09/17</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4009,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>2214</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="108">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>71591</v>
+        <v>73186</v>
       </c>
     </row>
     <row r="109">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/10/07</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2024/09/25</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>15087</v>
+        <v>16188</v>
       </c>
     </row>
     <row r="113">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>5061</v>
+        <v>5121</v>
       </c>
     </row>
     <row r="114">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4281,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>33050</v>
+        <v>33506</v>
       </c>
     </row>
     <row r="116">
@@ -4292,7 +4292,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>48648</v>
+        <v>49165</v>
       </c>
     </row>
     <row r="117">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4519,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>138380</v>
+        <v>138879</v>
       </c>
     </row>
     <row r="123">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>19079</v>
+        <v>19143</v>
       </c>
     </row>
     <row r="124">
@@ -4598,7 +4598,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2024/09/15</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>34554</v>
+        <v>36195</v>
       </c>
     </row>
     <row r="129">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4791,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>20979</v>
+        <v>21076</v>
       </c>
     </row>
     <row r="131">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>108194</v>
+        <v>109345</v>
       </c>
     </row>
     <row r="133">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>20144</v>
+        <v>20376</v>
       </c>
     </row>
     <row r="134">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4961,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>13892</v>
+        <v>13982</v>
       </c>
     </row>
     <row r="136">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>17886</v>
+        <v>18485</v>
       </c>
     </row>
     <row r="137">
@@ -5006,7 +5006,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5029,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>32500</v>
+        <v>32907</v>
       </c>
     </row>
     <row r="138">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>161335</v>
+        <v>161370</v>
       </c>
     </row>
     <row r="139">
@@ -5074,7 +5074,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5097,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>28565</v>
+        <v>29773</v>
       </c>
     </row>
     <row r="140">
@@ -5108,7 +5108,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5131,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>627</v>
+        <v>829</v>
       </c>
     </row>
     <row r="141">
@@ -5142,7 +5142,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>6747</v>
+        <v>6846</v>
       </c>
     </row>
     <row r="142">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5199,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>15901</v>
+        <v>15985</v>
       </c>
     </row>
     <row r="143">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5233,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>18539</v>
+        <v>18710</v>
       </c>
     </row>
     <row r="144">
@@ -5244,7 +5244,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>80418</v>
+        <v>81460</v>
       </c>
     </row>
     <row r="145">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2024/10/03</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5301,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>39351</v>
+        <v>39753</v>
       </c>
     </row>
     <row r="146">
@@ -5312,7 +5312,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5335,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>245982</v>
+        <v>248026</v>
       </c>
     </row>
     <row r="147">
@@ -5346,7 +5346,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5369,7 +5369,7 @@
         <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>5743</v>
+        <v>5787</v>
       </c>
     </row>
     <row r="148">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>21314</v>
+        <v>22115</v>
       </c>
     </row>
     <row r="149">
@@ -5414,7 +5414,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>35082</v>
+        <v>35500</v>
       </c>
     </row>
     <row r="150">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5471,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>29075</v>
+        <v>29604</v>
       </c>
     </row>
     <row r="151">
@@ -5584,7 +5584,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5607,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="H154" t="n">
-        <v>2815</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="155">
@@ -5618,7 +5618,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5641,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>2076</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="156">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>664</v>
+        <v>729</v>
       </c>
     </row>
     <row r="157">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>450</v>
+        <v>460</v>
       </c>
     </row>
     <row r="158">
@@ -5856,7 +5856,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>325</v>
+        <v>337</v>
       </c>
     </row>
     <row r="163">
@@ -5890,7 +5890,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5913,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>1072</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="164">
@@ -6026,7 +6026,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>472</v>
+        <v>518</v>
       </c>
     </row>
     <row r="168">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6151,7 +6151,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="171">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/07</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6185,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="172">
@@ -6434,7 +6434,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -6457,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>4030</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="180">
@@ -6536,7 +6536,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6593,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="H183" t="n">
-        <v>603</v>
+        <v>624</v>
       </c>
     </row>
     <row r="184">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6627,7 +6627,7 @@
         <v>0</v>
       </c>
       <c r="H184" t="n">
-        <v>361</v>
+        <v>380</v>
       </c>
     </row>
     <row r="185">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2024/08/27</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="186">
@@ -6740,7 +6740,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6763,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="189">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="H190" t="n">
-        <v>340</v>
+        <v>352</v>
       </c>
     </row>
     <row r="191">
@@ -6842,7 +6842,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2024/09/15</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6865,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="H191" t="n">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="192">
@@ -6876,7 +6876,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6899,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>500</v>
+        <v>574</v>
       </c>
     </row>
     <row r="193">
@@ -6978,7 +6978,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2024/09/02</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>2041</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="196">
@@ -7012,7 +7012,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="197">
@@ -7046,7 +7046,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -7069,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>1223</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="198">
@@ -7182,7 +7182,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/10/07</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -7205,7 +7205,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="202">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -7239,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="n">
-        <v>769</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="203">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -7273,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="H203" t="n">
-        <v>3594</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="204">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -7307,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>417</v>
+        <v>447</v>
       </c>
     </row>
     <row r="205">
@@ -7318,7 +7318,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -7341,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="n">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="206">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -7443,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="n">
-        <v>931</v>
+        <v>959</v>
       </c>
     </row>
     <row r="209">
@@ -7658,7 +7658,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/10/07</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7681,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="n">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="216">
@@ -7692,7 +7692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -7715,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="n">
-        <v>290</v>
+        <v>374</v>
       </c>
     </row>
     <row r="217">
@@ -7828,7 +7828,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>1167</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="221">
@@ -7862,7 +7862,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2024/09/25</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2024/10/01</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -8259,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="H232" t="n">
-        <v>474</v>
+        <v>496</v>
       </c>
     </row>
     <row r="233">
@@ -8304,7 +8304,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="H234" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="235">
@@ -8406,7 +8406,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2024/10/04</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -8474,7 +8474,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -8497,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="H239" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="240">
@@ -8610,7 +8610,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>542</v>
+        <v>557</v>
       </c>
     </row>
     <row r="244">
@@ -8644,7 +8644,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>2024/10/01</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="n">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="245">
@@ -8712,7 +8712,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -8735,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="H246" t="n">
-        <v>420</v>
+        <v>438</v>
       </c>
     </row>
     <row r="247">
@@ -8780,7 +8780,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -8803,7 +8803,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="n">
-        <v>1357</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="249">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -8905,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="H251" t="n">
-        <v>1225</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="252">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>6321</v>
+        <v>6439</v>
       </c>
     </row>
     <row r="253">
@@ -8950,7 +8950,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -8973,7 +8973,7 @@
         <v>0</v>
       </c>
       <c r="H253" t="n">
-        <v>1389</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="254">
@@ -9018,7 +9018,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -9041,7 +9041,7 @@
         <v>0</v>
       </c>
       <c r="H255" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="256">
@@ -9120,7 +9120,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/10/07</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -9143,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>1825</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="259">
@@ -9154,7 +9154,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -9177,7 +9177,7 @@
         <v>0</v>
       </c>
       <c r="H259" t="n">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="260">
@@ -9290,7 +9290,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>2024/06/19</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -9381,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="H265" t="n">
-        <v>20840</v>
+        <v>21144</v>
       </c>
     </row>
     <row r="266">
@@ -9392,7 +9392,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="H266" t="n">
-        <v>3534</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="267">
@@ -9460,7 +9460,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -9483,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="H268" t="n">
-        <v>16687</v>
+        <v>16824</v>
       </c>
     </row>
     <row r="269">
@@ -9494,7 +9494,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -9517,7 +9517,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="n">
-        <v>1012</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="270">
@@ -9562,7 +9562,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -9585,7 +9585,7 @@
         <v>0</v>
       </c>
       <c r="H271" t="n">
-        <v>962379</v>
+        <v>988929</v>
       </c>
     </row>
     <row r="272">
@@ -9596,7 +9596,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -9619,7 +9619,7 @@
         <v>0</v>
       </c>
       <c r="H272" t="n">
-        <v>9164</v>
+        <v>9333</v>
       </c>
     </row>
     <row r="273">
@@ -9630,7 +9630,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="H273" t="n">
-        <v>3969</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="274">
@@ -9664,7 +9664,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="H274" t="n">
-        <v>467</v>
+        <v>526</v>
       </c>
     </row>
     <row r="275">
@@ -9698,7 +9698,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -9721,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="H275" t="n">
-        <v>5045</v>
+        <v>5109</v>
       </c>
     </row>
     <row r="276">
@@ -9766,7 +9766,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>2024/10/02</t>
+          <t>2024/10/07</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -9800,7 +9800,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -9823,7 +9823,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="n">
-        <v>466</v>
+        <v>491</v>
       </c>
     </row>
     <row r="279">
@@ -9834,7 +9834,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -9857,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="n">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="280">
@@ -9868,7 +9868,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -9891,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="n">
-        <v>319</v>
+        <v>330</v>
       </c>
     </row>
     <row r="281">
@@ -9902,7 +9902,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>2024/09/25</t>
+          <t>2024/10/07</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -9936,7 +9936,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>2024/10/01</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -9959,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="n">
-        <v>3526</v>
+        <v>3697</v>
       </c>
     </row>
     <row r="283">
@@ -10004,7 +10004,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -10027,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="H284" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="285">
@@ -10038,7 +10038,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -10061,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="H285" t="n">
-        <v>784</v>
+        <v>883</v>
       </c>
     </row>
     <row r="286">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -10095,7 +10095,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="n">
-        <v>232</v>
+        <v>247</v>
       </c>
     </row>
     <row r="287">
@@ -10174,7 +10174,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -10197,7 +10197,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="n">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="290">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -10231,7 +10231,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="291">
@@ -10310,7 +10310,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>2024/09/02</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -10333,7 +10333,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="294">
@@ -10446,7 +10446,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -10469,7 +10469,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="298">
@@ -10480,7 +10480,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/07</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -10503,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="n">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="299">
@@ -10514,7 +10514,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -10537,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="H299" t="n">
-        <v>1101</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="300">
@@ -10616,7 +10616,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>2024/08/21</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -10639,7 +10639,7 @@
         <v>0</v>
       </c>
       <c r="H302" t="n">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="303">
@@ -10786,7 +10786,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -10854,7 +10854,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -10877,7 +10877,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="310">
@@ -10922,7 +10922,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -10945,7 +10945,7 @@
         <v>0</v>
       </c>
       <c r="H311" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="312">
@@ -10956,7 +10956,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/07</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="313">
@@ -11024,7 +11024,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -11047,7 +11047,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="n">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="315">
@@ -11126,7 +11126,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -11149,7 +11149,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="318">
@@ -11160,7 +11160,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/13</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -11183,7 +11183,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="319">
@@ -11194,7 +11194,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -11228,7 +11228,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="n">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="321">
@@ -11296,7 +11296,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -11319,7 +11319,7 @@
         <v>0</v>
       </c>
       <c r="H322" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="323">
@@ -11398,7 +11398,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/13</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -11421,7 +11421,7 @@
         <v>0</v>
       </c>
       <c r="H325" t="n">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="326">
@@ -11432,7 +11432,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -11455,7 +11455,7 @@
         <v>0</v>
       </c>
       <c r="H326" t="n">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="327">
@@ -11500,7 +11500,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -11523,7 +11523,7 @@
         <v>0</v>
       </c>
       <c r="H328" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="329">
@@ -11534,7 +11534,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -11557,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="330">
@@ -11806,7 +11806,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/13</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -11829,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="338">
@@ -11874,7 +11874,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>2024/08/17</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -11897,7 +11897,7 @@
         <v>0</v>
       </c>
       <c r="H339" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="340">
@@ -11908,7 +11908,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -11931,7 +11931,7 @@
         <v>0</v>
       </c>
       <c r="H340" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="341">
@@ -12044,7 +12044,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -12067,7 +12067,7 @@
         <v>0</v>
       </c>
       <c r="H344" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="345">
@@ -12112,7 +12112,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>2024/09/08</t>
+          <t>2024/10/06</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -12135,7 +12135,7 @@
         <v>0</v>
       </c>
       <c r="H346" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="347">
@@ -12180,7 +12180,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -12203,7 +12203,7 @@
         <v>0</v>
       </c>
       <c r="H348" t="n">
-        <v>10476</v>
+        <v>10669</v>
       </c>
     </row>
     <row r="349">
@@ -12214,7 +12214,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/12</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -12237,7 +12237,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="n">
-        <v>13841</v>
+        <v>14004</v>
       </c>
     </row>
     <row r="350">
@@ -12248,7 +12248,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>2024/09/08</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -12271,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="H350" t="n">
-        <v>3078</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="351">
@@ -12316,7 +12316,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -12339,7 +12339,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="n">
-        <v>75986</v>
+        <v>76790</v>
       </c>
     </row>
     <row r="353">
@@ -12350,7 +12350,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -12384,7 +12384,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/13</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -12407,7 +12407,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="n">
-        <v>7584</v>
+        <v>7657</v>
       </c>
     </row>
     <row r="355">
@@ -12418,7 +12418,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -12441,7 +12441,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="n">
-        <v>48482</v>
+        <v>49127</v>
       </c>
     </row>
     <row r="356">
@@ -12452,7 +12452,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -12475,7 +12475,7 @@
         <v>0</v>
       </c>
       <c r="H356" t="n">
-        <v>34100</v>
+        <v>34112</v>
       </c>
     </row>
     <row r="357">
@@ -12486,7 +12486,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -12509,7 +12509,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="n">
-        <v>3066</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="358">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -12543,7 +12543,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="n">
-        <v>33927</v>
+        <v>34256</v>
       </c>
     </row>
     <row r="359">
@@ -12622,7 +12622,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -12645,7 +12645,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="n">
-        <v>41111</v>
+        <v>41563</v>
       </c>
     </row>
     <row r="362">
@@ -12656,7 +12656,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -12679,7 +12679,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="n">
-        <v>14915</v>
+        <v>14920</v>
       </c>
     </row>
     <row r="363">
@@ -12690,7 +12690,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/12</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="n">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="364">
@@ -12724,7 +12724,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -12747,7 +12747,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="n">
-        <v>13951</v>
+        <v>14377</v>
       </c>
     </row>
     <row r="365">
@@ -12962,7 +12962,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -12985,7 +12985,7 @@
         <v>0</v>
       </c>
       <c r="H371" t="n">
-        <v>27756</v>
+        <v>28060</v>
       </c>
     </row>
     <row r="372">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -13019,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="H372" t="n">
-        <v>18890</v>
+        <v>19126</v>
       </c>
     </row>
     <row r="373">
@@ -13030,7 +13030,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -13053,7 +13053,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="n">
-        <v>74114</v>
+        <v>74863</v>
       </c>
     </row>
     <row r="374">
@@ -13064,7 +13064,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>2024/10/02</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -13087,7 +13087,7 @@
         <v>0</v>
       </c>
       <c r="H374" t="n">
-        <v>42460</v>
+        <v>42792</v>
       </c>
     </row>
     <row r="375">
@@ -13234,7 +13234,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -13257,7 +13257,7 @@
         <v>0</v>
       </c>
       <c r="H379" t="n">
-        <v>27462</v>
+        <v>27733</v>
       </c>
     </row>
     <row r="380">
@@ -13268,7 +13268,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>2024/09/14</t>
+          <t>2024/10/12</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -13291,7 +13291,7 @@
         <v>0</v>
       </c>
       <c r="H380" t="n">
-        <v>12785</v>
+        <v>12837</v>
       </c>
     </row>
     <row r="381">
@@ -13370,7 +13370,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -13393,7 +13393,7 @@
         <v>0</v>
       </c>
       <c r="H383" t="n">
-        <v>11396</v>
+        <v>11616</v>
       </c>
     </row>
     <row r="384">
@@ -13404,7 +13404,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/10/07</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -13427,7 +13427,7 @@
         <v>0</v>
       </c>
       <c r="H384" t="n">
-        <v>27747</v>
+        <v>27759</v>
       </c>
     </row>
     <row r="385">
@@ -13472,7 +13472,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -13540,7 +13540,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/13</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -13563,7 +13563,7 @@
         <v>0</v>
       </c>
       <c r="H388" t="n">
-        <v>15859</v>
+        <v>16006</v>
       </c>
     </row>
     <row r="389">
@@ -13574,7 +13574,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -13608,7 +13608,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="n">
-        <v>6980</v>
+        <v>7043</v>
       </c>
     </row>
     <row r="391">
@@ -13642,7 +13642,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -13665,7 +13665,7 @@
         <v>0</v>
       </c>
       <c r="H391" t="n">
-        <v>17653</v>
+        <v>17841</v>
       </c>
     </row>
     <row r="392">
@@ -13676,7 +13676,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -13699,7 +13699,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="n">
-        <v>28111</v>
+        <v>28452</v>
       </c>
     </row>
     <row r="393">
@@ -13710,7 +13710,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -13733,7 +13733,7 @@
         <v>0</v>
       </c>
       <c r="H393" t="n">
-        <v>32815</v>
+        <v>32818</v>
       </c>
     </row>
     <row r="394">
@@ -13744,7 +13744,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -13767,7 +13767,7 @@
         <v>0</v>
       </c>
       <c r="H394" t="n">
-        <v>7226</v>
+        <v>7316</v>
       </c>
     </row>
     <row r="395">
@@ -13778,7 +13778,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>2024/10/03</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -13801,7 +13801,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="n">
-        <v>42481</v>
+        <v>42963</v>
       </c>
     </row>
     <row r="396">
@@ -13846,7 +13846,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -13869,7 +13869,7 @@
         <v>0</v>
       </c>
       <c r="H397" t="n">
-        <v>950</v>
+        <v>960</v>
       </c>
     </row>
     <row r="398">
@@ -13880,7 +13880,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/10/07</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -13903,7 +13903,7 @@
         <v>0</v>
       </c>
       <c r="H398" t="n">
-        <v>46950</v>
+        <v>47392</v>
       </c>
     </row>
     <row r="399">
@@ -13914,7 +13914,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -13937,7 +13937,7 @@
         <v>0</v>
       </c>
       <c r="H399" t="n">
-        <v>26327</v>
+        <v>26638</v>
       </c>
     </row>
     <row r="400">
@@ -13948,7 +13948,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>2024/10/01</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -13971,7 +13971,7 @@
         <v>0</v>
       </c>
       <c r="H400" t="n">
-        <v>26317</v>
+        <v>28984</v>
       </c>
     </row>
     <row r="401">
@@ -14016,7 +14016,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>2024/10/01</t>
+          <t>2024/10/07</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -14039,7 +14039,7 @@
         <v>0</v>
       </c>
       <c r="H402" t="n">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="403">
@@ -14050,7 +14050,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -14073,7 +14073,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="n">
-        <v>3737</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="404">
@@ -14084,7 +14084,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/10/07</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -14107,7 +14107,7 @@
         <v>0</v>
       </c>
       <c r="H404" t="n">
-        <v>42345</v>
+        <v>42396</v>
       </c>
     </row>
     <row r="405">
@@ -14118,7 +14118,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>2024/09/14</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -14141,7 +14141,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="n">
-        <v>101544</v>
+        <v>102661</v>
       </c>
     </row>
     <row r="406">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -14175,7 +14175,7 @@
         <v>0</v>
       </c>
       <c r="H406" t="n">
-        <v>7252</v>
+        <v>7467</v>
       </c>
     </row>
     <row r="407">
@@ -14186,7 +14186,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -14209,7 +14209,7 @@
         <v>0</v>
       </c>
       <c r="H407" t="n">
-        <v>50277</v>
+        <v>50284</v>
       </c>
     </row>
     <row r="408">
@@ -14254,7 +14254,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>2024/10/02</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -14277,7 +14277,7 @@
         <v>0</v>
       </c>
       <c r="H409" t="n">
-        <v>26543</v>
+        <v>26836</v>
       </c>
     </row>
     <row r="410">
@@ -14288,7 +14288,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -14311,7 +14311,7 @@
         <v>0</v>
       </c>
       <c r="H410" t="n">
-        <v>4317</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="411">
@@ -14322,7 +14322,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -14356,7 +14356,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>2024/09/17</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -14379,7 +14379,7 @@
         <v>0</v>
       </c>
       <c r="H412" t="n">
-        <v>107952</v>
+        <v>109374</v>
       </c>
     </row>
     <row r="413">
@@ -14390,7 +14390,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/07</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -14424,7 +14424,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="H414" t="n">
-        <v>10285</v>
+        <v>10305</v>
       </c>
     </row>
     <row r="415">
@@ -14492,7 +14492,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -14515,7 +14515,7 @@
         <v>0</v>
       </c>
       <c r="H416" t="n">
-        <v>97580</v>
+        <v>98462</v>
       </c>
     </row>
     <row r="417">
@@ -14526,7 +14526,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -14549,7 +14549,7 @@
         <v>0</v>
       </c>
       <c r="H417" t="n">
-        <v>3320</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="418">
@@ -14560,7 +14560,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>2024/09/30</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -14583,7 +14583,7 @@
         <v>0</v>
       </c>
       <c r="H418" t="n">
-        <v>60320</v>
+        <v>60194</v>
       </c>
     </row>
     <row r="419">
@@ -14594,7 +14594,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -14617,7 +14617,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="n">
-        <v>24739</v>
+        <v>24991</v>
       </c>
     </row>
     <row r="420">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -14651,7 +14651,7 @@
         <v>0</v>
       </c>
       <c r="H420" t="n">
-        <v>15614</v>
+        <v>15780</v>
       </c>
     </row>
     <row r="421">
@@ -14696,7 +14696,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>2024/10/01</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -14719,7 +14719,7 @@
         <v>0</v>
       </c>
       <c r="H422" t="n">
-        <v>10636</v>
+        <v>10640</v>
       </c>
     </row>
     <row r="423">
@@ -14730,7 +14730,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -14753,7 +14753,7 @@
         <v>0</v>
       </c>
       <c r="H423" t="n">
-        <v>81417</v>
+        <v>81769</v>
       </c>
     </row>
     <row r="424">
@@ -14764,7 +14764,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -14787,7 +14787,7 @@
         <v>0</v>
       </c>
       <c r="H424" t="n">
-        <v>7201</v>
+        <v>7203</v>
       </c>
     </row>
     <row r="425">
@@ -14798,7 +14798,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -14821,7 +14821,7 @@
         <v>0</v>
       </c>
       <c r="H425" t="n">
-        <v>3644</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="426">
@@ -14832,7 +14832,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -14855,7 +14855,7 @@
         <v>0</v>
       </c>
       <c r="H426" t="n">
-        <v>4432</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="427">
@@ -14866,7 +14866,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -14889,7 +14889,7 @@
         <v>0</v>
       </c>
       <c r="H427" t="n">
-        <v>10784</v>
+        <v>10788</v>
       </c>
     </row>
     <row r="428">
@@ -14900,7 +14900,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -14934,7 +14934,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -14957,7 +14957,7 @@
         <v>0</v>
       </c>
       <c r="H429" t="n">
-        <v>5976</v>
+        <v>6048</v>
       </c>
     </row>
     <row r="430">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>2024/10/04</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -14991,7 +14991,7 @@
         <v>0</v>
       </c>
       <c r="H430" t="n">
-        <v>14882</v>
+        <v>15110</v>
       </c>
     </row>
     <row r="431">
@@ -15104,7 +15104,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -15127,7 +15127,7 @@
         <v>0</v>
       </c>
       <c r="H434" t="n">
-        <v>26533</v>
+        <v>26990</v>
       </c>
     </row>
     <row r="435">
@@ -15138,7 +15138,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -15161,7 +15161,7 @@
         <v>0</v>
       </c>
       <c r="H435" t="n">
-        <v>4093</v>
+        <v>4094</v>
       </c>
     </row>
     <row r="436">
@@ -15240,7 +15240,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -15263,7 +15263,7 @@
         <v>0</v>
       </c>
       <c r="H438" t="n">
-        <v>50003</v>
+        <v>50505</v>
       </c>
     </row>
     <row r="439">
@@ -15274,7 +15274,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -15297,7 +15297,7 @@
         <v>0</v>
       </c>
       <c r="H439" t="n">
-        <v>15259</v>
+        <v>15281</v>
       </c>
     </row>
     <row r="440">
@@ -15308,7 +15308,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -15331,7 +15331,7 @@
         <v>0</v>
       </c>
       <c r="H440" t="n">
-        <v>7841</v>
+        <v>7925</v>
       </c>
     </row>
     <row r="441">
@@ -15376,7 +15376,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -15399,7 +15399,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="n">
-        <v>53604</v>
+        <v>54207</v>
       </c>
     </row>
     <row r="443">
@@ -15410,7 +15410,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -15433,7 +15433,7 @@
         <v>0</v>
       </c>
       <c r="H443" t="n">
-        <v>39335</v>
+        <v>39765</v>
       </c>
     </row>
     <row r="444">
@@ -15444,7 +15444,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -15467,7 +15467,7 @@
         <v>0</v>
       </c>
       <c r="H444" t="n">
-        <v>9055</v>
+        <v>9507</v>
       </c>
     </row>
     <row r="445">
@@ -15512,7 +15512,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -15580,7 +15580,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>2024/09/30</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -15603,7 +15603,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="n">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="449">
@@ -15614,7 +15614,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/07</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -15637,7 +15637,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="n">
-        <v>26720</v>
+        <v>26980</v>
       </c>
     </row>
     <row r="450">
@@ -15648,7 +15648,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -15671,7 +15671,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="n">
-        <v>9238</v>
+        <v>9381</v>
       </c>
     </row>
     <row r="451">
@@ -15682,7 +15682,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>2024/10/03</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -15705,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="n">
-        <v>6332</v>
+        <v>6403</v>
       </c>
     </row>
     <row r="452">
@@ -15716,7 +15716,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>2024/10/02</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -15739,7 +15739,7 @@
         <v>0</v>
       </c>
       <c r="H452" t="n">
-        <v>202</v>
+        <v>227</v>
       </c>
     </row>
     <row r="453">
@@ -15750,7 +15750,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>2024/10/01</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -15773,7 +15773,7 @@
         <v>0</v>
       </c>
       <c r="H453" t="n">
-        <v>14877</v>
+        <v>14900</v>
       </c>
     </row>
     <row r="454">
@@ -15818,7 +15818,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>2024/07/23</t>
+          <t>2024/10/07</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -15841,7 +15841,7 @@
         <v>0</v>
       </c>
       <c r="H455" t="n">
-        <v>33179</v>
+        <v>33184</v>
       </c>
     </row>
     <row r="456">
@@ -15852,7 +15852,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -15875,7 +15875,7 @@
         <v>0</v>
       </c>
       <c r="H456" t="n">
-        <v>50913</v>
+        <v>51527</v>
       </c>
     </row>
     <row r="457">
@@ -15886,7 +15886,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -15909,7 +15909,7 @@
         <v>0</v>
       </c>
       <c r="H457" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="458">
@@ -15954,7 +15954,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>2024/09/27</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -15977,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="H459" t="n">
-        <v>38889</v>
+        <v>38892</v>
       </c>
     </row>
     <row r="460">
@@ -15988,7 +15988,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>2024/10/01</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -16011,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="n">
-        <v>19728</v>
+        <v>19956</v>
       </c>
     </row>
     <row r="461">
@@ -16056,7 +16056,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -16079,7 +16079,7 @@
         <v>0</v>
       </c>
       <c r="H462" t="n">
-        <v>1409</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="463">
@@ -16090,7 +16090,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -16113,7 +16113,7 @@
         <v>0</v>
       </c>
       <c r="H463" t="n">
-        <v>26597</v>
+        <v>26938</v>
       </c>
     </row>
     <row r="464">
@@ -16124,7 +16124,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>2024/09/27</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -16147,7 +16147,7 @@
         <v>0</v>
       </c>
       <c r="H464" t="n">
-        <v>11548</v>
+        <v>11551</v>
       </c>
     </row>
     <row r="465">
@@ -16158,7 +16158,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>2024/09/26</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -16181,7 +16181,7 @@
         <v>0</v>
       </c>
       <c r="H465" t="n">
-        <v>35295</v>
+        <v>35296</v>
       </c>
     </row>
     <row r="466">
@@ -16192,7 +16192,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -16215,7 +16215,7 @@
         <v>0</v>
       </c>
       <c r="H466" t="n">
-        <v>50695</v>
+        <v>51802</v>
       </c>
     </row>
     <row r="467">
@@ -16226,7 +16226,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -16249,7 +16249,7 @@
         <v>0</v>
       </c>
       <c r="H467" t="n">
-        <v>55617</v>
+        <v>56219</v>
       </c>
     </row>
     <row r="468">
@@ -16260,7 +16260,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -16283,7 +16283,7 @@
         <v>0</v>
       </c>
       <c r="H468" t="n">
-        <v>17288</v>
+        <v>17554</v>
       </c>
     </row>
     <row r="469">
@@ -16294,7 +16294,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -16317,7 +16317,7 @@
         <v>0</v>
       </c>
       <c r="H469" t="n">
-        <v>37896</v>
+        <v>38358</v>
       </c>
     </row>
     <row r="470">
@@ -16328,7 +16328,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -16351,7 +16351,7 @@
         <v>0</v>
       </c>
       <c r="H470" t="n">
-        <v>10336</v>
+        <v>10337</v>
       </c>
     </row>
     <row r="471">
@@ -16362,7 +16362,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/07</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -16385,7 +16385,7 @@
         <v>0</v>
       </c>
       <c r="H471" t="n">
-        <v>9928</v>
+        <v>10029</v>
       </c>
     </row>
     <row r="472">
@@ -16430,7 +16430,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -16453,7 +16453,7 @@
         <v>0</v>
       </c>
       <c r="H473" t="n">
-        <v>2448</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="474">
@@ -16464,7 +16464,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -16498,7 +16498,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -16521,7 +16521,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="n">
-        <v>1033</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="476">
@@ -16566,7 +16566,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>2024/10/02</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -16589,7 +16589,7 @@
         <v>0</v>
       </c>
       <c r="H477" t="n">
-        <v>26561</v>
+        <v>26839</v>
       </c>
     </row>
     <row r="478">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -16623,7 +16623,7 @@
         <v>0</v>
       </c>
       <c r="H478" t="n">
-        <v>25227</v>
+        <v>25228</v>
       </c>
     </row>
     <row r="479">
@@ -16634,7 +16634,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>2024/10/03</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -16657,7 +16657,7 @@
         <v>0</v>
       </c>
       <c r="H479" t="n">
-        <v>82954</v>
+        <v>83769</v>
       </c>
     </row>
     <row r="480">
@@ -16668,7 +16668,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -16691,7 +16691,7 @@
         <v>0</v>
       </c>
       <c r="H480" t="n">
-        <v>53765</v>
+        <v>54297</v>
       </c>
     </row>
     <row r="481">
@@ -16736,7 +16736,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>2024/06/01</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -16759,7 +16759,7 @@
         <v>0</v>
       </c>
       <c r="H482" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
     </row>
     <row r="483">
@@ -16770,7 +16770,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -16793,7 +16793,7 @@
         <v>0</v>
       </c>
       <c r="H483" t="n">
-        <v>15542</v>
+        <v>15726</v>
       </c>
     </row>
     <row r="484">
@@ -16804,7 +16804,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -16827,7 +16827,7 @@
         <v>0</v>
       </c>
       <c r="H484" t="n">
-        <v>14766</v>
+        <v>15039</v>
       </c>
     </row>
     <row r="485">
@@ -16838,7 +16838,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -16861,7 +16861,7 @@
         <v>0</v>
       </c>
       <c r="H485" t="n">
-        <v>18856</v>
+        <v>19051</v>
       </c>
     </row>
     <row r="486">
@@ -16872,7 +16872,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>2024/10/04</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -16895,7 +16895,7 @@
         <v>0</v>
       </c>
       <c r="H486" t="n">
-        <v>30693</v>
+        <v>31026</v>
       </c>
     </row>
     <row r="487">
@@ -16906,7 +16906,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -16929,7 +16929,7 @@
         <v>0</v>
       </c>
       <c r="H487" t="n">
-        <v>1091</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="488">
@@ -16940,7 +16940,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -16963,7 +16963,7 @@
         <v>0</v>
       </c>
       <c r="H488" t="n">
-        <v>8605</v>
+        <v>8682</v>
       </c>
     </row>
     <row r="489">
@@ -17042,7 +17042,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -17065,7 +17065,7 @@
         <v>0</v>
       </c>
       <c r="H491" t="n">
-        <v>19369</v>
+        <v>19580</v>
       </c>
     </row>
     <row r="492">
@@ -17144,7 +17144,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -17167,7 +17167,7 @@
         <v>0</v>
       </c>
       <c r="H494" t="n">
-        <v>21639</v>
+        <v>21850</v>
       </c>
     </row>
     <row r="495">
@@ -17178,7 +17178,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -17201,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="H495" t="n">
-        <v>30266</v>
+        <v>30633</v>
       </c>
     </row>
     <row r="496">
@@ -17212,7 +17212,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -17235,7 +17235,7 @@
         <v>0</v>
       </c>
       <c r="H496" t="n">
-        <v>21884</v>
+        <v>22088</v>
       </c>
     </row>
     <row r="497">
@@ -17246,7 +17246,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -17269,7 +17269,7 @@
         <v>0</v>
       </c>
       <c r="H497" t="n">
-        <v>24475</v>
+        <v>24757</v>
       </c>
     </row>
     <row r="498">
@@ -17280,7 +17280,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>2024/09/25</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -17303,7 +17303,7 @@
         <v>0</v>
       </c>
       <c r="H498" t="n">
-        <v>5829</v>
+        <v>5888</v>
       </c>
     </row>
     <row r="499">
@@ -17348,7 +17348,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -17371,7 +17371,7 @@
         <v>0</v>
       </c>
       <c r="H500" t="n">
-        <v>45937</v>
+        <v>46516</v>
       </c>
     </row>
     <row r="501">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>2024/09/26</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -17484,7 +17484,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>2024/09/17</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -17507,7 +17507,7 @@
         <v>0</v>
       </c>
       <c r="H504" t="n">
-        <v>36602</v>
+        <v>36994</v>
       </c>
     </row>
     <row r="505">
@@ -17552,7 +17552,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -17575,7 +17575,7 @@
         <v>0</v>
       </c>
       <c r="H506" t="n">
-        <v>14350</v>
+        <v>14503</v>
       </c>
     </row>
     <row r="507">
@@ -17620,7 +17620,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -17643,7 +17643,7 @@
         <v>0</v>
       </c>
       <c r="H508" t="n">
-        <v>4490</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="509">
@@ -17654,7 +17654,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -17677,7 +17677,7 @@
         <v>0</v>
       </c>
       <c r="H509" t="n">
-        <v>11018</v>
+        <v>11159</v>
       </c>
     </row>
     <row r="510">
@@ -17688,7 +17688,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -17711,7 +17711,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="n">
-        <v>21419</v>
+        <v>21452</v>
       </c>
     </row>
     <row r="511">
@@ -17756,7 +17756,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/07</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -17779,7 +17779,7 @@
         <v>0</v>
       </c>
       <c r="H512" t="n">
-        <v>1574</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="513">
@@ -17790,7 +17790,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -17813,7 +17813,7 @@
         <v>0</v>
       </c>
       <c r="H513" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="514">
@@ -17858,7 +17858,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -17881,7 +17881,7 @@
         <v>0</v>
       </c>
       <c r="H515" t="n">
-        <v>17907</v>
+        <v>18079</v>
       </c>
     </row>
     <row r="516">
@@ -17892,7 +17892,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -17915,7 +17915,7 @@
         <v>0</v>
       </c>
       <c r="H516" t="n">
-        <v>86327</v>
+        <v>87246</v>
       </c>
     </row>
     <row r="517">
@@ -17926,7 +17926,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/13</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -17949,7 +17949,7 @@
         <v>0</v>
       </c>
       <c r="H517" t="n">
-        <v>66181</v>
+        <v>67667</v>
       </c>
     </row>
     <row r="518">
@@ -17960,7 +17960,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -17983,7 +17983,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="n">
-        <v>4820</v>
+        <v>4848</v>
       </c>
     </row>
     <row r="519">
@@ -17994,7 +17994,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>2024/10/03</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -18017,7 +18017,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="n">
-        <v>6176</v>
+        <v>6608</v>
       </c>
     </row>
     <row r="520">
@@ -18028,7 +18028,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -18051,7 +18051,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="n">
-        <v>13469</v>
+        <v>13484</v>
       </c>
     </row>
     <row r="521">
@@ -18096,7 +18096,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -18119,7 +18119,7 @@
         <v>0</v>
       </c>
       <c r="H522" t="n">
-        <v>5020</v>
+        <v>5089</v>
       </c>
     </row>
     <row r="523">
@@ -18198,7 +18198,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -18221,7 +18221,7 @@
         <v>0</v>
       </c>
       <c r="H525" t="n">
-        <v>1385</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="526">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -18255,7 +18255,7 @@
         <v>0</v>
       </c>
       <c r="H526" t="n">
-        <v>11197</v>
+        <v>11302</v>
       </c>
     </row>
     <row r="527">
@@ -18266,7 +18266,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -18289,7 +18289,7 @@
         <v>0</v>
       </c>
       <c r="H527" t="n">
-        <v>7154</v>
+        <v>7251</v>
       </c>
     </row>
     <row r="528">
@@ -18300,7 +18300,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -18323,7 +18323,7 @@
         <v>0</v>
       </c>
       <c r="H528" t="n">
-        <v>47613</v>
+        <v>48154</v>
       </c>
     </row>
     <row r="529">
@@ -18334,7 +18334,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -18357,7 +18357,7 @@
         <v>0</v>
       </c>
       <c r="H529" t="n">
-        <v>69126</v>
+        <v>69813</v>
       </c>
     </row>
     <row r="530">
@@ -18402,7 +18402,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -18425,7 +18425,7 @@
         <v>0</v>
       </c>
       <c r="H531" t="n">
-        <v>23225</v>
+        <v>23557</v>
       </c>
     </row>
     <row r="532">
@@ -18436,7 +18436,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -18459,7 +18459,7 @@
         <v>0</v>
       </c>
       <c r="H532" t="n">
-        <v>1739</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="533">
@@ -18504,7 +18504,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -18527,7 +18527,7 @@
         <v>0</v>
       </c>
       <c r="H534" t="n">
-        <v>33801</v>
+        <v>34231</v>
       </c>
     </row>
     <row r="535">
@@ -18538,7 +18538,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -18561,7 +18561,7 @@
         <v>0</v>
       </c>
       <c r="H535" t="n">
-        <v>57486</v>
+        <v>57918</v>
       </c>
     </row>
     <row r="536">
@@ -18572,7 +18572,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/10/07</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -18595,7 +18595,7 @@
         <v>0</v>
       </c>
       <c r="H536" t="n">
-        <v>1181</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="537">
@@ -18606,7 +18606,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/12</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -18629,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="H537" t="n">
-        <v>3005</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="538">
@@ -18640,7 +18640,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -18663,7 +18663,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="n">
-        <v>12110</v>
+        <v>12238</v>
       </c>
     </row>
     <row r="539">
@@ -18708,7 +18708,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>2024/08/19</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -18731,7 +18731,7 @@
         <v>0</v>
       </c>
       <c r="H540" t="n">
-        <v>19144</v>
+        <v>19431</v>
       </c>
     </row>
     <row r="541">
@@ -18742,7 +18742,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -18765,7 +18765,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="n">
-        <v>17429</v>
+        <v>17751</v>
       </c>
     </row>
     <row r="542">
@@ -18776,7 +18776,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>2024/09/15</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -18799,7 +18799,7 @@
         <v>0</v>
       </c>
       <c r="H542" t="n">
-        <v>23073</v>
+        <v>23428</v>
       </c>
     </row>
     <row r="543">
@@ -18810,7 +18810,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -18833,7 +18833,7 @@
         <v>0</v>
       </c>
       <c r="H543" t="n">
-        <v>35316</v>
+        <v>35604</v>
       </c>
     </row>
     <row r="544">
@@ -18844,7 +18844,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -18912,7 +18912,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/07</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -18935,7 +18935,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="n">
-        <v>24954</v>
+        <v>25256</v>
       </c>
     </row>
     <row r="547">
@@ -18946,7 +18946,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/07</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -18969,7 +18969,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="n">
-        <v>7121</v>
+        <v>7131</v>
       </c>
     </row>
     <row r="548">
@@ -18980,7 +18980,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>2024/09/14</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -19003,7 +19003,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="n">
-        <v>9743</v>
+        <v>9851</v>
       </c>
     </row>
     <row r="549">
@@ -19014,7 +19014,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -19037,7 +19037,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="n">
-        <v>5956</v>
+        <v>5961</v>
       </c>
     </row>
     <row r="550">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -19071,7 +19071,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="n">
-        <v>3920</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="551">
@@ -19116,7 +19116,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>2024/10/04</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -19139,7 +19139,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="n">
-        <v>1440</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="553">
@@ -19150,7 +19150,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -19173,7 +19173,7 @@
         <v>0</v>
       </c>
       <c r="H553" t="n">
-        <v>42490</v>
+        <v>42881</v>
       </c>
     </row>
     <row r="554">
@@ -19184,7 +19184,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -19207,7 +19207,7 @@
         <v>0</v>
       </c>
       <c r="H554" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="555">
@@ -19218,7 +19218,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -19241,7 +19241,7 @@
         <v>0</v>
       </c>
       <c r="H555" t="n">
-        <v>839</v>
+        <v>972</v>
       </c>
     </row>
     <row r="556">
@@ -19252,7 +19252,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>2024/09/18</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -19275,7 +19275,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="n">
-        <v>248451</v>
+        <v>251499</v>
       </c>
     </row>
     <row r="557">
@@ -19286,7 +19286,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/07</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -19309,7 +19309,7 @@
         <v>0</v>
       </c>
       <c r="H557" t="n">
-        <v>1741</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="558">
@@ -19320,7 +19320,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -19343,7 +19343,7 @@
         <v>0</v>
       </c>
       <c r="H558" t="n">
-        <v>5244</v>
+        <v>5375</v>
       </c>
     </row>
     <row r="559">
@@ -19354,7 +19354,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>2024/10/03</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -19377,7 +19377,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="n">
-        <v>16011</v>
+        <v>16020</v>
       </c>
     </row>
     <row r="560">
@@ -19388,7 +19388,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/13</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -19411,7 +19411,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="n">
-        <v>3656</v>
+        <v>3730</v>
       </c>
     </row>
     <row r="561">
@@ -19422,7 +19422,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -19445,7 +19445,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="n">
-        <v>18086</v>
+        <v>18300</v>
       </c>
     </row>
     <row r="562">
@@ -19456,7 +19456,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -19479,7 +19479,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="n">
-        <v>4318</v>
+        <v>4355</v>
       </c>
     </row>
     <row r="563">
@@ -19524,7 +19524,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -19547,7 +19547,7 @@
         <v>0</v>
       </c>
       <c r="H564" t="n">
-        <v>13206</v>
+        <v>13324</v>
       </c>
     </row>
     <row r="565">
@@ -19558,7 +19558,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -19581,7 +19581,7 @@
         <v>0</v>
       </c>
       <c r="H565" t="n">
-        <v>20102</v>
+        <v>20332</v>
       </c>
     </row>
     <row r="566">
@@ -19592,7 +19592,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>2024/07/23</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -19660,7 +19660,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>2024/08/06</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -19694,7 +19694,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>2024/10/04</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
@@ -19717,7 +19717,7 @@
         <v>0</v>
       </c>
       <c r="H569" t="n">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="570">
@@ -19728,7 +19728,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -19751,7 +19751,7 @@
         <v>0</v>
       </c>
       <c r="H570" t="n">
-        <v>10970</v>
+        <v>11080</v>
       </c>
     </row>
     <row r="571">
@@ -19762,7 +19762,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -19785,7 +19785,7 @@
         <v>0</v>
       </c>
       <c r="H571" t="n">
-        <v>1246</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="572">
@@ -19796,7 +19796,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -19819,7 +19819,7 @@
         <v>0</v>
       </c>
       <c r="H572" t="n">
-        <v>93225</v>
+        <v>94211</v>
       </c>
     </row>
     <row r="573">
@@ -19830,7 +19830,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -19853,7 +19853,7 @@
         <v>0</v>
       </c>
       <c r="H573" t="n">
-        <v>15145</v>
+        <v>15160</v>
       </c>
     </row>
     <row r="574">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -19887,7 +19887,7 @@
         <v>0</v>
       </c>
       <c r="H574" t="n">
-        <v>48357</v>
+        <v>49060</v>
       </c>
     </row>
     <row r="575">
@@ -19898,7 +19898,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>2024/10/02</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -19921,7 +19921,7 @@
         <v>0</v>
       </c>
       <c r="H575" t="n">
-        <v>2336</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="576">
@@ -19932,7 +19932,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -19955,7 +19955,7 @@
         <v>0</v>
       </c>
       <c r="H576" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="577">
@@ -19966,7 +19966,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -19989,7 +19989,7 @@
         <v>0</v>
       </c>
       <c r="H577" t="n">
-        <v>17978</v>
+        <v>18476</v>
       </c>
     </row>
     <row r="578">
@@ -20000,7 +20000,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -20023,7 +20023,7 @@
         <v>0</v>
       </c>
       <c r="H578" t="n">
-        <v>40034</v>
+        <v>40516</v>
       </c>
     </row>
     <row r="579">
@@ -20068,7 +20068,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/10/07</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -20091,7 +20091,7 @@
         <v>0</v>
       </c>
       <c r="H580" t="n">
-        <v>954</v>
+        <v>969</v>
       </c>
     </row>
     <row r="581">
@@ -20102,7 +20102,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -20125,7 +20125,7 @@
         <v>0</v>
       </c>
       <c r="H581" t="n">
-        <v>13467</v>
+        <v>13601</v>
       </c>
     </row>
     <row r="582">
@@ -20136,7 +20136,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>2024/09/25</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -20159,7 +20159,7 @@
         <v>0</v>
       </c>
       <c r="H582" t="n">
-        <v>10722</v>
+        <v>10861</v>
       </c>
     </row>
     <row r="583">
@@ -20204,7 +20204,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -20227,7 +20227,7 @@
         <v>0</v>
       </c>
       <c r="H584" t="n">
-        <v>1557</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="585">
@@ -20238,7 +20238,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>2024/10/04</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -20261,7 +20261,7 @@
         <v>0</v>
       </c>
       <c r="H585" t="n">
-        <v>91695</v>
+        <v>91710</v>
       </c>
     </row>
     <row r="586">
@@ -20272,7 +20272,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -20295,7 +20295,7 @@
         <v>0</v>
       </c>
       <c r="H586" t="n">
-        <v>26404</v>
+        <v>26625</v>
       </c>
     </row>
     <row r="587">
@@ -20306,7 +20306,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -20329,7 +20329,7 @@
         <v>0</v>
       </c>
       <c r="H587" t="n">
-        <v>42840</v>
+        <v>43323</v>
       </c>
     </row>
     <row r="588">
@@ -20374,7 +20374,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>2024/09/27</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -20397,7 +20397,7 @@
         <v>0</v>
       </c>
       <c r="H589" t="n">
-        <v>31694</v>
+        <v>31696</v>
       </c>
     </row>
     <row r="590">
@@ -20442,7 +20442,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -20465,7 +20465,7 @@
         <v>0</v>
       </c>
       <c r="H591" t="n">
-        <v>7094</v>
+        <v>7364</v>
       </c>
     </row>
     <row r="592">
@@ -20476,7 +20476,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -20499,7 +20499,7 @@
         <v>0</v>
       </c>
       <c r="H592" t="n">
-        <v>5768</v>
+        <v>5785</v>
       </c>
     </row>
     <row r="593">
@@ -20578,7 +20578,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -20601,7 +20601,7 @@
         <v>0</v>
       </c>
       <c r="H595" t="n">
-        <v>28330</v>
+        <v>28657</v>
       </c>
     </row>
     <row r="596">
@@ -20612,7 +20612,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -20635,7 +20635,7 @@
         <v>0</v>
       </c>
       <c r="H596" t="n">
-        <v>4578</v>
+        <v>4584</v>
       </c>
     </row>
     <row r="597">
@@ -20646,7 +20646,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>2024/10/01</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
@@ -20669,7 +20669,7 @@
         <v>0</v>
       </c>
       <c r="H597" t="n">
-        <v>20336</v>
+        <v>20692</v>
       </c>
     </row>
     <row r="598">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -20703,7 +20703,7 @@
         <v>0</v>
       </c>
       <c r="H598" t="n">
-        <v>24048</v>
+        <v>24050</v>
       </c>
     </row>
     <row r="599">
@@ -20714,7 +20714,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -20737,7 +20737,7 @@
         <v>0</v>
       </c>
       <c r="H599" t="n">
-        <v>54943</v>
+        <v>55619</v>
       </c>
     </row>
     <row r="600">
@@ -20748,7 +20748,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>2024/09/07</t>
+          <t>2024/10/12</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
@@ -20771,7 +20771,7 @@
         <v>0</v>
       </c>
       <c r="H600" t="n">
-        <v>2203</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="601">
@@ -20782,7 +20782,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -20816,7 +20816,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -20839,7 +20839,7 @@
         <v>0</v>
       </c>
       <c r="H602" t="n">
-        <v>72378</v>
+        <v>73182</v>
       </c>
     </row>
     <row r="603">
@@ -20850,7 +20850,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -20873,7 +20873,7 @@
         <v>0</v>
       </c>
       <c r="H603" t="n">
-        <v>17484</v>
+        <v>17714</v>
       </c>
     </row>
     <row r="604">
@@ -20884,7 +20884,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
@@ -20907,7 +20907,7 @@
         <v>0</v>
       </c>
       <c r="H604" t="n">
-        <v>11799</v>
+        <v>11829</v>
       </c>
     </row>
     <row r="605">
@@ -20918,7 +20918,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -20941,7 +20941,7 @@
         <v>0</v>
       </c>
       <c r="H605" t="n">
-        <v>83170</v>
+        <v>83999</v>
       </c>
     </row>
     <row r="606">
@@ -20952,7 +20952,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -20975,7 +20975,7 @@
         <v>0</v>
       </c>
       <c r="H606" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="607">
@@ -21020,7 +21020,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
@@ -21054,7 +21054,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -21077,7 +21077,7 @@
         <v>0</v>
       </c>
       <c r="H609" t="n">
-        <v>45334</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="610">
@@ -21088,7 +21088,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -21111,7 +21111,7 @@
         <v>0</v>
       </c>
       <c r="H610" t="n">
-        <v>802</v>
+        <v>806</v>
       </c>
     </row>
     <row r="611">
@@ -21122,7 +21122,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -21145,7 +21145,7 @@
         <v>0</v>
       </c>
       <c r="H611" t="n">
-        <v>821</v>
+        <v>836</v>
       </c>
     </row>
     <row r="612">
@@ -21156,7 +21156,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -21179,7 +21179,7 @@
         <v>0</v>
       </c>
       <c r="H612" t="n">
-        <v>12872</v>
+        <v>13040</v>
       </c>
     </row>
     <row r="613">
@@ -21190,7 +21190,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -21213,7 +21213,7 @@
         <v>0</v>
       </c>
       <c r="H613" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="614">
@@ -21224,7 +21224,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -21247,7 +21247,7 @@
         <v>0</v>
       </c>
       <c r="H614" t="n">
-        <v>17489</v>
+        <v>17824</v>
       </c>
     </row>
     <row r="615">
@@ -21292,7 +21292,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>2024/10/01</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -21315,7 +21315,7 @@
         <v>0</v>
       </c>
       <c r="H616" t="n">
-        <v>14373</v>
+        <v>14544</v>
       </c>
     </row>
     <row r="617">
@@ -21326,7 +21326,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
@@ -21349,7 +21349,7 @@
         <v>0</v>
       </c>
       <c r="H617" t="n">
-        <v>71703</v>
+        <v>72515</v>
       </c>
     </row>
     <row r="618">
@@ -21360,7 +21360,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
@@ -21394,7 +21394,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>2024/09/28</t>
+          <t>2024/10/12</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -21417,7 +21417,7 @@
         <v>0</v>
       </c>
       <c r="H619" t="n">
-        <v>4280</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="620">
@@ -21428,7 +21428,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -21451,7 +21451,7 @@
         <v>0</v>
       </c>
       <c r="H620" t="n">
-        <v>2995</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="621">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>2024/09/14</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -21530,7 +21530,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -21564,7 +21564,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -21587,7 +21587,7 @@
         <v>0</v>
       </c>
       <c r="H624" t="n">
-        <v>17708</v>
+        <v>17898</v>
       </c>
     </row>
     <row r="625">
@@ -21632,7 +21632,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -21655,7 +21655,7 @@
         <v>0</v>
       </c>
       <c r="H626" t="n">
-        <v>2324</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="627">
@@ -21666,7 +21666,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -21689,7 +21689,7 @@
         <v>0</v>
       </c>
       <c r="H627" t="n">
-        <v>193494</v>
+        <v>196514</v>
       </c>
     </row>
     <row r="628">
@@ -21700,7 +21700,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -21723,7 +21723,7 @@
         <v>0</v>
       </c>
       <c r="H628" t="n">
-        <v>89703</v>
+        <v>90980</v>
       </c>
     </row>
     <row r="629">
@@ -21734,7 +21734,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>2024/10/03</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -21757,7 +21757,7 @@
         <v>0</v>
       </c>
       <c r="H629" t="n">
-        <v>42538</v>
+        <v>42864</v>
       </c>
     </row>
     <row r="630">
@@ -21768,7 +21768,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -21791,7 +21791,7 @@
         <v>0</v>
       </c>
       <c r="H630" t="n">
-        <v>36568</v>
+        <v>36918</v>
       </c>
     </row>
     <row r="631">
@@ -21802,7 +21802,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -21825,7 +21825,7 @@
         <v>0</v>
       </c>
       <c r="H631" t="n">
-        <v>2636</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="632">
@@ -21870,7 +21870,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -21893,7 +21893,7 @@
         <v>0</v>
       </c>
       <c r="H633" t="n">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="634">
@@ -21904,7 +21904,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -21938,7 +21938,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -21961,7 +21961,7 @@
         <v>0</v>
       </c>
       <c r="H635" t="n">
-        <v>23362</v>
+        <v>23565</v>
       </c>
     </row>
     <row r="636">
@@ -21972,7 +21972,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -21995,7 +21995,7 @@
         <v>0</v>
       </c>
       <c r="H636" t="n">
-        <v>50454</v>
+        <v>50984</v>
       </c>
     </row>
     <row r="637">
@@ -22040,7 +22040,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>2024/10/04</t>
+          <t>2024/10/13</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -22063,7 +22063,7 @@
         <v>0</v>
       </c>
       <c r="H638" t="n">
-        <v>139526</v>
+        <v>140377</v>
       </c>
     </row>
     <row r="639">
@@ -22142,7 +22142,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -22165,7 +22165,7 @@
         <v>0</v>
       </c>
       <c r="H641" t="n">
-        <v>46536</v>
+        <v>47058</v>
       </c>
     </row>
     <row r="642">
@@ -22176,7 +22176,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -22199,7 +22199,7 @@
         <v>0</v>
       </c>
       <c r="H642" t="n">
-        <v>8194</v>
+        <v>8277</v>
       </c>
     </row>
     <row r="643">
@@ -22210,7 +22210,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
@@ -22233,7 +22233,7 @@
         <v>0</v>
       </c>
       <c r="H643" t="n">
-        <v>16290</v>
+        <v>16538</v>
       </c>
     </row>
     <row r="644">
@@ -22346,7 +22346,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
@@ -22369,7 +22369,7 @@
         <v>0</v>
       </c>
       <c r="H647" t="n">
-        <v>6915</v>
+        <v>7022</v>
       </c>
     </row>
     <row r="648">
@@ -22414,7 +22414,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -22437,7 +22437,7 @@
         <v>0</v>
       </c>
       <c r="H649" t="n">
-        <v>27760</v>
+        <v>28048</v>
       </c>
     </row>
     <row r="650">
@@ -22448,7 +22448,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>2024/10/04</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -22471,7 +22471,7 @@
         <v>0</v>
       </c>
       <c r="H650" t="n">
-        <v>23560</v>
+        <v>23837</v>
       </c>
     </row>
     <row r="651">
@@ -22482,7 +22482,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -22505,7 +22505,7 @@
         <v>0</v>
       </c>
       <c r="H651" t="n">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="652">
@@ -22516,7 +22516,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/12</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
@@ -22539,7 +22539,7 @@
         <v>0</v>
       </c>
       <c r="H652" t="n">
-        <v>46442</v>
+        <v>47017</v>
       </c>
     </row>
     <row r="653">
@@ -22550,7 +22550,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -22573,7 +22573,7 @@
         <v>0</v>
       </c>
       <c r="H653" t="n">
-        <v>6658</v>
+        <v>6849</v>
       </c>
     </row>
     <row r="654">
@@ -22584,7 +22584,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/12</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="H654" t="n">
-        <v>1581</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="655">
@@ -22618,7 +22618,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -22641,7 +22641,7 @@
         <v>0</v>
       </c>
       <c r="H655" t="n">
-        <v>16960</v>
+        <v>17240</v>
       </c>
     </row>
     <row r="656">
@@ -22652,7 +22652,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>2024/09/17</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -22675,7 +22675,7 @@
         <v>0</v>
       </c>
       <c r="H656" t="n">
-        <v>24464</v>
+        <v>24725</v>
       </c>
     </row>
     <row r="657">
@@ -22720,7 +22720,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
@@ -22743,7 +22743,7 @@
         <v>0</v>
       </c>
       <c r="H658" t="n">
-        <v>25230</v>
+        <v>25509</v>
       </c>
     </row>
     <row r="659">
@@ -22754,7 +22754,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
@@ -22777,7 +22777,7 @@
         <v>0</v>
       </c>
       <c r="H659" t="n">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado_historico4.xlsx
+++ b/consolidado_historico4.xlsx
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>231420</v>
+        <v>234023</v>
       </c>
     </row>
     <row r="21">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024/10/01</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>91809</v>
+        <v>93526</v>
       </c>
     </row>
     <row r="38">
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>17829</v>
+        <v>17821</v>
       </c>
     </row>
     <row r="48">
@@ -2592,7 +2592,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>3666</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="71">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>64024</v>
+        <v>64572</v>
       </c>
     </row>
     <row r="89">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2024/10/01</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>3947</v>
+        <v>4055</v>
       </c>
     </row>
     <row r="91">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>12120</v>
+        <v>12315</v>
       </c>
     </row>
     <row r="96">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>2681</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="98">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>2265</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="100">
@@ -3952,7 +3952,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>950</v>
+        <v>983</v>
       </c>
     </row>
     <row r="107">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2024/09/17</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>26805</v>
+        <v>26843</v>
       </c>
     </row>
     <row r="111">
@@ -4598,7 +4598,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>26227</v>
+        <v>26533</v>
       </c>
     </row>
     <row r="126">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4655,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>68067</v>
+        <v>69047</v>
       </c>
     </row>
     <row r="127">
@@ -4904,7 +4904,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4927,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>49965</v>
+        <v>50664</v>
       </c>
     </row>
     <row r="135">
@@ -5244,7 +5244,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5516,7 +5516,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5539,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="153">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2024/09/25</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>2492</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="160">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -6933,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="n">
-        <v>319</v>
+        <v>333</v>
       </c>
     </row>
     <row r="194">
@@ -7352,7 +7352,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -7375,7 +7375,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>2692</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="207">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -7794,7 +7794,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -7817,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="n">
-        <v>312</v>
+        <v>334</v>
       </c>
     </row>
     <row r="220">
@@ -8032,7 +8032,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -8055,7 +8055,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="n">
-        <v>751</v>
+        <v>779</v>
       </c>
     </row>
     <row r="227">
@@ -8134,7 +8134,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="H229" t="n">
-        <v>2655</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="230">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -8599,7 +8599,7 @@
         <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>2130</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="243">
@@ -9222,7 +9222,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="H261" t="n">
-        <v>1897</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="262">
@@ -9290,7 +9290,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -9313,7 +9313,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="n">
-        <v>1713</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="264">
@@ -9392,7 +9392,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -10684,7 +10684,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>2024/09/26</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -10707,7 +10707,7 @@
         <v>0</v>
       </c>
       <c r="H304" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="305">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -11602,7 +11602,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -11840,7 +11840,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -11863,7 +11863,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="n">
-        <v>18812</v>
+        <v>19128</v>
       </c>
     </row>
     <row r="339">
@@ -12146,7 +12146,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>2024/10/04</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -12169,7 +12169,7 @@
         <v>0</v>
       </c>
       <c r="H347" t="n">
-        <v>1251</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="348">
@@ -12554,7 +12554,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -12577,7 +12577,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="n">
-        <v>23899</v>
+        <v>24222</v>
       </c>
     </row>
     <row r="360">
@@ -12656,7 +12656,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -12679,7 +12679,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="n">
-        <v>14920</v>
+        <v>14946</v>
       </c>
     </row>
     <row r="363">
@@ -12860,7 +12860,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="n">
-        <v>4397</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="369">
@@ -13132,7 +13132,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -13155,7 +13155,7 @@
         <v>0</v>
       </c>
       <c r="H376" t="n">
-        <v>13096</v>
+        <v>13271</v>
       </c>
     </row>
     <row r="377">
@@ -13166,7 +13166,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -13189,7 +13189,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="n">
-        <v>19753</v>
+        <v>19986</v>
       </c>
     </row>
     <row r="378">
@@ -13200,7 +13200,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>2024/09/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -13223,7 +13223,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="379">
@@ -14356,7 +14356,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -14458,7 +14458,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>2024/09/17</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -14481,7 +14481,7 @@
         <v>0</v>
       </c>
       <c r="H415" t="n">
-        <v>24741</v>
+        <v>25040</v>
       </c>
     </row>
     <row r="416">
@@ -14526,7 +14526,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -14549,7 +14549,7 @@
         <v>0</v>
       </c>
       <c r="H417" t="n">
-        <v>3387</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="418">
@@ -14560,7 +14560,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -14583,7 +14583,7 @@
         <v>0</v>
       </c>
       <c r="H418" t="n">
-        <v>60194</v>
+        <v>60401</v>
       </c>
     </row>
     <row r="419">
@@ -15002,7 +15002,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -15025,7 +15025,7 @@
         <v>0</v>
       </c>
       <c r="H431" t="n">
-        <v>24033</v>
+        <v>24301</v>
       </c>
     </row>
     <row r="432">
@@ -15206,7 +15206,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -15229,7 +15229,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="n">
-        <v>17047</v>
+        <v>17215</v>
       </c>
     </row>
     <row r="438">
@@ -15342,7 +15342,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -15365,7 +15365,7 @@
         <v>0</v>
       </c>
       <c r="H441" t="n">
-        <v>8276</v>
+        <v>8324</v>
       </c>
     </row>
     <row r="442">
@@ -15410,7 +15410,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -15433,7 +15433,7 @@
         <v>0</v>
       </c>
       <c r="H443" t="n">
-        <v>39765</v>
+        <v>39912</v>
       </c>
     </row>
     <row r="444">
@@ -15512,7 +15512,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -15535,7 +15535,7 @@
         <v>0</v>
       </c>
       <c r="H446" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
     </row>
     <row r="447">
@@ -15546,7 +15546,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -15569,7 +15569,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="n">
-        <v>13962</v>
+        <v>14062</v>
       </c>
     </row>
     <row r="448">
@@ -15682,7 +15682,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -15705,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="n">
-        <v>6403</v>
+        <v>6404</v>
       </c>
     </row>
     <row r="452">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -15807,7 +15807,7 @@
         <v>0</v>
       </c>
       <c r="H454" t="n">
-        <v>8374</v>
+        <v>8489</v>
       </c>
     </row>
     <row r="455">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -15943,7 +15943,7 @@
         <v>0</v>
       </c>
       <c r="H458" t="n">
-        <v>1723</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="459">
@@ -15954,7 +15954,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -15977,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="H459" t="n">
-        <v>38892</v>
+        <v>39417</v>
       </c>
     </row>
     <row r="460">
@@ -16158,7 +16158,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -16328,7 +16328,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -16351,7 +16351,7 @@
         <v>0</v>
       </c>
       <c r="H470" t="n">
-        <v>10337</v>
+        <v>10444</v>
       </c>
     </row>
     <row r="471">
@@ -16464,7 +16464,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -16566,7 +16566,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -16702,7 +16702,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>2024/09/25</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -16725,7 +16725,7 @@
         <v>0</v>
       </c>
       <c r="H481" t="n">
-        <v>4853</v>
+        <v>5330</v>
       </c>
     </row>
     <row r="482">
@@ -16974,7 +16974,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -16997,7 +16997,7 @@
         <v>0</v>
       </c>
       <c r="H489" t="n">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="490">
@@ -17008,7 +17008,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>2024/09/25</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -17031,7 +17031,7 @@
         <v>0</v>
       </c>
       <c r="H490" t="n">
-        <v>15614</v>
+        <v>15766</v>
       </c>
     </row>
     <row r="491">
@@ -17110,7 +17110,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -17133,7 +17133,7 @@
         <v>0</v>
       </c>
       <c r="H493" t="n">
-        <v>355</v>
+        <v>365</v>
       </c>
     </row>
     <row r="494">
@@ -17382,7 +17382,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>2024/10/03</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -17405,7 +17405,7 @@
         <v>0</v>
       </c>
       <c r="H501" t="n">
-        <v>37208</v>
+        <v>37225</v>
       </c>
     </row>
     <row r="502">
@@ -17518,7 +17518,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>2024/08/30</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -18062,7 +18062,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -18391,7 +18391,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="n">
-        <v>11455</v>
+        <v>11916</v>
       </c>
     </row>
     <row r="531">
@@ -18470,7 +18470,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>2024/09/17</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -18493,7 +18493,7 @@
         <v>0</v>
       </c>
       <c r="H533" t="n">
-        <v>11825</v>
+        <v>11904</v>
       </c>
     </row>
     <row r="534">
@@ -18538,7 +18538,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -18561,7 +18561,7 @@
         <v>0</v>
       </c>
       <c r="H535" t="n">
-        <v>57918</v>
+        <v>57945</v>
       </c>
     </row>
     <row r="536">
@@ -18742,7 +18742,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -18765,7 +18765,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="n">
-        <v>17751</v>
+        <v>17828</v>
       </c>
     </row>
     <row r="542">
@@ -18844,7 +18844,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -18867,7 +18867,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="n">
-        <v>18892</v>
+        <v>18909</v>
       </c>
     </row>
     <row r="545">
@@ -18912,7 +18912,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -18935,7 +18935,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="n">
-        <v>25256</v>
+        <v>25260</v>
       </c>
     </row>
     <row r="547">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -20510,7 +20510,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -20533,7 +20533,7 @@
         <v>0</v>
       </c>
       <c r="H593" t="n">
-        <v>13448</v>
+        <v>13574</v>
       </c>
     </row>
     <row r="594">
@@ -20544,7 +20544,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>2024/09/26</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -20567,7 +20567,7 @@
         <v>0</v>
       </c>
       <c r="H594" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="595">
@@ -20782,7 +20782,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -20805,7 +20805,7 @@
         <v>0</v>
       </c>
       <c r="H601" t="n">
-        <v>39261</v>
+        <v>39338</v>
       </c>
     </row>
     <row r="602">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -21519,7 +21519,7 @@
         <v>0</v>
       </c>
       <c r="H622" t="n">
-        <v>4614</v>
+        <v>4743</v>
       </c>
     </row>
     <row r="623">
@@ -21530,7 +21530,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -21553,7 +21553,7 @@
         <v>0</v>
       </c>
       <c r="H623" t="n">
-        <v>187788</v>
+        <v>187792</v>
       </c>
     </row>
     <row r="624">
@@ -22233,7 +22233,7 @@
         <v>0</v>
       </c>
       <c r="H643" t="n">
-        <v>16538</v>
+        <v>16543</v>
       </c>
     </row>
     <row r="644">
@@ -22244,7 +22244,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">

--- a/consolidado_historico4.xlsx
+++ b/consolidado_historico4.xlsx
@@ -484,7 +484,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/10/25</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>9905</v>
+        <v>9906</v>
       </c>
     </row>
     <row r="82">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2024/10/01</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>114350</v>
+        <v>115953</v>
       </c>
     </row>
     <row r="110">
@@ -4462,7 +4462,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>24487</v>
+        <v>24785</v>
       </c>
     </row>
     <row r="122">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2024/09/30</t>
+          <t>2024/10/25</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>46649</v>
+        <v>47158</v>
       </c>
     </row>
     <row r="125">
@@ -6094,7 +6094,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2024/09/17</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6117,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="H169" t="n">
-        <v>1267</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="170">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2024/08/26</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>649</v>
+        <v>711</v>
       </c>
     </row>
     <row r="175">
@@ -6502,7 +6502,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6525,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="H181" t="n">
-        <v>1004</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="182">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -7080,7 +7080,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2024/09/02</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="n">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="199">
@@ -8746,7 +8746,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="n">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="248">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>2024/09/30</t>
+          <t>2024/10/25</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -9279,7 +9279,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="n">
-        <v>234</v>
+        <v>268</v>
       </c>
     </row>
     <row r="263">
@@ -9902,7 +9902,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -9925,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="n">
-        <v>652</v>
+        <v>804</v>
       </c>
     </row>
     <row r="282">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -10571,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="H300" t="n">
-        <v>2115</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="301">
@@ -11670,7 +11670,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>2024/08/22</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -11693,7 +11693,7 @@
         <v>0</v>
       </c>
       <c r="H333" t="n">
-        <v>9409</v>
+        <v>10038</v>
       </c>
     </row>
     <row r="334">
@@ -11772,7 +11772,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>2024/08/31</t>
+          <t>2024/10/25</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -11795,7 +11795,7 @@
         <v>0</v>
       </c>
       <c r="H336" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="337">
@@ -12010,7 +12010,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>2024/08/26</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -12033,7 +12033,7 @@
         <v>0</v>
       </c>
       <c r="H343" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="344">
@@ -12758,7 +12758,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -12781,7 +12781,7 @@
         <v>0</v>
       </c>
       <c r="H365" t="n">
-        <v>1071</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="366">
@@ -12792,7 +12792,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -12815,7 +12815,7 @@
         <v>0</v>
       </c>
       <c r="H366" t="n">
-        <v>2283</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="367">
@@ -12928,7 +12928,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -12951,7 +12951,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="n">
-        <v>32351</v>
+        <v>32682</v>
       </c>
     </row>
     <row r="371">
@@ -14322,7 +14322,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -14345,7 +14345,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="n">
-        <v>7012</v>
+        <v>7016</v>
       </c>
     </row>
     <row r="412">
@@ -14560,7 +14560,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -14583,7 +14583,7 @@
         <v>0</v>
       </c>
       <c r="H418" t="n">
-        <v>60401</v>
+        <v>60795</v>
       </c>
     </row>
     <row r="419">
@@ -14696,7 +14696,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/10/25</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -14719,7 +14719,7 @@
         <v>0</v>
       </c>
       <c r="H422" t="n">
-        <v>10640</v>
+        <v>10806</v>
       </c>
     </row>
     <row r="423">
@@ -15070,7 +15070,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>2024/10/04</t>
+          <t>2024/10/25</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -15093,7 +15093,7 @@
         <v>0</v>
       </c>
       <c r="H433" t="n">
-        <v>23610</v>
+        <v>23878</v>
       </c>
     </row>
     <row r="434">
@@ -15682,7 +15682,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -15705,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="n">
-        <v>6404</v>
+        <v>6410</v>
       </c>
     </row>
     <row r="452">
@@ -15852,7 +15852,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -15875,7 +15875,7 @@
         <v>0</v>
       </c>
       <c r="H456" t="n">
-        <v>51527</v>
+        <v>51544</v>
       </c>
     </row>
     <row r="457">
@@ -16124,7 +16124,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -16147,7 +16147,7 @@
         <v>0</v>
       </c>
       <c r="H464" t="n">
-        <v>11551</v>
+        <v>11666</v>
       </c>
     </row>
     <row r="465">
@@ -16158,7 +16158,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -16181,7 +16181,7 @@
         <v>0</v>
       </c>
       <c r="H465" t="n">
-        <v>35296</v>
+        <v>35689</v>
       </c>
     </row>
     <row r="466">
@@ -16634,7 +16634,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/25</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -16657,7 +16657,7 @@
         <v>0</v>
       </c>
       <c r="H479" t="n">
-        <v>83769</v>
+        <v>83770</v>
       </c>
     </row>
     <row r="480">
@@ -16770,7 +16770,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/10/25</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -16793,7 +16793,7 @@
         <v>0</v>
       </c>
       <c r="H483" t="n">
-        <v>15726</v>
+        <v>15904</v>
       </c>
     </row>
     <row r="484">
@@ -17008,7 +17008,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -17031,7 +17031,7 @@
         <v>0</v>
       </c>
       <c r="H490" t="n">
-        <v>15766</v>
+        <v>15918</v>
       </c>
     </row>
     <row r="491">
@@ -17382,7 +17382,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -17405,7 +17405,7 @@
         <v>0</v>
       </c>
       <c r="H501" t="n">
-        <v>37225</v>
+        <v>37792</v>
       </c>
     </row>
     <row r="502">
@@ -18062,7 +18062,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -18085,7 +18085,7 @@
         <v>0</v>
       </c>
       <c r="H521" t="n">
-        <v>19420</v>
+        <v>19665</v>
       </c>
     </row>
     <row r="522">
@@ -18164,7 +18164,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/10/20</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -18606,7 +18606,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>2024/10/12</t>
+          <t>2024/10/20</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -18629,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="H537" t="n">
-        <v>3240</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="538">
@@ -18810,7 +18810,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -18833,7 +18833,7 @@
         <v>0</v>
       </c>
       <c r="H543" t="n">
-        <v>35604</v>
+        <v>35660</v>
       </c>
     </row>
     <row r="544">
@@ -18912,7 +18912,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -20703,7 +20703,7 @@
         <v>0</v>
       </c>
       <c r="H598" t="n">
-        <v>24050</v>
+        <v>24301</v>
       </c>
     </row>
     <row r="599">
@@ -20986,7 +20986,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -21292,7 +21292,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -21360,7 +21360,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
@@ -21383,7 +21383,7 @@
         <v>0</v>
       </c>
       <c r="H618" t="n">
-        <v>39757</v>
+        <v>39758</v>
       </c>
     </row>
     <row r="619">
@@ -21462,7 +21462,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -21485,7 +21485,7 @@
         <v>0</v>
       </c>
       <c r="H621" t="n">
-        <v>20113</v>
+        <v>20136</v>
       </c>
     </row>
     <row r="622">
@@ -22176,7 +22176,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/25</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -22199,7 +22199,7 @@
         <v>0</v>
       </c>
       <c r="H642" t="n">
-        <v>8277</v>
+        <v>8278</v>
       </c>
     </row>
     <row r="643">

--- a/consolidado_historico4.xlsx
+++ b/consolidado_historico4.xlsx
@@ -654,7 +654,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/10/28</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2024/09/17</t>
+          <t>2024/10/30</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2024/08/31</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>1969</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="102">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2024/09/30</t>
+          <t>2024/10/30</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>58470</v>
+        <v>59093</v>
       </c>
     </row>
     <row r="119">
@@ -6366,7 +6366,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/28</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6389,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="H177" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="178">
@@ -8814,7 +8814,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>2024/10/01</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -8837,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="n">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="250">
@@ -9970,7 +9970,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -9993,7 +9993,7 @@
         <v>0</v>
       </c>
       <c r="H283" t="n">
-        <v>1265</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="284">
@@ -10140,7 +10140,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>2024/08/22</t>
+          <t>2024/11/02</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="289">
@@ -11602,7 +11602,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -11625,7 +11625,7 @@
         <v>0</v>
       </c>
       <c r="H331" t="n">
-        <v>845</v>
+        <v>885</v>
       </c>
     </row>
     <row r="332">
@@ -12282,7 +12282,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -12305,7 +12305,7 @@
         <v>0</v>
       </c>
       <c r="H351" t="n">
-        <v>3342</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="352">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -13359,7 +13359,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="n">
-        <v>174736</v>
+        <v>176811</v>
       </c>
     </row>
     <row r="383">
@@ -13812,7 +13812,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>2024/09/30</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -13835,7 +13835,7 @@
         <v>0</v>
       </c>
       <c r="H396" t="n">
-        <v>2283</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="397">
@@ -13982,7 +13982,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -14005,7 +14005,7 @@
         <v>0</v>
       </c>
       <c r="H401" t="n">
-        <v>49102</v>
+        <v>49107</v>
       </c>
     </row>
     <row r="402">
@@ -14662,7 +14662,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -14685,7 +14685,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="n">
-        <v>14307</v>
+        <v>14464</v>
       </c>
     </row>
     <row r="422">
@@ -15036,7 +15036,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>2024/09/25</t>
+          <t>2024/10/26</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -16022,7 +16022,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -16045,7 +16045,7 @@
         <v>0</v>
       </c>
       <c r="H461" t="n">
-        <v>4331</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="462">
@@ -16532,7 +16532,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>2024/10/01</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -16555,7 +16555,7 @@
         <v>0</v>
       </c>
       <c r="H476" t="n">
-        <v>11035</v>
+        <v>11152</v>
       </c>
     </row>
     <row r="477">
@@ -17552,7 +17552,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -17575,7 +17575,7 @@
         <v>0</v>
       </c>
       <c r="H506" t="n">
-        <v>14503</v>
+        <v>14511</v>
       </c>
     </row>
     <row r="507">
@@ -18674,7 +18674,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/10/27</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -18697,7 +18697,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="n">
-        <v>2814</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="540">
@@ -18878,7 +18878,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/10/28</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -18901,7 +18901,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="546">
@@ -18912,7 +18912,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>2024/10/22</t>
+          <t>2024/10/28</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -18935,7 +18935,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="n">
-        <v>25260</v>
+        <v>25562</v>
       </c>
     </row>
     <row r="547">
@@ -19490,7 +19490,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -20340,7 +20340,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>2024/07/22</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -20363,7 +20363,7 @@
         <v>0</v>
       </c>
       <c r="H588" t="n">
-        <v>2989</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="589">
@@ -20374,7 +20374,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -20397,7 +20397,7 @@
         <v>0</v>
       </c>
       <c r="H589" t="n">
-        <v>31696</v>
+        <v>32014</v>
       </c>
     </row>
     <row r="590">
@@ -20714,7 +20714,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/28</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -20737,7 +20737,7 @@
         <v>0</v>
       </c>
       <c r="H599" t="n">
-        <v>55619</v>
+        <v>56283</v>
       </c>
     </row>
     <row r="600">
@@ -21768,7 +21768,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/30</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -21791,7 +21791,7 @@
         <v>0</v>
       </c>
       <c r="H630" t="n">
-        <v>36918</v>
+        <v>37311</v>
       </c>
     </row>
     <row r="631">

--- a/consolidado_historico4.xlsx
+++ b/consolidado_historico4.xlsx
@@ -586,7 +586,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
@@ -688,7 +688,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024/10/03</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>86478</v>
+        <v>87477</v>
       </c>
     </row>
     <row r="23">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>13797</v>
+        <v>13944</v>
       </c>
     </row>
     <row r="26">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>6219</v>
+        <v>6301</v>
       </c>
     </row>
     <row r="32">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>29520</v>
+        <v>30193</v>
       </c>
     </row>
     <row r="44">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2024/10/02</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>3345</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="54">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2024/10/02</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2024/10/01</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2024/10/03</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>15135</v>
+        <v>15138</v>
       </c>
     </row>
     <row r="72">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>29235</v>
+        <v>29285</v>
       </c>
     </row>
     <row r="73">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>11229</v>
+        <v>11230</v>
       </c>
     </row>
     <row r="79">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>6571</v>
+        <v>6690</v>
       </c>
     </row>
     <row r="103">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>1142</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="104">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2024/10/24</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="118">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5301,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>39753</v>
+        <v>39878</v>
       </c>
     </row>
     <row r="146">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>460</v>
+        <v>470</v>
       </c>
     </row>
     <row r="158">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2024/09/27</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5811,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>47</v>
+        <v>158</v>
       </c>
     </row>
     <row r="161">
@@ -5890,7 +5890,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5913,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>1105</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="164">
@@ -5924,7 +5924,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2024/10/02</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -6060,7 +6060,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2024/10/03</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>615</v>
+        <v>716</v>
       </c>
     </row>
     <row r="169">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6151,7 +6151,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="171">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6185,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="172">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2024/10/04</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6219,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>1477</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="173">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2024/10/03</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="181">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="186">
@@ -6672,7 +6672,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2024/10/01</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6695,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>1225</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="187">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2024/10/02</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6729,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="n">
-        <v>645</v>
+        <v>659</v>
       </c>
     </row>
     <row r="188">
@@ -6774,7 +6774,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2024/07/22</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -6797,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="190">
@@ -6842,7 +6842,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6865,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="H191" t="n">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="192">
@@ -6876,7 +6876,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6899,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>574</v>
+        <v>592</v>
       </c>
     </row>
     <row r="193">
@@ -6978,7 +6978,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>2090</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="196">
@@ -7148,7 +7148,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -7182,7 +7182,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -7205,7 +7205,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="202">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -7239,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="n">
-        <v>1495</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="203">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -7273,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="H203" t="n">
-        <v>3747</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="204">
@@ -7386,7 +7386,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -7409,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="n">
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="208">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2024/10/01</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -7477,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="H209" t="n">
-        <v>619</v>
+        <v>638</v>
       </c>
     </row>
     <row r="210">
@@ -7488,7 +7488,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2024/10/04</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="211">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2024/10/03</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -7579,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="n">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="213">
@@ -7590,7 +7590,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2024/10/02</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -7613,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="H213" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="214">
@@ -7828,7 +7828,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>1200</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="221">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2024/10/01</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -7953,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="224">
@@ -7964,7 +7964,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2024/10/01</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="225">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -8259,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="H232" t="n">
-        <v>496</v>
+        <v>521</v>
       </c>
     </row>
     <row r="233">
@@ -8644,7 +8644,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="n">
-        <v>152</v>
+        <v>169</v>
       </c>
     </row>
     <row r="245">
@@ -8712,7 +8712,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -8735,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="H246" t="n">
-        <v>438</v>
+        <v>457</v>
       </c>
     </row>
     <row r="247">
@@ -8814,7 +8814,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>2024/10/29</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -9086,7 +9086,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>2024/09/27</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="n">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="258">
@@ -9120,7 +9120,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -9143,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>1907</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="259">
@@ -9324,7 +9324,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -9426,7 +9426,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>2024/10/01</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="H267" t="n">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="268">
@@ -9630,7 +9630,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="H273" t="n">
-        <v>4358</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="274">
@@ -9698,7 +9698,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -9721,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="H275" t="n">
-        <v>5109</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="276">
@@ -9902,7 +9902,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -9925,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="n">
-        <v>804</v>
+        <v>840</v>
       </c>
     </row>
     <row r="282">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -10095,7 +10095,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="n">
-        <v>247</v>
+        <v>262</v>
       </c>
     </row>
     <row r="287">
@@ -10242,7 +10242,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>2024/10/04</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -10265,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="n">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="292">
@@ -10276,7 +10276,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>2024/10/01</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -10299,7 +10299,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="n">
-        <v>457</v>
+        <v>501</v>
       </c>
     </row>
     <row r="293">
@@ -10310,7 +10310,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -10333,7 +10333,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="294">
@@ -10412,7 +10412,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>2024/08/27</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -10435,7 +10435,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="297">
@@ -10582,7 +10582,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>2024/10/03</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -10605,7 +10605,7 @@
         <v>0</v>
       </c>
       <c r="H301" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="302">
@@ -10718,7 +10718,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>2024/10/04</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -10741,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="H305" t="n">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="306">
@@ -10820,7 +10820,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>2024/10/02</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="n">
-        <v>693</v>
+        <v>702</v>
       </c>
     </row>
     <row r="309">
@@ -11024,7 +11024,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -11047,7 +11047,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="n">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="315">
@@ -11058,7 +11058,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>2024/10/01</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -11194,7 +11194,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -11228,7 +11228,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="321">
@@ -11262,7 +11262,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -11285,7 +11285,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="322">
@@ -11432,7 +11432,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -11455,7 +11455,7 @@
         <v>0</v>
       </c>
       <c r="H326" t="n">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="327">
@@ -11500,7 +11500,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -11523,7 +11523,7 @@
         <v>0</v>
       </c>
       <c r="H328" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="329">
@@ -11602,7 +11602,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>2024/10/29</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -11636,7 +11636,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>2024/10/01</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -12044,7 +12044,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -12067,7 +12067,7 @@
         <v>0</v>
       </c>
       <c r="H344" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="345">
@@ -12112,7 +12112,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>2024/10/06</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -12135,7 +12135,7 @@
         <v>0</v>
       </c>
       <c r="H346" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="347">
@@ -12146,7 +12146,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -12169,7 +12169,7 @@
         <v>0</v>
       </c>
       <c r="H347" t="n">
-        <v>1406</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="348">
@@ -12452,7 +12452,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -12475,7 +12475,7 @@
         <v>0</v>
       </c>
       <c r="H356" t="n">
-        <v>34112</v>
+        <v>34124</v>
       </c>
     </row>
     <row r="357">
@@ -12656,7 +12656,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -12679,7 +12679,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="n">
-        <v>14946</v>
+        <v>14951</v>
       </c>
     </row>
     <row r="363">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -13019,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="H372" t="n">
-        <v>19126</v>
+        <v>19128</v>
       </c>
     </row>
     <row r="373">
@@ -13404,7 +13404,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -13427,7 +13427,7 @@
         <v>0</v>
       </c>
       <c r="H384" t="n">
-        <v>27759</v>
+        <v>27771</v>
       </c>
     </row>
     <row r="385">
@@ -13506,7 +13506,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>2024/10/03</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -13529,7 +13529,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="n">
-        <v>10641</v>
+        <v>10661</v>
       </c>
     </row>
     <row r="388">
@@ -13642,7 +13642,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -13665,7 +13665,7 @@
         <v>0</v>
       </c>
       <c r="H391" t="n">
-        <v>17841</v>
+        <v>17842</v>
       </c>
     </row>
     <row r="392">
@@ -13778,7 +13778,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -13880,7 +13880,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -13903,7 +13903,7 @@
         <v>0</v>
       </c>
       <c r="H398" t="n">
-        <v>47392</v>
+        <v>47834</v>
       </c>
     </row>
     <row r="399">
@@ -14016,7 +14016,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -14039,7 +14039,7 @@
         <v>0</v>
       </c>
       <c r="H402" t="n">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="403">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>2024/10/03</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -14243,7 +14243,7 @@
         <v>0</v>
       </c>
       <c r="H408" t="n">
-        <v>16396</v>
+        <v>16630</v>
       </c>
     </row>
     <row r="409">
@@ -14254,7 +14254,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -14322,7 +14322,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>2024/10/23</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -14390,7 +14390,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -14560,7 +14560,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>2024/10/24</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -14583,7 +14583,7 @@
         <v>0</v>
       </c>
       <c r="H418" t="n">
-        <v>60795</v>
+        <v>61001</v>
       </c>
     </row>
     <row r="419">
@@ -14594,7 +14594,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -14617,7 +14617,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="n">
-        <v>24991</v>
+        <v>25234</v>
       </c>
     </row>
     <row r="420">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -14991,7 +14991,7 @@
         <v>0</v>
       </c>
       <c r="H430" t="n">
-        <v>15110</v>
+        <v>15336</v>
       </c>
     </row>
     <row r="431">
@@ -15410,7 +15410,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -15433,7 +15433,7 @@
         <v>0</v>
       </c>
       <c r="H443" t="n">
-        <v>39912</v>
+        <v>40075</v>
       </c>
     </row>
     <row r="444">
@@ -15614,7 +15614,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -15637,7 +15637,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="n">
-        <v>26980</v>
+        <v>26982</v>
       </c>
     </row>
     <row r="450">
@@ -15716,7 +15716,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -15739,7 +15739,7 @@
         <v>0</v>
       </c>
       <c r="H452" t="n">
-        <v>227</v>
+        <v>252</v>
       </c>
     </row>
     <row r="453">
@@ -15750,7 +15750,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -15818,7 +15818,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -15841,7 +15841,7 @@
         <v>0</v>
       </c>
       <c r="H455" t="n">
-        <v>33184</v>
+        <v>33189</v>
       </c>
     </row>
     <row r="456">
@@ -15988,7 +15988,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -16124,7 +16124,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -16396,7 +16396,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>2024/10/03</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -16634,7 +16634,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>2024/10/25</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -16770,7 +16770,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>2024/10/25</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -16793,7 +16793,7 @@
         <v>0</v>
       </c>
       <c r="H483" t="n">
-        <v>15904</v>
+        <v>16084</v>
       </c>
     </row>
     <row r="484">
@@ -17348,7 +17348,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -17371,7 +17371,7 @@
         <v>0</v>
       </c>
       <c r="H500" t="n">
-        <v>46516</v>
+        <v>46517</v>
       </c>
     </row>
     <row r="501">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -17439,7 +17439,7 @@
         <v>0</v>
       </c>
       <c r="H502" t="n">
-        <v>32971</v>
+        <v>33006</v>
       </c>
     </row>
     <row r="503">
@@ -17586,7 +17586,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -17609,7 +17609,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="n">
-        <v>10544</v>
+        <v>10692</v>
       </c>
     </row>
     <row r="508">
@@ -17722,7 +17722,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>2024/10/04</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -17745,7 +17745,7 @@
         <v>0</v>
       </c>
       <c r="H511" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="512">
@@ -17994,7 +17994,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -18017,7 +18017,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="n">
-        <v>6608</v>
+        <v>6619</v>
       </c>
     </row>
     <row r="520">
@@ -18062,7 +18062,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -18164,7 +18164,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>2024/10/20</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -18572,7 +18572,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -18595,7 +18595,7 @@
         <v>0</v>
       </c>
       <c r="H536" t="n">
-        <v>1228</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="537">
@@ -18674,7 +18674,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>2024/10/27</t>
+          <t>2024/11/02</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -18810,7 +18810,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>2024/10/23</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -18833,7 +18833,7 @@
         <v>0</v>
       </c>
       <c r="H543" t="n">
-        <v>35660</v>
+        <v>35662</v>
       </c>
     </row>
     <row r="544">
@@ -18844,7 +18844,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -18946,7 +18946,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -18969,7 +18969,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="n">
-        <v>7131</v>
+        <v>7140</v>
       </c>
     </row>
     <row r="548">
@@ -19354,7 +19354,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -19377,7 +19377,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="n">
-        <v>16020</v>
+        <v>16029</v>
       </c>
     </row>
     <row r="560">
@@ -19660,7 +19660,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -19762,7 +19762,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -19898,7 +19898,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -19921,7 +19921,7 @@
         <v>0</v>
       </c>
       <c r="H575" t="n">
-        <v>2339</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="576">
@@ -20306,7 +20306,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -20329,7 +20329,7 @@
         <v>0</v>
       </c>
       <c r="H587" t="n">
-        <v>43323</v>
+        <v>43806</v>
       </c>
     </row>
     <row r="588">
@@ -20408,7 +20408,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>2024/10/02</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -20442,7 +20442,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -20465,7 +20465,7 @@
         <v>0</v>
       </c>
       <c r="H591" t="n">
-        <v>7364</v>
+        <v>7449</v>
       </c>
     </row>
     <row r="592">
@@ -21360,7 +21360,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>2024/10/22</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
@@ -21428,7 +21428,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -21451,7 +21451,7 @@
         <v>0</v>
       </c>
       <c r="H620" t="n">
-        <v>3032</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="621">
@@ -21530,7 +21530,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -21870,7 +21870,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -21893,7 +21893,7 @@
         <v>0</v>
       </c>
       <c r="H633" t="n">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="634">
@@ -22006,7 +22006,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>2024/10/02</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -22029,7 +22029,7 @@
         <v>0</v>
       </c>
       <c r="H637" t="n">
-        <v>1907</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="638">
@@ -22040,7 +22040,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>2024/10/13</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -22063,7 +22063,7 @@
         <v>0</v>
       </c>
       <c r="H638" t="n">
-        <v>140377</v>
+        <v>140791</v>
       </c>
     </row>
     <row r="639">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>2024/10/04</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
@@ -22335,7 +22335,7 @@
         <v>0</v>
       </c>
       <c r="H646" t="n">
-        <v>19101</v>
+        <v>19373</v>
       </c>
     </row>
     <row r="647">
@@ -22550,7 +22550,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -22573,7 +22573,7 @@
         <v>0</v>
       </c>
       <c r="H653" t="n">
-        <v>6849</v>
+        <v>7039</v>
       </c>
     </row>
     <row r="654">
@@ -22652,7 +22652,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -22675,7 +22675,7 @@
         <v>0</v>
       </c>
       <c r="H656" t="n">
-        <v>24725</v>
+        <v>24746</v>
       </c>
     </row>
     <row r="657">

--- a/consolidado_historico4.xlsx
+++ b/consolidado_historico4.xlsx
@@ -552,7 +552,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
@@ -756,7 +756,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>61389</v>
+        <v>62635</v>
       </c>
     </row>
     <row r="37">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024/11/04</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>93526</v>
+        <v>95234</v>
       </c>
     </row>
     <row r="38">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>56915</v>
+        <v>57945</v>
       </c>
     </row>
     <row r="49">
@@ -3136,7 +3136,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>1343</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="83">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2024/09/17</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="86">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2024/11/04</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>4055</v>
+        <v>4164</v>
       </c>
     </row>
     <row r="91">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4462,7 +4462,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>24785</v>
+        <v>25093</v>
       </c>
     </row>
     <row r="122">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>162439</v>
+        <v>162792</v>
       </c>
     </row>
     <row r="139">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>2576</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="160">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2024/10/24</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -6933,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="n">
-        <v>333</v>
+        <v>348</v>
       </c>
     </row>
     <row r="194">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -7307,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>447</v>
+        <v>477</v>
       </c>
     </row>
     <row r="205">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -7692,7 +7692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -7715,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="n">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="217">
@@ -8066,7 +8066,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -8089,7 +8089,7 @@
         <v>0</v>
       </c>
       <c r="H227" t="n">
-        <v>779</v>
+        <v>807</v>
       </c>
     </row>
     <row r="228">
@@ -8610,7 +8610,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>2233</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="244">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -8905,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="H251" t="n">
-        <v>357</v>
+        <v>399</v>
       </c>
     </row>
     <row r="252">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -9075,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="257">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -9279,7 +9279,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="n">
-        <v>2031</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="263">
@@ -9426,7 +9426,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="H267" t="n">
-        <v>3699</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="268">
@@ -9800,7 +9800,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -9823,7 +9823,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="n">
-        <v>715</v>
+        <v>739</v>
       </c>
     </row>
     <row r="279">
@@ -9902,7 +9902,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -9925,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="n">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="282">
@@ -10650,7 +10650,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="H303" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="304">
@@ -10718,7 +10718,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -10741,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="H305" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="306">
@@ -11568,7 +11568,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -11591,7 +11591,7 @@
         <v>0</v>
       </c>
       <c r="H330" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="331">
@@ -11942,7 +11942,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -11965,7 +11965,7 @@
         <v>0</v>
       </c>
       <c r="H341" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="342">
@@ -12112,7 +12112,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>2024/07/25</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -12135,7 +12135,7 @@
         <v>0</v>
       </c>
       <c r="H346" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
     </row>
     <row r="347">
@@ -12588,7 +12588,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>2024/11/16</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -12622,7 +12622,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -12645,7 +12645,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="n">
-        <v>3105</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="362">
@@ -12792,7 +12792,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>2024/10/23</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -12815,7 +12815,7 @@
         <v>0</v>
       </c>
       <c r="H366" t="n">
-        <v>1078</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="367">
@@ -12894,7 +12894,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -12917,7 +12917,7 @@
         <v>0</v>
       </c>
       <c r="H369" t="n">
-        <v>4644</v>
+        <v>4817</v>
       </c>
     </row>
     <row r="370">
@@ -12962,7 +12962,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -12985,7 +12985,7 @@
         <v>0</v>
       </c>
       <c r="H371" t="n">
-        <v>32682</v>
+        <v>33014</v>
       </c>
     </row>
     <row r="372">
@@ -13030,7 +13030,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>2024/11/08</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -13053,7 +13053,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="n">
-        <v>19128</v>
+        <v>19363</v>
       </c>
     </row>
     <row r="374">
@@ -13132,7 +13132,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>2024/09/26</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -13155,7 +13155,7 @@
         <v>0</v>
       </c>
       <c r="H376" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="377">
@@ -13166,7 +13166,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -13189,7 +13189,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="n">
-        <v>13271</v>
+        <v>13453</v>
       </c>
     </row>
     <row r="378">
@@ -13812,7 +13812,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -13835,7 +13835,7 @@
         <v>0</v>
       </c>
       <c r="H396" t="n">
-        <v>42963</v>
+        <v>43455</v>
       </c>
     </row>
     <row r="397">
@@ -13982,7 +13982,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -14005,7 +14005,7 @@
         <v>0</v>
       </c>
       <c r="H401" t="n">
-        <v>29239</v>
+        <v>29421</v>
       </c>
     </row>
     <row r="402">
@@ -14288,7 +14288,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -14311,7 +14311,7 @@
         <v>0</v>
       </c>
       <c r="H410" t="n">
-        <v>27135</v>
+        <v>27136</v>
       </c>
     </row>
     <row r="411">
@@ -14492,7 +14492,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -14515,7 +14515,7 @@
         <v>0</v>
       </c>
       <c r="H416" t="n">
-        <v>25040</v>
+        <v>25341</v>
       </c>
     </row>
     <row r="417">
@@ -14594,7 +14594,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>2024/11/04</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -14617,7 +14617,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="n">
-        <v>61001</v>
+        <v>61606</v>
       </c>
     </row>
     <row r="420">
@@ -14696,7 +14696,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -14934,7 +14934,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -14957,7 +14957,7 @@
         <v>0</v>
       </c>
       <c r="H429" t="n">
-        <v>15387</v>
+        <v>15575</v>
       </c>
     </row>
     <row r="430">
@@ -15036,7 +15036,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -15059,7 +15059,7 @@
         <v>0</v>
       </c>
       <c r="H432" t="n">
-        <v>24301</v>
+        <v>24572</v>
       </c>
     </row>
     <row r="433">
@@ -15206,7 +15206,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>2024/08/29</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -15229,7 +15229,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="n">
-        <v>20465</v>
+        <v>21164</v>
       </c>
     </row>
     <row r="438">
@@ -15376,7 +15376,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -16192,7 +16192,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -16215,7 +16215,7 @@
         <v>0</v>
       </c>
       <c r="H466" t="n">
-        <v>35690</v>
+        <v>36081</v>
       </c>
     </row>
     <row r="467">
@@ -16294,7 +16294,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -16317,7 +16317,7 @@
         <v>0</v>
       </c>
       <c r="H469" t="n">
-        <v>17554</v>
+        <v>17819</v>
       </c>
     </row>
     <row r="470">
@@ -16362,7 +16362,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -16385,7 +16385,7 @@
         <v>0</v>
       </c>
       <c r="H471" t="n">
-        <v>10553</v>
+        <v>12011</v>
       </c>
     </row>
     <row r="472">
@@ -16532,7 +16532,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -16623,7 +16623,7 @@
         <v>0</v>
       </c>
       <c r="H478" t="n">
-        <v>27122</v>
+        <v>27121</v>
       </c>
     </row>
     <row r="479">
@@ -16736,7 +16736,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -16759,7 +16759,7 @@
         <v>0</v>
       </c>
       <c r="H482" t="n">
-        <v>5330</v>
+        <v>5808</v>
       </c>
     </row>
     <row r="483">
@@ -17008,7 +17008,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -17144,7 +17144,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -17167,7 +17167,7 @@
         <v>0</v>
       </c>
       <c r="H494" t="n">
-        <v>365</v>
+        <v>375</v>
       </c>
     </row>
     <row r="495">
@@ -17314,7 +17314,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -17337,7 +17337,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="n">
-        <v>5888</v>
+        <v>5948</v>
       </c>
     </row>
     <row r="500">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>2024/10/22</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -17439,7 +17439,7 @@
         <v>0</v>
       </c>
       <c r="H502" t="n">
-        <v>37792</v>
+        <v>37808</v>
       </c>
     </row>
     <row r="503">
@@ -17450,7 +17450,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>2024/11/04</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -17473,7 +17473,7 @@
         <v>0</v>
       </c>
       <c r="H503" t="n">
-        <v>33006</v>
+        <v>33008</v>
       </c>
     </row>
     <row r="504">
@@ -17586,7 +17586,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -17609,7 +17609,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="n">
-        <v>14511</v>
+        <v>14661</v>
       </c>
     </row>
     <row r="508">
@@ -17858,7 +17858,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>2024/09/02</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -17892,7 +17892,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -17915,7 +17915,7 @@
         <v>0</v>
       </c>
       <c r="H516" t="n">
-        <v>18079</v>
+        <v>18252</v>
       </c>
     </row>
     <row r="517">
@@ -18062,7 +18062,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -18164,7 +18164,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -18538,7 +18538,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -18561,7 +18561,7 @@
         <v>0</v>
       </c>
       <c r="H535" t="n">
-        <v>34627</v>
+        <v>34631</v>
       </c>
     </row>
     <row r="536">
@@ -18708,7 +18708,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>2024/11/02</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -18731,7 +18731,7 @@
         <v>0</v>
       </c>
       <c r="H540" t="n">
-        <v>2931</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="541">
@@ -18844,7 +18844,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -18867,7 +18867,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="n">
-        <v>35662</v>
+        <v>35949</v>
       </c>
     </row>
     <row r="545">
@@ -18912,7 +18912,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -18946,7 +18946,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -18969,7 +18969,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="n">
-        <v>25566</v>
+        <v>25865</v>
       </c>
     </row>
     <row r="548">
@@ -19116,7 +19116,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -19139,7 +19139,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="n">
-        <v>1658</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="553">
@@ -19150,7 +19150,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -19173,7 +19173,7 @@
         <v>0</v>
       </c>
       <c r="H553" t="n">
-        <v>1854</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="554">
@@ -19184,7 +19184,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -19207,7 +19207,7 @@
         <v>0</v>
       </c>
       <c r="H554" t="n">
-        <v>42881</v>
+        <v>43272</v>
       </c>
     </row>
     <row r="555">
@@ -19626,7 +19626,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -19660,7 +19660,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -19683,7 +19683,7 @@
         <v>0</v>
       </c>
       <c r="H568" t="n">
-        <v>18170</v>
+        <v>18173</v>
       </c>
     </row>
     <row r="569">
@@ -20000,7 +20000,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -20023,7 +20023,7 @@
         <v>0</v>
       </c>
       <c r="H578" t="n">
-        <v>18476</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="579">
@@ -20204,7 +20204,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>2024/09/22</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -20227,7 +20227,7 @@
         <v>0</v>
       </c>
       <c r="H584" t="n">
-        <v>13160</v>
+        <v>13301</v>
       </c>
     </row>
     <row r="585">
@@ -20272,7 +20272,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>2024/11/09</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -20295,7 +20295,7 @@
         <v>0</v>
       </c>
       <c r="H586" t="n">
-        <v>92688</v>
+        <v>95095</v>
       </c>
     </row>
     <row r="587">
@@ -20748,7 +20748,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
@@ -20771,7 +20771,7 @@
         <v>0</v>
       </c>
       <c r="H600" t="n">
-        <v>56950</v>
+        <v>56961</v>
       </c>
     </row>
     <row r="601">
@@ -20816,7 +20816,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -20839,7 +20839,7 @@
         <v>0</v>
       </c>
       <c r="H602" t="n">
-        <v>39338</v>
+        <v>39431</v>
       </c>
     </row>
     <row r="603">
@@ -21394,7 +21394,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -21417,7 +21417,7 @@
         <v>0</v>
       </c>
       <c r="H619" t="n">
-        <v>39759</v>
+        <v>39760</v>
       </c>
     </row>
     <row r="620">
@@ -21428,7 +21428,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>2024/10/12</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -21451,7 +21451,7 @@
         <v>0</v>
       </c>
       <c r="H620" t="n">
-        <v>4338</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="621">
@@ -21530,7 +21530,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -21802,7 +21802,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -21825,7 +21825,7 @@
         <v>0</v>
       </c>
       <c r="H631" t="n">
-        <v>37314</v>
+        <v>37664</v>
       </c>
     </row>
     <row r="632">
@@ -22074,7 +22074,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>2024/11/05</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -22097,7 +22097,7 @@
         <v>0</v>
       </c>
       <c r="H639" t="n">
-        <v>140791</v>
+        <v>141536</v>
       </c>
     </row>
     <row r="640">

--- a/consolidado_historico4.xlsx
+++ b/consolidado_historico4.xlsx
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>234023</v>
+        <v>236600</v>
       </c>
     </row>
     <row r="21">
@@ -3748,7 +3748,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>2397</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="101">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2024/10/29</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>2083</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="102">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>59076</v>
+        <v>59692</v>
       </c>
     </row>
     <row r="119">
@@ -4598,7 +4598,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>26533</v>
+        <v>26840</v>
       </c>
     </row>
     <row r="126">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>47580</v>
+        <v>48770</v>
       </c>
     </row>
     <row r="132">
@@ -5074,7 +5074,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5097,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>29773</v>
+        <v>31196</v>
       </c>
     </row>
     <row r="140">
@@ -6026,7 +6026,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>518</v>
+        <v>566</v>
       </c>
     </row>
     <row r="168">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2024/10/02</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -8508,7 +8508,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -9290,7 +9290,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>2024/10/25</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -9313,7 +9313,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="n">
-        <v>268</v>
+        <v>302</v>
       </c>
     </row>
     <row r="264">
@@ -9426,7 +9426,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -9936,7 +9936,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>2024/11/05</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -9959,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="n">
-        <v>840</v>
+        <v>880</v>
       </c>
     </row>
     <row r="283">
@@ -10378,7 +10378,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>2024/09/17</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -10401,7 +10401,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="296">
@@ -12248,7 +12248,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>2024/10/12</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -12271,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="H350" t="n">
-        <v>14004</v>
+        <v>14165</v>
       </c>
     </row>
     <row r="351">
@@ -13642,7 +13642,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -13665,7 +13665,7 @@
         <v>0</v>
       </c>
       <c r="H391" t="n">
-        <v>7043</v>
+        <v>7105</v>
       </c>
     </row>
     <row r="392">
@@ -14356,7 +14356,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>2024/11/05</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -14379,7 +14379,7 @@
         <v>0</v>
       </c>
       <c r="H412" t="n">
-        <v>7016</v>
+        <v>7111</v>
       </c>
     </row>
     <row r="413">
@@ -14594,7 +14594,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>2024/11/22</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -14617,7 +14617,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="n">
-        <v>61606</v>
+        <v>61610</v>
       </c>
     </row>
     <row r="420">
@@ -14730,7 +14730,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -14753,7 +14753,7 @@
         <v>0</v>
       </c>
       <c r="H423" t="n">
-        <v>10974</v>
+        <v>10978</v>
       </c>
     </row>
     <row r="424">
@@ -15070,7 +15070,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>2024/10/26</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -15580,7 +15580,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -15603,7 +15603,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="n">
-        <v>14062</v>
+        <v>14162</v>
       </c>
     </row>
     <row r="449">
@@ -15716,7 +15716,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -15739,7 +15739,7 @@
         <v>0</v>
       </c>
       <c r="H452" t="n">
-        <v>6479</v>
+        <v>6486</v>
       </c>
     </row>
     <row r="453">
@@ -15818,7 +15818,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -15841,7 +15841,7 @@
         <v>0</v>
       </c>
       <c r="H455" t="n">
-        <v>8489</v>
+        <v>8603</v>
       </c>
     </row>
     <row r="456">
@@ -15988,7 +15988,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/23</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -16011,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="n">
-        <v>39421</v>
+        <v>39954</v>
       </c>
     </row>
     <row r="461">
@@ -16362,7 +16362,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -16566,7 +16566,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>2024/10/29</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -17450,7 +17450,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -17473,7 +17473,7 @@
         <v>0</v>
       </c>
       <c r="H503" t="n">
-        <v>33008</v>
+        <v>34147</v>
       </c>
     </row>
     <row r="504">
@@ -17620,7 +17620,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>2024/11/05</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -17643,7 +17643,7 @@
         <v>0</v>
       </c>
       <c r="H508" t="n">
-        <v>10692</v>
+        <v>10836</v>
       </c>
     </row>
     <row r="509">
@@ -17960,7 +17960,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -17983,7 +17983,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="n">
-        <v>69038</v>
+        <v>69157</v>
       </c>
     </row>
     <row r="519">
@@ -18028,7 +18028,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -18096,7 +18096,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>2024/11/05</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -18119,7 +18119,7 @@
         <v>0</v>
       </c>
       <c r="H522" t="n">
-        <v>19665</v>
+        <v>19908</v>
       </c>
     </row>
     <row r="523">
@@ -18300,7 +18300,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -18323,7 +18323,7 @@
         <v>0</v>
       </c>
       <c r="H528" t="n">
-        <v>7350</v>
+        <v>7351</v>
       </c>
     </row>
     <row r="529">
@@ -18504,7 +18504,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -18527,7 +18527,7 @@
         <v>0</v>
       </c>
       <c r="H534" t="n">
-        <v>11904</v>
+        <v>11983</v>
       </c>
     </row>
     <row r="535">
@@ -19660,7 +19660,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -19683,7 +19683,7 @@
         <v>0</v>
       </c>
       <c r="H568" t="n">
-        <v>18173</v>
+        <v>18737</v>
       </c>
     </row>
     <row r="569">
@@ -20136,7 +20136,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -20159,7 +20159,7 @@
         <v>0</v>
       </c>
       <c r="H582" t="n">
-        <v>13601</v>
+        <v>13738</v>
       </c>
     </row>
     <row r="583">
@@ -20272,7 +20272,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>2024/11/20</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -20408,7 +20408,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>2024/10/29</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -20431,7 +20431,7 @@
         <v>0</v>
       </c>
       <c r="H590" t="n">
-        <v>32014</v>
+        <v>32326</v>
       </c>
     </row>
     <row r="591">
@@ -20544,7 +20544,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -20567,7 +20567,7 @@
         <v>0</v>
       </c>
       <c r="H594" t="n">
-        <v>13574</v>
+        <v>13695</v>
       </c>
     </row>
     <row r="595">
@@ -20714,7 +20714,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -20737,7 +20737,7 @@
         <v>0</v>
       </c>
       <c r="H599" t="n">
-        <v>24550</v>
+        <v>24552</v>
       </c>
     </row>
     <row r="600">
@@ -20816,7 +20816,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -20839,7 +20839,7 @@
         <v>0</v>
       </c>
       <c r="H602" t="n">
-        <v>39431</v>
+        <v>39509</v>
       </c>
     </row>
     <row r="603">
@@ -21394,7 +21394,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>2024/11/20</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -21519,7 +21519,7 @@
         <v>0</v>
       </c>
       <c r="H622" t="n">
-        <v>20136</v>
+        <v>20158</v>
       </c>
     </row>
     <row r="623">
@@ -21768,7 +21768,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -21791,7 +21791,7 @@
         <v>0</v>
       </c>
       <c r="H630" t="n">
-        <v>43393</v>
+        <v>43789</v>
       </c>
     </row>
     <row r="631">
@@ -22210,7 +22210,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
@@ -22233,7 +22233,7 @@
         <v>0</v>
       </c>
       <c r="H643" t="n">
-        <v>8361</v>
+        <v>8362</v>
       </c>
     </row>
     <row r="644">
@@ -22380,7 +22380,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">

--- a/consolidado_historico4.xlsx
+++ b/consolidado_historico4.xlsx
@@ -416,7 +416,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024/12/03</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>236600</v>
+        <v>239207</v>
       </c>
     </row>
     <row r="21">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024/12/02</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>95234</v>
+        <v>96953</v>
       </c>
     </row>
     <row r="38">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>1674</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="43">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2024/11/04</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>3383</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="54">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
     </row>
     <row r="86">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>2383</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="100">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2024/11/26</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2024/11/05</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>6690</v>
+        <v>6809</v>
       </c>
     </row>
     <row r="103">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2024/12/03</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>117551</v>
+        <v>119147</v>
       </c>
     </row>
     <row r="111">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4655,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>26840</v>
+        <v>27154</v>
       </c>
     </row>
     <row r="127">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>70028</v>
+        <v>71015</v>
       </c>
     </row>
     <row r="128">
@@ -4904,7 +4904,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4927,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>20610</v>
+        <v>20843</v>
       </c>
     </row>
     <row r="135">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4961,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>51374</v>
+        <v>52091</v>
       </c>
     </row>
     <row r="136">
@@ -5074,7 +5074,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5097,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>162792</v>
+        <v>163989</v>
       </c>
     </row>
     <row r="140">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2024/12/16</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>5824</v>
+        <v>5831</v>
       </c>
     </row>
     <row r="149">
@@ -5657,7 +5657,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Deportes Rancagua</t>
+          <t>Corporación Municipal de Deportes de Rancagua</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2024/12/07</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>729</v>
+        <v>857</v>
       </c>
     </row>
     <row r="158">
@@ -5856,7 +5856,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>2720</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="163">
@@ -5924,7 +5924,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5947,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>1171</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="165">
@@ -6298,7 +6298,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6321,7 +6321,7 @@
         <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>742</v>
+        <v>773</v>
       </c>
     </row>
     <row r="176">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6729,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="n">
-        <v>1263</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="188">
@@ -7182,7 +7182,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -7205,7 +7205,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="n">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="202">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2024/11/04</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -7443,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="n">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="209">
@@ -7590,7 +7590,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -7828,7 +7828,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2024/10/03</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>145</v>
+        <v>166</v>
       </c>
     </row>
     <row r="221">
@@ -8202,7 +8202,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -8225,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="H231" t="n">
-        <v>2878</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="232">
@@ -8644,7 +8644,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>2024/11/20</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="n">
-        <v>2343</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="245">
@@ -9290,7 +9290,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -9313,7 +9313,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="n">
-        <v>2166</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="264">
@@ -9800,7 +9800,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -9823,7 +9823,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="n">
-        <v>2392</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="279">
@@ -10990,7 +10990,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>2024/11/10</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -11013,7 +11013,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="314">
@@ -11874,7 +11874,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>2024/11/17</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -11897,7 +11897,7 @@
         <v>0</v>
       </c>
       <c r="H339" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="340">
@@ -12248,7 +12248,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -12271,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="H350" t="n">
-        <v>1565</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="351">
@@ -12384,7 +12384,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -12407,7 +12407,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="n">
-        <v>3346</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="355">
@@ -12452,7 +12452,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -12554,7 +12554,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>2024/11/08</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -12577,7 +12577,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="n">
-        <v>34124</v>
+        <v>34136</v>
       </c>
     </row>
     <row r="360">
@@ -12656,7 +12656,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>2024/12/14</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -13030,7 +13030,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -13053,7 +13053,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="n">
-        <v>33014</v>
+        <v>33346</v>
       </c>
     </row>
     <row r="374">
@@ -13200,7 +13200,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -13223,7 +13223,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="379">
@@ -13234,7 +13234,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -13438,7 +13438,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -13461,7 +13461,7 @@
         <v>0</v>
       </c>
       <c r="H385" t="n">
-        <v>178805</v>
+        <v>180940</v>
       </c>
     </row>
     <row r="386">
@@ -13472,7 +13472,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -13495,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="H386" t="n">
-        <v>11840</v>
+        <v>12063</v>
       </c>
     </row>
     <row r="387">
@@ -14390,7 +14390,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>2024/12/06</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -14413,7 +14413,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="n">
-        <v>4320</v>
+        <v>5436</v>
       </c>
     </row>
     <row r="414">
@@ -14560,7 +14560,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>2024/11/20</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -14583,7 +14583,7 @@
         <v>0</v>
       </c>
       <c r="H418" t="n">
-        <v>25341</v>
+        <v>25647</v>
       </c>
     </row>
     <row r="419">
@@ -14798,7 +14798,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>2024/12/05</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -14821,7 +14821,7 @@
         <v>0</v>
       </c>
       <c r="H425" t="n">
-        <v>10978</v>
+        <v>10982</v>
       </c>
     </row>
     <row r="426">
@@ -14900,7 +14900,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -14923,7 +14923,7 @@
         <v>0</v>
       </c>
       <c r="H428" t="n">
-        <v>3646</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="429">
@@ -15036,7 +15036,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -15059,7 +15059,7 @@
         <v>0</v>
       </c>
       <c r="H432" t="n">
-        <v>6121</v>
+        <v>6193</v>
       </c>
     </row>
     <row r="433">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>2024/12/16</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -15807,7 +15807,7 @@
         <v>0</v>
       </c>
       <c r="H454" t="n">
-        <v>6486</v>
+        <v>6487</v>
       </c>
     </row>
     <row r="455">
@@ -15954,7 +15954,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>2024/12/16</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -15977,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="H459" t="n">
-        <v>52804</v>
+        <v>52821</v>
       </c>
     </row>
     <row r="460">
@@ -16226,7 +16226,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>2024/12/06</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -16249,7 +16249,7 @@
         <v>0</v>
       </c>
       <c r="H467" t="n">
-        <v>11791</v>
+        <v>11794</v>
       </c>
     </row>
     <row r="468">
@@ -16260,7 +16260,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -16283,7 +16283,7 @@
         <v>0</v>
       </c>
       <c r="H468" t="n">
-        <v>36082</v>
+        <v>36469</v>
       </c>
     </row>
     <row r="469">
@@ -16464,7 +16464,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -16487,7 +16487,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="n">
-        <v>10130</v>
+        <v>10231</v>
       </c>
     </row>
     <row r="475">
@@ -16634,7 +16634,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>2024/11/26</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -16657,7 +16657,7 @@
         <v>0</v>
       </c>
       <c r="H479" t="n">
-        <v>11152</v>
+        <v>11385</v>
       </c>
     </row>
     <row r="480">
@@ -16702,7 +16702,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -16725,7 +16725,7 @@
         <v>0</v>
       </c>
       <c r="H481" t="n">
-        <v>25522</v>
+        <v>26103</v>
       </c>
     </row>
     <row r="482">
@@ -17013,7 +17013,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>Municipalidad de Macul</t>
+          <t>I. Municipalidad de Macul</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
@@ -17110,7 +17110,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>2024/10/24</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -17133,7 +17133,7 @@
         <v>0</v>
       </c>
       <c r="H493" t="n">
-        <v>15918</v>
+        <v>16073</v>
       </c>
     </row>
     <row r="494">
@@ -17178,7 +17178,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -17201,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="H495" t="n">
-        <v>1419</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="496">
@@ -17212,7 +17212,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -17235,7 +17235,7 @@
         <v>0</v>
       </c>
       <c r="H496" t="n">
-        <v>375</v>
+        <v>388</v>
       </c>
     </row>
     <row r="497">
@@ -17382,7 +17382,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>2024/11/20</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -17405,7 +17405,7 @@
         <v>0</v>
       </c>
       <c r="H501" t="n">
-        <v>5948</v>
+        <v>6007</v>
       </c>
     </row>
     <row r="502">
@@ -17484,7 +17484,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>2024/12/04</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -17507,7 +17507,7 @@
         <v>0</v>
       </c>
       <c r="H504" t="n">
-        <v>38371</v>
+        <v>38950</v>
       </c>
     </row>
     <row r="505">
@@ -17518,7 +17518,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>2024/11/29</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -17586,7 +17586,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -17609,7 +17609,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="n">
-        <v>37389</v>
+        <v>37778</v>
       </c>
     </row>
     <row r="508">
@@ -17654,7 +17654,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -17677,7 +17677,7 @@
         <v>0</v>
       </c>
       <c r="H509" t="n">
-        <v>14661</v>
+        <v>14810</v>
       </c>
     </row>
     <row r="510">
@@ -17688,7 +17688,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>2024/11/26</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -17711,7 +17711,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="n">
-        <v>10836</v>
+        <v>10980</v>
       </c>
     </row>
     <row r="511">
@@ -17722,7 +17722,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>2024/12/16</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -17745,7 +17745,7 @@
         <v>0</v>
       </c>
       <c r="H511" t="n">
-        <v>4719</v>
+        <v>4833</v>
       </c>
     </row>
     <row r="512">
@@ -17824,7 +17824,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -17847,7 +17847,7 @@
         <v>0</v>
       </c>
       <c r="H514" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="515">
@@ -17960,7 +17960,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -17983,7 +17983,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="n">
-        <v>18252</v>
+        <v>18426</v>
       </c>
     </row>
     <row r="519">
@@ -18130,7 +18130,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -18504,7 +18504,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -18527,7 +18527,7 @@
         <v>0</v>
       </c>
       <c r="H534" t="n">
-        <v>11916</v>
+        <v>11919</v>
       </c>
     </row>
     <row r="535">
@@ -18606,7 +18606,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>2024/11/27</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -18629,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="H537" t="n">
-        <v>11983</v>
+        <v>12063</v>
       </c>
     </row>
     <row r="538">
@@ -18640,7 +18640,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -18663,7 +18663,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="n">
-        <v>34631</v>
+        <v>35038</v>
       </c>
     </row>
     <row r="539">
@@ -18810,7 +18810,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>2024/11/20</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -18833,7 +18833,7 @@
         <v>0</v>
       </c>
       <c r="H543" t="n">
-        <v>3060</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="544">
@@ -18844,7 +18844,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -18867,7 +18867,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="n">
-        <v>19573</v>
+        <v>19609</v>
       </c>
     </row>
     <row r="545">
@@ -19490,7 +19490,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>2024/12/03</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -19513,7 +19513,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="n">
-        <v>16029</v>
+        <v>16038</v>
       </c>
     </row>
     <row r="564">
@@ -19558,7 +19558,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -19581,7 +19581,7 @@
         <v>0</v>
       </c>
       <c r="H565" t="n">
-        <v>18728</v>
+        <v>18729</v>
       </c>
     </row>
     <row r="566">
@@ -19592,7 +19592,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -19615,7 +19615,7 @@
         <v>0</v>
       </c>
       <c r="H566" t="n">
-        <v>4392</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="567">
@@ -19796,7 +19796,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>2024/11/05</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -20068,7 +20068,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -20091,7 +20091,7 @@
         <v>0</v>
       </c>
       <c r="H580" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="581">
@@ -20102,7 +20102,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -20125,7 +20125,7 @@
         <v>0</v>
       </c>
       <c r="H581" t="n">
-        <v>18725</v>
+        <v>18973</v>
       </c>
     </row>
     <row r="582">
@@ -20170,7 +20170,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -20193,7 +20193,7 @@
         <v>0</v>
       </c>
       <c r="H583" t="n">
-        <v>26810</v>
+        <v>27066</v>
       </c>
     </row>
     <row r="584">
@@ -20272,7 +20272,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -20295,7 +20295,7 @@
         <v>0</v>
       </c>
       <c r="H586" t="n">
-        <v>10999</v>
+        <v>11136</v>
       </c>
     </row>
     <row r="587">
@@ -21428,7 +21428,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -21451,7 +21451,7 @@
         <v>0</v>
       </c>
       <c r="H620" t="n">
-        <v>14885</v>
+        <v>14887</v>
       </c>
     </row>
     <row r="621">
@@ -21666,7 +21666,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -21689,7 +21689,7 @@
         <v>0</v>
       </c>
       <c r="H627" t="n">
-        <v>193212</v>
+        <v>195008</v>
       </c>
     </row>
     <row r="628">
@@ -21870,7 +21870,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>2024/12/03</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -21893,7 +21893,7 @@
         <v>0</v>
       </c>
       <c r="H633" t="n">
-        <v>43907</v>
+        <v>43926</v>
       </c>
     </row>
     <row r="634">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
@@ -22335,7 +22335,7 @@
         <v>0</v>
       </c>
       <c r="H646" t="n">
-        <v>8362</v>
+        <v>8446</v>
       </c>
     </row>
     <row r="647">
@@ -22788,7 +22788,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
@@ -22811,7 +22811,7 @@
         <v>0</v>
       </c>
       <c r="H660" t="n">
-        <v>24984</v>
+        <v>25250</v>
       </c>
     </row>
     <row r="661">

--- a/consolidado_historico4.xlsx
+++ b/consolidado_historico4.xlsx
@@ -416,7 +416,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024/12/16</t>
+          <t>2024/12/24</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2024/12/23</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2024/12/19</t>
+          <t>2024/12/27</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>2137</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="102">
@@ -3952,7 +3952,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2024/12/02</t>
+          <t>2024/12/23</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>1015</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="107">
@@ -4292,7 +4292,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/12/23</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>33506</v>
+        <v>33528</v>
       </c>
     </row>
     <row r="117">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2024/12/26</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4451,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>15962</v>
+        <v>16254</v>
       </c>
     </row>
     <row r="121">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2024/12/03</t>
+          <t>2024/12/23</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>49351</v>
+        <v>49946</v>
       </c>
     </row>
     <row r="133">
@@ -6060,7 +6060,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2024/11/26</t>
+          <t>2024/12/24</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>566</v>
+        <v>590</v>
       </c>
     </row>
     <row r="169">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2024/11/05</t>
+          <t>2024/12/26</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6219,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="173">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/12/21</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/25</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6967,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>348</v>
+        <v>364</v>
       </c>
     </row>
     <row r="195">
@@ -9800,7 +9800,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>2024/12/19</t>
+          <t>2024/12/23</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -9823,7 +9823,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="n">
-        <v>2433</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="279">
@@ -10038,7 +10038,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>2024/10/29</t>
+          <t>2024/12/27</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -10061,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="H285" t="n">
-        <v>1317</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="286">
@@ -10752,7 +10752,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/12/24</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="H306" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="307">
@@ -11432,7 +11432,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/12/26</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -11670,7 +11670,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/12/27</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -11693,7 +11693,7 @@
         <v>0</v>
       </c>
       <c r="H333" t="n">
-        <v>905</v>
+        <v>925</v>
       </c>
     </row>
     <row r="334">
@@ -12146,7 +12146,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>2024/12/03</t>
+          <t>2024/12/27</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -12350,7 +12350,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>2024/12/09</t>
+          <t>2024/12/26</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -14526,7 +14526,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/26</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -14549,7 +14549,7 @@
         <v>0</v>
       </c>
       <c r="H417" t="n">
-        <v>10330</v>
+        <v>10346</v>
       </c>
     </row>
     <row r="418">
@@ -15138,7 +15138,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>2024/11/27</t>
+          <t>2024/12/26</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -15648,7 +15648,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>2024/11/25</t>
+          <t>2024/12/26</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -15671,7 +15671,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="n">
-        <v>14162</v>
+        <v>14262</v>
       </c>
     </row>
     <row r="451">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>2024/12/20</t>
+          <t>2024/12/26</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -15807,7 +15807,7 @@
         <v>0</v>
       </c>
       <c r="H454" t="n">
-        <v>6487</v>
+        <v>6557</v>
       </c>
     </row>
     <row r="455">
@@ -15886,7 +15886,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>2024/11/25</t>
+          <t>2024/12/26</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -15909,7 +15909,7 @@
         <v>0</v>
       </c>
       <c r="H457" t="n">
-        <v>8603</v>
+        <v>8718</v>
       </c>
     </row>
     <row r="458">
@@ -16294,7 +16294,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>2024/12/11</t>
+          <t>2024/12/23</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -16317,7 +16317,7 @@
         <v>0</v>
       </c>
       <c r="H469" t="n">
-        <v>52369</v>
+        <v>52924</v>
       </c>
     </row>
     <row r="470">
@@ -16838,7 +16838,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/12/24</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -16861,7 +16861,7 @@
         <v>0</v>
       </c>
       <c r="H485" t="n">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="486">
@@ -17552,7 +17552,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2024/12/24</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -17575,7 +17575,7 @@
         <v>0</v>
       </c>
       <c r="H506" t="n">
-        <v>51921</v>
+        <v>51923</v>
       </c>
     </row>
     <row r="507">
@@ -18096,7 +18096,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>2024/12/16</t>
+          <t>2024/12/27</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -18164,7 +18164,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>2024/11/28</t>
+          <t>2024/12/23</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -18187,7 +18187,7 @@
         <v>0</v>
       </c>
       <c r="H524" t="n">
-        <v>19908</v>
+        <v>20152</v>
       </c>
     </row>
     <row r="525">
@@ -18198,7 +18198,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/24</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -18980,7 +18980,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>2024/12/03</t>
+          <t>2024/12/24</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -19003,7 +19003,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="n">
-        <v>18926</v>
+        <v>18943</v>
       </c>
     </row>
     <row r="549">
@@ -20476,7 +20476,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>2024/10/29</t>
+          <t>2024/12/24</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -20499,7 +20499,7 @@
         <v>0</v>
       </c>
       <c r="H592" t="n">
-        <v>3370</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="593">
@@ -21530,7 +21530,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/12/21</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -21553,7 +21553,7 @@
         <v>0</v>
       </c>
       <c r="H623" t="n">
-        <v>4400</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="624">

--- a/consolidado_historico4.xlsx
+++ b/consolidado_historico4.xlsx
@@ -654,7 +654,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024/10/28</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
@@ -756,7 +756,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024/12/19</t>
+          <t>2025/01/01</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024/12/17</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2024/12/04</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3952,7 +3952,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2024/12/23</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2024/11/29</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>59692</v>
+        <v>60386</v>
       </c>
     </row>
     <row r="120">
@@ -4598,7 +4598,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2024/10/25</t>
+          <t>2024/12/30</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>47158</v>
+        <v>48181</v>
       </c>
     </row>
     <row r="126">
@@ -5074,7 +5074,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2024/12/17</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5097,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>163989</v>
+        <v>164024</v>
       </c>
     </row>
     <row r="140">
@@ -5550,7 +5550,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5573,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="154">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2024/12/09</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6185,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="172">
@@ -6434,7 +6434,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -6457,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>471</v>
+        <v>488</v>
       </c>
     </row>
     <row r="180">
@@ -7828,7 +7828,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2024/12/20</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -8474,7 +8474,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2024/12/02</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -8497,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="H239" t="n">
-        <v>1506</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="240">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/12/28</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -8599,7 +8599,7 @@
         <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>409</v>
+        <v>430</v>
       </c>
     </row>
     <row r="243">
@@ -9086,7 +9086,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="258">
@@ -9766,7 +9766,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>2024/12/04</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="n">
-        <v>5232</v>
+        <v>5356</v>
       </c>
     </row>
     <row r="278">
@@ -9834,7 +9834,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/30</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -9857,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="n">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="280">
@@ -10038,7 +10038,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>2024/12/27</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -10061,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="H285" t="n">
-        <v>1472</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="286">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>2024/12/05</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -10231,7 +10231,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="291">
@@ -10310,7 +10310,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>2024/12/05</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>2024/12/04</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -10571,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="H300" t="n">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="301">
@@ -10616,7 +10616,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>2024/10/24</t>
+          <t>2024/12/30</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -10639,7 +10639,7 @@
         <v>0</v>
       </c>
       <c r="H302" t="n">
-        <v>2209</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="303">
@@ -11262,7 +11262,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="H324" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="325">
@@ -12146,7 +12146,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>2024/12/27</t>
+          <t>2024/12/30</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -12169,7 +12169,7 @@
         <v>0</v>
       </c>
       <c r="H347" t="n">
-        <v>180</v>
+        <v>201</v>
       </c>
     </row>
     <row r="348">
@@ -13098,7 +13098,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>2024/12/11</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -13121,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="n">
-        <v>19597</v>
+        <v>19598</v>
       </c>
     </row>
     <row r="376">
@@ -14424,7 +14424,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="H414" t="n">
-        <v>7204</v>
+        <v>7292</v>
       </c>
     </row>
     <row r="415">
@@ -14662,7 +14662,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>2024/12/03</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -14685,7 +14685,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="n">
-        <v>61814</v>
+        <v>62417</v>
       </c>
     </row>
     <row r="422">
@@ -14798,7 +14798,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>2024/12/16</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -14821,7 +14821,7 @@
         <v>0</v>
       </c>
       <c r="H425" t="n">
-        <v>10982</v>
+        <v>10997</v>
       </c>
     </row>
     <row r="426">
@@ -15852,7 +15852,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -16056,7 +16056,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>2024/11/23</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -16079,7 +16079,7 @@
         <v>0</v>
       </c>
       <c r="H462" t="n">
-        <v>39954</v>
+        <v>40494</v>
       </c>
     </row>
     <row r="463">
@@ -16090,7 +16090,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -16124,7 +16124,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -16147,7 +16147,7 @@
         <v>0</v>
       </c>
       <c r="H464" t="n">
-        <v>4337</v>
+        <v>4339</v>
       </c>
     </row>
     <row r="465">
@@ -16736,7 +16736,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -17518,7 +17518,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>2024/12/17</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -17541,7 +17541,7 @@
         <v>0</v>
       </c>
       <c r="H505" t="n">
-        <v>34147</v>
+        <v>34149</v>
       </c>
     </row>
     <row r="506">
@@ -17552,7 +17552,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>2024/12/24</t>
+          <t>2024/12/30</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -17575,7 +17575,7 @@
         <v>0</v>
       </c>
       <c r="H506" t="n">
-        <v>51923</v>
+        <v>51925</v>
       </c>
     </row>
     <row r="507">
@@ -17926,7 +17926,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>2024/12/02</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -18096,7 +18096,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>2024/12/27</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -18300,7 +18300,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>2024/12/02</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -18980,7 +18980,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>2024/12/24</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -19728,7 +19728,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>2024/12/09</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -19796,7 +19796,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>2024/12/17</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -20510,7 +20510,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>2024/12/11</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -20533,7 +20533,7 @@
         <v>0</v>
       </c>
       <c r="H593" t="n">
-        <v>32329</v>
+        <v>32636</v>
       </c>
     </row>
     <row r="594">
@@ -20544,7 +20544,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>2024/12/16</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -20567,7 +20567,7 @@
         <v>0</v>
       </c>
       <c r="H594" t="n">
-        <v>22452</v>
+        <v>22783</v>
       </c>
     </row>
     <row r="595">
@@ -20782,7 +20782,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/12/30</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -20805,7 +20805,7 @@
         <v>0</v>
       </c>
       <c r="H601" t="n">
-        <v>21038</v>
+        <v>21383</v>
       </c>
     </row>
     <row r="602">
@@ -20918,7 +20918,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -20941,7 +20941,7 @@
         <v>0</v>
       </c>
       <c r="H605" t="n">
-        <v>39539</v>
+        <v>39616</v>
       </c>
     </row>
     <row r="606">
@@ -21394,7 +21394,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -21417,7 +21417,7 @@
         <v>0</v>
       </c>
       <c r="H619" t="n">
-        <v>8897</v>
+        <v>8995</v>
       </c>
     </row>
     <row r="620">
@@ -21598,7 +21598,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>2024/11/28</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -21621,7 +21621,7 @@
         <v>0</v>
       </c>
       <c r="H625" t="n">
-        <v>20158</v>
+        <v>20181</v>
       </c>
     </row>
     <row r="626">
@@ -21870,7 +21870,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>2024/12/17</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -21893,7 +21893,7 @@
         <v>0</v>
       </c>
       <c r="H633" t="n">
-        <v>43926</v>
+        <v>44011</v>
       </c>
     </row>
     <row r="634">
@@ -22516,7 +22516,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>2017/03/09</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
@@ -22539,7 +22539,7 @@
         <v>0</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="653">
@@ -22822,7 +22822,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
